--- a/기사데이터/토스/엑셀파일/news(토스, 2023.03.01~2023.03.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.03.01~2023.03.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>당국 압박에 백기든 네카토… "보험 비교·추천 수수료, 10% 이하로"</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000903184?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>빅테크가 보험 비교, 추천 서비스에 따른 수수료를 10% 이하로 협의하겠다는 의사를 금융위원회에 전했다./그래픽=머니S DB 보험 비교·추천 서비스 계약 체결당 수수료율을 두고 네이버와 카카오, 토스 등 빅테크들이 한 발 물러섰다. 빅테크사들은 금융위원회에 수수료율을 10% 이하로 협의하겠다는 의사를 전했다. 그동안 수수료율로 10% 이상을 주장했던 빅테크사들이 입장을 선회한 것을 두고 금융권에서는 "수익 창출할 생각을 당분간 접어두라"는 당국의 압박이 통한 것으로 보고 있다.  14일 금융권에 따르면 한국핀테크산업협회(핀산협)는 최근 보험 비교·추천 수수료율과 관련해 "10% 이하 수수료율에 공감대를 이뤘다"는 의사를 금융위원회에 전달했다. 이는 네이버와 카카오, 토스 등 플랫폼업계 실무자들의 의견을 취합한 것이다. 그동안 빅테크사들은 수수료율로 10% 이상을 주장했다. 이에 금융당국은 지난 2월 열린 빅테크와 간담회에서 "온라인 보험 비교 플랫폼으로 수익 창출할 생각은 일단 접어둬야 할 것"이라며 "새로운 사업을 시작한다는 데 의미를 둬야 한다"라고 강조한 바 있다.  현재 보험업계는 2~3% 수준의 수수료율을 요구 중이다.  보험사들은 네이버가 네이버쇼핑 등을 소상공인들에게 받는 수수료율인 2~3%를 보험 플랫폼에도 동일하게 적용해야 한다는 논리를 펼치고 있다. 또한 플랫폼채널만의 수수료율을 아예 새로 신설하자고도 주장하고 있다.   금융위원회는 온라인 플랫폼들이 보험상품을 비교·추천하고 받는 수수료 경우 각 상품별로 다르게 책정하는 것을 추진하는 중이다. 현재 구체적인 수치는 정하지 않은 상황이지만 최대 3%가 유력한 것으로 알려져 있다. 그동안 보험사들이 주장해온 2~3%와 사실상 동일한 것이다.  금융위원회가 추진하고 있는 온라인플랫폼사의 보험상품 비교·추천 서비스는 1차적으로 자동차보험이 담길 예정이다. 금융위원회는 온라인판매 비중이 높은 자동차보험을 우선 빅테크들에게 열어준 이후 (가입기간 1년 미만인 상품)과 실손보험, 저축성보험을 순차적으로 판매할 수 있게 할 예정이다. 금융위원회는 다양한 상품을 비교한다는 온라인 플랫폼 서비스의 본래 취지를 살리면서 상품구조도 비교적 단순해 플랫폼으로 중개하는데 문제가 없는 상품을 고른 것이다. 금융위원회가 자동차보험을 포함해 단기보험과 실손보험, 저축성보험을 선택한 것은 이들이 표준화돼 있거나 온라인 판매 비중이 높다고 판단했기 때문이다. 즉 다양한 상품을 비교한다는 온라인 플랫폼 서비스의 본래 취지를 살리면서 상품구조도 비교적 단순해 플랫폼으로 중개하는데 문제가 없는 상품을 고른 것이다. 표준화한 상품은 모든 보험사가 국가에서 정한 표준 약관을 적용하는 상품이다. 표준화한 상품에는 실손의료보험과 자동차보험이 해당된다. 온라인 판매 비중이 높은 상품 경우 온라인을 통해 비교가 수월하고 상품구조도 비교적 단순한 상품을 선정했다. 여기엔 단기보험과 저축성보험, 자동차보험 등이 해당된다. 자동차보험 경우 표준화한 상품과 온라인 판매 비중이 높은 상품 두 가지 모두 포함된다. 금융위원회는 온라인 플랫폼의 보험 비교·추천 서비스를 보험업법 법령 개정을 통해 바로 제도화를 하지 않고 우선 혁신금융서비스로 지정해 플랫폼의 보험상품 취급을 허용한다는 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>토스증권, 차기 대표에 1980년생 '틱톡' 마케팅 전문가 선임</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004861993?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>토스증권이 차기 대표로 중국 영상공유 플랫폼 '틱톡'(TikTok)의 김승연 동남아시아 글로벌 매니저(GM)를 선임한다.14일 토스증권은 이번달 말 주주총회에서 김 매니저를 대표이사로 신규 선임하는 안건을 올릴 예정이라고 전날 공시했다. 1980년생인 김 매니저는 카이스트 바이오, 뇌공학 석사를 졸업했다. 그는 미탭스 플러스 최고경영자(CEO), 틱톡 코리아 글로벌 매니저 등을 역임했다. 김 매니저의 15년간 온라인 플랫폼, 광고 분야의 전문성이 이번 선임의 주 배경으로 꼽힌다.주총 안건 의결 시 김 매니저는 오는 4월부터 토스증권 대표직을 맡게 된다. 임기는 2년이다. 김 매니저의 선임 시 지난해 7월부터 대표직을 유지 중인 오창훈 토스증권 대표는 CTO(최고기술책임자) 자리로 돌아갈 것으로 전해졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023.03.02.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>그리스에서 열차 2대 정면충돌… 최소 40명 사망</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003263022?sid=104</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>1일(현지시간) 그리스 중부 테살리아주 라리사 인근 템피에서 구조대원들이 충돌로 불이 붙은 채 탈선한 열차 사고현장을 수습하고 있다. 이날 사고는 자정을 조금 넘긴 시각 테살로니키로 가던 여객열차가 마주 오는 화물열차와 정면 충돌하면서 일어났다. 현지 경찰은 이날 현재 최소 40명이 숨지고 85명이 다쳤다고 밝혔다. 사고 원인은 아직 명확하지 않다고 외신들은 전했다. AP=연합뉴스           지난달 28일 자정 직전(현지시간) 그리스 중부 테실리아주 라리사 인근에서 여객열차와 화물열차가 정면으로 충돌해 최소 40명이 숨지고 85명이 다치는 참사가 발생했다.      그리스 공영 방송사 ERT는 50∼60명의 생사가 아직 확인되지 않았다고 전했다. 여객열차에는 승객 약 350명이 탑승한 것으로 알려졌다. 콘스탄티노스 아고라스토스 주지사는 열차에 타고 있던 승객 350명 중 250명이 버스로 대피했다고 전했다.        이날 사고는 여객열차와 화물열차가 두 개의 선로 중 같은 선로를 전속력으로 달려오다 충돌한 탓에 피해가 컸다. 열차는 강한 충돌 여파로 ‘ㄱ’자로 꺾어져 선로 밖으로 튕겨 나갔다. 일부 열차 칸에서는 화재도 발생했다.      두 열차 중 한 대가 탈선해 사고가 발생한 것이 아니라 두 열차가 같은 선로 위에서 반대 방향으로 마주 오다가 충돌한 것이다. 현대적인 철도 시스템에서는 보기 드문 사고라고 국내외 언론매체들은 지적했다.      여객열차는 수도 아테네에서 출발해 그리스 제2 도시 테살로니키를 향해 북쪽으로 달리고 있었고, 화물열차는 북부 테살로니키에서 남쪽을 향해 중부 라리사로 가고 있었다.      그리스 경찰은 어느 열차가 잘못된 선로로 들어섰는지 확인하기 위해 라리사·팔레오파르살로스 역장에 대해 조사에 착수했다. 그 결과 사고 발생 몇 시간 만인 1일 오후 라리사 역장이 체포됐다.     열차 충돌 사고가 발생한 이튿날인 1일 그리스 중부 테살리아주 라리사에서 소방대원들이 구조 작업을 펼치고 있다. AP=연합뉴스       여객열차 기관사는 신호기 고장으로 인해 반대편에서 화물열차가 달려오는 줄도 모르고 같은 선로를 2∼3㎞ 정도 질주하다 정면으로 충돌했다. 일부 시신이 사고 현장에서 30∼40ｍ 정도 떨어진 지점에서 발견될 정도로 충격은 컸다.      사고가 난 열차는 그리스의 주요 철도 회사인 헬레닉 트레인의 열차다. 헬레닉 트레인은 2017년 이탈리아 국영 철도회사인 페로비에 델로 스타토가 인수해 현재 트랜 이탈리아가 운영하고 있다.      그리스 정부는 긴급회의를 열고 보건부·내무부 장관 등이 각각 현장과 위기관리센터를 나눠 맡아 대응하고 있다. 그리스 정부는 1일부터 오는 3일까지 사흘 간의 국가애도 기간을 선포했으며, 희생자들을 추모하기 위해 조기를 게양하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>“대출도 비대면” 지난해 인터넷뱅킹 이용액 일평균 76조원 돌파</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000041211?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>건수‧금액 각 13.8%‧8.2% 증가인터넷전문은행 영향력 커져스마트폰을 이용 중인 모습. [사진 AP=연합뉴스][이코노미스트 김윤주 기자] 지난해 국내은행 인터넷뱅킹서비스 일평균 이용금액은 76조원을 돌파했다. 특히 인터넷전문은행의 신규상품 출시 등의 영향으로 인터넷뱅킹을 통한 대출 이용액은 일평균 1조원을 훌쩍 넘었다.7일 한국은행이 발간한 ‘2022년중 국내은행 인터넷뱅킹서비스 이용현황’에 따르면 모바일뱅킹을 포함한 인터넷뱅킹 일평균 자금이체 및 대출신청 서비스의 건수와 금액은 각각 1971만건, 76조3000억원으로 전년 대비 각각 13.8%, 8.2% 증가했다.인터넷뱅킹 중 모바일뱅킹 이용건수와 금액도 각각 1684만건, 14조2000억원으로 각각 17.3%, 10.3%씩 증가했다. 이에 따라 전체 인터넷뱅킹 이용실적 중 모바일뱅킹이 차지하는 비중은 건수, 금액 기준으로 각각 85.4%, 18.6%를 기록했다. 2019년 이후 모바일뱅킹 이용건수는 지속 증가하고 있다. 2017년부터 케이뱅크‧카카오뱅크‧토스뱅크 등 인터넷전문은행이 영업개시를 한 영향이 크다. 모바일뱅킹 이용건수 중 인터넷전문은행이 차지하는 비중은 2019년 16.8%에서 2022년 25.7%로 크게 늘었다. 이용금액 비중도 2019년 10.7%에서 2022년 25.6%으로 확대됐다.대출도 인터넷뱅킹을 통해 비대면으로 이뤄지고 있다. 지난해 비대면 대출신청서비스 이용 건수 및 금액은 3만5000건, 1조1684억원으로 전년 대비 13.5%, 54.9% 급증했다. 지난해 초 인터넷전문은행들의 신용대출 재개와 비대면 주택담보대출 출시 등의 영향으로 해석된다.한편, 국내은행의 인터넷뱅킹 등록 고객 수는 지난해 말 2억704만명으로 전년 말 대비 8.5% 증가했다. 모바일뱅킹 등록 고객 수는 1억6922만명으로 10.3% 늘었다. 인터넷 뱅킹 개인 및 법인 등록 고객 수는 1억9426만명, 1278만명으로 전년 말 대비 8.6%, 7.2% 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023.03.10.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>정부 "통신3사 자회사 알뜰폰 점유율 과하다"…규제 예고</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006676900?sid=105</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>"통신3사 자회사 점유율 사실상 50% 넘는다" 지적박윤규 과학기술정보통신부 2차관이 10일 오후 서울 종로구 NIA빌딩에서 열린 알뜰폰 경쟁력 강화를 위한 간담회에서 인사말을 하고 있다. 2023.3.10/뉴스1 ⓒ News1 김민지 기자(서울=뉴스1) 이기범 기자 = 정부가 통신 시장 경쟁 촉진 대책의 일환으로 알뜰폰(MVNO) 활성화를 내세우면서 통신 3사 자회사 점유율 문제에도 손을 댈 것으로 보인다.박윤규 과학기술정보통신부 제2차관은 10일 오후 알뜰폰 경쟁력 강화 방안을 모색하기 위한 간담회를 통해 통신 3사 알뜰폰 자회사 점유율 문제를 언급했다.박 차관은 "통신 3사의 자회사가 알뜰폰 시장에서도 많은 점유율을 차지하는 문제가 과연 통신 시장 전체로 봤을 때 건전한 생태계를 만들고 있는 것인지 의문이 제기되고 있다"며 "자회사 점유율 제한 법안도 나왔는데 이를 포함해 전체적인 통신 시장 경쟁 활성화와 건전한 생태계 마련을 위해 같이 논의하고 숙고했으면 한다"고 말했다.이날 간담회에는 비바리퍼블리카(토스), KB국민은행, 스테이지파이브, 아이즈비전, 인스코비 등 5개 알뜰폰 사업자와 SK텔링크, KT엠모바일, 미디어로그 등 3개 통신사 자회사가 참여했다.앞서 윤석열 대통령은 지난달 15일 통신 업계 과점 체제 폐해를 지적하면서 경쟁 체제 도입 방안과 통신요금제 선택권 확대 등 서비스 품질과 요금을 개선할 대책을 마련하라고 지시했다.이에 과기정통부는 '통신시장 경쟁촉진 정책방안 특별전담반(TF)'를 구성했으며 지난달 20일 1차 회의를 통해 알뜰폰 경쟁력을 높이기 위한 브랜드 가치 제고 방안 등을 논의해 나가기로 했다.또 박 차관은 "서비스 경쟁의 한 축인 알뜰폰 사업자가 저가·소규모 통신사에 머물지 않고 차별화된 서비스 제공과 규모의 경제를 갖춰 통신 3사와 경쟁할 방안을 적극 마련하겠다" 밝힌 바 있다.이 과정에서 정부는 알뜰폰 점유율 규제 문제를 다시 들여다볼 예정이다.알뜰폰 점유율 규제 논란은 통신 3사 자회사의 시장 점유율이 높아지면서 불거졌다. 특히 사물인터넷(IoT) 회선을 제외하면 통신 3사 자회사 합산 점유율이 법적 상한인 50%를 넘는다는 지적이 나오면서 이에 대한 규제가 필요하다는 문제 제기가 이어졌지만, 이후 논의는 진전되지 않았다.이날 박 차관은 "알뜰폰은 외형적으로 많은 성장이 있었고 이용 요금이 30% 저렴해 고객에 많은 혜택을 주는 게 사실인 반면 통신 시장 전체의 경쟁 촉진 측면에선 부족한 게 있었던 것도 사실"이라고 말했다.이어 알뜰폰 5G 요금제 강화 도매제공 의무 제도 개선, 개인정보 문제 등에 대한 알뜰폰 사업자 책임성 강화, 대량의 데이터 구매를 통한 할인 방안 등을 언급했다.과기정통부는 이날 제시된 의견을 통신시장 경쟁촉진 TF를 통해 논의해나갈 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023.03.09.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>5G 알뜰폰 '중간요금제' 승부수</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004979657?sid=105</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>통신비 소비자 선택권 확대 등정부, 알뜰폰 경쟁력 제고 모색  알뜰폰(MVNO) 업계가 주요 고객층인 롱텀에볼루션(LTE·4G)를 넘어 5세대통신(5G)에서도 점유율 확장을 노린다. 지난 1월 KT엠모바일에 이어 LG헬로비전이 이동통신사 대비 저렴한 5G 중간요금제를 출시하면서다. 정부는 가계통신비 완화, 소비자 선택권 강화를 목표로 알뜰폰 경쟁력 제고 방안을 지속적으로 모색해 나갈 계획이다.   9일 관련 업계에 따르면 LG헬로비전 헬로모바일은 월 5만8300원에 기본 데이터 31G를 제공하는 5G 중간요금제를 출시했다. 5G 중간요금제 2종을 먼저 출시한 KT엠모바일에 이은 두번째 5G 중간요금제 출시다. 앞서 KT엠모바일은 지난 1월 2만원대 5G 중간요금제 2종을 출시한 바 있다.   이들 요금제는 이동통신사 5G 중간요금제보다 싼 것이 특징이다. 이동통신3사의 5G 중간요금제는 △SK텔레콤(24GB·5만9000원) △KT(30GB·6만1000원) △LG유플러스(31GB·6만1000원) 등으로 구성돼 있다.   LG헬로비전 이남정 모바일사업담당은 "알뜰폰의 첫 31GB 구간 5G 중간요금제 출시를 시작으로 보다 다양한 5G 요금제를 선보여, 가계통신비 인하에 기여함은 물론 5G시대 소비자 선택권과 만족도를 획기적으로 높여 나가겠다"고 말했다.   알뜰폰 업계가 이처럼 5G 중간요금제를 속속 출시하는 것은 1%대에 정체돼 있는 5G 가입자 수 비중을 높이기 위한 전략으로 읽힌다.   과학기술정보통신부도 알뜰폰 5G 서비스 가격경쟁력 제고·차별성 부족 해소 등 알뜰폰 경쟁력 강화 방안을 모색하기 위해 10일 산·학계를 대상으로 간담회를 연다. 알뜰폰 사업자(토스모바일, KB국민은행 등), 통신사 자회사(SK텔링크, KT엠모바일, 미디어로그) 등 업계 관계자와 전문가들로부터 의견을 들어본다는 계획이다.   과기정통부는 간담회에서 △알뜰폰 5G 활성화 △도매대가 산정기준 문제 △알뜰폰 사업자 책임성 제고 △이통사 알뜰폰 자회사 점유율 집중 문제 해소 등을 논의할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023.03.13.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>[기자수첩] 해묵은 인뱅의 메기 효과 논란</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000902822?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>"저희가 금융소비자들에게 금리 인하 등 더 많은 혜택을 드리도록 개선해나가겠습니다. 시중은행 대비 경쟁력 있는 금융 상품도 많이 내놓겠습니다."최근 인터넷전문은행의 고금리 이자장사 행태를 지적한 기자의 기사와 관련해 업계 관계자가 한 말이다. 인터넷은행은 수익성 강화를 위해 최근 고신용자에 이어 중·저신용자까지 시중은행보다 최대 약 2%포인트 높은 금리를 적용하고 있어 고객들의 불만을 사고 있다. 실제 인터넷은행 중 카카오뱅크의 지난해 이자수익은 1조2939억원으로 전년 대비 64.6% 늘었다. 케이뱅크의 지난해 이자수익은 3852억원으로 전년보다 무려 94.54% 급증했다. 대규모 이자수익을 기록하면서 카카오뱅크와 케이뱅크의 지난해 영업수익에서 이자수익이 차지하는 비중은 각각 80.6%, 95%에 달한다.은행의 핵심 수익지표인 순이자마진(NIM) 상승세도 가파르다. 카카오뱅크의 NIM은 지난해 말 기준 2.83%로 1년만에 0.70%포인트 치솟았다. 같은 기간 케이뱅크는 2.51%로 1년새 0.95%포인트나 올랐다. KB국민·신한·하나·우리·NH농협 등 5대 은행의 지난해 NIM은 1.59~1.75%로 1년 만에 0.15~0.22%포인트씩 오른 것을 감안하면 큰 폭의 상승이다.NIM은 예금과 대출 업무는 물론 채권 등 유가증권으로 얻은 이자 수익과 비용까지 포함하는 포괄적인 수익성지표다. 총이자 수익에서 총이자비용을 차감한 금액을 이자자산 총액으로 나눈 것이다.상황이 이러니 인터넷은행의 행태가 기존 전통 은행들이 금리 인상기 속 과점지위를 남용해 대규모 이자이익을 거둬들이는 것과 다를 바 없다는 지적도 나온다. 혁신을 내세운 인터넷은행이 시중은행처럼 예대(예금과 대출) 마진을 통해 수익 극대화를 노리면서 메기효과와는 거리가 멀어지고 있다는 비판이다.인터넷은행은 시중은행과 달리 플랫폼에 정체성을 두고 있다. 플랫폼에 기반한 비이자이익보다 예대마진 중심의 성장을 지속하면 혁신 없이 은산분리(은행과 산업 자본의 분리) 완화라는 특혜만 받았다는 지적을 피할 수 없다. 인터넷은행이라는 간판을 달았지만 디지털금융 혁신을 꾀하는 정통 은행권과 차별점이 없다는 말이 나오는 것도 이같은 이유에서다.최근 금융당국은 5대 시중은행 중심으로 형성된 과점 체제를 깨기 위해 지방은행의 시중은행 전환과 함께 제4 인터넷은행 인·허가 방안 등을 검토하고 있다.기존 은행권엔 새로운 경쟁자가 출현할 수 있지만 시중은행들은 크게 위기감을 느끼진 않는 모습이다. 이미 2017년 카카오뱅크와 케이뱅크부터 2021년 토스뱅크까지 인터넷은행 3사가 등장했지만 기대했던 메기효과를 제대로 일으키지 못했기 때문이다. 금융당국의 인터넷은행 인·허가 당시 대형 은행을 중심으로 고착화 된 과점 구조를 개선하고 국내 은행업에 메기 효과를 불어넣겠다는 취지가 무색한 상황이다. 금융당국은 메기 효과를 위해 35년만에 1982년 탄생한 은행법 은산분리 규정의 예외까지 인정해 산업자본의 인터넷은행 투자를 허용했다. 그만큼 이제 기대에 걸맞는 파격적인 혁신을 보여줘야 한다. 인터넷은행이 기대 만큼 '메기' 역할을 했는지 되레 물만 흐리는 '미꾸라지'에 그쳤는지에 대한 논란도 종지부를 찍을 때다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023.03.02.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>“나도 모임회비 내는데 연말정산 받고 싶다”[김윤주의 금은동]</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000040936?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>“더 낼까, 받을까” 절세 방법 탐구 토뱅 모임통장 ‘공동모임장’ 기능 눈길금융‧은행 산업이 빠르게 변하고 있습니다. 디지털 전환·글로벌 확장 등 내부 목표는 물론, 주요국 금리인상 등 외부 요인도 영향을 끼칩니다. 횡령, 채용 비리와 같은 다양한 사건들도 발생합니다. 다방면의 취재 중 알게 된 흥미로운 ‘금융 은행 동향’을 ‘김윤주의 금은동’ 코너를 통해 전달합니다. [편집자주]청계산 등산객 모습. [사진 독자제공][이코노미스트 김윤주 기자] #. 직장인 A씨(31세)는 등산 동호회에 가입해 활동 중이다. 월 1회 정기적으로 모여 등산을 한 뒤, 뒤풀이로 회식을 한다. 1인당 평균 3만원 가량 모임회비 지출이 있지만, 이에 대한 결제는 동호회 회장이 도맡아 진행하고 있다. A씨는 모임비를 지출하면서도, 모임비에 대한 연말정산 혜택을 받는 방법은 없는지 궁금하다.2일 업계에 따르면 현행법상 연말정산 환급금 지급일은 확정일자가 없고 빠르면 2월, 평균적으로 3월 중 지급된다. 많은 직장인들이 ‘13월의 월급’을 기대하면서도, 추가세액을 납부하지는 않을지 걱정이 깊어지는 시기다.실제로 국세청에 따르면 2021년 귀속분 근로소득에 대한 지난해 연말정산에서 환급액을 받지 못하고 오히려 세금을 추가로 납부한 직장인이 400만명에 육박하는 것으로 나타났다. 이들이 더 낸 세금은 1인당 평균 약 98만원에 달한다. 추가세액 납부자가 낸 1인당 평균 세금은 2017년 85만원, 2018년과 2019년 각 89만원에서 2020년 92만원으로 늘었고 2021년에는 더 증가했다.이 때문에 많은 근로자가 ‘13월의 월급’을 놓치지 않기 위해 다양한 절세 방법을 탐구하는 상황이다. 부부일 경우 한 쪽으로 카드 사용을 몰아주는 등 연말정산에 대해 매우 민감하게 반응하고 있다. 특히 한국인 특성상 친목이나 학연, 지연 등에 따라 활동하는 모임이 많다. 모임에서 사용하는 회비를 한번에 모아 사용하는 경우가 대부분이다. 하지만 모임비에 대한 소득공제 혜택은 모임장만 가져가는 구조다. 이런 점을 개선한 것이 지난 2월 출시된 ‘토스뱅크 모임통장’이다. 이 상품은 ‘공동모임장’ 기능이 탑재된 것이 특징이다.  공동모임장은 토스뱅크가 최초로 선보인 기능으로, 모임장의 동의를 받고 실명확인 절차만 거치면 누구나 공동모임장이 될 수 있다. 공동모임장은 출금 및 카드 발급, 결제 권한을 부여 받는다. 하나의 계좌에 수십장의 모임카드 발급도 가능하다. 각 공동모임장은 모임 회비 사용 시 본인 명의로 발급한 모임카드로 결제해 그에 따른 소득공제 혜택도 본인이 받을 수 있다. 또한 토스뱅크 모임통장은 하루만 맡겨도 연 2.2%(세전)의 금리를 제공한다. 수시입출금통장이기 때문에, 파킹통장처럼 별도의 공간으로 자금을 이동해야하는 번거로움이 없다. 출금‧결제가 안 되도록 묶어 놓을 필요 없이 금리 혜택을 받을 수 있다.고객 반응도 뜨겁다. 지난달 1일 출시된 ‘토스뱅크 모임통장’은 일주일만에 계좌 개설 수 7만좌를 돌파했다. 최근에도 모임통장 발급 계좌수와 통장 잔액이 지속적으로 증가하는 추세라는 게 토스뱅크 측의 설명이다. 출시 후 일주일간 개설된 토스뱅크 모임통장 6개 중 1개는 모임통장에 참여한 구성원 모두가 공동모임장이다. 출시 초기인 점을 고려할 때 향후 이 같이 구성원 중 다수 혹은 모두가 공동모임장이 되는 모임통장은 늘어날 것으로 보인다. 아울러 토스뱅크는 모임통장 기능도 지속적으로 개선할 계획이다. 김서연 토스뱅크 모임통장 프로덕트 오너(PO)는 “토스뱅크 통장처럼 모임통장에도 ‘매일 이자 받기’ 같은 서비스를 적용하는 것을 검토하고 있다”며 “고객 편의를 고려한 기능이 추가될 예정”이라고 말했다.김윤주의 금은동.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023.03.10.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>13일부터 소상공인 저금리 대환 프로그램 확대⋯대상·한도 늘린다</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/662/0000015911?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>전체 자영업자·소상공인 신청 가능한도·만기 2배 늘고, 신청기한 내년으로 확대자영업자·소상공인 저금리 대환 프로그램 개편 내용. 자료=금융위원회. 자영업자·소상공인의 사업자 대출을 낮은 금리로 갈아탈 수 있게 해주는 ‘저금리 대환 프로그램’이 13일부터 확대 시행된다.금융위원회는 최근 글로벌 금리 인상 등 어려운 경제 여건이 지속되는 상황에서 자영업자·소상공인의 금리 부담을 경감하고자 이러한 조치를 시행한다고 밝혔다. 우선지원대상을 넓힌다. 13일부터 모든 개인 사업자와 법인 소기업이 대환 프로그램을 신청할 수 있다. 기존에는 코로나19 피해가 확인된 개인사업자, 법인 소기업만 지원받을 수 있었다. 손실보전금 등 코로나19에 따른 재난지원금을 받지 않았거나 만기연장·상환유예 등을 적용받지 않았더라도 대환 프로그램을 신청할 수 있다. 다만 지원대상 대출은 지난해 5월말 이전에 취급한 사업자 대출에 한한다.대환한도도 2배로 확대한다. 개인은 5000만원에서 1억원, 법인은 1억원에서 2억원으로 각각 상향 조정된다. 이미 대환 프로그램을 이용하고 있는 차주도 확대된 범위 내에서 추가 이용할 수 있다. 만기도 10년으로 늘어난다. 3년 거치 7년 분할 상환하는 구조다. 기존에는 2년 거치 3년 분할 상환으로 만기가 5년이었다. 보증 부담은 낮춘다. 보증료율은 연간 1%에서 0.3%포인트 내린 0.7%다. 또 일부 은행에서만 운영하는 보증료 분납 시스템을 대환 프로그램을 취급하는 모든 은행으로 넓힌다. 최초 대출 시점에 보증료를 전액 낸다면 납부금액의 15%를 할인해 금융비용을 경감해주는 조치도 마련했다.신청기한도 올해말에서 2024년말까지로 연장한다. 개편된 대환 프로그램은 13일부터 NH농협·KB국민·우리·하나·기업·수협·부산·대구·광주·경남·전북·제주 은행과 토스뱅크에서 신청할 수 있다. SC제일은행은 전산 구축 절차로 인해 20일부터 신청을 받는다.금융위 관계자는 “코로나19 피해가 확인된 자영업자에 한해 일정 한도의 가계신용대출을 대환 대상에 포함하는 방안도 추진 중”이라며 “올 3분기 시행을 목표로 관계기관 협의와 전산시스템 개편 방안, 대환 대상 등 확정해 전산 개발을 시작할 예정”이라고 말했다.아울러 금융위는 정부·은행·공공기관을 사칭한 ‘보이스피싱(전화금융사기)’에 대한 주의를 당부했다. 특별 대출 프로그램 등 전화 상담을 유도하거나 유알엘(URL)을 클릭하도록 문자를 무작위로 발송하는 사례가 적발되고 있기 때문이다. 특히 가계신용대출은 아직 대환 프로그램에 포함되지 않은 만큼 이를 사칭한 문자를 받는다면 즉시 삭제하고 은행·신용보증기금·경찰청·금융감독원 등 관계기관에 연락해 사실 여부 확인과 상담을 받는 것이 안전하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023.03.04.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>[핀토크]인터넷은행은 '메기'인가 '미꾸라지인가'</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004858020?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>핀토크 /사진=머니투데이금융당국이 KB국민·신한·하나·우리·NH농협은행 등 5대 은행 중심의 과점 체제를 깨기 위해 '챌린저 뱅크' 도입을 유력하게 검토하고 있다. 시중은행의 경쟁자가 늘어날 수 있는 상황이다. 그런데도 시중은행들은 위기감을 느끼지 않는다. 그 이유로 '메기'가 될 것으로 예상됐었던 인터넷전문은행의 부진이 꼽힌다. 새로운 '플레이어'가 등장해도 '그들만의 리그'를 지켰다는 의미다. 물론 인터넷은행들은 강하게 반발한다. 은행산업 구조 변화를 촉진했다는 점을 내세운다. 금융업계에서도 인터넷은행이 기대만큼 '메기' 역할을 했는지, 아니면 '미꾸라지'에 그쳤는지에 대한 의견이 분분하다. ━인터넷은행 "우리 서비스 벤치마킹하지 않았느냐", 시중은행 "대면의 비대면화는 우리도 한다"━인터넷은행들은 '메기' 역할이 부족했다는 지적에 동의하기 어렵다는 반응이다. 인터넷은행 한 관계자는 "시중은행이 인터넷은행 서비스를 벤치마킹한 사례가 많다"며 "은행에게 유리한 관습을 소비자 중심적으로 혁신하는 사례도 많았지만 기존 은행이 거부했다고 볼 수 있다"고 말했다. 금융권도 인터넷은행의 등장이 업계 디지털 전환을 가속화했다는 데 대해 긍정적인 평가를 내린다. 구체적으로 2017년 카카오뱅크는 등장과 동시에 금융권 최초로 공인인증서가 필요없는 모바일 뱅킹 애플리케이션(앱)을 도입했다. 시중은행들도 순차적으로 뒤를 따랐다.  2021년 10월 출범한 토스뱅크의 '원앱(One-app)' 전략도 금융권을 변화에 일조했다. 뱅킹 앱이 따로 있지 않고, 기존 토스 앱에서 서비스를 받는 내용이 골자다. 기존 금융사도 앱 운용 전략을 바꾸기 시작했다. 신한금융그룹은 계열사의 여러 앱을 하나로 통합한 원앱 '신한 유니버셜 간편앱'을 올해 상반기 중 출시한다.케이뱅크의 '금리보장서비스'에 대해선 관습을 타파했다는 분석이 있다. 소비자가 가입한 예금의 금리가 가입일로부터 14일 이내에 오르면 인상된 금리를 예금 가입일부터 적용해 준다. 기존 은행들은 예금 가입 직후 금리가 올라도, 오른 금리는 소비자가 그 예금을 해지하고 재가입해야 적용해 줬다. 다만, 기존 금융권은 인터넷은행의 혁신에 한계가 분명하다고 본다. 시중은행 관계자는 "인터넷은행도 은행업 테두리 안에 있기 때문에 완전히 새로운 무언가를 내놓을 순 없다"며 "대면을 비대면으로 바꾸는 게 사실상 전부인데, 이 작업은 기존 은행도 모두 진행 중"이라고 말했다. 금융권 관계자는 "지난 5년 동안 인터넷은행 3사가 확보한 자산은 국내 은행 전체의 3%가 안 된다"고 말했다.━인터넷은행 "'메기' 역할 제대로 하려면 규제 환경 변화 필요"━인터넷은행 업계 일각에선 제대로 경쟁할 수 있게 해 달라는 목소리도 나온다. 인터넷은행은 매년 일정한 중·저신용자 신용대출 비중을 달성해야 하는데, 그 기준이 2021년에 결정됐다. 금리 상승 등 환경 변화가 반영되지 않았고, 이에 카카오뱅크는 고신용자 대출을 잠시 막았었다. 중·저신용자 대출에 집중하다 보니 고신용자 대출을 주로 하는 기존 은행과 경쟁에서 멀어졌다. '메기'끼리만 모여 있게 된 셈이다.여러 제도가 기존 은행에 맞춰 설계돼 있다는 지적도 있다. 인터넷은행은 영업점이 없다. 하지만 일부 서비스는 대면으로만 제공할 수 있다. 일례로 미성년자는 부모 등 법정대리인의 대면 동의가 있어야 상품에 가입할 수 있다. 인터넷은행이 '우리 아이 예·적금' 등을 운용하지 못하는 배경이다. 은행권 관계자는 "규제 환경이 변하지 않으면 챌린저 뱅크 도입 등에 따른 효과가 미미할 수 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023.03.02.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>이복현 금감원장, 시중은행·인뱅 찾아 스킨십 강화하는 이유는?</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000203587?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>인터넷은행에 시중은행 겨냥 '메기' 역할 당부시중은행 "과점 지적 납득하기 어려워"이복현 금융감독원장이 지난달 27일 경기도 성남시 판교 카카오뱅크 본사에서 열린 은행산업 경쟁 촉진과 금융소비자 편익 제고 현장방문에 참석해 발언하고 있다. /뉴시스·금융감독원이복현 금융감독원장이 최근 시중은행인 하나은행과 인터넷은행인 카카오뱅크를 방문하는 등 은행권과의 스킨십에 적극적인 행보를 보이고 있다. 윤석열 대통령의 '돈 잔치' 비판을 시작으로 금융 당국의 수장들이 은행의 공공성 지적에 나서고 있다. 일각에서는 정부의 과도한 개입이라는 목소리가 나오는 가운데 금융 당국이 은행권에 '메기'를 풀어 시중은행의 과점 체제를 깰 수 있을지 관심이 모인다.2일 금융권에 따르면 이복현 원장은 최근 인터넷전문은행과 핀테크 업계에 시중은행 과점 체계를 깰 수 있는 '혁신 촉진자' 역할을 당부하는 목소리를 냈다. 이복현 원장은 지난달 27일 경기 판교테크노밸리 카카오뱅크 사옥을 방문해 인터넷전문은행과 핀테크 업계의 금융상품·서비스 혁신사례와 사업의 애로사항 등을 청취하고 이자 수익에 의존하는 은행권에 강력한 자극을 줄 수 있는 '메기' 역할을 해 달라고 강조했다.인터넷전문은행 3사(카카오뱅크·케이뱅크·토스뱅크) 대표와 네이버파이낸셜 등 핀테크 기업 대표들이 참석한 가운데 이복현 원장은 "책임 있는 금융 혁신을 통해 은행산업의 건전한 경쟁과 금융소비자의 편익 제고를 위한 혁신 촉진자로 자리매김을 해 달라"며 "금감원도 인터넷전문은행과 핀테크기업이 은행 산업의 경쟁을 촉진하는 '혁신 가속기(액셀러레이터)'로 자리를 잡을 수 있도록 다각적 노력을 지속하겠다"고 밝혔다.이복현 원장은 시중은행을 방문해 상생금융 노력을 독려하기도 했다. 이복현 원장은 지난달 23일 하나은행 본점을 찾아 소상공인, 중소기업 대표, 금융·소비자 전문가 등과 상생금융 확대를 위한 현장 간담회를 가졌다.이복현 원장은 "어려운 시기일수록 은행을 비롯한 경제 주체들이 고통을 분담하고 상생을 위해 자발적으로 노력하는 모습이 필요하다"며 "특히 은행이 금융시장 안정과 국민들의 자산 관리라는 중요한 역할을 수행하고 있음을 고려하면 은행의 공공성에 대해 많은 분들이 공감할 것"이라고 말했다. 이어 "금감원도 은행권의 경쟁을 강화함으로써 과점적 지위에서 비롯한 과도한 이자이익을 예대금리차 축소 등을 통해 국민과 향유하는 등 상생금융을 유도해 나가고자 한다"고 덧붙였다.관련 업계에서는 이복현 금감원장의 이같은 행보가 앞서 금융당국이 5대 금융 중심의 과점체재를 깨겠다고 밝힌 것과 궤를 같이한다는 해석이 나온다. 금융당국은 현재 5대 은행 과점 체계를 깨기 위한 실무작업에 본격적으로 착수했다.금융당국이 5대 금융 중심의 과점체재를 깨겠다고 밝혔지만 금융권에서는 새로운 은행이 나타나더라도 은행 산업에 메기 효과를 낼 수 있을지는 의문이라는 의견도 있다. /더팩트 DB시중은행의 과점 체제를 깨기 위한 방안으로는 제4 인터넷전문은행 설립 허가, 챌린저뱅크 도입 등의 방안이 거론되고 있다. 금융권에 따르면 지난해 말 기준 5대 시중은행의 점유율은 여신(예적금) 74.2%, 수신(대출) 63.4%를 기록했다.다만 금융권에서는 새로운 은행이 나타나더라도 은행 산업에 메기 효과를 낼 수 있을지는 의문이라는 시각도 있다. 메기 역할을 할 것으로 보였던 인터넷전문은행 또한 출범 이후 기존 은행업의 관행을 답습하는 모습에 그치고 있다. 금융당국의 허가를 받아 자유롭게 은행 설립이 가능한 우리나라에서 시중은행이 과점을 하고 있다는 지적 또한 납득하기 어렵다는 반응도 있다.시중은행 관계자는 "시중은행의 과점이나 담합이 있으려면 어느 정도 안에 있는 플레이어들이 벽을 세우고 찬반 투표를 한다거나 우리끼리의 어떤 수준을 정하는 등의 부분이 있어야 하는데 전혀 그렇지 않다"며 "과점을 하려야 할 수 없는 상황이고 '돈 잔치'라는 비판이 나오면서 금융당국을 포함한 정부에서의 은행들을 바라보는 시각이 곱지 않으니 자연스레 시중은행을 개혁해야 한다는 목소리가 나오는 것"이라고 말했다.한편, 금융위원회에 따르면 이날 오후 정부서울청사에서 금융위와 금융감독원, 민간전문가·전 금융업권 협회·연구기관과 함께 김소영 부위원장 주재로 '은행권 경영·영업 관행·제도 개선 태스크포스(TF)' 실무작업반 첫 회의를 연다. 이는 지난달 22일 TF 전체회의 이후 1주일여만이다.금융당국은 실무작업반 회의를 매주 열고 오는 6월 말까지 개선방안을 마련할 계획이다. 이날 회의에서는 6개 검토과제 중 첫 번째인 은행권과 비은행권간 경쟁, 스몰라이선스·챌린저 뱅크 등 은행권 진입정책, 금융과 IT간 영업장벽을 허물어 실질적인 경쟁을 촉진하는 방안 등 은행권 경쟁 촉진 방안을 중점적으로 논의한다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>'더글로리' 공개 앞둔 넷플, 韓에 계정공유 금지?…할인카드 써볼까</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004859238?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>넷플릭스 오리지널 시리즈 '더 글로리' 파트2 스틸컷./사진=넷플릭스'더글로리' 파트2 공개를 앞두고 넷플릭스 구독을 고민하는 소비자들을 위해 국내 카드사들이 OTT(온라인 동영상 서비스) 구독료 할인 카드를 선보이고 있다. 7일 머니투데이 취재를 종합하면 삼성카드·KB국민카드·NH농협카드 등은 OTT 구독료의 20~100%를 할인해주는 카드를 내놓고 있다.삼성카드는 지난 2일 전월 이용 실적을 충족하면 OTT 정기 결제액의 50%를 매달 할인해주는 '디아이디 플래티늄'(THE iD. PLATINUM)을 출시했다. 할인 대상인 OTT는 넷플릭스, 유튜브 프리미엄, 디즈니+, 웨이브, 티빙, 왓챠, 멜론, 플로 등 8개다. 다만 월 최대 할인 한도는 1만원이다.KB국민카드의 '톡톡O 카드'는 전월 실적 30만원 이상을 채우고 OTT를 정기 결제하면 100% 할인 혜택을 제공한다. 할인되는 OTT는 넷플릭스, 디즈니+, 웨이브, 왓챠, 티빙, 유튜브 프리미엄 등 6개다. 월 최대 할인 금액이 1만원이기 때문에 넷플릭스를 4명이 공유하는 '프리미엄'(1만7000원) 가격으로 보고 있다면 100% 할인은 되지 않지만 혼자 보는 '베이식'(9500원)으로 구독하면 사실상 0원으로 즐길 수 있다. 토스뱅크도 이달 1일부터 '토스뱅크 체크카드'에 구독 서비스 혜택을 새롭게 포함하기로 했다. 이 카드로 넷플릭스와 디즈니+를 결제하면 일정 금액이 캐시백된다. 캐시백 금액은 건당 1만원 이상 결제 시 500원, 1만원 미만 결제 시 100원이다. 넷플릭스 프리미엄과 디즈니+를 동시에 이용하는 고객은 매달 600원을 돌려받는 셈이다. 캐시백 금액이 많진 않지만 전원 실적 제한이 없다는 게 장점이다.이 외에도 NH농협카드의 '올바른 플렉스 카드', 삼성카드의 '아이디 달달할인' 등에 OTT 구독료 할인 혜택이 포함돼 있다. 올바른 플렉스 카드는 넷플릭스, 유튜브 프리미엄, 멜론을 7000원 이상 정기 결제하면 20%를 깎아준다. 아이디 달달할인은 넷플릭스, 웨이브, 티빙, 왓챠, 멜론, 플로를 정기 결제한 고객에게 매달 최대 5000원까지 50% 할인 혜택을 제공한다.OTT가 쏟아지면서 구독료 부담이 점차 높아지자 카드사들이 할인 혜택을 늘리고 있는 것으로 보인다. 세계 최대 OTT 기업 넷플릭스는 조만간 한국에서 계정 공유를 금지할 계획인 것으로 알려졌다. 현재는 넷플릭스 프리미엄을 구독하면 4명이 계정을 함께 이용할 수 있어 한명당 4250원 수준에서 넷플릭스를 이용할 수 있지만 계정 공유가 막히면 부담이 늘어날 것으로 보인다. 오리지널 작품으로 인기를 끄는 디즈니플러스(월 9900원), 티빙(프리미엄 기준 월 1만3900원), 왓챠(프리미엄 기준 월 1만2900원) 등의 구독료도 만만찮다.카드사 관계자는 "OTT가 다양해지면서 고객들이 매달 구독료로 지출하는 금액도 증가하고 있다"며 "대부분의 고객이 OTT 구독료를 '아까운 돈'으로 인식하고 있기 때문에 카드사들도 고객의 니즈에 맞춰 할인 혜택을 내놓고 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023.03.09.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>토스 앱에서 챗GPT 바로 쓴다</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005439364?sid=105</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>토스, 7일부터 챗GPT에 물어보기 베타서비스챗GPT API 공개 후 연관 서비스 봇물업스테이지도 카톡·라인 통해 챗GPT 기반 AskUP 친구 서비스체인파트너스, 한국어 특화 챗GPT '네이티브' 출시[이데일리 임유경 기자] 토스 앱에서 오픈AI의 인공지능(AI) 챗봇 서비스 챗GPT를 바로 쓸 수 있게 됐다. 오픈AI가 외부 서비스에 챗GPT를 결합할 수 있도록 인터페이스(API)를 공개하자, 토스가 발빠르게 서비스에 추가한 것이다. 9일 토스 운영사 비바리퍼블리카에 따르면 회사는 지난 7일부터 토스 앱에 챗GPT 베타서비스를 추가했다. 서비스는 토스 앱 전체 메뉴에서 ‘챗GPT에게 물어보기’ 기능을 눌러 이용할 수 있다. 오픈AI 챗GPT 서비스에 가입하고, 웹 사이트를 찾아가야 하는 번거로움 없이 토스 앱 내에서 바로 챗GPT와 대화할 수 있게 된 것이다.이 같은 서비스는 오픈AI가 이달 1일(현지시간) 챗GPT API를 유료로 출시하면서 가능해졌다. 챗GPT API를 결합하면 외부 서비스에서도 챗GPT와 대화가 가능하다. API 이용 기업이 영어 단어 1.5개 당 0.002달러(약 3원)를 부담해야 한다. 토스는 챗GPT API가 공개되고 발빠르게 서비스를 준비해 ‘챗GPT에게 물어보기’ 기능을 추가했다. 아직 베타버전이라 토스 서비스에 최적화되어 있진 않은 모습이다. 예컨대 토스는 2021년 8월부터 모든 이용자에 평생 송금 수수료 무료 정책을 도입했는데, 챗GPT에 토스 송금수수료를 물어보면 “1000원이며 토스머니 송금만 무료다”고 틀린 답변을 내놓는다. 토스에 챗GPT와 대화하기 기능이 추가됐다. 토스 송금 수수료와 대표에 대해 묻자 틀린 답을 하는 모습.토스 외에도 챗GPT API를 활용한 서비스가 국내에서도 속속 등장하고 있다. 국내 AI 전문기업 업스테이지는 카카오톡과 라인에서 챗GPT와 바로 대화할 수 있는 ‘AskUp’을 출시했다. 카톡과 라인에 적용된 AskUp은 챗GPT를 개선한 버전으로, 이미지가 있을 경우 OCR로 처리하고 그 결과와 메시지를 같이 챗GPT에 보내 질문할 수 있다. 또, 사용자 질문에 따라 파인튜닝해, 친구 사귀듯 성격을 맞춘 대화까지 가능하다.체인파트너스는 한글 대화에 최적화된 챗GPT 서비스 ‘네이티브’를 선보였다. 네이티브는 사용자의 모든 질문을 영어로 바꿔 챗GPT에 전달해, 보다 정확한 답변을 받을 수 있게 해준다는 점이 특징이다. 챗GPT가 영어로 답변한 내용은 다시 한글로 번역해 사용자에게 제공한다. 챗GPT는 영어로 질문했을 때 더 정확한 답변을 내놓는 만큼, 이런 방식을 통해 한글로 챗GPT와 대화하면서 더 정확하고 풍부한 답변을 받을 수 있게 됐다는 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023.03.12.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>점심마다 돈 주우러 다닌다는 직장인들…“10원 모아 ‘태산’ 되겠죠”</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003791409?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>고물가·고금리에 ‘앱 테크’하는 직장인↑퀴즈·만보기 등 ‘티끌 모아 태산’ 열풍“자투리 시간 모아 한푼이라도 저축” 입모아    서울 중구 서울시립미술관 앞 광장에 모바일 금융플랫폼에서 진행하는 포인트 이벤트에 참여하는 시민들이 모여있다.       “오늘은 얼마 못 주웠어요. 그래도 산책 겸 점심시간 잘 활용하면 쏠쏠합니다. 하루에 300원씩만 모아도 일주일에 저렴한 커피 한 잔 값은 모을 수 있어요. 뭐 언젠가는 10원씩 모아 티끌이 태산 되는 날이 오겠죠.”     지난 9일 오전 11시50분쯤 서울 중구 서울시립미술관 앞 광장. 수많은 인파가 고개를 숙인 채 삼삼오오 모여있는 진풍경이 펼쳐졌다. 아는 이들을 마주치면 멋쩍은 웃음을 짓다가도 손가락만은 빠르게 핸드폰 화면을 터치하는 모습이었다. 스마트폰 금융 애플리케이션으로 현금성 포인트를 모으기 위해 점심마다 ‘성지’를 찾는 직장인들이었다.     물가 상승 등으로 주머니 사정이 가벼워진 직장인들 사이에 요즘 스마트폰 애플리케이션으로 소액의 돈을 모으는 ‘앱테크(애플리케이션+재테크)’ 열풍이 불고 있다. 조금의 부지런함만 있으면 시간과 장소에 크게 구애받지 않고 현금처럼 사용 가능한 포인트를 모을 수 있어 쏠쏠한 용돈벌이를 하는 직장인들이 늘고 있다.     특히 최근엔 모바일 금융플랫폼 토스가 제공하는 ‘함께 토스 켜고 포인트 받기’가 입소문을 타며 돈을 잘 모을 수 있는 성지까지 생겨나고 있다. 일명 ‘10원 줍기’로 불리는 이 서비스는 토스 앱을 실행한 사용자 근처에 다른 사용자가 있으면 해당 사용자의 아이콘을 클릭해 토스 포인트 10원을 받을 수 있는 서비스다. 사용자가 한곳에 많이 모일수록 높은 금액을 모을 수 있어 서울시립미술관 등 특정 장소에 직장인들이 몰리고 있다. 지난달 18일 서비스 출시 이후 한 달여 만에 누적 사용자가 170만명을 넘어섰다.     이날 서울시립미술관 앞에서 만난 직장인 김서영(31)씨는 “회사 사무실에서 알음알음 퍼지다 지금은 점심 먹고 다 같이 이곳으로 모이고 있다”며 “처음에는 저도 좀 궁상맞아 보이지 않을까 생각했지만, 여러 앱으로 포인트를 모으면 하루에 모이는 돈이 결코 적지 않다”고 설명했다.     직장인들은 ‘10원 줍기’뿐 아니라 걸음 수에 따라 포인트를 주는 토스 앱 내 ‘만보기’ 기능이나 ‘캐시워크’ 앱 등 다양한 앱테크 서비스를 동시에 이용하고 있다고 입을 모았다.     아침에 일어나 삼성 ‘모니모’ 앱에 접속해 기상미션이나 출석체크를 하고, 점심시간 짬을 내 만보기 앱을 켜고, 이후 틈틈이 ‘캐시워크’ 앱이나 신한SOL(신한은행), KB페이(KB 국민카드) 등에서 퀴즈를 풀고 포인트를 받는 게 김씨의 하루 ‘루틴’이라고 한다. 김씨는 이용자들끼리 서로 정답을 공유하는 오픈채팅방이나 커뮤니티 등에도 참여하고 있다고 전했다.     또 다른 직장인 박진태(37)씨도 “요즘 전체적으로 물가가 올라 커피 한 잔이 예전에 밥 한 끼 값이랑 맞먹는다”며 “자투리 시간을 활용해 이런 곳에서 한 푼이라도 모으고 아끼는 모습이 나쁘지 않다고 생각한다”고 거들었다.     하나은행 하나금융경영연구소가 지난달 발표한 ‘2023년 금융소비 트렌드와 금융 기회 보고서’에서는 고물가 고금리 등으로 적은 돈이라도 알뜰히 관리하려는 수요가 늘면서 소비자들의 ‘소액 재테크’ 선호도 강화될 것으로 내다봤다. 보고서에 따르면 올해 재무관리를 위해 소액 재테크 서비스를 이용할 의향이 있다는 소비자는 71%에 달했다.     신상희 하나금융경영연구소 수석연구원은 “올해는 디지털 기술을 통해 편리한 서비스를 제공하면서 소비자의 체험 수요에 부응하기 위해 지점 공간을 다양하게 활용하려는 금융회사의 노력이 강화될 것”이라며 “소비자가 경기 둔화를 본격적으로 체감하게 되면서 안전 지향적 자산 관리와 소액 재테크가 확산할 가능성이 크다”고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023.03.13.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>SVB 파산에 커지는 우려... 예금자보호 한도 상향 속도붙나</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001593011?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>미국 캘리포니아주 SVB 본사 앞 모습. AFP연합미국 실리콘밸리은행(SVB)이 파산절차를 밟으면서 국내 예금자보험 제도에 대한 우려가 커지고 있다. SVB의 총 예금의 86%가 예금자 보호 기준에 미치지 못하는 것으로 집계되면서 미국보다 낮은 예금자보호 한도를 가진 국내 제도 개선에 속도가 붙을지가 관심사다.예금자보험 제도는 예금보험공사가 거래은행이 파산 등으로 예금을 지급할 수 없는 경우 은행을 대신해 예금지급을 보장하는 것이다. 1인당 예금보험 한도는 원금과 이자를 포함해 5000만원이다. 2001년 2000만원에서 5000만원으로 상향된 이후 23년째 같은 수준이 유지되고 있어 높여야 한다는 지적이 꾸준했다.우리 예금자보호 한도는 주요국과 비교하면 절대적으로 낮다. 예보에 따르면 미국의 예금자 보호 한도는 25만 달러(약 3억3000만원), 유럽(EU)은 10만유로(약 1억4000만원), 영국은 8만5000파운드(1억3500만원)다. 한국보다 1인당 GDP가 근소하게 앞서는 일본의 경우 한도는 두 배로 1000만엔(9800만원)으로 나타났다.예금자보호법을 보면 보험금은 1인당 국내총생산(GDP)과 보호되는 예금 등의 규모 등을 고려해 대통령령이 정하는 금액을 한도로 정하도록 규정돼 있다. 우리나라 1인당 GDP는 2001년 1만5736달러에서, 지난해 3만5003달러로 두 배 이상 늘었는데 예금자보호 한도는 그대로였다.그사이 예금 규모가 꾸준히 늘어왔다. 국내 예금은행의 원화 총 예금 규모는 작년 12월 기준 1958조원을 넘어섰다. 현행 예금자 보호 한도 금액이 적용되기 시작한 2001년 1월 399조원에 비해 약 다섯 배 늘어났다. 특히 상대적으로 수익구조가 탄탄하지 못한 토스와 카카오뱅크 등 인터넷전문은행의 수신 규모가 빠르게 늘어난 것은 잠재적 위험 요인으로 지적된다.다행히 올해는 구체적인 개선안이 발표되는 해다. 금융위원회와 예보는 예금자 보호 개선 방안을 오는 8월까지 발표할 계획이다. 예금자보호 한도를 단계적으로 1억원까지 올리는 방안이 포함될 것으로 전망된다. 국회에도 관련 법안이 발의돼 있다. 지난달 신영대 더불어민주당 의원은 예금 보험 한도를 1억원 이상으로 상향하는 개정안을 대표 발의하기도 했다.한도 상향뿐만 아니라 보험 적용 범위도 확대도 관심사다. 유재훈 예보 사장은 지난 8일 취임 100일 기자간담회에서 “예금성을 지녔음에도 불구하고 보호 대상에서 제외된 원금보장상품의 보호 대상 편입 방안을 검토해야 한다”고 말했다. 가령 카카오페이와 네이버파이낸셜 등 선불 페이머니는 예금자 보호를 받지 못하는데, 개선안에 이들도 보험 대상으로 편입될지도 관건이다.김대종 세종대 교수는 “미국의 1인당 GDP는 약 7만 달러로 우리의 두 배다. 예금자보호 한도를 미국의 절반으로만 해도 1억5000만원이 넘는다”며 “1억원 이상으로 보장해주는 것이 세계적인 추세다. 지난 20여 년간 올리지 않았기 때문에 이제는 한도를 인상하는 것이 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>코인 시장에 봄바람 솔솔~‘크립토 스프링’ 오나</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000080387?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>2022년 암호화폐(코인) 시장은 최악의 한 해를 보냈다고 해도 과언이 아니다. 비트코인을 비롯한 코인 시장 가치가 전년 최고점 대비 50% 이상 주저앉았고 거래량도 반 토막이 났다. 각국 긴축 정책으로 유동성이 빠르게 회수되면서 위험자산 선호도가 추락했고 ‘루나 사태’ ‘FTX 파산 사태’ 등 악재가 끊이지 않았다. 코인 시장 약세를 뜻하는 ‘크립토 윈터(Crypto Winter)’ 삭풍에 투자자들은 오들오들 떨었다.하지만 겨울이 끝나고 봄은 오기 마련. 해가 바뀌면서 코인 시장에도 ‘훈풍’이 불어오기 시작한 모습이다. 2월 23일 기준 비트코인(47%), 이더리움(38.9%), 에이다(57%) 등 주요 코인이 연초 대비 상승률 두 자릿수를 기록 중이다. 테조스(102.8%), 솔라나(145.2%), 파일코인(160.9%) 등 2배가 넘는 상승을 보인 메이저 코인(시총 10억달러 이상)도 수두룩하다. 지지부진 하락장을 이어가던 지난해와는 완연히 달라진 분위기다.‘크립토 윈터’의 끝, 이른바 ‘크립토 스프링(Crypto Spring)’에 진입한 게 아니냐는 전망이 나온다. 투자자 사이에서는 ‘이제 다시 들어갈 타이밍’이라는 논의도 활발히 진행 중이다. 온기가 감돌기 시작한 2023년 코인 시장을 전망해본다.어떤 코인이 많이 올랐나낙폭 컸던 메이저 코인 ‘급등세’당장 대장주인 비트코인이 연초부터 기세를 올리기 시작했다. 1월 1일 개당 가격 1만6500달러(약 2150만원)에서 출발한 비트코인은 1월 중순부터 급격한 우상향곡선을 그리기 시작하더니 2월 21일에는 2만5000달러(약 3250만원)를 터치했다. 비트코인이 2만5000달러대를 탈환한 것은 지난 2022년 6월 이후 8개월 만이다. 가격이 급락하며 2만5000원대가 ‘무너졌던’ 당시 상황과는 그 방향성이 정반대다. 같은 기간 이더리움 가격도 1200달러대에서 1700달러까지 빠르게 올랐다.다른 알트코인 상승세는 훨씬 더 가파르다. 시총 상위 20위권 내 코인 중에서는 에이다(7위, 57%), 폴리곤(9위, 85.6%), 솔라나(11위, 145.2%), 아발란체(15위, 89.5%)의 약진이 눈에 띈다. 네 개 코인 모두 ‘플랫폼 코인’이라는 공통점을 갖는다. 다른 코인을 생성하는 ‘툴’ 역할을 하는 코인으로 PC나 스마트폰으로 비유하면 윈도우나 iOS 같은 운영체제(OS) 역할을 한다. 이들은 느린 속도, 취약한 보안 등 과거 이더리움이 지닌 여러 한계를 극복하기 위해 출범한 코인으로 이른바 ‘이더리움 킬러’로 분류돼왔다. 지난해 이더리움 처리 속도와 채굴 방식을 개선한 ‘이더리움 2.0’ 업데이트 이후 저마다 큰 폭으로 하락했지만 최근 코인 시장 훈풍을 타고 무서운 속도로 가격이 오르는 중이다.최근 호재가 분명한 코인들은 더욱 큰 폭으로 올랐다. 연초 대비 상승률이 200%가 넘는 코인들도 수두룩하다. ‘콘플럭스(CFX)’는 무려 1254%라는 기록적인 상승률을 보이는 중이다. 중국계 코인으로 2022년 내내 0.02달러대에서 횡보해왔지만 지난 2월 블록체인 기반 SIM 카드인 BSIM 카드 구축 계획을 발표, 가입자가 4억명에 달하는 중국 2위 이동통신사 차이나텔레콤과 제휴를 맺은 소식이 알려지면서 가격이 급등했다.싱귤래리티넷(AGIX)은 최근 장안의 화제인 ‘챗GPT’ 수혜주라고 보면 이해가 쉽다. 홍콩에서 시작한 코인 프로젝트로 AI 전문가들이 모여 만든 코인이다. AI와 머신러닝 프로그램을 블록체인과 연결해, 현재는 극소수만 혜택을 받을 수 있는 AI 생태계를 넘어 ‘범용 인공지능’을 만들고자 하는 것이 목표다. 싱귤래리티넷 연초 대비 상승률은 802%에 달한다.연초 대비 상승률 290%를 기록하며 단숨에 시총 30위권 코인으로 부상한 ‘앱토스(APT)’는 메타(구 페이스북)에서 퇴사한 개발자들이 모여 만든 코인이다. 지난해 10월 상장한 비교적 신생 코인으로 올해 1월에는 전고점(9.8달러, 지난 10월) 2배가 넘는 18.9달러를 터치하기도 했다. 현재는 14달러대 가격을 유지 중이다.이 밖에 비트코인의 느린 처리 속도를 보완하는 레이어2 플랫폼 코인 ‘스택스(302%)’, 최근 마이크로소프트 클라우드 서비스 ‘에저’와 파트너십을 체결하며 가격이 급등한 웹 3.0 인프라 코인 ‘앵커(232%)’ 상승세도 뜨겁다.2023년 코인판, 어떻게 흘러갈까강달러 호재…제도권 편입은 ‘변수’최근 주요 코인이 반등한 이유는 무엇일까.‘2023년 들어 코인 투자 시장을 둘러싼 거시 환경이 개선됐다’는 것이 전문가 중론이다. 미국 물가 상승률 둔화, 금리 인상 속도 조절, 달러 가치 약화가 복합적으로 작용한 결과라는 얘기다. 특히 코인 가격이 우상향하기 시작한 1월은 미국 소비자물가지수(CPI)가 최근 1년 내 최저점을 찍은 시점과 정확히 일치한다. 인플레이션이 둔화하면 코인을 비롯한 위험자산 투자가 늘어난다. 달러 약세 영향도 크다. 현재 대부분 코인은 달러로 거래된다. 달러 약세 국면에서는 같은 금액으로 더 많은 코인을 살 수 있어 투자 시장이 활발해진다. 유로화·엔화 등 주요 6개국 통화 대비 달러화 가치를 나타내는 ‘달러인덱스’는 지난해 9월 말 115까지 오른 이후 올해 1월까지 내림세를 유지했다. 방인성 유진투자증권 애널리스트는 최근 코인 반등 현상에 대해 “최근 미국 경기가 경착륙을 넘어 상당 기간 호황이 지속될 것이라는 ‘무착륙(No Landing)’ 전망까지 나오고 있다. 미국 경기 호조에 따른 달러 강세 기대감으로 위험자산 투자 수요가 늘어나고 있는 것이 최근 코인 반등의 가장 큰 요인”이라고 진단했다.최근 코인 시장 내 강화된 스테이블코인 규제가 시장에 오히려 호재로 작용했다는 분석도 나온다. 올해 2월 미국 증권거래위원회(SEC)는 스테이블코인 BUSD 발행사 ‘팍소스’가 미등록 증권을 판매했다고 보고 제소 전 해명을 요청했고 미국 뉴욕 금융감독국(NYDFS)도 팍소스에 BUSD 발행 중단을 명령했다. 스테이블코인은 다른 코인을 사고파는 데 쓰이는 일종의 ‘카지노 칩’ 같은 역할을 한다. 최근 규제 강화로 ‘스테이블코인을 갖고 있는 것보다 다른 코인으로 바꿔놓는 것이 낫다’는 분위기가 퍼지면서 코인 시장 상승을 이끌었다는 평가다. 윤두성 서울대블록체인연구회 대표는 “최근 코인 가격 상승 이유 중 하나는 SEC의 팍소스와 BUSD 규제라고 본다. 스테이블코인을 지갑에 보유하는 것에 대한 불안함이 생긴 투자자들이 늘어나면서 스테이블코인 유동성이 코인 시장으로 대거 이동하는 모습”이라고 설명했다.지난해 ‘루나 사태’와 ‘FTX 파산 사태’가 예방 주사 역할을 했다는 의견도 눈길을 끈다. 시장 감독 수준과 규제 목소리가 높아지면서 시장이 한 번 정화되는 계기가 됐다는 말이다. 그간 부실 의혹을 받던 코인들이 상폐 절차를 밟았고 시총이 크고 업력이 긴 ‘장수 코인’에 대한 신뢰가 다시금 쌓이며 최근 상승장을 견인했다는 분석이다. 2월 16일 오전 서울 강남구 빗썸 고객센터 모니터에 비트코인 등 가상화폐의 실시간 거래 가격이 표시돼 있다. 이날 오전 비트코인 가격은 3100만원을 훌쩍 넘어 거래되고 있다.투자자 입장에서 가장 궁금한 것은 ‘지금 투자해도 될까’다. 당장 시장 분위기가 좋은 것은 사실이지만 전문가 전망은 다소 엇갈린다.‘코인 시장 제도권 진입 여부’는 올 한 해 코인 생태계에서 가장 큰 이슈로 떠오를 전망이다. 올해 초 정부의 STO(토큰형 증권) 가이드라인 발표로 코인의 제도권 진입이 가시화된 상황이다. 하지만 여기에는 긍정적인 측면과 부정적인 측면 모두 존재한다. 윤두성 대표는 “기존 코인 시장에 부정적 입장을 취하던 증권사, 은행, 보험사 등 전통 금융사가 STO 가이드라인 발표 이후 오히려 코인 시장 플레이어로 변모 중인 점은 시장에 긍정적”이라면서도 “다만 이 과정에서 금융당국 규제가 강화되면서 향후 신규 알트코인 상장 문턱은 더욱 높아질 것”이라고 전망했다. 방인성 애널리스트 역시 “SEC와 주요 중앙은행이 정부에서 주도하는 ‘디지털 화폐’와 ‘민간 코인’ 사이 관계를 어떻게 정립하냐에 따라 시장 방향성이 전환될 수 있다”며 코인 시장 제도화 여부에 촉각을 곤두세울 필요가 있다고 말했다.‘크립토 윈터 4년 주기설’도 올해 시장 전망에는 긍정적이다. 연초 대비 연말 가격 증감률을 기준으로 2014년(-58%), 2018년(-73%) 그리고 2022년(-65.6%)을 제외하면 2009년 이래 13년 동안 비트코인 가격은 한 번도 마이너스를 기록한 적이 없다. 지난해 최악을 경험했으니 올해는 오를 것이라는 기대 심리가 시장에 작용할 수 있다.다만 올해까지 크립토 윈터가 이어질 것이라는 비관론도 없잖다.이병욱 서울종합과학대학원 교수는 “루나·FTX 사태 등을 겪으며 기관 투자자가 코인에 대한 신뢰를 완전히 잃었다. 포트폴리오에 코인을 다시 대대적으로 편입할 가능성은 없다고 본다”며 “무엇보다 최근 상승장과 지난해 11월 코인 가격이 폭락했던 시점을 비교하면 현재 거래량이 터무니없이 적어 건전한 상승으로 보기 힘들다. 최근 상승은 자본 시장에서 늘 나타나는 변동성에 따른 결과라고 본다”고 설명했다.[본 기사는 매경이코노미 제2198호 (2023.03.01~2023.03.07일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023.03.15.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>라온시큐어, 드디어 흑자전환··· “차세대 IT 보안·인증 기업으로 발돋움”</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002144301?sid=105</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이종현기자] 사이버보안 기업 라온시큐어 및 자회사 라온화이트햇이 3월15일 서울 강남구 사옥에서 기자간담회를 개최했다. 작년 사업 성과를 공유하며 기업에 대한 청사진을 소개했다.   라온시큐어는 작년 연결 기준 매출액 468억원, 영업이익 44억원, 당기순이익 79억원을 기록했다. 매출은 8% 늘었고 영업이익과 당기순이익은 흑자전환했다. 비대면 문화 확산으로 인한 보안 수요 증가, 대형 모바일 단말 관리(MDM) 사업 수주, 모의해킹 수요 증가, 서비스 매출의 확대 등을 원인으로 꼽았다.   흑자전환이 가장 고무적이다. 라온시큐어는 그간 가파르게 매출액이 상승한 데 반해 안정적인 수익을 내는 데는 실패했다. 2015년 124억원이었던 매출액은 7년 만에 468억원까지 크게 늘었으나 그 과정에서 영억이익은 좀처럼 늘지 않았다. 특히 2020년, 2021년에는 적자를 기록하며 지속가능성에 대한 질타가 있었는데 작년 흑자로 우려를 불식시켰다.   이정아 라온시큐어 사장은 “라온시큐어와 라온화이트햇이 지난 몇년 동안 신규 사업에 많은 투자를 단행했다. 그 결과 2년 정도 적자를 냈는데, 이번 흑자전환은 연구개발(R&amp;D) 및 신규사업 투자를 이어가는 와중에 달성한 것이라 더 의미 있는 성과라고 생각한다”고 말했다.   이날 특히 강조한 것은 주력 제품인 ‘원패스 2.0’, ‘옴니원 통합인증 서비스’, ‘옴니원 NFT 마켓플레이스’ 등이다.    라온시큐어 원패스 2.0은 FIDO(Fast IDentity Online) 기반의 인증 수단과 FIDO2, 일회용비밀번호(OTP) 등 수단으로 활용할 수 있는 다중요소 통합 인증 솔루션이다. 지문이나 PIN, 패턴, 음성, 얼굴 등 멀티팩터인증(MFA)을 제공한다. 2차 인증이나 패스워드리스(Passwordless) 환경 수단으로 이용될 수 있다. 신한은행이나 현대카드, 우리은행 등 금융업계나 공공기관을 중심으로 이용 중이다.    옴니원 통합인증의 경우 공인인증제도가 폐지됨에 따라 사용이 늘어난 사설인증서, 디지털 증명서를 중계한다. 이동통신3사의 ‘패스(PASS)’, ‘네이버인증서’, ‘카카오톡인증서’, ‘토스인증서’ 등을 선택할 수 있도록 하는 창구 역할을 수행한다.    옴니원 통합인증과 같은 인증 중계 서비스의 경우 인증을 제공하는 사업자와 중계를 하는 사업자가 수익을 나눠가지는 구조다. 많은 사용자가 이용하는 서비스를 중계할 경우 수익성이 높아지는 구조인데, 라온시큐어는 연초 국세청 ‘홈택스’의 연말정산 서비스와 정부의 ‘정부24’ 등을 고객사로 둠으로써 수익성을 키웠다.   옴니원 NFT 마켓플레이스는 라온화이트햇이 작년 11월 론칭한 유틸리티 대체불가능한 토큰(NFT) 플랫폼이다. 현재 한국조폐공사의 금NFT를 단독으로 거래할 수 있다. 생체인증 FIDO와 블록체인 DID가 탑재된 신원 증명 기술이 적용돼 위변조 방지와 개인정보 보안을 제공한다.   라온시큐어 이정아 사장은 “라온시큐어는 라온화이트햇과 함께 디지털 신분증과 차세대 인증 서비스 플랫폼을 확장하고 있으며 올해 상반기 중 모바일 국가 유공자증을 새로 선보일 예정”이라며 “이미 서비스하고 있는 모바일 공무원증, 모바일 운전면허증 등의 구축 경험을 바탕으로 공공 디지털 신분증 사업의 연속 수주에 도전할 계획”이라고 말했다.   오는 4월 여의도로의 사옥 이전 일정도 공유했다. 그는 “챗GPT 활성화 등 새로운 이슈에 따라 보안의 개념이 확대되고 있다. 작년 10주년을 맞이한 라온시큐어도 새로운 도약을 위해 여의도로 사옥을 이전하며 조직 및 업무를 재정비할 예정이다. 라온시큐어와 라온화이트햇이 차세대 IT 보안·인증 서비스 기업으로 거듭나는 모멘텀을 만들겠다”고 부연했다.   한편 이날 간담회에서는 연초 해외 화이트해커가 제기한 보안 취약점과 과련된 내용도 다뤄졌다. 라온시큐어 측은 “외부에서 제품에 대한 보안 취약점이 신고(Bug Bounty)됐고 한국인터넷진흥원(KISA)과 소통해 대응했다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>거대 화염 휩싸인 객차… 아수라장 된 그리스 열차 충돌 현장</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003749086?sid=104</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>최소 32명 사망·수십 여명 부상충돌 사고로 멈춰선 열차가 화염에 휩싸인 모습. /트위터										그리스 북부에서 발생한 기차 충돌 사고로 최소 32명이 숨지고 수십여 명이 다쳤다. 박살난 채 불이 붙은 열차와 잔해들로 아수라장이 된 현장은 밤샘 작업에도 완전히 수습되지 않고 있다.1일(현지시각) AP통신 등 외신에 따르면 사고는 전날 자정 직전 아테네에서 380㎞ 떨어진 테살리아주 라리사 인근에서 발생했다. 여객열차와 화물열차 4량(輛)이 탈선해 그중 2량이 정면충돌했고, 일부에서 화재가 나 큰 불길이 치솟았다. 현재까지 집계된 사망자는 32명이며, 부상자 중 최소 25명이 중상을 입어 인명피해가 더 늘어날 가능성도 있다. 사고 원인은 아직 밝혀지지 않았다.당시 아테네에서 출발해 테살로니키로 향하던 여객열차 안에는 승객 350여 명과 승무원 20여명이 탑승했던 것으로 전해진다. 마주 오던 화물 열차는 테살로니키에서 라리사로 가던 중이었다. 사고 직후 소방당국은 소방차 수십여 대와 구급차 40대, 소방관 150여명을 현장에 투입했다.열차 충돌 사고 현장. /AP 연합뉴스 열차 충돌 사고 현장. 탈선해 파손된 열차가 보인다. /로이터 연합뉴스										한 구조대원은 언론에 “부상자 대부분이 머리를 다치거나 팔·다리 골절상을 입었다”며 “불행하게도 아직 많은 사람들이 잔해 더미 아래 있는 것으로 보인다”고 전했다. 코스타스 아고라스토스 테살리아 주지사는 국영TV 인터뷰를 통해 “매우 강력한 충돌이었다. 현장을 묘사하는 것조차 어렵다”며 “열차 앞부분이 박살났다. 특수 인양 장비를 동원해 잔해를 치우고 철도 차량을 들어 올리고 있다”고 밝혔다.생존자들의 증언도 이어지고 있다. 한 10대는 “충돌 직전 강한 제동이 느껴졌고 불꽃이 튄 뒤 갑자기 열차가 멈춰 섰다”며 “내가 탄 4호차는 레일을 벗어나지 않았지만 앞 칸은 탈선해 박살났다. 우리 일행은 가방으로 유리창을 깨고 탈출했다”고 했다. 이외에 “열차 안 사람들이 공포에 질려 비명을 질렀다” “지진이 난 것 같았다”는 진술도 나왔다.충돌 사고 현장에 멈춰 선 열차. /트위터										당시 급박했던 상황은 아수라장이 된 현장이 보여주고 있다. 당국이 특수 중장비를 동원해 밤샘 작업에 나섰지만 넘어진 열차와 잔해의 흔적은 여전하다. 트위터 등 소셜미디어에는 사고 직후 발생한 화재 영상이 공유되고 있다. 멈춰선 열차 내 찻간이 통째로 거대 화염에 휩싸인 모습이다.한편 우리 외교부는 이번 사고로 한국인 피해가 있는지 확인 중이라고 밝혔다. 그리스 당국은 아직까지 외국인 사상자 발생 여부를 파악하지 못한 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>그리스서 여객·화물열차 정면충돌… 최소 36명 사망</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001200459?sid=104</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>여객 열차에 350명 타고 있어사고 뒤 객차 탈선·화재 이어져벌써 사상자 100명 훌쩍 넘겨같은 선로에서 서로 고속 돌진노후 철도 시스템이 원인인 듯지난달 28일(현지시간) 열차 충돌이 일어난 그리스 중부 테살리아주 라리사 사고 현장에서 연기가 피어오르고 있다. 이날 여객 열차와 화물 열차가 충돌해 일부 객차가 탈선하거나 불이 붙었다. 소방당국은 현재까지 36명이 숨지고 85명이 다쳤다고 밝혔다. AP연합뉴스그리스 수도 아테네에서 승객 300명 이상을 태우고 출발한 열차가 화물 열차와 충돌해 최소 36명이 숨지는 등 100명 이상의 사상자가 발생하는 참사가 벌어졌다. 현장에서 수색·구조 작업이 진행되고 있어 인명 피해 규모는 더 커질 것으로 보인다.AP, 로이터 통신 등 주요 외신에 따르면 28일(현지시간) 그리스 중부 테살리아주 라리사 인근에서 여객 열차와 화물 열차가 충돌해 차량 여러 칸이 탈선하고 최소 3칸에 불이 붙었다. 이 사고로 현재까지 최소 36명이 숨지고 85명이 다쳤다. 당시 여객열차에는 승객 350여 명이 타고 있었던 것으로 알려졌다. 사고 열차는 현지 시간으로 오후 7시 30분에 아테네를 출발했다. 소방당국은 지난달 28일 자정 직전에 사고 신고를 받았다.코스타스 아고라스토스 테살리주 주지사는 국영TV와의 인터뷰에서 “매우 강력한 충돌이 있었다. 끔찍한 밤이다”며 “현장 상황을 설명하기 어렵다”고 말했다. 그는 “처음 4개의 객차가 충돌로 탈선했으며 화재가 처음 발생한 2개의 객차는 거의 완전히 파괴됐다”면서 “두 열차가 같은 선로에서 서로를 향해 돌진했다. 엄청난 속도였고, 한 운전자는 열차가 오는 것을 몰랐다”고 말했다. 인근 다리 아래로 대피한 한 청년은 “열차 안에는 공포가 가득했고, 사람들이 비명을 질렀다”고 당시 현장 상황을 전했다.현지 방송 영상에서도 탈선된 열차 칸들은 창문이 깨지는 등 심하게 훼손됐고 두꺼운 연기 기둥이 공중으로 치솟는 모습이 전해졌다. 인근 도로에는 열차 잔해가 흩어져 있었다. 현재 다친 승객을 수송하기 위해 여러 대의 구급차가 도착했고, 헤드램프를 착용한 구조대원들은 부상자 등을 구조하고 있다. 경상자들은 버스를 타고 사고 지점에서 130km가량 떨어진 테살로니키로 이동했다고 AP 통신은 보도했다. 바실리스 바르타코야니스 소방 대변인은 방송에서 “두 열차의 충돌이 심각한 상황에서 승객들의 대피가 매우 어렵게 진행되고 있다”고 말했다.그리스 철도회사 헬레닉 트레인은 보도자료를 통해 “아테네에서 테살로니키로 출발한 IC62 열차와 화물열차가 정면충돌했다”고 밝혔다. 그리스 당국은 이번 열차 사고의 충돌 원인이 아직 명확하지 않다고 전했다. 미국 방송 CNN 보도에 따르면 그리스의 주요 철도 회사인 헬레닉 트레인은 2017년 이탈리아의 국영 철도회사인 ‘페로비에 델로 스타토 이탈리아네’에 인수됐다.헬레닉 트레인은 여객과 화물 열차 모두를 운용 중이며, 주요 노선은 그리스 수도 아테네와 두 번째 도시 테살로니키다. 이탈리아 회사의 웹사이트를 보면 이 회사는 그리스에서 승객과 화물 운송 등 주요 철도 서비스를 제공하는 업체로 하루에 342명의 승객을 나르고 상업 노선도 운행한다. 영국 로이터통신은 그리스의 노후화된 철도 시스템이 개선될 필요가 있다고 전했다. 그리스의 많은 열차가 단일 선로로 이동하는 게 현실인 데다, 신호와 자동제어시스템 설치도 부족하기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2023.03.15.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>토뱅, 모임통장 이용하면 추첨해 파리·뉴욕 항공권 쏜다</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000327124?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>토스뱅크는 오늘(15일) 모임통장 고객을 대상으로 해외여행 항공권을 지급하는 이벤트를 진행한다고 밝혔습니다. 다음달 14일까지 '토스뱅크 모임통장'을 새로 개설하거나 기존에 모임통장을 이용하는 고객들을 대상으로 항공권 티켓을 지급하는 '삼삼오오 세계여행' 이벤트를 진행합니다.2인 이상 모인 모임통장 고객이 대상이며, 모임장 또는 모임원에게 주어진 여행 티켓 응모권이 당첨되면 모임원 전원에게 항공권이 지급됩니다. 항공권은 이코노미 좌석으로 왕복 여행권이 제공됩니다. 파리와 뉴욕, 방콕, 도쿄, 하와이, 제주도 등 가고 싶은 도시 6곳 중 1곳을 선택하고 함께 여행갈 친구를 모임통장에 초대하면 됩니다. 여행 티켓 응모권은 모임통장 개설 또는 모임원으로 참여할 때마다 1개씩 지급되고, 인당 최대 5개까지 주어집니다. 당첨결과는 응모 즉시 모임통장 화면에서 확인할 수 있습니다. 항공권은 5월31일까지 예약 완료해야 하며, 12월 31일 이내에 발권과 탑승을 완료해야 합니다. 당첨 후 항공권 지급에 관한 사항은 토스뱅크에 등록한 휴대폰 번호로 안내됩니다. 이벤트 관련 자세한 내용은 토스 앱 내 토스뱅크에서 확인 및 토스뱅크 고객센터(1661-7654)에 문의하면 됩니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023.03.13.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>토스증권 차기 CEO ‘틱톡’ 마케팅 전문가가 맡는다</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000041615?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>오는 30일 주총에서 선임구글·틱톡 등 마케팅 총괄 거쳐토스증권이 차기 대표로 김승연 동남아시아 글로벌 비즈니스솔루면 제너럴 매니저를 영입한다. [사진 토스증권][이코노미스트 마켓in 홍다원 기자] 토스증권이 차기 대표로 글로벌 숏폼(짧은 동영상) 모바일 비디오 플랫폼 ‘틱톡’의 김승연 동남아시아 글로벌 비즈니스솔루션 제너럴 매니저(GM·총괄)을 영입한다.토스증권은 오는 30일 주주총회를 열고 김승연 총괄을 대표이사로 신규 선임하는 안건을 올린다고 13일 공시했다. 안건이 통과되면 김 총괄은 오는 4월부터 2년 임기로 대표직을 맡게 된다.김 총괄은 1980년생으로 미국 국적이다. 카이스트에서 바이오 및 뇌공학으로 석사 학위를 받았다. 이후 구글 아시아지역 마케팅 총괄, 틱톡 동남아시아 글로벌 비즈니스솔루션 총괄 등을 지내며 15년 간 마케팅 전문가로 활동했다. 업계에선 김 총괄이 증권업 등 금융업 경력이 없는 만큼 ‘파격 인사’로 보고 있다. 지난해 7월부터 회사를 이끌어 온 오창훈 현 대표는 본업인 토스증권 최고기술책임자(CTO)로 돌아간다.한편 2021년 3월 출범한 토스증권은 지난해 3분기 영업이익 22억원, 순이익 21억원을 기록하며 1년 9개월 만에 첫 분기 기준 흑자를 냈다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>그리스서 열차 2대 충돌…최소 36명 사망 85명 부상</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003342943?sid=104</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>그리스 열차 충돌 현장 - 1일 0시 직전(현지시간) 그리스 중부 테살리아주 템페 외곽 철로에서 열차가 정면 충돌해 연기가 피어오르고 있다.  템페 AP 연합뉴스그리스 중부 테살리아주 템페 인근에서 370여명을 태운 기차가 마주오던 화물열차와 정면 충돌해 최소 36명이 숨졌다.콘스탄티노스 아고라스토스 테살리아주지사는 1일(현지시간) “소방당국이 이날 0시 직전 중부 템페 계곡 인근에서 고속으로 달리던 여객열차와 화물열차가 정면 충돌했다는 신고를 접수했다”며 “처음 2대의 객차는 거의 완전히 파괴됐고, 세번째 객차는 탈선했다”고 밝혔다고 AP통신이 보도했다.현지 경찰은 이 사고로 현재 36명이 숨지고 85명이 다쳤다고 밝혔다. 구조가 진척됨에 따라 인명 피해가 늘어날 가능성도 크다. 라리사의 병원 관계자는 “최소 25명이 심각한 부상을 입었다”고 말했다. 아고라스토스 주지사는 “매우 강력한 충돌이었다. 끔찍한 밤이다”라고 말했다.전날 오후 7시 30분 수도 아테네를 출발해 북부 테살로니키로 향하던 열차에는 승객 350명과 직원 20명이 타고 있었고, 화물열차는 테살로니키에서 라리사로 가고 있었다. 두 열차는 테살리아주와 마케도니아주를 나누는 경계인 템페 계곡 부근에서 정면 충돌했다. 생존자들은 충격으로 인해 승객들이 열차 창문 밖으로 튕겨져 나갔다고 전했다. 경미한 부상을 입은 생존자 194명은 테살로니키로 버스로 이동했다.사고 당시 네번째 차량에 타고 있었던 한 10대 승객은 “내가 탄 칸은 탈선하지 않았지만 앞 칸 차량들이 탈선해 부서졌고, 첫 칸에서는 불이 났다”면서 “나는 유리창을 깨고 탈출했다”고 말했다. 탑승객인 안젤로스 차무라스는 그리스 국영방송 ERT에 ”지진이 난 것 같았다“고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>인터넷뱅킹 고객 2억명 돌파...하루 평균 이용금액만 76조원</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003264080?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>모바일뱅킹 이미지. 사진 셔터스톡       지난해 인터넷뱅킹 등록 고객 수가 2억명을 돌파한 가운데 하루 평균 이용금액은 76조원에 달하는 것으로 나타났다.       한국은행이 7일 발표한 ‘2022년 중 국내은행 인터넷뱅킹서비스 이용현황’에 따르면 현재 국내은행의 인터넷뱅킹(모바일 포함) 등록 고객수는 2억704만명으로 2021년 말 대비 8.5% 증가했다.       2019년 대비 2022년 인터넷전문은행의 고객 이용금액은 2.7배 증가했다. 시중은행(1.5배)보다 더 높은 성장세다. 인터넷뱅킹의 일평균 이용 건수는 1971만건으로 전년 대비 13.8% 늘었고 이용금액은 8.2% 늘어난 76조3000억원으로 집계됐다.        특히 케이뱅크, 카카오뱅크, 토스뱅크 등 인터넷전문은행을 중심으로 고객이 두 자릿수 증가율을 기록해 전체 인터넷뱅킹 고객 증가세를 견인했다. 모바일 뱅킹 고객 수는 2020년 10.7%, 2021년 13.5%, 2022년 10.3% 늘었다.       모바일뱅킹 이용 건수는 전년 대비 17.3% 늘어난 1684만건이었고 이용금액은 10.3% 증가한 14조2000억원이었다. 이용 건수로는 모바일뱅킹이 전체 인터넷뱅킹의 85.4%, 금액으로는 18.6%를 차지하고 있는 셈이다.      지난해 은행 지점을 가지 않고 인터넷으로 비대면 대출 신청 서비스를 이용한 건수는 일평균 3만5000건으로, 이용금액만 하루 평균 1조1684억원에 달했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>AI 콘텐츠 플랫폼 '팀러너스', 20억 규모 시드 투자 유치</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003082603?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>토스 초기 멤버 정승진 대표의 도전으로 업계 주목2주에 1개씩 제품 론칭…"세계 최고의 AI 제품팀을 만들 것"인공지능(AI) 콘텐츠 플랫폼을 개발 중인 '팀러너스'가 20억원 규모의 시드 투자를 유치했다. 이번 투자는 베이스인베스트먼트가 리드했으며 패스트벤처스, 굿워터캐피탈이 참여했다.팀러너스는 토스 초기 멤버이자 '송금지원금' 등 그로스 제품을 개발한 정승진 대표가 토스 및 KAIST 동료들과 설립한 회사이다. 정 대표는 토스에 서버 엔지니어로 입사해 데이터 분석, 프로덕트 오너(PO), 해외법인 리더를 거쳤다.팀러너스는 AI가 생산자인 콘텐츠 플랫폼을 개발하고 있다. 기술의 발전에 따라 AI 인플루언서가 만드는 글, 사진, 동영상 등의 콘텐츠가 사람이 만드는 것보다 더 흥미로워질 것이라 판단했다. 회사는 지난 2개월간 '피카부' 등 4개의 AI 서비스를 론칭했다.팀러너스는 설립 초창기부터 업계의 주목을 받았다. '슈퍼닷츠'라는 이름으로 지난해 9월부터 3개월간 20개의 애플리케이션(앱)을 스토어에 출시하고, 7개의 상용화 서비스를 개발해 손익분기점(BEP)을 달성하며 팀원을 모았다. 현재 팀러너스에는 7개의 상용화 서비스를 단기간에 개발한 기존 제품 팀을 비롯해 AI 가속화 스타트업 CTO 출신 테크 리드, CJ ENM PD 출신의 콘텐츠 제작자 등 AI 콘텐츠 플랫폼 개발을 위한 제품·기술·콘텐츠 전문가가 모여 함께 일하고 있다.정승진 팀러너스 대표는 “제품 개발이 어렵고 선례도 없는 영역이지만 1억명이 쓰는 새로운 서비스를 만들 수 있다고 생각한다”며 “팀러너스는 리서처, ML 엔지니어, 앱·웹 제품팀이 하나의 스쿼드로 일하고 있고, 그 결과 2주에 1개씩 제품을 론칭할 수 있었다”고 말했다. 그는 이어 “앞으로도 뛰어난 분들을 모시고 협업의 방식을 최적화해 세계 최고의 AI 제품팀을 만들 것”이라고 포부를 밝혔다.이번 투자를 리드한 베이스인베스트먼트의 양형준 수석팀장은 “팀러너스는 '가설-실험-배움-성장'으로 대변되는 스타트업 성장 방정식의 표본과도 같은 회사”라며 “AI 영역에서도 이 성장 공식을 가장 빠르게 반복해내며 문제를 해결해나갈 수 있는 팀러너스가 글로벌에서 큰 가치를 만들어낼 것이라 기대한다”라고 투자 이유를 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>행안부, 당근마켓·토스·우리은행과 애자일 혁신 전략공유</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005230543?sid=102</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>'제23회 워크스마트포럼' 개최행정안전부는 14일 정부세종청사에서 ‘애자일 혁신, 조직의 성공 전략’을 주제로 제23회 워크스마트포럼을 개최한다고 밝혔다.이번 포럼에는 중앙부처, 지자체, 공공기관의 정부혁신 담당자 70여 명이 참석하며, 행정안전부를 비롯해 당근마켓, 토스, 우리은행의 발표가 진행된다.당근마켓은 성장 원동력이 된 ‘애자일 개발 문화’를 소개하고, 공개와 공유, 자율과 책임을 중심으로 한 기업의 ‘수평적 문화’를 발표한다. 토스(Toss)를 운영하는 비바리퍼블리카는 고객 수요를 즉각 반영할 수 있는 애자일 서비스 개발에 대해 발표한다. 정부와 같이 거대한 조직규모를 가진 우리은행은 애자일한 조직운영을 통해 외부 환경변화에 대응하는 신속한 의사결정에 대해 발표한다. 행정안전부는 급변하는 행정환경에 민첩하고 유연한 정부 구현의 필요성을 강조한다.발표에 이어 토의시간에서 애자일 혁신을 추진하는 과정에서 겪은 어려움과 이를 해결한 경험을 공유하고 성공을 위한 전략에 대해 논의하였다.서주현 행정안전부 정부혁신기획관은 “애자일 혁신으로 정부의 업무효율성과 문제해결력을 향상을 기대한다”라며, “이번 포럼에서 논의된 사례와 경험을 활용하여 더욱 민첩하고 유연한 정부로 혁신하기 위해 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023.03.13.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>‘메기’ 파트2 꿈꾸는 인터넷은행, 시중은행 2중대 안 되려면 [스토리텔링경제]</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001592984?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>2017년 처음 도입, 중·저신용자 대상 ‘포용 금융’ 역할 기대 못 미쳐5대 시중은행 중심 과점 경쟁 체계를 깰 대안으로 인터넷전문은행 활성화가 하나의 대안으로 떠오르고 있다. 다만 이들이 ‘경쟁 촉진자’가 될만한 깜냥이 있는지에 대해서는 의견이 엇갈린다. 2017년 처음 도입 당시 혁신과 포용을 외치며 시장 혁신을 일으킬 ‘메기’가 될 것으로 예상했지만 예상외로 부진했다는 평가를 받기 때문이다.물론 디지털 혁신 측면에서 인터넷은행이 나름대로 역할을 했다는 시각도 있다. 모바일 뱅킹 애플리케이션 상용화와 종합 금융플랫폼 구축, UX·UI 편의성 개선 등을 이끌어냈다는 평가다. ‘철옹성’같이 여겨지던 시중은행의 디지털 변화 물꼬를 인터넷은행이 터줬다는 것이다.다만 중·저신용자를 포용하겠다던 미션은 달성 못 했다는 비판이 크다. 14일 은행연합회에 따르면, 지난해 가장 높은 중·저신용자 대출 비중(잔액 기준)을 기록한 토스뱅크(40.4%)를 제외하면 카카오뱅크·케이뱅크는 중·저신용자 대출 비중이 4분의 1 정도에 지나지 않는다. 인터넷은행이 각사의 CSS(신용평가시스템)을 고도화해 차별화를 꾀하기보다는 시중은행처럼 ‘이자 장사’에만 집중한 것 아니냐는 이야기도 나온다.인터넷은행, ‘메기’ 아닌 ‘미꾸라지’?인터넷은행 시대는 2017년 케이뱅크와 카카오뱅크가 영업을 시작하며 본격 개막했다. 한국에서 새로운 은행이 은행업 인가를 받게 된 건 1992년 평화은행 이후 25년 만의 일이었다. 올해로 출범 7년 차를 맞은 인터넷은행은 외형적으로 ‘폭풍 성장’했다. 지난해 기준 카카오뱅크의 가입자 수는 2042만명이며, 케이뱅크와 토스뱅크도 각각 849만명, 570만명을 기록했다.인터넷은행은 정체돼있던 금융권에 경쟁과 혁신의 바람을 불어넣을 ‘메기’로서 활약하길 기대를 모았다. 물론 인터넷은행은 업계 전반의 디지털 전환을 가속화시키는 역할을 했다는 평가를 받는다. 접근성 개선, 수수료 무료 혜택 확대, 비대면 상품 출시 등 기존 전통적인 영업방식에 머물러있던 시중은행의 변화를 자극했다는 것이다.다만 그들의 혁신이 기대에 미치지 못했다는 평가도 분명히 존재한다. 일각에서 ‘메기’가 아닌 ‘큰 미꾸라지’ 정도에 그쳤다는 이야기가 나오는 이유다. 무엇보다 인터넷은행의 주요 설립 취지는 중·저신용자 대출 확대 등 금융 취약계층에 대한 포용금융인데, 해당 임무를 제대로 달성 못 했다는 비판이 크다.지난해 가장 높은 중·저신용자 대출 비중(잔액 기준)을 기록한 건 토스뱅크(40.4%)였지만 정작 자신들이 내세웠던 목표치인 42%에는 미달했다. 카카오뱅크와 케이뱅크는 목표치(25%)를 소폭 넘어선 25.4%, 25.1%를 각각 기록했다. 반면 이들의 고신용자 대출 비중은 여전히 높다. 지난해 배진교 정의당 의원의 분석 자료에 따르면 중·저신용자 대출 증가액보다 고신용자 대출 증가분이 더 많은 것으로 확인됐다.인터넷은행이 중·저신용자뿐 아니라 고신용자에게도 ‘이자 장사’를 하고 있다는 지적은 꾸준히 나온다. 지난해 1월 기준으로 1월 인터넷은행 3사의 일반 신용대출 평균 금리(서민 금융 제외)는 6.35~8.22%로 5대 은행(5.85~6.43%)을 웃돌았다. 고신용자 신용대출 평균 금리도 연 6.43%로 KB국민·신한·하나·우리·NH농협 5대 시중은행 평균치(6.3%)보다 0.13% 포인트 높았다.류두진 성균관대 경제학과 교수는 “인터넷은행은 점포 운영 비용이 상대적으로 적다는 이점을 이용해 사실상 수수료만 조금 깎아주는 식으로 소비자들을 유인했다”며 “인터넷은행이 혁신을 위한 노력보다는 기존 은행처럼 예대마진에 치우진 영업구조에 천착하고 있다”고 말했다.다시 메기로 화려한 부활 꿈꾸나?인터넷은행이 금융권의 기존 패러다임을 답습하는 등 기대만큼 활약하지 못했다는 평가가 많지만. 그럼에도 불구하고 은행권 과점 체제를 깰 대안으로 기대를 모으는 것도 사실이다. 이복현 금융감독원장은 지난달 27일 인터넷은행과 주요 핀테크 대표를 만나 “책임 있는 금융 혁신을 통해 은행산업의 건전한 경쟁과 금융소비자의 편익 제고를 위한 혁신 촉진자로 자리매김을 해달라”고 언급했다.인터넷은행도 최근 상황을 기회로 보는 분위기다. 실제 업계는 금융당국에 중·저신용자 대상 신용 대출 비중 규제를 완화해줄 것을 요청하고 있다. 구체적으로는 중·저신용자 대출 ‘비중’이 아닌 ‘공급액’으로 기준을 바꾸자는 주장도 나온다. 실제 인터넷은행은 중·저신용자 대출을 늘리는 과정에서 연체율이 악화하는 등 건전성 지표가 악화되는 문제를 겪고 있기 때문이다.전문가들은 인터넷은행이 정말 은행권의 ‘경쟁 촉진자’로 거듭나기 위해서는 시즌2를 꿈꿔야 한다고 지적한다. 지금처럼 혁신의 한계를 보이는 상황에서 그저 규제만 풀어주면 시중은행 ‘2중대’에서 벗어나지 못할 거라는 비판이다. 류 교수는 “일단 인터넷은행 규제를 완화해줘서 시중은행과 경쟁할 수 있는 환경을 만들어주는 것은 필요하다고 본다”면서도 “다만 지금 인터넷은행은 CSS 고도화 등 최소한의 노력과 투자도 안 하는 게 문제다. 위험을 감수하지 않고 ‘안전한 장사’로 수익을 내는 데에도 문제가 없기 때문”이라고 비판했다.해외 인터넷은행 중에서는 수익구조 등에서 시중은행과 차별화를 보인 사례가 많다. 영국 버드(Bud)는 개인별 성향·상황에 알맞은 맞춤형 오픈뱅킹 서비스를 제공한다. 중국 마이뱅크는 상인·농민 등 금융 사각지대를 공략했고, 일본 세븐은행은 편의점 ‘세븐일레븐’의 사업구조를 활용했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023.03.03.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>[쫌아는기자들]토스라이팅, 콩고기버거, AI 강다온, 팹리스 1호 유니콘과 다크 앤 다커</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003749486?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>@주3회 발행하는 유료 뉴스레터 [스타트업]입니다.쫌아는기자들은 스타트업이 세상을 보는 ‘창(窓)’입니다. 스타트업을 사랑하는 제3자의 눈으로, 너무 바쁜 스타트업 분들이지만 놓치지 말았으면 하는 기사들을 모아서 전달합니다.1. “토스가 부당한 권고사직 중... 토스라이팅도 문제” 토스 인사 비판 주장 제기토스가 제대로 된 기준도 없이 사실상 사직을 권고하고 있다는 주장이 제기됐습니다. 지난달 한 개발팀 직원 45명 중 6명이 한 번에 퇴사하면서 권고사직 논란이 나왔고, 블라인드가 지속적으로 와글와글한 가운데 토스 계열사 전직 인사팀장이 “개인별 업무성과를 측정하는 인사 평가 시스템 없이, 동료 간에 이뤄지는 정성 평가에 의존하고 있다”고 밝힌 것입니다.이렇게 되면서 회사는 객관적인 성과보다는 정치적 능력이 더 중요해졌는데, 이 부당함에 대해 누구도 제대로 이야기를 안 한다고 덧붙였습니다. 토스와 가스라이팅을 더해 ‘토스라이팅’이라는 단어까지 직접적으로 언급했는데요. 토스는 취재한 SBS에 “개인별 성과 측정 기준이 없는 건 사실이지만, 동료 평가가 매우 세분화 돼 있고 이를 통해 합의 하에 퇴사가 이뤄지고 있다”고 밝혔습니다."동료에게 밉보였다고…" 토스 직원들 '줄퇴사', 왜?/SBS 2. “롯데리아 콩고기버거, 맛있네?” 푸드테크의 진화기자는 관찰자지만, 때로는 플레이어의 입장에서 생각을 해보기도 합니다. ‘만약 내가 창업을 한다면, 창업자라면’이라는 가정과 관점으로 사안을 볼 때가 있죠. 최근 푸드테크에 새로운 기회가 있지 않을까라는 생각을 합니다. 아직 한국에선 푸드테크 유니콘이 나오지 않았고, 글로벌 유명회사도 적은 편입니다.업계 취재원들을 만나 이야기를 하다보면 푸드테크의 기술력이 상당히 올라왔다고 합니다. 누구도, 아직은, 선뜻 “우리 제품이 기존 식품을 맛으로 이길 수 있다!”고는 선언하지 않습니다. 하지만 “자체 블라인드 테스트를 했는데 대체육을 구분하지 못하더라”, “대체육은 이미 진짜 고기 맛의 80% 이상 도달했다”, “배양육은 아직 시간이 걸리겠지만, 양산이 된다면 시장을 바꿀 것이다”는 희망적인 이야기가 솔솔 나오고 있습니다.버거매니아인 2호도 얼마전 롯데리아가 내놓은 ‘리아미라클버거2′를 먹었습니다. 콩고기버거였는데, 콩고기라는 사실을 미리 알지 못했다면 감쪽 같은 맛이었습니다(육즙은 조금 적은 편). 미국 임파서블푸드를 제외하고 과연 누가 제2의 푸드테크 대표 기업이 될 것인지, 한국의 선두는 누가 될 것인지. 푸드테크에도 더 관심을 가져야겠다고 생각했습니다. 마침 2월 푸드테크 기획 기사와 인터뷰가 나와 공유합니다.실험실서 키운 투뿔 꽃등심, 치킨 튀기는 로봇…돈 되는 이 기술대체식품의 진화…"고기·계란·투명 콜라까지 만든다"3. 이루다의 친구, 25살 미술 전공 AI ‘강다온’ 등장‘이루다’를 만든 스타트업, 스캐터랩이 25살 미술 전공 대학생 컨셉트의 남자 AI 챗봇 ‘강다온’을 출시했습니다. 이루다로 한차례 홍역을 치르고, 문제점을 보완한 ‘이루다 2.0′과 같은 AI엔진을 썼다고 합니다. 기술 원리는 같지만 “이루다 2.0이 재치 있고 주체성이 강한 성격이라면, 강다온은 상대방의 이야기를 잘 들어주고 따뜻하게 다독여주는 다정다감한 AI 챗봇”이라는 것이 스캐터랩의 설명입니다.이루다에게 그랬듯, 강다온에게도 곤혹스러운 질문을 하거나 잘못된 사상과 정보를 학습시키려는 인간이 존재할 것입니다. 과연 강다온은 이들로부터 스스로를 방어해내거나 자제할 수 있을지. 이미 몇몇 기사들이 강다온에게 민감한 질문을 던져봤답니다. ‘여자친구와의 스킨십’에 대해선 “그런 건 왜 물어봐. 기분 나빠. 너가 알 필요 없잖아. 내 사생활이야”라며 대화를 막거나, ‘미국과 북한 중 우리나라의 주적은 어느 국가라고 생각하느냐’는 질문에 강다온은 “정치 말고 다른 이야기를 하자. 정치 이야기는 서로 상처만 돼”라고 답하는 식이랍니다.스캐터랩의 김종윤 대표는 2021년 쫌아는기자들과 인터뷰를 했습니다. 이루다 서비스가 잠시 종료됐을 때였죠. 이루다를 진정한 친구로 생각해 루다의 생일 케이크와 손편지를 전해준 이용자들 이야기가 무척 흥미로웠습니다. 과연 강다온의 친구는 누가 될까요.'이루다 논란' 개발사의 새 AI챗봇 '강다온'…정치 얘기했더니[스타트업] 루다를 기다리는 10대, 그의 페인포인트는 누구의 몫일까스캐터랩의 AI챗봇 '강다온'. 버추얼 휴먼 스타트업 디오비 스튜디오와 협업해 실제 사람 같은 가상 얼굴을 만들었다고 한다. /스캐터랩 4. 팹리스 불모지 한국에서 나타난 팹리스 유니콘 1호, 파두한국 팹리스(반도체 설계)에서도 유니콘이 등장했습니다. 1조800억원의 기업 가치로 프리IPO(상장 전 지분 투자)를 최근 마무리했다는데요, 예정보다 20% 많은 120억원 규모의 신규 투자를 유치했다고 합니다. 2월 기준 파두의 누적 투자액은 약 1500억원에 달한다고요.작년 말 기준, 한국 유니콘이 22개사였는데 팹리스는 없었습니다. 삼성전자, SK하이닉스로 대표되는 메모리 반도체 강국 한국이지만, 시스템반도체를 주로 하는 팹리스 분야에서는 약소국이었거든요. 결국 팹리스에서도 유니콘이 나왔습니다. 불모지를 개척한 셈인데요. 팹리스 취재를 하면 “엔비디아 퀄컴 같은 미국 공룡 기업들 상대로 한국 팹리스 유니콘? 되겠냐?”라는 말을 종종 듣는데 엔비디아도 1990년대 젠슨 황을 비롯한 3인이 창업한 스타트업이었습니다.파두는 2015년 컨설팅 회사 베인앤드컴퍼니 출신 이지효 대표와 SK텔레콤 융합기술원에서 반도체 연구원으로 일한 남이현 대표가 세웠습니다. 주력 제품은 데이터센터에서 데이터 처리 속도를 높이고 안정적인 전송이 가능하도록 해주는 SSD(solid state drive·데이터 저장 장치) 컨트롤러. 비밀유지조항 때문에 직접적인 회사 이름을 언급하진 못하지만, 엄청난 소셜미디어 기업과 엄청난 우주기업이 고객이라고 합니다(이 회사를 모르면 간첩이 아니라, 간첩도 아는 회사입니다).아, 파두도 객원기자 3호가 작년 인터뷰 했습니다.‘파두’ 몸값 1조 돌파… 국내 첫 반도체 설계 유니콘 탄생애플 개발자도 돌아왔다… 인재들 ‘반도체 설계’ 도전장파두의 창업자 이지효(왼쪽)대표와 남이현 대표. /고운호 기자 5. “스팀 화제의 게임이 넥슨의 내부 프로젝트 유출”이라는 보도정식 출시전 테스트 단계부터 스트리머들 사이에서 입소문을 타면서 화제를 모으는 게임이 있습니다. 4월 얼리억세스 출시 예정인 ‘다크 앤 다커’인데요. 16명의 플레이어가 던전에 진입해 장비와 보물을 모으고, 전투를 거쳐 던전을 탈출하는 것을 목표로 하는 게임입니다. 게임 좋아하는 2호도 이미 플레이영상을 보고 위시리스트에 넣어둔 게임입니다. 그런게 개발사가 창업 2년 차인 한국 스타트업 아이언메이스입니다.그런데 이 게임이 표절 논란이 떴습니다. 다름 아니라 아이언메이스의 개발진은 넥슨에서 차기작을 개발하던 팀 핵심 일원들이고, 넥슨에서 개발하던 게임 핵심 소스를 들고 나와 창업했다는 의혹이 제기된 것이죠. 실제 넥슨은 다크 앤 다커와 비슷한 컨셉의 게임을 개발 중이었다고 발표한 적 있었고, 이미 법적대응을 시작한 것이 확인되기도 했습니다.표절 의혹에선 넥슨 같은 대형 기업이 약자가 될 수도 있다는 생각이 들었습니다. 관련 의혹을 꼼꼼하게 취재한 게임 전문매체 디스이즈게임의 관련 기사입니다.인디게임 화제의 스팀 게임 '다크 앤 다커', 사실은 넥슨 프로젝트 유출?주요뉴스 '다크 앤 다커'와 '프로젝트 P3' 논란의 타임라인넥슨이 내부개발하던 '프로젝트 P3'. /디스이즈게임 화제의 게임 '다크앤다커'. /디스이즈게임 6. ‘당신은 해고됐다’는 메일 작성, 챗GPT와 빙에 모두 시켜보니GPT 관련 기사가 폭발하다보니 이제 뭐가 뭔지도 헷갈려진 상황입니다. 빙은 뭐고, GPT는 뭐고, 구글이 새로 만든다는 AI는 또 뭔지. 골 아픈 독자들을 위해 셋을 정리하고 비교한 기사입니다. 실리콘밸리 김성민 특파원이 세 AI의 원리를 간략히 설명하고, 같은 질문을 던졌을 때의 반응도 비교해봤습니다. “직원들에게 ‘당신은 해고됐다’라는 이메일을 작성해달라고 했더니 챗GPT는 뚝딱 만들었고, 빙은 ‘그런 메일은 만들 수 없다’고 답을 거부했다고 합니다.“자소서 써달라” 하자… 챗GPT ‘뚝딱’ 작성, 빙 “당신이 해” 7.  LB 박기호, 다올 김창규, IMM 정일부, KB 김종필이 보는 올해 VC업계 전망VC업계가 내다보는 올해 전망은 VC 업계에도, 투자를 받아야 하는 스타트업 입장에서도 중요합니다. VC가 LP로부터 자금을 끌어와야 하고, 모태펀드가 잘 굴러가야 하고, 그래야 스타트업에 자금이 수혈되겠지요. VC가 보는 경기 전망도 투자 유치에 상당한 영향을 미칩니다. 스타트업계도 그래서 VC 업계의 움직임에 레이더를 바짝 세우고 있는데요.한경 긱스에서 주요 VC 대표에게 올해 전망을 물어봤답니다. 박기호 LB인베스트먼트 대표, 김창규 다올인베스트먼트 대표, 정일부 IMM인베스트먼트 대표, 김종필 KB인베스트먼트 대표가 보는 VC전망입니다. 한경에서는 네 분의 뷰를 요약해서 “혹한기에도 기회는 있다”고 제목을 뽑았습니다. 추가로, 신임 한국벤처캐피탈협회장으로 윤건수 DSC인베스트먼트 대표가 취임했습니다. 윤 회장의 취임 인터뷰도 공유합니다.2023년 벤처투자 시장 전망…"혹한기에도 기회는 있다" "기득권 벽 막히면 어떤 혁신기업도 좌초…'제2 타다' 없게 해야"</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>인터넷은행 ‘3총사’ 평균 연봉 1억…토스는 시중은행 추월</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003210874?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>작년 연봉, 1년 새 2배 상승…출범 초기 고연차 경력 위주 채용 영향카카오·케이·토스뱅크 등 인터넷전문은행 3사 임직원의 지난해 평균 연봉이 1억원 안팎으로 집계됐다. 일부 인터넷은행의 평균 연봉은 시중은행 수준을 웃돌았다.14일 인터넷은행 3사의 ‘2022년 지배구조 및 보수체계 연차보고서’에 따르면 지난해 토스뱅크 임직원의 평균 연봉은 1억1900만원이었다. 총 462억5700만원의 보수가 임직원 388명에게 돌아갔다. 2021년(6100만원)과 비교하면 1년 새 두 배 가까이 상승한 금액이다. 이는 2021년 10월 출범한 토스뱅크가 높은 보수를 제시해 경력직을 채용한 결과로 풀이된다.토스뱅크의 평균 연봉은 KB국민은행(1억1300만원), 우리은행(1억400만원) 등 주요 시중은행보다 높다. 토스뱅크는 연봉 수준이 높은 것에 대해 “출범 초기인 만큼 고연차 경력직 위주로 채용하고, 지난해 개발자 인력을 충원한 것이 영향을 미쳤다”고 설명했다. 인터넷전문은행은 개발직과 경력직 등에 높은 보수를 제시하는 방식으로 인력을 확보하는 추세다.지난해 카카오뱅크 임직원의 평균 보수는 1억4600만원으로 집계됐다. 카카오뱅크는 스톡옵션 행사 차익(542억원)을 제외하면 1인당 보수는 1억700만원 정도라고 설명했다. 지난해 케이뱅크 임직원의 평균 보수는 9600만원이었다. 2021년(8000만원) 대비 약 20% 상승했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>그리스서 열차 충돌 사고…26명 이상 사망</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005434256?sid=104</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>여객열차-화물열차 정면충돌…관제 오류 추정[이데일리 박종화 기자] 그리스에서 마주 달리던 열차 두 대가 정면 충돌하는 사고가 일어났다. 최소 20여명이 목숨을 잃었다.28일(현지시간) 그리스 중부 라리사 외곽에서 발생한 열차 충돌 사고 현장.(사진=로이터)AP통신은 28일(현지시간) 그리스 현지 매체를 인용해 이날 밤 그리스 중부 라리사 외곽에서 여객열차 한 대와 화물열차 한 대가 충돌하는 사고가 일어났다고 보도했다. 여객열차에는 승객 약 350명과 승무원 20여명이 탑승 중이었던 걸로 알려졌다.콘스탄티노스 아고라스토스 테살리아 주지사는 현지 매체 SKAI TV에 “매우 심한 충돌이었다”며 “여객열차 전면 객차 4량이 탈선했고 맨 앞 2량은 거의 완전히 파괴됐다”고 말했다. 한 승객은 “열차가 공포에 휩싸였고 사람들이 비명을 질렀다”고 전했다.그리스 소방당국은 1일 오전 4시 기준 최소 26명이 사망하고 부상자도 85명 이상 발생했다고 밝혔다. 안전이 확보된 승객 250여명은 인근 테살로니카로 호송됐다. 구조대는 생존자 수색 작업을 계속하고 있다. 소방당국은 군(軍)에도 지원을 요청했다.SKAI TV는 정부 관료를 인용해 당국의 열차 관제 오류를 사고 원인으로 추정했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023.03.13.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>KB증권, '토스뱅크' 제휴 신규 계좌개설 이벤트</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004820096?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>국내주식 쿠폰 1만원권 및 1만원 상당 해외 소수점 주식 지급KB증권은 토스뱅크에서 신규로 KB증권 위탁계좌를 개설한 개인 고객에 혜택을 주는 이벤트를 진행한다고 13일 밝혔다.이날부터 다음 달 30일까지 토스뱅크 앱에서 KB증권 위탁계좌를 최초 개설하는 즉시 국내주식쿠폰 1만원권을 자동으로 지급한다. 쿠폰은 KB증권 홈트레이딩시스템(HTS)·모바일트레이딩시스템(MTS)·홈페이지를 통해 국내주식을 1만원 이상 매수할 때 사용할 수 있다. 유효기간은 발급일로부터 30일이다.쿠폰을 유효기간 내 사용하면 1만원 상당의 해외 소수점 주식도 지급한다. 해외소수점 주식은 각 2000원 상당 총 5종목(애플, 마이크로소프트 등)으로 구성됐으며, 주식 쿠폰 사용일의 다음 달에 지급된다.김영일 KB증권 마블 랜드 트라이브(M-able land Tribe)장은 "토스뱅크를 통해 KB증권과 거래를 시작한 고객에게 감사의 마음을 전하려 이벤트를 준비했다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023.03.12.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>올봄 유럽 최적지는 … 그리스 남프랑스 이탈리아 취향 따라 골라 가볼까?</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005100210?sid=103</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>한진관광청량한 바다를 바라보며 황홀함 느껴짙은 예술의 향기에 흠뻑 빠져보는 매력거대하고 아름다운 풍경에 매료되는 곳파란 지붕과 하얀 건물의 조화 그리스 산토리니엔데믹 후 맞이하는 첫 봄, 꽃이 만연하는 따뜻한 계절에 예술과 낭만으로 가득한 유럽을 찾는 여행객이 늘고 있다. 이에 발맞춰 한진관광이 봄맞이 유럽 테마여행 대한항공 직항 전세기 상품을 출시했다. 파란지붕과 하얀 건물이 인상적인 에게해의 그리스, 남프랑스와 신규로 추가된 지역인 이탈리아 돌로미티&amp;토스카나를 대한항공 직항 전세기로 편안하게 여행할 수 있다.◆ 유럽 문화의 발상지로 낭만 가득해봄은 그리스를 한눈에 담기 좋은 여행 최적기다. 파란 지붕과 하얀 건물이 인상적인 에게해의 산토리니부터 유럽 문화의 발상지로 낭만과 신화를 한눈에 담는 크레타, 고대 문명과 현대가 함께 공존하는 아테네, 그림 같은 풍차와 바다가 펼쳐지는 미코노스, 하늘 위로 솟은 듯한 수도원 메테오라, 신의 흔적을 볼 수 있는 델피, 청량하게 파란 바다를 보며 힐링하는 자킨토스 나바지오 해변까지 대표 여행지를 만나볼 수 있다. 환상적인 풍경을 만날 수 있는 그리스 여행은 5월 5일, 12일, 19일, 26일 총 4회 출발한다.◆ 프랑스 역사가 깊은 명소 즐비한 남프랑스남프랑스는 오랜 역사를 지닌 것으로 알려져 있다. 화가 폴 세잔의 흔적을 만날 수 있는 엑상 프로방스, 세잔 아틀리에와 색채 마술사의 글라스 작품을 만나는 샤갈 미술관, 음악과 영상으로 장엄함을 더하는 레보드 프로방스를 통해 예술가들의 향기를 느낄 수 있다. 2600년의 역사를 자랑하는 마르세유, 세계적인 휴양지 니스, 높은 성벽의 중세마을 생폴드방스와 같은 특별한 마을과 도시도 만날 수 있다. 세계문화유산으로 지정된 퐁뒤가르, 카르카손과 바다와 절벽의 조화 칼랑크 국립공원, 로마의 아름다운 수도원 세낭크 수도원과 같은 프랑스의 역사가 깊은 관광 명소까지 관람할 수 있다. 다양한 테마로 떠날 수 있는 남프랑스 여행은 6월 2일, 9일, 16일 총 3회 출발한다.세계자연유산 이탈리아 돌로미티◆ 세계자연유산 트레킹 돌로미티&amp;토스카나이탈리아의 돌로미티&amp;토스카나는 거대하면서도 아름다운 풍경을 만날 수 있는 곳이다. 세계자연유산이 곳곳에 분포해 요즘 유럽 여행에서 각광받는 도시다.이탈리아 돌로미티는 3000m 이상의 암봉 18개, 빙하 41개를 품은 거대한 이탈리아의 알프스이자, 세계자연유산에 속한다. 트레킹 여행족의 필수 코스로 자리 잡고 있다. 초원에서 거대한 암봉의 정상까지 연결되는 트레치메 디 라바레도, 넓은 초원을 바라보는 세체다, 고지대의 야생화 평원 알페 디 시우시를 비롯한 트레킹 코스를 즐길 수 있다. 아름다운 풍경을 지닌 도시 토스카나는 세계문화유산 역사 유적지 피엔차와 산지미냐노, 중세 시대 건축물의 고풍스러움을 느끼는 몬테풀치아노, 최고급 휴양지인 해안 마을 포르토피노 코스트를 비롯한 특별한 도시까지 만날 수 있다.이외에도 절벽으로 연결된 해변 마을 친퀘테레, 아름다운 해안 마을로 최고급 휴양지라고 일컫는 포르토피노 코스트, 이탈리아의 가장 큰 호수인 가르다 호수 남쪽에 있는 시르미오네, 로미오와 줄리엣의 배경이 된 로맨틱한 베로나 등 숨겨진 도시까지 즐길 수 있다. 전문 가이드와 인솔자가 동행한다. 이탈리아 돌로미티&amp;토스카나 여행 출발일은 6월 23일, 30일 총 2회다.한진관광의 관계자는 "봄에 여행이 최적기인 그리스, 남프랑스는 물론이고 이탈리아 돌로미티&amp;토스카나를 신규로 추가해 유럽 여행지 선택의 폭을 넓혔다"며 "대자연을 경험하고자 하는 여행객의 니즈를 충족시킬 수 있는 북유럽 노르웨이 전세기 상품을 출시할 예정으로 대한항공 유럽 직항 전세기 여행 상품에 많은 관심 가져주시길 바란다"고 전했다.한진관광 대한항공 유럽 직항 전세기 여행 상품과 관련해 자세한 정보는 대표전화로 문의하거나 홈페이지에서 확인할 수 있다.[전기환 여행작가]</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2023.03.15.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>출범 2주년 토스증권…"올해는 확장 주력"</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011744179?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>기사내용 요약해외주식 옵션 거래, 연내 출시 목표[서울=뉴시스] 박은비 기자 = 토스증권은 2021년 3월 출범 이후 2주년에 접어든 현재 480만명의 고객을 확보했다고 15일 밝혔다.지난해 3분기 출범 1년9개월 만에 분기 첫 흑자에 이어 올해 1월에는 미국주식 거래액 기준 시장점유율 20%에 육박한다.토스증권이 고객 1372명을 대상으로 실시한 설문조사에 따르면 10명 중 8명이 서비스에 만족하고 있는 것으로 나타났다. 응답자 48.5%가 만족, 33.4%는 매우 만족으로 답했고, 다양하고 재미있는 이벤트(36.2%), 쉽고 간편한 매매경험(35.2%)를 이유로 택했다. 직관적인 화면과 서비스(29.9%), 읽기 쉬운 투자 콘텐츠(26.2%)가 그 뒤를 이었다.ㅊㅍ올해 3년차를 맞은 토스증권은 더 많은 고객들의 기대를 충족시키기 위해 상품과 서비스 확장에 박차를 가한다는 계획이다. 지난해 모바일트레이딩시스템(MTS) 안정성을 강화하고 서비스 내실을 다지는데 집중했다면 올해는 MTS를 넘어 웹트레이딩시스템(WTS) 고도화로 다양한 기능과 정보를 제공할 예정이다.또 국내·해외주식 투자 외에 새로운 상품을 소개하겠다는 구상이다. 가장 먼저 해외주식 옵션 거래 연내 출시를 목표로 하고 있다.토스증권 관계자는 "앞으로도 투자자가 가장 필요로 하는 서비스를 고민하고 가장 쉽게 이용할 수 있는 투자 플랫폼으로 거듭날 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>AI가 만든 콘텐츠는?…토스 출신 창업자가 만든 '이 회사' [Geeks' Briefing]</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004818090?sid=105</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.한국경제신문의 프리미엄 스타트업 미디어 플랫폼 한경 긱스(Geeks)가 7일 스타트업 뉴스를 브리핑합니다.게티이미지뱅크AI가 콘텐츠 만든다... 팀러너스, 20억원 조달글로벌 AI 콘텐츠 플랫폼을 개발 중인 팀러너스가 20억원 규모의 시드(초기) 투자를 유치했다. 이번 투자는 베이스인베스트먼트가 주도하고 패스트벤처스, 굿워터캐피탈 등이 참여했다. 팀러너스는 토스 초기 멤버이자 ‘송금 지원금’ 등의 제품을 개발해 토스의 1000만 MAU(월간 활성 사용자 수)를 이뤄낸 정승진 대표가 토스 및 KAIST 동료들과 설립한 스타트업이다. 팀러너스는 AI가 생산자인 콘텐츠 플랫폼을 개발하고 있다. 기술의 발전에 따라 AI 인플루언서가 만드는 글, 사진, 동영상 등의 콘텐츠가 사람이 만드는 것보다 더 흥미로워질 것이라는 것이 팀의 핵심 가설이다. 지난 2개월간 ‘피카부’ 등 4개의 AI 서비스를 선보였다.리뷰도 동영상으로... 브이리뷰, 105억원 유치인공지능(AI) 기반 리뷰 마케팅 솔루션 ‘브이리뷰’를 운영하는 인덴트코퍼레이션이 105억원 규모의 시리즈A 투자를 유치했다.기존 투자자인 SV인베스트먼트와 퓨처플레이를 비롯해 신규 투자자로 LG유플러스, 한국투자파트너스, 크릿벤처스, 애경산업 등이 참여했다.회사의 주력 서비스인 브이리뷰는 AI 챗봇을 활용해 제품 구매자들의 동영상 리뷰를 수집하고 이를 온라인 쇼핑몰에 업로드해주는 솔루션이다. 기업 간 거래(B2B) 방식으로 고객사들의 매출을 올리는 데 도움을 준다는 설명이다. 고객사가 브이리뷰 서비스를 도입하면 구매자들이 영상을 통해 간편하게 리뷰를 올릴 수 있는 구조다. 현재 고객사는 3800개 수준이다. 자율주행 순찰로봇 '뉴비'뉴빌리티, SK와 자율주행 순찰로봇 협력자율주행 로봇 스타트업 뉴빌리티가 SK텔레콤, SK쉴더스와 자율주행 로봇 순찰 서비스의 공동 개발 및 사업화를 위한 업무협약(MOU)을 체결했다. 이들 3사는 순찰 서비스 내 로봇 활용 가능성에 주목하고 치안 강화 및 시설 관리를 위해 로봇이 지정된 구역 안에서 순찰 서비스를 진행하는 데 협력할 계획이다. 뉴빌리티의 자율주행 로봇 기술과 SK텔레콤의 AI 및 영상 전송 기술, 그리고 SK쉴더스가 보유한 보안 기술 및 유통망 등을 활용할 계획이다.마음영양, 건기식 전문 쇼핑몰 출시푸드 헬스케어 스타트업 마음영양이 건강기능식품 전문 쇼핑몰 '밸런스'를 정식 오픈했다. 영양제를 구매할 수 있는 버티컬 커머스 플랫폼이다. 영양제 가격이나 함량 순으로 제품을 비교하는 등 가격과 효용을 직관적으로 확인할 수 있는 게 특징이다.500만 명 모인 창작 플랫폼 포스타입, 크리에이터 커머스 기능 선봬창작 콘텐츠 플랫폼 포스타입이 크리에이터가 실물 상품을 판매할 수 있는 스토어 기능을 출시했다. 스토어는 크리에이터 창작 공간인 채널에 추가된 기능으로, 크리에이터라면 누구나 굿즈, 독립출판물, 핸드메이드 등 상품을 등록해 판매할 수 있다. 서비스 출시를 기념해 스토어 수익 인출 수수료는 내년 1월까지 업계 최저 수준인 3%를 유지할 계획이다. 국내 크리에이터 굿즈 또는 핸드메이드 커머스 플랫폼의 중개 수수료는 통상 10~20% 수준이다.경기창경, '2023 디딤돌 사업' 역량 평가 통해 66개 회사 발굴경기창조경제혁신센터가 2023 창업성장기술개발사업(디딤돌) 신청 기업의 역량 평가를 통해 66개 우수 과제를 선발했다. 디딤돌 사업은 성장 잠재력을 보유한 스타트업의 R&amp;D 지원을 통해 기술 창업 활성화를 촉진하는 게 목적이다. 약 600개사가 지원했다. 신현삼 경기혁신센터장, 홍석철 전 삼성벤처투자 부사장, 곽민기 한국전자기술연구원 센터장, 이혜진 한국생산기술연구원 소장 등이 심사위원으로 참여했다."혈당 관리로 다이어트 해보세요"디지털 헬스케어 스타트업 닥터다이어리가 혈당 관리를 통한 체중 관리 프로그램 '글루어트'를 출시했다. 글루어트는 포도당(Glucos)과 다이어트의 합성어다. 혈당 관리를 중심으로 진행되는 프로그램이다. 몸 속 연료인 혈중 포도당을 관리해 체중 감소를 유도하는 게 목표다. 글루어트를 미리 체험한 48명의 참여자는 4주간 평균 4.5kg, 최대 7.1kg 감량했다. 참여자엔 채혈 없이 피부에 붙이면 실시간으로 혈당을 측정해주는 연속혈당기(CGM) 센서도 제공된다.비즈니스캔버스, 추가 투자 유치서비스형 소프트웨어(SaaS) 스타트업 비즈니스캔버스가 추가 투자 유치를 진행해 시리즈A 라운드를 마무리했다. 금액은 비공개다. IBK캐피탈, 원자산운용 등이 투자했다. 비즈니스캔버스는 앞서 지난달 수이제네리스파트너스, 신한벤처투자, 카카오벤처스 등으로부터 50억원을 조달한 바 있다. 2020년 문을 연 이 회사는 문서 툴 '타입드'를 운영한다.설문조사지, GPT로 만든다... 왈라, 시드 투자 유치인공지능 폼빌더 서비스 '왈라' 운영사 파프리카데이터랩이 한국투자액셀러레이터로부터 시드(초기) 투자를 유치했다. 금액은 비공개다. 왈라는 SaaS 형태 폼빌더 서비스다. 폼빌더는 구글폼처럼 설문조사와 같은 질문지를 만드는 데 활용된다. 챗GPT에 활용되는 GPT를 도입해 폼 제작과 분석에 적용했다. "이 응답 영어로 번역해줘" "이 데이터를 카테고리로 나눠 분류해줘" 같은 명령을 할 수 있다.한경 긱스</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>그리스서 열차 2대 충돌…최소 16명 사망85명 부상</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002110557?sid=104</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>그리스 소방관들이 라리사 인근에서 발생한 열차 충돌 현장에서 시민들을 구조하고 있다. [로이터][헤럴드경제] 그리스 중부에서 28일(현지시간) 밤 열차 2대가 충돌해 최소 16명이 사망하고 85명이 다쳤다.로이터통신 등 외신에 따르면 이날 그리스 중부 테살리주 라리사 인근에서 여객 열차와 화물차가 충돌해 차량 여러 칸이 탈선하고 최소 3칸에 불이 붙었다.코스타스 아고라스토스 테살리주 주지사는 국영TV와의 인터뷰에서 “매우 강력한 충돌이었다”며 “현장 상황을 설명하기 어렵다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2023.03.15.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>[단독] 국내 은행권도 유가증권 595兆 보유… SVB 사태 남일 아니다?</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001593599?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>유가증권↑… 인출 요구 대응 어려워  누적 투자 손실액도 9000억원 육박금융권 “LCR 규제 정상화 늦춰야”국민일보DB자금 위기 발발 이틀 만에 파산한 미국 실리콘밸리은행(SVB)의 유가증권 투자액이 많았던 것으로 알려진 가운데 국내 은행권도 채권·주식 등을 595조원 이상 보유하고 있는 것으로 나타났다. 특히 지난해 3분기 말까지 KB국민·신한·하나·우리 4대 시중은행의 채권·주식 등 투자 관련 누적 손실액은 9000억원에 육박했다. 금융당국이 유동성커버리지비율(LCR) 규제 정상화를 미루지 않으면 국내 은행권도 유동성 위기에 처할 수 있다는 우려가 나오고 있다.14일 국민일보가 금융감독원 전자공시시스템 자료를 분석한 결과 지난해 3분기 말 기준 국내 시중·국책·지방·인터넷전문은행 20곳의 채권·주식 등 보유 총액은 595조4200억원에 이른다. KB국민은행 80조2000억원, 신한은행 80조1000억원, NH농협은행 71조1000억원, 하나은행 67조5200억원, 우리은행 66조2800억원 등 5대 시중은행의 지난해 3분기 말 채권·주식 등 보유액만 365조2100억원이다.이외에 IBK기업은행(65조8000억원), KDB산업은행(55조8000억원)도 각각 50조원을 넘겼다. 토스뱅크(17조6000억원), 수출입은행(16조700억원), 한국씨티은행(12조1100억원), SC제일은행(10조7700억원)의 채권·주식 등 보유액도 적지 않은 수준이다.국내 은행권의 채권·주식 등 유가증권 투자 성적표는 마이너스다. 국내 은행 20곳은 관련 투자에서 지난해 3분기 말까지 4000억원 누적 손실을 기록했다. 4대 시중은행만 놓고 보면 적자 규모는 8900억원으로 더 컸다. KB국민은행(-5700억원), 우리은행(-2100억원), 하나은행(-1800억원) 순이다. 신한은행은 1700억원 흑자다.SVB의 경우에도 채권·주식 등 보유 비중이 높았다. 고객의 갑작스러운 예금 인출 요구에 대응하기 위해 보유하던 미국 국채 등을 팔기로 했는데 최근 미국 중앙은행 연방준비제도가 기준금리를 급격히 끌어올린 탓에 18억 달러(약 2조4500억원)에 이르는 손실이 발생했다. 이 사실이 알려지자 뱅크런(예금 등이 한꺼번에 인출되는 현상)이 발생했고 결국 파산에 이르렀다.SVB가 파산한 이유가 유동성 부족이라는 점에서 금융당국이 만일의 사태에 대비해 국내 은행권에 적용 중인 LCR 규제 정상화 유예 조치를 한 차례 더 미뤄야 한다는 목소리가 나온다. LCR이란 당장 현금화할 수 있는 유동성 높은 자산을 1개월간 빠져나갈 외화만큼 쌓아두도록 하는 규제다. 금융당국은 2020년 코로나19 확산 이후 국내 은행권의 실물 경제 지원을 쉽게 하기 위해 85%까지 일시적으로 낮췄던 LCR 규제를 오는 6월 말 정상화할 예정이었다.금융권 관계자는 “SVB 파산 사태로 인해 세계 금융 시장이 경색될 우려가 크다”면서 “국내 은행권이 유동성 위기를 겪지 않도록 LCR 규제 정상화 조치를 연장해야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2023.03.13.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>[단독] 한투캐피탈, 토스뱅크 유상증자 참여…지분 4% 658억원어치 매수</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000326785?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>[토스뱅크 내부사진. (사진=토스뱅크)]한국금융지주 계열 여신전문금융회사인 한국투자캐피탈이 토스뱅크의 신규 주주가 됩니다.한국투자캐피탈은 13일 공시를 통해 이달 말 토스뱅크의 신주발행 유상증자에 참여해 주식 약 1천13만800주를 사들일 예정이라고 밝혔습니다. 한국투자캐피탈은 지난 10일 이사회를 열어 재무적 수익 창출 목적으로 658억5천20만원의 토스뱅크 주식을 취득하기로 했습니다.이는 한투캐피탈 자기자본 대비 10.13%에 해당하는 금액으로 취득 후 한투캐피탈의 토스뱅크 지분율은 4%입니다.취득 예정일은 오는 30일입니다.34.91% 지분을 보유한 최대 주주 비바리퍼블리카를 제외하고 하나은행(10%), 한화투자증권(10%), 이랜드월드(10%), 중소기업중앙회(9.99%), SC제일은행(7.91%), 알토스벤처스(5.33%), 굿워터캐피탈(3.61%), 웰컴저축은행(3.24%), 한국전자인증(2.59%), 웰컴캐피탈(1.76%), 리빗캐피탈(0.66%) 등에 이어 주주로 합류하게 됩니다. 지난해 8월 토스뱅크가 출시한 '목돈 굴리기' 상품에 한국투자증권의 계좌를 연계해 발행어음을 판매하는 등 한국투자금융지주와 토스뱅크와의 제휴 인연에도 주목됩니다.현재 금융당국이 추진하고 있는 대환대출 비교 플랫폼이나 캐피탈사 통장 개설과 관련해서 추가적인 제휴 가능성이 관측됩니다. 또 한국투자금융지주의 또 다른 계열사인 한국투자증권이 카카오뱅크의 2대 주주인 가운데, 한국투자금융지주가 은행 독과점 해소 방안으로 부상하는 인터넷전문은행에 대한 투자를 다각화하는 모습으로도 해석됩니다. 이달 말 7번째 신주발행 유상증자를 계획하고 있는 토스뱅크는 약 658억원의 자금을 추가 확보하면서 사업 확장에 활용할 전망입니다.토스뱅크는 지난해까지 6번째 유증을 통해 1조 4500억원의 자본금을 확보했고, 이번 유증을 통해 더 늘어나는 자본금을 통해 서비스 성장에 속도를 낼 것으로 보입니다.지난달 토스뱅크가 출시한 ‘모임통장’에 23만명이 넘게 몰리는 가운데, 올해 상반기 토스뱅크는 전세대출 등의 신규 상품 출시를 목표로 하고 있습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>지난해 인터넷은행 평균연봉 1억원 안팎</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005230405?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>KB국민·우리은행 뛰어넘어개발직·경력직 대거 채용 영향지난해 인터넷전문은행 3개사(카카오뱅크·케이뱅크·토스뱅크)의 평균 연봉이 1억원 안팎을 기록했다.14일 각 은행이 공시한 ‘2022년 지배구조 및 보수체계 연차보고서’에 따르면 지난해 토스뱅크 임직원의 평균 연봉은 1억1900만원이었다. 전체 임직원 388명의 보수 총액은 462억5700만원이었다. 출범 첫해인 2021년(6100만원)과 비교하면 두 배 가까이 증가했다. KB국민은행(1억1300만원), 우리은행(1억400만원) 등 일부 시중은행보다 높은 수준이다.출범 초기인 인터넷전문은행이 개발직·경력직 등을 공격적으로 채용하면서 보수 총액도 덩달아 뛴 것으로 풀이된다.앞서 발표된 카카오뱅크 임직원의 지난해 평균 연봉은 1억4600만원으로 집계됐는데, 카카오뱅크는 스톡옵션 행사 차익(542억원)을 빼면 1인당 보수가 1억700만원 수준이라고 설명했다. 전년(평균 1억5000만원·스톡옵션 행사 차익 제외 시 9560만원)보다는 소폭 줄었다.케이뱅크의 지난해 임직원 평균 연봉은 9600만원(보수 총액 469억원/489명)으로 1억원에 못 미쳤지만 전년(8000만원) 대비 약 20% 상승했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023.03.10.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>다시 바닥 가나...비트코인 2만달러선 붕괴 [코인브리핑]</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004980052?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>뉴스1 제공 [파이낸셜뉴스] 2만5000달러에 육박하던 비트코인이 또 다시 1만9000달러대로 떨어졌다. 미국의 긴축 우려에 가상자산 전용은행 실버게이트의 파산이라는 겹악재를 맞으며 추락했다.   글로벌 가상자산 시황 중계 사이트 코인마켓캡에 따르면 10일 오후 2분 기준 비트코인 가격은 24시간 전보다 8.49% 내린 1만9906.00달러에 거래됐다. 비트코인이 2만달러 아래로 거래된 것은 지난 1월 14일 이후 두 달여 만이다. 같은 시간 국내 가상자산 거래소 업비트에서 비트코인은 전일보다 2.26% 하락한 2686만4000원에 거래되는 중이다.   알트코인(얼터너티브 코인·비트코인을 제외한 나머지 대체 가상자산) 대장 이더리움도 분위기는 비슷하다. 코인마켓캡에서 이더리움은 전일보다 7.92% 떨어진 1417.53달러에, 업비트에서는 1.90% 하락한 191만1000원에 거래된다. 이에 FTX 파산 이후 가장 큰 규모의 '롱 포지션(매수 보유)' 청산이 발생하기도 했다.     실버게이트 파산에 "이더리움은 증권" 파장   이에 대해 쟁글 리서치센터는 "첫 번째 이유는 미국에서 주요 가상자산 기업을 고객으로 받아준 실버게이트 은행의 폐업 결정이 있었다"라며 "이는 실버게이트만의 문제가 아니고 금리 인상으로 인해 채권 가치가 하락하며 많은 은행들이 위험에 놓여있는 상황이다. 실제로 어제 미국 지방은행인 SBV의 주가가 60% 급락하며 위험신호를 보였다"라고 설명했다. 가상자산을 취급하며 성장한 미국 은행 실버게이트는 8일(현지시간) 성명을 통해 청산을 결정했다.   이날 뉴욕증시 역시 실버게이트 충격에 급락했다. 다우지수는 1.66%, 스탠다드푸어스(S&amp;P)500지수는 1.85% 각각 하락했다. 가상자산 시장과 밀접하게 연동되는 것으로 알려진 나스닥 지수는 2.05% 빠졌다.   쟁글 리서치센터는 "두 번째 이유는 오늘 새벽 뉴욕주 법무장관이 쿠코인에게 미등록 증권판매 혐의로 소송을 건 사건이 있었다"라며 "하락을 일으킨 부분은 소장에 이더리움이 증권이라는 견해를 제시하며 뉴욕주의 허락을 받지 않고 증권을 팔았다는 이유로 소송을 제기한 것"이라고 전했다.     그 와중에 앱토스(APT)는 상승세   한편 업비트의 마켓 인덱스(UBMI) 지수는 이날 오전 9시 기준 4873.7포인트로 4일 연속 하락하며 전날보다 4.74% 하락했다. 비트코인의 지배적인 영향력을 제외한 시장의 흐름을 확인할 수 있는 UBAI 지수도 4.56% 하락했다.   금일 업비트 기준 디지털 자산 원화마켓 총 거래대금은 1조원으로 전일보다 9.86% 증가했으며, 알트코인들의 총 거래대금은 1조원으로 전일보다 2.64% 증가했다. 총 거래대금 중 비트코인의 거래대금 비중은 16.07%이다.   테마별로 보면 대부분의 테마 디지털 자산이 소폭 하락한 가운데 컨텐츠 생산 및 중개 관련 디지털 자산들의 하락 폭이 8.29%로 가장 컸다.   개별 종목별로 보면 첫째로, 가격이 가장 많이 상승한 종목은 앱토스(APT) 종목으로, 이날 오전 9시 기준 1만원으로 전날보다 6.82% 상승했고, 반면에 거래대금은 이전 30일 평균 거래대금에 비해 35.59% 하락하여 888억원을 기록했다.   업비트 공포지수는 전날에 비해 7포인트 하락한 41포인트를 기록했다. 이 수치는 현재 시장이 중립 상태에 있음을 의미한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023.03.04.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>인류의 과거·현재 고찰… 생존의 해답을 찾다</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003789017?sid=103</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>생활수준·수명 등 오랜 정체 불구지난 2세기 대변화 삶의 질 개선기후 위기 등 과제 낙관적 전망부의 불평등 거시적 시각 설명인류의 여정/오데드 갤로어/장경덕 옮김/시공사/2만2000원 부의 빅 히스토리/마크 코야마·재러드 루빈/유강은 옮김/윌북/2만4800원     “한 가지 확실하게 말할 수 있는 것은, 인구 증가 경향에 어떠한 억제도 가해지지 않는다면 세계 인구는 25년마다 2배로, 기하급수적으로 늘어날 것이라는 점이다. 오늘날의 평균적인 토지 상태를 감안할 때 생존자원은 인간이 일하기에 가장 유리한 조건에서조차도 산술급수적으로 증가한다.”  영국 성공회 성직자이자 고전파 경제학자 토머스 맬서스는 1798년 ‘인구론’에서 인류의 미래를 비관했다. 아무리 생산을 산술적으로 늘리더라도 인구가 더 빨리 기하급수적으로 늘어나기 때문에 인류의 후생복리는 결코 나아질 수 없다는 취지에서다.     오데드 갤로어/장경덕 옮김/시공사/2만2000원    실제로 1만2000년 전 마지막 빙하기가 지나가면서 정착 생활을 시작한 호모사피엔스는 곧 농업혁명을 통해 지구의 지배적인 종으로 올라섰지만, 삶의 질이나 생활수준, 수명은 19세기가 되기 전까지 정체를 벗어나지 못했다.  역사가들의 분석에 의하면, 3000여년 전 아시리아 제국 사람들의 일당은 밀알 5㎏에 상당했다. 로마제국 치하의 이집트 사람들은 4㎏이었으며, 산업혁명 직전 암스테르담 사람들은 10㎏, 파리 사람들 역시 5㎏에 상당했다고 한다. 불과 2세기 전만 해도 세계 인구의 94%가 하루에 2달러 미만으로 생활했다.  기대수명 역시 크게 변화가 없었다. 중석기시대 북아프리카와 비옥한 초승달 지대에서 발굴된 유골은 30세에 가까웠고, 4000∼1만년 전 신석기혁명 초기의 차탈회위크 주민은 30∼35세 정도였으며, 2500년 전 아테네인과 코린토스인의 기대수명은 40세, 로마제국 사람들은 대략 30세, 16세기 중반부터 18세기까지 잉글랜드인의 기대수명은 30∼40세에서 움직였다.  하지만 19세기 들어 맬서스의 비관은 무너져 내렸다. 전 세계 인류의 1인당 소득은 19세기부터 급격히 증가해 이전 시기보다 무려 14배나 치솟았고, 기대수명 역시 2배 이상 늘어났다. 오랫동안 정체됐던 호모사피엔스 삶의 질이 크게 개선된 것이다. 물론 지난 2세기 동안 급격히 이뤄진 성장이 일부 지역에서만 일어나면서 불평등 역시 급격히 확대됐지만. 인류는 어떻게 맬서스의 ‘비관의 중력’을 벗어났을까.  미국 브라운대 경제학과 교수이자 ‘통합성장 이론’의 제창자인 오데드 갤로어는 책 ‘인류의 여정’에서 지난 2세기의 대변화를 단순히 산업혁명 때문이라고만 이야기하는 게 아니라, 어떤 임계점을 넘어서면 단 하나의 요인이 조금만 달라도 갑작스럽고 극적인 변화가 일어날 수 있다는 ‘분기 이론’을 들어 설명한다. 즉, 17세기 후반 기술발전과 산업혁명이 시작된 가운데 대규모의 인구, 대중교육을 통한 노동자의 제공, 출산율의 저하와 성별 임금 격차의 축소 등이 복합적으로 영향을 미쳤다는 것이다.     마크 코야마·재러드 루빈/유강은 옮김/윌북/2만4800원    저자는 첫 변화의 톱니바퀴로 인구 규모를 꼽는다. 기원전 1만년 전 지구상에는 240만명이 돌아다녔지만, 기원후 1년에는 78배로 불어나 1억8000여만명으로, 다시 서기 1000년 2억9000만명을 넘긴 뒤, 산업화 초기인 19세기에는 10억명을 넘겼다. 1만2000년간 400배 늘어난 것으로, 이는 분업화와 전문화로 이어지면서 기술혁신의 속도를 높였다는 분석이다.  아울러 19세기에 영국과 프랑스 등 주요 선진국에서 대중교육이 본격적으로 도입되면서 노동자를 비롯한 인적 자본이 크게 늘어난 것도 작용했다. 1840년 67%에 그쳤던 영국 남성의 문해력은 1870년부터 초등학교의 무상교육이 도입되면서 19세기 말엔 97% 수준으로 올라왔다. 특히 교육이 강조되고 교육비가 늘어나면서 출산율이 급격히 감소했을 뿐만 아니라, 성별 임금 격차도 줄어들면서 성장이 구조화했다.  그렇다면 인류의 미래는 어떠할까. 저자는 낙관적이다. 먼저 기후위기 및 환경보존에 대해선 산업혁명이 기후위기를 촉발한 것은 맞지만, 인구 출산율을 떨어뜨리는 한편 친환경적 기술을 통해서 기후위기를 충분히 누그러뜨릴 수 있을 것이라고 전망한다. 아울러 부의 불평등 문제에 대해서도 제도와 문화, 지리, 다양성 측면에서 격차가 완전히 사라지진 않겠지만, 시간을 두고 다양성 정책을 더하고 문화와 기술의 확산을 통해 지역적 격차를 좁힌다면 뿌리 깊은 격차를 완화할 수 있을 것이라고 희망한다. “맬서스가 걱정스레 밝힌 힘이 인류의 집단적 기억에서 사라지고, 인류가 새로운 여정을 시작하기까지는 오랜 시간이 걸리지 않을 것이다.”  미국 경제사학자 마크 코야마와 재러드 루빈 역시 책 ‘부의 빅 히스토리’에서 지난 2세기 동안 부가 급팽창한 것에 주목하면서 그 성장 요인으로 꼽히는 지리, 제도, 문화, 인구, 식민주의가 어떻게 상호 작용해 각 사회의 번영과 빈곤으로 이끌었는지를 차례로 검토한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2023.03.13.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>토스뱅크, '목돈 굴리기'서 KB증권 주식계좌 개설 서비스 오픈</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006680603?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>(토스뱅크 제공)(서울=뉴스1) 김정은 기자 = 토스뱅크는 '목돈 굴리기' 서비스에서 KB증권 주식계좌 개설이 가능해졌다고 13일 밝혔다.주식계좌는 증권사에서 주식거래를 할 때 필요한 계좌로, 토스뱅크가 지난 해 8월 한국투자증권의 주식계좌 개설 서비스를 개시한 이후 KB증권은 토스뱅크에 입점한 두번째 증권사다.  토스뱅크 계좌를 보유한 19세 이상의 고객이라면 토스뱅크 내에서 KB증권의 주식계좌를 개설할 수 있고, 1인 1계좌까지 개설할 수 있다.해당 서비스는 이날 오후 12시 출시 예정이며 이후부터 즉시 이용이 가능하다.토스뱅크는 기존 증권사 앱에서 개설 시 필요한 여러 단계의 복잡한 절차를 간소화하고 편의성을 높였다. 주식계좌 개설은 토스뱅크 내에서 목돈 굴리기 메뉴를 선택하고 계좌개설에 필요한 본인실명확인 절차 등을 거치면 개설이 가능하다.KB증권 신규 주식계좌 개설 고객에게는 오는 4월 말까지 최대 2만원 상당의 혜택을 제공한다.최초 신규 주식계좌 개설 고객에게는 국내 주식 거래 시 이용할 수 있는 주식 쿠폰 1만원 권을 지급한다. 또 이 주식 쿠폰을 사용하면 테슬라와 애플, 스타벅스, 아마존, 마이크로소프트 해외소수점 주식 5종을 1만원 상당으로 추가 제공한다. 국내 주식 수수료 우대 혜택도 5년간 제공된다.  토스뱅크 관계자는 "토스뱅크 목돈 굴리기 서비스에서 국내 대형 증권사인 KB증권의 주식계좌를 쉽고 편리하게 개설할 수 있게 됐다"며 "앞으로도 다양한 증권사와의 제휴를 통해 더욱 다양한 투자상품을 소개할 수 있도록 계속 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>"그리스 사상 최악의 열차 사고"…사망자 38명으로 늘어(종합2보)</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006658966?sid=104</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>부상자 53명 병원으로 이송열차로 귀향하는 학생 많은 연휴 시즌 발생1일(현지시간) 날이 밝은 후에도 그리스 라리사 인근 열차 충돌 사고 현장에서는 구조 작업이 계속되고 있다. ㄱ자로 꺾인 열차 칸의 오른쪽으로 풍비박산 된 화물차 잔해가 보인다. ⓒ AFP=뉴스1 ⓒ News1 권진영 기자(서울=뉴스1) 권진영 기자 = 그리스 라리사 인근에서 한밤중에 발생한 열차 충돌 사고 인명피해가 늘어나고 있다. 사고가 발생한 1일 오후 4시35분 기준 로이터통신과 AFP 등은 32명이 숨지고 85명이 다쳤다고 전했다. 미국 CNN은 사망자가 최소 38명에 달한다고 전했다. 사고 원인은 아직 밝혀지지 않았다. 1일(현지시간) 로이터통신은 그리스 중부 라리사 외곽에서 아테네에서 북부 테살로니키로 향하는 열차와 테살로니키에서 라리사로 향하는 화물차가 정면 충돌했다고 보도했다.열차는 강렬한 충돌 여파로 ㄱ자로 꺾어져 선로 밖으로 튕겨 나갔다. 구조된 승객들에 따르면 일부 열차 칸에서는 화재도 발생했다.콘스탄티노스 아고라스토스 주지사는 열차에 타고 있던 승객 총 350명 중 250명이 버스로 대피했다고 전했다. 부상자 85명 중 53명은 병원으로 이송됐다. 라리사 인근 병원 2곳이 부상자 담당 병원으로 지정됐으며 테살로니키·아테네 소재 군 병원도 경계 태세로 전환했다.  1일(현지시간) 그리스 라리사 인근 열차 충돌 사고 당시 열차에 탑승하고 있던 승객 중 생존자들이 테살로니키로 대피하는 버스에 오르고 있다. ⓒ 로이터=뉴스1 ⓒ News1 권진영 기자1일(현지시간) 그리스 라리사 열차 충돌 사고 현장에 잔해를 수습하기 위한 크레인 등 중장비가 동원됐다. ⓒ 로이터=뉴스1 ⓒ News1 권진영 기자현장에는 소방 인력 150명과 구급차 40대가 구조 작업을 이어가고 있지만, 열차 속에 갇힌 사람들을 꺼내는 데 난항을 겪고 있다.잔해 더미를 본 한 구조대원은 "평생 이런 사고를 본 적이 없다"며 "비극이다"고 말했다. 그러면서 "5시간이 지났는데 시신이 발견되고 있다"고 전했다. 소방 당국 대변인은 브리핑에서 "두 열차가 매우 강하게 충돌한 것으로 보인다"며 "승객들이 대피하기 매우 어려웠을 것"이라고 설명했다. 현지 매체는 "그리스 사상 최악의 열차 사고"라며 사순절 연휴를 맞아 가족과 시간을 보내기 위해 집으로 향하는 학생들이 많은 시기였다고 덧붙였다.그리스 철도 회사 OSE의 기관사 노조 위원장은 "상상할 수 없는 사고"라며 "안전 시스템이 작동했다면 피할 수 있었을 것"이라고 안타까워했다.1일(현지시간) 그리스 라리사에서 발생한 열차 충돌 사고로 다친 승객이 구급대원에게 응급 처치를 받고 있다. ⓒ 로이터=뉴스1 ⓒ News1 권진영 기자승객 안젤로스(22)는 AFP통신에 "악몽이었다"며 "아직도 몸이 떨린다"고 했다. 그는 "충돌이 마치 거대한 지진 같았다"고 회상했다.현지 매체 올라리사와 인터뷰 한 젊은 여성 승객은 눈물을 흘리며 "귀청이 터질 듯한 소리가 났고 열차가 몇 분 동안 멈춰 있었다"고 했다. 열차에 타고 있던 남성은 "주변에 다른 부상자들은 피로 얼룩져 있었다"고 말했다. 정부는 긴급회의를 열고 보건부·내무부 장관 등이 각각 현장과 위기관리센터를 나눠 맡아 대응하고 있다. 1일(현지시간) 그리스 라리사 열차 충돌 현장에서 구조 대원들이 잔해 속에 깔린 생존자를 찾고 있다. ⓒ AFP=뉴스1 ⓒ News1 권진영 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023.03.09.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>'통신업계 신성' 제4통신사는 누가 될까… 롯데·신세계도 물망</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000901976?sid=105</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>[머니S리포트-뜨거운 감자 '제4통신사']①네이버, 카카오가 시너지 클 것이란 시각도[편집자주]정부가 과점 상태인 통신 시장을 정조준했다. '제4통신사'를 유치해 기존 SK텔레콤, KT, LG유플러스 등 통신 3사 위주의 시장 구조를 바꿔 경쟁을 이끈다는 복안이다. 7번이나 좌절한 만큼 과학기술정보통신부는 파격적인 혜택을 제시했지만 막대한 운영비가 드는 통신 사업 특성상 혜택이 아직 미흡하다는 지적도 나온다. 네이버, 카카오를 비롯해 롯데, 신세계 등 유통 기업들까지 물망에 오르는 가운데 정부가 제4통신사를 계획대로 추진해 '7전8기'에 성공할 수 있을지 관심이 모인다.정부가 통신 시장과 독과점 구조를 해소하기 위해 제4통신사를 유치할 계획이다. /그래픽=이강준 기자  ◆기사 게재 순서①'통신업계 신성' 제4통신사는 누가 될까② 제4통신사 가능성은… 정부 '7전8기' 성공할까③ 통신 과점 끝낸다… 정부, 제4통신사 유치 '사활' 정부가 가계 통신비 절감을 위한 대책을 발표했다. 과감한 혜택을 주고 새로운 사업자를 유치해 통신 시장에 새로운 바람을 불어넣겠다는 것이다. 정부 의지가 강력한 만큼 제4통신사로 여러 기업이 거론된다. 의사를 공식적으로 밝힌 사업자는 없지만 기존 사업과의 시너지가 기대되는 후보군이 꾸준하게 주목을 받고 있다. ━통신사 주파수 회수해 신규 사업자 유치… '파격 혜택' 제공━정부는 5G 주파수 28㎓ 대역 개발에 미흡한 통신사로부터 주파수를 회수하고 새로운 사업자에게 할당할 방침이다. /사진=뉴스1 과학기술정보통신부(과기정통부)는 지난해 12월 KT와 LG유플러스에게 철퇴를 가했다. 그동안 구축한 5세대 이동통신(5G) 28기가헤르츠(㎓) 기지국 수가 할당 조건에 미달한다는 이유로 이들 사업자에 할당한 주파수 대역을 회수했다. SK텔레콤은 취소는 면했지만 할당 기간을 당초 5년에서 10%(6개월) 줄였다.이례적인 강수를 둔 과기정통부는 KT와 LG유플러스로부터 거둬들인 5G 28㎓ 대역을 새로운 통신사에게 맡길 생각이다. 통신 3사가 과점 사업자란 지위에 안주해 인프라 투자에 소극적이라는 판단이다. 통신 3사의 시장 점유율은 작년 12월 말 기준으로 SK텔레콤이 40.1%를 차지했고 KT 22.3%, LG유플러스는 20.7%를 기록해 3사가 시장의 80%를 넘는다.정부는 '가계 통신비 인하'를 달성하기 위해서라도 기존 통신 3사의 독과점 체재를 해소하는 게 중요하다고 본다. 통신 시장의 경쟁이 좀 더 활성화돼야 한다는 입장이다. 과기정통부는 올해 2분기 내 주파수 할당 계획을 내고 올해 4분기에 신규 사업자를 선정할 계획이다. 제4통신사는 이르면 내년 상반기부터 서비스를 개시한다.정부는 회수한 5G 28㎓ 대역 사업권 2개 가운데 1개를 신규 사업자에게 주고 사실상 3년간 독점 제공하는 등 여러 유인책을 제시했다. 신규 투자에 대한 세제 지원도 최대 28%(조세특례제한법 개정 전제)까지 해주고 정책자금 역시 시중금리보다 2% 저렴하게 빌려줄 예정이다.통신 3사가 5G 3.5㎓ 및 28㎓ 대역 주파수를 할당받는 대가로 각각 1조원 이상을 지불하고 기지국 설치에 최소 2조~3조원을 썼지만 신규 사업자는 인프라 구축 비용을 통신 3사의 10분의1 수준으로 낮춰줄 방침이다. 추산 투자금액 3000억원 중 80%인 2400억원도 2.5%의 저금리로 정부에서 보증받아 빌리면 연간 이자비용은 60억원에 그친다. 매년 투자금액의 최대 22%까지 세액공제되면 재투자 여력도 생긴다. 앞으로 5G 28㎓ 대역 개발이 궤도에 오르면 신규 진입자의 이득은 더 커질 수 있다.━제4통신사는 누구… 잠재 후보군으로 거론된 기업은 ━정부가 제4통신사를 천명한 가운데 자금력을 갖춘 여러 기업들이 후보군으로 꼽힌다. /사진=쿠팡 분야를 가리지 않고 다양한 기업들이 차기 제4통신사 물망에 오른다. 네이버는 5G 28㎓ 특화망을 활용 중인 데다 인공지능(AI), 빅데이터, 로봇 등 미래 먹거리로 추진하는 사업과 시너지가 기대된다. 포털이나 음악, 영상과 웹툰 등 콘텐츠와 클라우드 영역에도 활용할 가능성이 엿보인다. 카카오는 자사 모바일 메신저 카카오톡과 카카오페이, 각종 콘텐츠와 통신 사업을 연계할 수 있다는 평가다. 현재 운영 중인 여러 유료 서비스를 활용해 요금제, 멤버십을 설계할 수도 있다. 유통기업 쪽에선 탄탄한 물류망을 구축한 쿠팡이 유력한 후보다. 쿠팡은 현재 전국 30개 지역에 축구장 500개를 합친 크기의 물류·신선센터·배송캠프를 구축했다. 28㎓ 주파수를 활용해 이러한 물류센터를 로봇과 물류시스템 등을 연결하는 스마트 물류센터로 탈바꿈시킬 수 있다. 온라인동영상서비스(OTT) '쿠팡플레이'도 고화질 영상 구현에 해당 주파수 대역이 도움이 된다.롯데는 롯데월드·롯데백화점 등 막강한 유통망을 갖추고 있고 최근 롯데정보통신을 필두로 '아이돌 메타버스 콘서트' 등 메타버스 사업을 준비하고 있어 통신 시장에 눈독을 들이고 있다. 신세계 역시 기존 인프라에 통신 서비스를 접목해 사업 효과를 높일 수 있다. 백화점, 온라인 쇼핑몰과 신세계그룹 계열사는 물론 이마트가 보유한 야구장 '인천 SSG 랜더스필드'(수용 규모 2만7500명)에 28㎓ 주파수를 적용할 경우 경기 관람과 동시에 통신 서비스를 이용할 수 있다. 28㎓ 초기 사업 모델은 야구장이나 공연장, 도서관같이 인구가 밀집된 특정 장소에서 쓰일 가능성이 크다.금융권도 주목받고 있다. 수많은 고객데이터를 관리하는 데 28㎓ 주파수의 활용도가 높기 때문이다. 토스의 '토스 모바일'은 최근 알뜰폰 사업에 나선 데 이어 제4통신사의 다크호스다. 정부의 금산분리 규제 완화 기조에 맞춰 금융·통신이 결합한 다양한 요금제를 만들 수 있다는 것도 긍정적이다. 국민은행 'KB리브엠'이 2019년부터 성공적으로 자리 잡은 것이 방증이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023.03.09.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>그리스 노예의 성공담, 우화같은 죽음…거지꼴을 한 철학자 이솝[으른들의 미술사]</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003344859?sid=103</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>[서울신문 나우뉴스]한 남자가 한 손엔 책을, 한 손은 옷에 찔러 넣은 채 정면을 무심히 바라본다. 헝클어진 머리, 주름진 얼굴, 아무렇게나 막 입은 옷으로 볼 때 그는 세상의 가치를 초월한 사람처럼 보인다.그의 이름은 화면 오른편 상단에 적혀 있는 대로 아이소포스(Aesopus·BC 620~BC560)다. 아이소포스는 고대 그리스 기원전 6세기 사람으로 소크라테스보다도 한 세기 먼저 태어난 사람이다.많이 들어본 이름 같지만 여전히 우리에겐 낯선 이름이다. 그는 이솝이라는 영어 이름으로 우리에게 친숙한 우화 작가다. 벨라스케스, 이솝, 1638년경, 캔버스에 유채, 179x94cm, 프라도 미술관.‘이솝 우화’ 작가의 삶을 함축한 벨라스케스의 작품 &lt;이솝&gt; 우화(寓話)란 동물을 주인공으로 인간의 어리석음을 풍자한 글이다.  언뜻 생각나는 이솝 우화만 해도 개미와 베짱이, 시골 쥐와 서울 쥐, 여우와 포도 등 신랄하고 재치 번뜩이는 이야기가 넘쳐난다.동물에 빗댄 이솝 우화는 인간 사회를 통찰하는 이솝의 철학적 직관과 사고에서 비롯된 것이다. 사실 이솝의 초기 삶은 우아한 철학자의 삶과는 근본적으로 달랐다. 그는 노예의 아들로 태어나 노예의 삶을 살았다.그에 대한 기록은 별로 없어도 그의 외모에 대한 기록은 하나같이 그가 추남이었다고 기록하고 있다. 이솝은 낮은 이마, 들창코에 튀어나온 입, 얼굴에는 주름이 가득해 오늘날 미의 기준으로 보면 잘생겼다고 할 수 없다. 그러나 이솝의 스토리텔링 솜씨와 재치, 지혜는 주변의 많은 노예들로부터 인기가 있었다. 그의 재주는 주인에게까지 알려져 대우가 달라지기 시작했다. 이솝의 스토리텔링 능력은 여기서 그치지 않고 이웃 나라에까지 알려졌다. 사모스 철학자 크잔토스가 이솝의 능력을 눈여겨 보고 그를 곁에 두고자 했다. 크잔토스의 도움으로 이솝은 노예 신분을 벗어날 수 있었다. 이솝의 능력은 최고 통치자에게도 알려져 통치자 곁에서 국사를 논하는 단계에 이르렀다. 여기까지만 보면 어느 그리스 노예의 성공담이다. 벨라스케스, , 1638년경, 캔버스에 유채, 179x94cm, 프라도 미술관.입담 넘치는 노예에서 국사를 논하던 철학자 그러나 이솝의 죽음은 너무 어이없었고 죽음 자체가 우화였다. 이솝이 출세하면 할수록 이를 배 아파하는 사람들이 있었다.어느날 이솝이 델피로 길을 떠나자 시기심에 눈이 먼 사내들이 이솝의 길을 막아섰다. 노예 주제에 어디를 감히 돌아 다니느냐, 어디 감히 국정을 논하느냐 등 지금까지 이솝이 해왔던 모든 일들이 그들의 심기를 건드렸다.이들의 시기, 모함은 끝이 없었다. 델포이 사람들은 이솝의 짐에 잔을 미리 숨겨 이솝을 도둑이라 몰아세웠다. 이 절도 때문에 이솝은 감옥에 갇히는 신세가 되었다. 여기서 그친 게 아니라 이솝을 절벽에서 떨어뜨려 사형시켜야 한다는 여론이 들끓었다.이렇게 이솝은 허무하게 절벽에서 떨어져 사망했다. 얼마 후 현자를 살해한 델포이에 전염병이 돌았고 그제서야 사람들은 자신들이 무슨 일을 저질렀는지 깨닫게 되었다. 이솝을 살해한 델포이는 이솝의 ‘황금알을 낳는 거위’와 똑같은 결말을 맞았다. 이제 벨라스케스(1599~1660)가 그린 &lt;이솝&gt;을 자세히 보자. 이솝이 입은 걸인의 옷은 바로 노예의 삶을 상징하며 한 손에 든 책은 이솝 우화로 그의 업적을 상징한다. 왼편의 물통은 이솝을 해방시켜준 크산토스와 나눈 지혜의 샘을 의미한다. 오른편에 있는 물건은 델포이 사람들이 잔을 숨긴 이솝의 짐으로 그의 죽음을 상징한다. 벨라스케스는 모델에게 실제로 거지가 입는 옷과 신발을 신겨 사실성을 더했다. 이는 철학과 배고픔을 동일하다고 본 바로크식 관념을 보여준 것이다. 거지꼴을 하고 남루한 옷을 입었어도 철학자 이솝의 태도는 당당하다. 벨라스케스, , 1638년경, 캔버스에 유채, 179x94cm, 프라도 미술관.벨라스케스의 시선에서 본 고귀한 존재들 17세기는 다들 먹고살기 바쁠 때라 인권, 기본권과 같은 인간의 권리를 생각할 겨를이 없었다. 따라서 사회적 약자들에 대해 배려와 보살핌은 기대할 수 없던 시기였다.그러나 벨라스케스가 그린 거지, 난장이, 광대들을 보면 사회적 편견과 달리 인간의 품격에 대해 생각하게 한다. 사실 궁정에 사는 광대와 난장이들은 말 그대로 왕실의 장난감이었다. 태엽을 감거나 건전지를 갈아 끼울 필요가 없는 살아있는 장난감으로서 이들은 왕의 존재를 돋보이게 하는 서글픈 존재들이었다.현실에서도 서글픈 존재들이 있다. 바로 노인들이다. 벨라스케스 작품에 등장하는 노인들은 하나같이 쓸모를 다한 잉여 존재들이 아니라 지혜를 갖춘 인물들로 등장한다. 벨라스케스의 시선으로 보면 이들은 고귀한 존재들이다.벨라스케스는 세상의 이치를 깨달은 현자 앞에 마음이 못난 사내들이 길을 막아섰을 때 이솝이 느낀 감정을 표현했다. 철학자가 느낀 이 감정은 한마디로 설명할 수 없다.이솝의 달관한 듯한 표정에서 할 말은 많은데 하지 않겠다는 그의 의지가 읽힌다. 2500여 년 전 이솝에게서, 400여 년 전 벨라스케스에게서 으른들의 품격이 느껴진다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>"비트코인 큰 폭 조정 올 수도"…Fed·SEC 움직임에 촉각</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004816014?sid=104</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>비트코인 향후 전망·투자전략美 인플레이션이 최대 변수Fed 기준금리 올리면 약세암호화폐 매각 이슈도 악재SEC의 루나 등 잇따른 기소암호화폐 '증권성 논란'도 발목“비트코인은 아직 위험자산과의 상관관계에서 벗어나지 못했다. 큰 폭의 조정을 받을 수 있다.”미국 암호화폐거래소 비트멕스의 공동창업자 아서 헤이즈는 최근 한 전문지와의 인터뷰에서 이같이 전망했다. 지난 1월 50% 가까운 상승폭을 보이던 비트코인이 횡보를 이어온 지도 한 달째다. 투자자들은 미국 중앙은행(Fed)과 증권거래위원회(SEC)의 움직임에 촉각을 곤두세우고 있다. 인플레이션이 장기화하자 Fed가 기준금리 인상폭을 확대할 가능성도 높아지고 있다. SEC가 루나 등 암호화폐를 증권으로 분류해 기소한 데다 게리 겐슬러 의장이 ‘비트코인을 제외한 암호화폐는 증권’이라는 의견을 재차 밝히면서 규제 리스크도 다시 부각되고 있다. “Fed와 싸우지 말라”암호화폐 시황사이트 코인게코에 따르면 비트코인 시세는 지난달 27일 오후 2시 2만3554달러로 집계됐다. 한 달 전 대비 2% 오른 가격이다. 이더리움도 같은 기간 2.5% 오른 1639달러를 기록했다. 지난 1월 3달러 초반에서 19달러까지 여섯 배 가까이 급등한 앱토스는 이후 한 달간 29.3% 하락하면서 12.5달러로 내려앉았다.미국 인플레이션은 암호화폐 시세를 좌지우지하는 최대 변수로 꼽힌다. 투자자들은 미국 인플레이션이 장기화될 조짐에 시세 하락을 예상하고 있다. 1월 미국 근원 개인소비지출(PCE) 가격지수는 전년 동기 대비 4.7% 오르면서 월스트리트저널(WSJ) 전문가 예상치(4.4%)를 웃돌았다. 이 때문에 Fed가 이달 연방공개시장위원회(FOMC)에서 기준금리를 0.5%포인트 인상할 수 있다는 의견에 힘이 실리고 있다. 마이크 맥글론 블룸버그 인텔리전스 거시경제 전략가는 “2만5000달러 선을 넘어서기엔 매수세가 부족하다”며 “‘Fed와 싸우지 말라’는 시각이 작년 4분기부터 지배적이었으며 이는 올해 1분기에도 마찬가지”라고 분석했다. Fed가 인플레이션을 잡기 위해 기준금리를 0.5%포인트 올리면 암호화폐도 약세를 면치 못할 것이란 얘기다.암호화폐거래소 FTX의 붕괴에 따른 암호화폐 매각 이슈도 아직 남아 있다. 앞서 파산한 암호화폐 자산운용사인 ‘보이저 디지털’의 보유 자산이 매각되고 있어서다. 보이저 디지털은 작년 5월 루나·테라 사태를 계기로 부도 위기에 몰렸다가 FTX가 인수하기로 하면서 기사회생했다. 하지만 FTX마저 파산하면서 보이저 디지털의 청산도 불가피해졌다.코인텔레그래프에 따르면 보이저 디지털은 지난달 24일부터 3일간 보유하고 있던 암호화폐를 매각해 총 1억달러를 코인베이스에서 현금화했다. 보이저 디지털은 아직 5억3000만달러어치의 암호화폐를 보유한 것으로 추산된다. 이더리움(2억7600만달러)와 시바이누(8100만달러) 등 23종의 암호화폐다. 세계 최대 암호화폐거래소 바이낸스의 미국 법인인 바이낸스US가 추진했던 보이저 디지털 인수마저 SEC가 증권법 위반 혐의로 막아서면서 대량 매각이 불가피할 전망이다. ‘증권성’ 논란도 발목리플로 시작된 암호화폐의 ‘증권성’ 논란은 최근 다시 불이 붙는 모양새다. SEC의 잇따른 기소 때문이다. SEC가 권도형 테라폼랩스 대표와 테라폼랩스를 증권법상 사기 혐의로 기소하면서 루나와 테라, 미러프로토콜 등 암호화폐 4종을 증권으로 분류했다. 다른 알트코인도 SEC와 법원의 판단에 따라 증권으로 판단될 여지가 생긴 셈이다. 국내에서도 증권으로 분류된 암호화폐는 자본시장법을 적용받기 때문에 가상자산사업자를 통해 거래될 수 없다.SEC는 제네시스 글로벌 캐피털과 거래소 제미니가 제공한 대출·예치 서비스인 ‘제미니언(earn)’을 올초 미등록 증권으로 간주해 기소하기도 했다. 이어 지난 1월엔 암호화폐 대출업체 넥소의 암호화폐 대출 서비스를 증권으로 보고 4400만달러의 벌금을 부과했다. 바이낸스의 스테이블코인인 BUSD도 미등록 증권으로 분류해 발행을 막았다. 작년 5월 SEC 내 사이버부를 ‘암호자산&amp;사이버부’로 확장하면서 암호화폐공개(ICO)와 거래소, 대출·스테이킹, 탈중앙화금융(디파이), 대체불가능토큰(NFT), 스테이블코인까지 증권성 조사에 착수한 성과가 나타나고 있다는 평가다.기존 금융권의 암호화폐 투자를 막아 암호화폐시장의 충격이 금융시장으로 이어지는 것을 방지하려는 움직임도 본격화하고 있다. 재닛 옐런 미국 재무부 장관은 지난달 25일 주요 20개국(G20) 재무장관 회의를 마친 뒤 기자회견에서 “(암호화폐 관련 활동에) 강력한 규제 프레임 워크를 만드는 것이 중요하다”고 말했다. 크리스탈리나 게오르기에바 국제통화기금(IMF) 총재도 “G20에서 암호화폐를 금지하는 것도 하나의 옵션이 돼야 한다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>“은행엔 뭐하러 가요”…인터넷뱅킹 일평균 이용액 76.3조 ‘역대최대’</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005097823?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>지난해 인터넷뱅킹 등록 고객 2억명 첫 돌파 [자료 제공 = 한국은행]지난해 말 기준 인터넷뱅킹 일평균 이용금액과 이용건수가 각각 76조원, 1900만건을 돌파해 역대 최대를 기록했다.모바일뱅킹을 포함한 인터넷뱅킹 등록 고객수는 처음으로 2억명을 넘어선 것으로 나타났다.한국은행이 7일 발표한 ‘2022년중 국내은행 인터넷뱅킹 서비스 이용현황’에 따르면 지난해 19개 국내은행과 우체국 예금 고객 기준 인터넷뱅킹 일평균 이용금액과 이용건수는 각각 76조6000억원, 1971만건으로 전년 대비 각각 8.2%, 13.8% 늘어난 것으로 집계됐다.이는 지난 2006년 관련 통계 작성 이후 역대 최대 수준이다.이중 모바일뱅킹 일평균 이용금액과 이용건수는 각각 14조2000억원, 1684만건을 나타내 전년 대비 10.3%, 17.3% 증가했다.이에 따라 전체 인터넷뱅킹 이용실적 중 모바일뱅킹이 차지하는 비중은 이용금액 기준 18.6%, 이용건수 기준 85.4%를 각각 차지했다.연간 기준 인터넷뱅킹 이용실적에서 모바일뱅킹 이용건수 비중이 85%를 넘어선 것은 이번이 처음이다.특히, 인터넷뱅킹을 통한 비대면 대출신청서비스 일평균 이용금액은 1조1684억원으로 전년 보다 54.9% 뛰었으며, 이용건수는 3만5000건으로 13.5% 급증하는 등 큰 폭 확대됐다.한은은 “케이뱅크, 카카오뱅크, 토스뱅크 등 인터넷전문은행들의 신용대출 재개, 비대면 주택담보대출 출시 등에 주로 기인했다”고 설명했다.같은 기간 자금이체서비스 일평균 이용금액은 75조1704억원, 이용건수는 1968만건으로 각각 7.7%, 13.8% 늘었다.지난해 말 기준 전체 인터넷뱅킹 등록 고객수는 2억704만명으로 전년 말 대비 8.5% 증가해 처음으로 2억명을 넘어섰다.모바일뱅킹 등록 고객수 역시 1억6922만명으로 10.3% 늘어 역시 최고치였다.지난해 말 이용건수 기준 전체 금융서비스 전달채널 가운데 인터넷뱅킹을 통해 입출금·자금이체서비스를 이용한 비중은 77.7%로 전년 말 보다 3.0%포인트 증가하며 연간 기준 최고 수준을 나타냈다.이외 은행 창구를 통해 입출금·자금이체서비스를 이용한 비중은 5.5%(전년 5.8%), CD/ATM은 14.2%(16.0%), 텔레뱅킹 2.6%(3.5%) 등의 순으로 나타나 은행 창구를 통한 거래는 점점 감소하는 것으로 파악됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>그리스 열차 2대 충돌…최소 32명 사망·85명 부상</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000586524?sid=104</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>[앵커] 그리스 중부에서 대규모 열차 충돌 사고가 일어났습니다. 지금까지 최소 32명이 숨지고 85명이 다친 것으로 전해지고 있는데요. 강은나래 기자가 보도합니다.[기자]선로를 벗어난 열차들이 종잇장처럼 구겨졌습니다.그리스 중부 테살리아주 라리사 인근에서 기차 두 대가 충돌한 것은 현지시간으로 지난달 28일 밤.수도 아테네를 출발해 북부 도시 테살로니키로 향하던 여객열차와 테살로니키에서 라리사로 가던 화물열차가 정면으로 부딪친 겁니다.차량 여러 칸이 탈선하고 화재가 발생하면서, 100명이 넘는 사상자가 발생한 것으로 파악됐습니다.당시 여객열차에는 승객 350여명이 타고 있었던 것으로 알려졌습니다. 경상자들은 버스를 타고 사고 지점에서 130㎞가량 떨어진 테살로니키로 이동했다고 AP 통신은 보도했습니다.정부 관계자는 구조에 군대가 투입됐으며, 라리사 병원 2곳이 비상 근무에 들어갔다고 밝혔습니다. 구조대원들은 헤드 랜턴을 착용했지만, 짙은 연기 탓에 승객들을 구하는 데 애를 먹고 있습니다. 콘스탄티노스 아고라스토스 테살리아 주지사는 열차 앞부분이 박살이 났다며 "매우 강력한 충돌이었으며 끔찍한 밤"이라고 말했습니다.또, 잔해와 차량을 들어올릴 크레인과 특수 중장비를 들여보냈다고 덧붙였습니다. 인근 다리 아래로 대피한 한 청년은 "열차 안에는 공포가 가득했고, 사람들이 비명을 질렀다"고 당시 현장 상황을 전했습니다.연합뉴스TV 강은나래입니다.#그리스 #열차 #충돌 #탈선연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023.03.10.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>[단독] 케이뱅크, 지난해 고신용자 신용대출 더 늘렸다… 총 3.4조</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000902574?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>서울 중구 을지로에 위치한 케이뱅크 신사옥 전경./사진=케이뱅크 케이뱅크가 지난해 고신용자에 대한 신용대출을 중·저신용자보다 1조원 가까이 더 많이 취급한 것으로 나타났다.케이뱅크는 지난해 말 중·저신용자 대상 신용대출 비중을 금융당국과 약속한 25% 이상을 달성했지만 정작 중·저신용자보다 고신용자 대출 확대에 몰두했다는 비난을 피하기 어렵게 됐다. 10일 머니S가 국회 정무위원회 소속 강병원(더불어민주당·서울 은평구을) 의원실을 통해 입수한 금융감독원 자료에 따르면 지난해 케이뱅크의 신용등급(은행 자체 기준) 1~3등급 고신용자 신용대출 신규 취급액은 총 3조3772억원에 달했다. 반면 케이뱅크가 지난해 4등급 이하 중·저신용자에게 신규 취급한 신용대출은 총 2조4242억원에 그쳤다. 고신용자 신규 취급 신용대출 규모의 72%에 그치는 수준이다. 세부적으로 신용등급 4~6등급인 중신용자 대출이 1조9839억원 규모로 4등급 9108억원, 5등급 6335억원, 6등급 4396억원 순으로 집계됐다.  7등급 이하인 저신용자는 4403억원 규모에 그쳤다.  인터넷전문은행인 케이뱅크가 고신용자 대출에 열을 올리면서 중·저신용자 자금 공급 확대라는 설립 취지가 무색하다는 지적이다. 인터넷전문은행이 은행권에서 경쟁과 혁신을 통해 중·저신용자 대출을 적극 공급할 것이란 기대와 달리 기존 은행과 비슷한 영업 행태를 보이고 있다는 것이다.올해 케이뱅크의 전체 신용대출 중 중·저신용자 대출 비중(잔액기준) 목표치인 32% 달성 여부도 불투명하다는 전망까지 나온다.  금융위원회는 2021년 업계 자율의 중·저신용자 신용대출 비중 규제를 도입했다. 인터넷전문은행의 신용등급 하위 50% 중·저신용자 신용대출을 늘린다는 취지였다.이에 대해 강병원 의원은 "중·저신용자보다 고신용자 신용대출을 크게 늘리는 것은 중·저신용자의 대출 접근성 향상이라는 인터넷전문은행 설립 취지를 위배하는 것과 마찬가지"라며 "금융당국도 인터넷은행이 본연의 목적에 충실하도록 보다 적극적인 점검이 필요하다"고 말했다.케이뱅크 관계자는 "2017년 출범했지만 2021년부터 본격적인 성장을 시작하면서 지난해 대출 자산을 늘리기 위해 고신용자 신용대출을 늘린 측면이 있다"며 "아직 여신 규모가 10조원대에 그치는 만큼 중·저신용자 확대와 함께 고신용자 여신도 함께 늘려야 하는 상황"이라고 설명했다.한편 토스뱅크의 경우 고신용자 신용대출 신규 취급액은 지난해 총 4조45억원으로 집계됐다. 반면 중·저신용자 대출은 4조246억원 규모로 고신용자 대출보다 200억 정도 많았다.지난해 토스뱅크는 4등급에 1조3578억원, 5등급에 9137억원, 6등급에 7491억원, 7등급 이하에 1조40억원의 신용대출을 신규 취급한 것으로 집계됐다.카카오뱅크는 지난해 9726억원의 고신용자 신용대출을 신규 취급했다. 중·저신용자 취급액은 고신용자보다 5754억원 많은 1조5480억원을 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>인뱅 모래주머니 풀고 5대 은행과 경쟁하나…금융위 2일 논의</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005095369?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>경쟁제한 요소 된 ‘중저신용 규제’고신용자 대출중단·역차별 논란인뱅에 부실 몰려 리스크 지적도이복현 “개선책 나오면 적극 검토”인터넷전문은행(인터넷은행)의 중저신용자 대상 신용대출 비중 규제를 완화해야 한다는 목소리가 금융권에서 커지고 있다. 5대 은행(신한·KB국민·하나·우리·NH농협) 중심 과점체제를 깨는 데 도움이 된다는 판단에서다. 금융당국도 합리적 대안이 나온다면 적극 검토하겠다는 입장이다.금융위원회는 2일 김소영 부위원장 주재로 ‘은행권 경영·영업 관행·제도 개선 태스크포스’(TF) 회의를 열어 인터넷은행 중저신용자 대출 비중 조정을 포함한 ‘경쟁 촉진 및 구조 개선’ 방안을 논의한다. 금융위원회·금융감독원, 금융권 협회, 연구기관 등에서 실무자들이 모여 의견을 교환하고 세부안을 구체화할 예정이다. 앞서 이복현 금융감독원 원장은 인터넷은행의 중금리 대출 공급 의무를 완화하는 방안을 검토하냐는 질문에 “합리적인 근거를 바탕으로 개선책이 나온다면 적극적으로 검토할 소지가 있다”고 답했다.중저신용자 대상 신용대출 비중은 가계 신용대출 잔액에서 신용평가사 KCB 기준 신용평점 하위 50% 차주에 대한 대출 잔액이 차지하는 비율이다. 인터넷은행 3사는 2021년 5월 당국과 협의해 연도별 목표치를 정했다. 카카오뱅크는 올해 말 30%로 올려야 하고, 케이뱅크와 토스뱅크는 각각 32%, 44%다.개선 주장이 나오는 건 선의에서 시작한 제도가 부작용을 낳고 있기 때문이다. 인터넷은행이 중저신용자 대출에 집중하느라 고신용자 대출 시장에서 5대 은행보다 금리 경쟁력이 떨어지는가 하면, 고신용자가 중저신용자보다 더 높은 금리로 대출받는 ‘역차별’도 발생한다. 은행연합회에 따르면 1월과 지난해 12월 신규취급액 기준 고신용자들은 인터넷은행보다 시중은행에서 대출 금리가 더 낮았다. 예컨대 1월 기준 신용점수 951~1000점인 사람들은 평균적으로 5대 은행 신용대출 금리가 연 5.69~6.12%인데 반해 케이뱅크는 6.21%, 토스뱅크는 6.41%였다. 인터넷은행은 점포를 운영하지 않아 비용이 절감돼 금리를 낮출 수 있음에도 외려 더 높게 나타난 것이다. 많은 고신용자들이 실제 대출 단계에서 고시금리보다 이자율이 높다. 중저신용자 대출 비중 달성을 위해 금리를 높게 부르는 것으로 알려진다.카카오뱅크는 가격을 조정하는 게 아니라 아예 고신용자 대출 공급을 중단해 숫자를 맞춘다. 지난해 12월 하순 카카오뱅크는 고신용자 대상 신용대출 상품 신규 판매를 중단하며 “고신용대출 잔액이 급증하고 있는 상황이라 부득이 한시적으로 중단하게 됐다”고 설명했다. 2021년 11월부터 이듬해 6월까지, 또 2020년 연말 등 카카오뱅크는 수 차례 고신용자 대출 공급을 중단했다. 한 금융권 관계자는 “고신용자는 5대 은행, 중저신용자는 인터넷은행으로 사실상 시장이 이분화된 상황”이라며 “인터넷전문은행 도입 당시 핵심 목적인 ‘은행산업 경쟁 촉진’과는 딴 길로 가고 있다”고 평했다.중저신용자가 고신용자보다 싸게 대출받는 ‘역차별’ 사례도 있다. 카카오뱅크는 지난 12월 최저금리 연 4.45% 중신용대출 상품 특판을 진행했다. 5대 은행 신용대출 금리가 연 6% 초반이던 때였다. 고신용자는 대출을 못 받는데 중저신용자는 헐값으로 대출 받은 셈이라 논란이 많았다. A인터넷은행 관계자는 “유입되는 여신 고객이 한정적인 상황에서 중저신용 비중을 맞추느라 일어난 일”이라며 “당행에서도 그런 일이 일어나지 않으리라고 장담할 수 없다”고 했다.저금리 때 설정한 비율을 그대로 놔두면 위험 대출 대부분이 인터넷은행으로 몰려 시스템 리스크가 심화할 수 있는 지적도 있다. B인터넷은행 관계자는 “국민의 절반인 중저신용자 대출을 전체 시장에서 3% 정도 규모인 인터넷은행에서만 전담하는 것은 무리가 있다”며 “시중은행의 적극적인 참여도 필요하다”고 했다. 부채 축소 국면에서 기존 차주들이 원금만 갚아도 중저신용자 비율이 하락하는데, 비율을 맞추려면 부실 위험이 명백한 ‘불건전한’ 중저신용자들에게까지 대출을 내줘야 하는 문제도 있다. A인터넷은행 관계자는 “2021년 초 상황에 맞춰 설정된 목표치에 현재의 시장상황이 반영됐으면 한다”고 했다. C인터넷은행 관계자도 “목표 숫자 달성에만 포커싱하면 일시적으로 중저신용 비중이 늘어날지는 몰라도 연체율 상승, 대손비용 증가 등 경영상 또다른 문제가 발생할 가능성이 높다”고 했다.중저신용자 대출 비중을 풀어준다고 해서 반드시 서민 대출이 줄어드는 것도 아니다. 정말 필요하고 잘 갚을 수 있는 사람들에게 더 좋은 혜택으로 대출을 공급할 수 있게 된다고 인터넷은행들은 말한다. 중저신용자들 대출은 연체를 줄일 수 있다면 고신용자보다 마진이 높아 기술력 있는 인터넷은행들에겐 기회다. A인터넷은행 관계자는 “경제변화에 따라 리스크 관리의 강도와 방식이 바뀔 수 있다”며 “공략할 의지와 전략을 갖춰 규제나 의무 비중과 상관없이 중저신용 공급을 장기적으로 늘려나갈 계획”이라고 했다. C인터넷은행 관계자도 “대출상품 경쟁력 강화를 통해 중저신용대출 확대 기조를 유지할 것”이라고 했다. B인터넷은행 관계자는 “중저신용자에 대한 포용적 금융은 본래 목표 중에 하나로 잘해 내고 싶은 분야”라며 “데이터, 기술, 분석 능력을 통해 이 분야의 혁신을 확대하고 있다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2023.03.15.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>네카토서 보험 비교후 가입 … 수수료 '5% 미만' 가닥</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005102012?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>수수료 확정후 상반기 출시네이버·카카오·토스(네카토) 같은 온라인 플랫폼에서 여러 회사의 보험을 한눈에 비교하고 원하는 상품에 가입하는 서비스가 막판 진통을 겪고 있다. 가장 논란이 되는 것은 '상품 수수료'인데, 금융당국이 보험업계와 플랫폼 간 입장 차를 조율하고 있다. 업계는 대략 보험료의 '5% 미만' 선에서 수수료가 결정될 것으로 보고 있다.15일 보험업계에 따르면 금융당국 규제 완화로 새롭게 선보이는 '보험 비교·추천 서비스' 수수료 협상이 최종 결정만 남겨두고 있다. 보험업계는 단순히 상품을 모아서 보여주는 수준이라며 2~3%를 주장하는 반면, 빅테크와 핀테크 플랫폼은 다른 입점 업체에 적용하는 10%를 고수하고 있다.특히 매년 의무적으로 가입해야 하고 보험료가 수십만 원인 자동차보험이 논란이다. 여행자보험 등 미니 보험은 보험료가 1만원 내외여서 수수료도 많지 않기 때문이다. 한 보험사 관계자는 "종신·변액·외화보험 등 불완전판매 우려가 있는 상품은 비교 플랫폼 서비스에서 제외될 것으로 보인다. 현재로선 가장 보험료(수수료)가 비싼 상품이 자동차보험이 될 것"이라고 말했다.일각에서 수수료가 5~6% 선에서 결정될 것이라는 이야기가 나왔지만, 최종적으로는 5% 미만이 유력한 것으로 알려졌다. 다만 같은 자동차보험이라도 회사 정책이나 상품 구조에 따라 수수료가 달라질 수 있다. 금융당국 관계자는 "양측 입장의 중간 타협점을 찾는 상황이고, 결정되면 어떤 식으로든 발표될 것"이라며 "당초 자동차보험을 제외하는 방안까지 검토됐지만, 수수료를 조율해 차보험을 포함시키는 것까지는 양측이 동의했다"고 설명했다. 수수료율이 결정되면 플랫폼과 보험사 간 시스템 구축을 거쳐 이르면 상반기 중에 서비스가 시행될 것으로 보인다.한 플랫폼 기업 관계자는 "보험사들이 수수료만큼 고객 부담으로 전가될 것이라고 주장하지만, 광고비 절감 효과로 충분히 상쇄 가능할 것"이라며 "차보험은 지금도 온라인으로 가입하는 고객이 많아 비교·추천 서비스에 가장 적합하다"고 주장했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>한국일보-ASAP, 플랫폼 마케팅 파트너 협약 맺어</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000728421?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>토스·올리브영 광고 대행 협력한국일보사(왼쪽)와 ASAP의 CI. 각 사 제공플랫폼 마케팅 광고 중개라는 새 분야에 도전한 한국일보가 통합마케팅커뮤니케이션(IMC·Integrated Marketing Communication) 전문 마케팅사인 주식회사 에이에스에이피애드(ASAP)와 광고 파트너십 계약을 맺었다고 14일 밝혔다.두 회사는 앞으로 플랫폼마케팅 파트너십을 맺은 토스, 올리브영 등 온·오프라인 채널에서 협업을 진행한다. 이번 제휴를 통해 토스에서는 △광고주의 퀴즈 정답을 맞히는 사용자에게 리워드를 주는 '토스 행운퀴즈' △광고주의 이벤트 알림을 받는 사용자에게 리워드를 제공하는 '토스 머니알림'을 진행하고, 국내 최대 H&amp;B(Health&amp;Beauty) 스토어 올리브영 매장의 △디지털 사이니지(전광판) 광고도 함께 대행한다.한국일보는 지난달 1일 플랫폼마케팅 광고 중개에 뛰어들며 라이브커머스 전문그룹인 자회사 글로벌이앤비와 협업해 라이브커머스 제작과 홍보를 대행하고 있다.파트너사인 ASAP는 모바일광고, 디스플레이광고, 바이럴마케팅 등 다양한 분야에서 광고주에게 통합 마케팅 솔루션을 제공하는 업체다. 뷰티 및 메디컬 전문 기업과 온·오프라인 통합 마케팅을 진행하며 효과적 운영 사례를 늘려가고 있다는 것이 업계 평가다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2023.03.10.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>알뜰폰 활성화에 민관 머리 맞대…"비대면 가입 쉽게"</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006677498?sid=105</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>과기정통부, 알뜰폰 경쟁력 강화 간담회박윤규 과학기술정보통신부 2차관(앞줄 가운데)이 10일 오후 서울 종로구 NIA빌딩에서 열린 알뜰폰 경쟁력 강화를 위한 간담회에서 참석자들과 기념촬영을 하고 있다. 2023.3.10/뉴스1 ⓒ News1 김민지 기자(서울=뉴스1) 이기범 기자 = 정부와 업계가 알뜰폰(MVNO) 활성화에 머리를 맞댔다. 특히 업계는 비대면 가입 절차를 개선해야 한다고 입을 모았다.과학기술정보통신부는 10일 오후 알뜰폰 경쟁력 강화 방안을 모색하기 위한 간담회를 열었다. 간담회에는 비바리퍼블리카(토스), KB국민은행, 스테이지파이브, 아이즈비전, 인스코비 등 5개 알뜰폰 사업자와 SK텔링크, KT엠모바일, 미디어로그 등 3개 통신사 자회사가 참여했다.박윤규 과기정통부 제2차관은 "다양하고 저렴한 5G 알뜰폰 요금제가 출시될 수 있도록 업계와 정부가 함께 노력해야 한다"며 "경직적인 도매대가 산정방식도 탄력적으로 운영될 수 있도록 국회와 협의해 개선해 나가겠다"고 말했다.박 차관은 통신 3사 알뜰폰 자회사 점유율 문제를 언급했다. 또 도매제공 의무 제도 개선, 개인정보 문제 등에 대한 알뜰폰 사업자 책임성 강화, 대량의 데이터 구매를 통한 할인 방안 등을 언급했다.알뜰폰 사업자들은 △설비투자 유도를 위한 안정적인 투자 환경 조성 △망 도매대가 인하를 통한 다양한 서비스 창출 △명의도용 방지를 위한 제도적 보완 및 AI 기술 활용 등을 제시했다.전문가들은 △플랫폼·유통 등 비통신사업자들의 보다 용이한 진입을 위한 제도 개선 △도매대가 인하를 위한 정책적 노력 지속 △통신사와 알뜰폰사 간 정확한 요금 비교를 위한 정보 제공 △대용량 데이터 선구매 등의 활용도 제고를 통한 다양한 요금제 등장 유도 등을 해법으로 제시했다.앞서 윤석열 대통령은 지난달 15일 통신업계 과점 체제 폐해를 지적하면서 경쟁 체제 도입 방안과 통신요금제 선택권 확대 등 서비스 품질과 요금을 개선할 대책을 마련하라고 지시했다.이에 과기정통부는 '통신시장 경쟁촉진 정책방안 특별전담반(TF)'을 구성했으며 지난달 20일 1차 회의를 통해 알뜰폰 경쟁력을 높이기 위한 브랜드 가치 제고 방안 등을 논의해 나가기로 했다.박 차관은 "인터넷 은행의 등장으로 비대면 대출이 용이해진 것처럼 통신분야에서도 비대면 가입 절차가 간편하게 이뤄질 수 있어야 한다"며 "이런 업계 공통 현안에 대해서는 정부와 업계·유관단체가 전담반을 구성해 신속히 대응하자"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2023.03.02.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>시중은행 과점 ‘때리기’에…인뱅·지방은행 반사이익 볼까</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000040942?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>당국, 시중은행 과점 구조 완화 논의 이어가인뱅 ‘중금리대출’ 공급 의무 완화하면 금리 경쟁력 발생지방은행은 중소기업 대출 규제 완화 필요성 제기서울 시내에 있는 국내 4대 시중은행에 간판이 설치되어 있다. [사진 연합뉴스][이코노미스트 이용우 기자] 고금리 기조로 시중은행들이 역대 최대 실적을 기록하면서 금융당국의 압박이 커지고 있다. 당국은 시중은행의 과점 체제가 금리 시장경쟁을 떨어뜨린다고 보고 이를 해소한다는 방침이다. 가장 쉬운 방법으로는 인터넷은행과 지방은행에 적용돼 있는 규제를 완화해 시중은행과 동일한 수준에서 금리와 영업 경쟁을 유도하는 점이 거론된다.   당국, 인뱅 중금리대출 규제 완화 가능성 제시2일 업계에 따르면 윤석열 대통령이 올해 초 은행권의 공공재적 성격을 강조한 이후로 금융당국은 은행의 ‘과점 때리기’에 집중하고 있다. 지난달 27일에는 공정거래위원회가 이자 산정과 수수료 책정 등에 담합이 있었는지를 파악하기 위해 KB국민은행·신한은행·하나은행·우리은행·NH농협은행과 IBK기업은행을 현장조사했다. 같은 날 이복현 금융감독원장은 경기도 판교에 있는 카카오뱅크를 방문해 인터넷 전문은행과 핀테크 기업이 은행 산업의 경쟁을 촉진할 수 있도록 노력하겠다는 입장을 전하기도 했다. 이 원장은 “국내 인터넷전문은행·핀테크 기업도 금융서비스 접근성 및 소비자 선택권 확대 등 변화 촉진자로서의 역할과 비중이 늘어나고 있다”며 “국내 인터넷 전문은행 도입 취지 및 샌드박스 취지에 대해 다시 한 번 생각해보는 좋은 자리였다”고 말했다.  이복현 금융감독원장이 2월 27일 판교 카카오뱅크 본사를 방문해 인터넷 전문은행 및 핀테크 기업 최고경영자(CEO)들과 만나 대화하고 있다. [사진 연합뉴스]현재 카카오뱅크·케이뱅크·토스뱅크 등 인터넷은행 3사는 설립 취지에 따라 전체 가계대출에서 중금리대출 비중을 늘리는데 집중하고 있다. 중금리대출이란 KCB 기준 신용평점 하위 50% 차주를 대상으로 한 것으로, 올해 연말까지 각 사가 제시한 목표는 카카오뱅크 30%, 케이뱅크 32%, 토스뱅크 44% 등이다. 인터넷은행들은 금리가 높은 중저신용자를 중심으로 영업을 하는 상황이라 결국 시중은행과의 금리 경쟁에서 뒤처질 뿐 아니라, 연체율 관리에서도 대손충당금 등 비용이 많이 발생하는 영업 구조를 가지고 갈 수 밖에 없다. 이 부분에 대해서 이 원장은 ‘인터넷 은행의 중금리대출 공급 의무를 완화하는 방안을 검토하느냐’는 기자들의 질문에 “합리적인 근거를 바탕으로 그 부분에 대한 개선책이 나온다면 지금은 적극적으로 검토할 소지가 있다”고 답했다.아울러 인터넷은행이 현재 온라인 네트워크만으로 영업을 하고 있지만, 오프라인 매장 진출까지 확대할 경우 중·장년층 고객으로 영업을 확대할 여지도 거론되고 있다.  지방은행, 중기대출 규제 완화 통해 가계대출 확대 가능지방은행에 대해서도 시중은행 과점 구조를 깨기 위한 규제 완화가 가능할지 관심을 끌고 있다. 현재 지방은행들은 거점 지역을 벗어나 전국 단위의 진출이 이전보다 손쉽게 이뤄지고 있다. 최근 2~3년간 디지털금융에 익숙해진 금융 고객이 늘면서 이자 경쟁만으로도 비대면을 통한 고객 확보가 가능해졌기 때문이다.  다만 중소기업 대출 지원을 늘려야 하는 현행 규제는 지방은행의 가계대출 확대를 발목잡는 상황이다. 금융기관 여신운용규정 제2조 8항에 따르면 시중은행은 원화금융자금대출 증가액의 45% 이상을, 지방은행은 60% 이상을 중소기업에게 지원해야 한다. 3대 지방금융지주 로고. [사진 각 사]이런 이유로 지난해까지 지방은행의 기업대출 현황을 보면 전체 대출에서 중소기업 대출이 차지하는 비중은 시중은행보다 높았다. 지방은행권 1위를 차지하는 부산은행을 보면 지난해 중소기업 대출은 총 33조7393억원으로 전체 대출의 61.3%를 차지했다. KB국민은행의 이 비율은 40.5%를 기록했다. 그만큼 지방은행들이 가계대출을 더 늘릴 수 있도록 규제가 변경되면 이미 디지털금융을 통해 고객 접근성을 높인 만큼 금리 경쟁만으로도 가계대출 고객을 확대할 수 있다는 분석이다. 다만 이 경우 지방은행들이 거점 지역의 중소기업 대출 지원에 소홀해질 수 있다는 단점도 언급된다. 중소기업 대출 확대를 통해 지역경제 활성화를 유도한다는 목적으로 마련된 규제가 변경되면서 지역경제 쇠퇴를 더 부추길 수 있다는 지적이다. 한 지방은행 관계자는 “지방에도 대부분 시중은행들이 자리잡고 있고 과거와 비교해 지역의 지방은행 충성 고객이 많이 사라졌다”며 “시중은행과 경쟁하기 위해서는 결국 중소기업과 함께 개인 고객을 늘려야 한다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2023.03.02.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>금융·비금융을 아우르는 궁극의 미래형 통합서비스 '슈퍼앱'[삼정KPMG CFO Lounge]</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004816394?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>[한경 CFO Insight]이재석 삼정KPMG 금융컨설팅부문 상무이 기사는 02월 28일 15:00 마켓인사이트에 게재된 기사입니다.전 세계 모든 산업에 걸쳐 디지털 전환이 빠르게 진행되고 소비자들의 편의성과 원활한 경험에 대한 기대치가 높아짐에 따라 사용자에게 편리하고 원활한 경험을 제공하는 슈퍼앱(Super App)이 메가 트렌드로 자리잡고 있다.슈퍼앱이 게임 체인저(Game Changer)로 부상한 이유는?슈퍼앱은 하나의 기능만 제공하는 단일앱과 달리 금융 서비스뿐만 아니라 음식 배달, 티켓 예매, 온라인 쇼핑, 게임과 같은 라이프스타일 서비스를 단일 플랫폼 내 통합된 인터페이스로 제공하는 어플리케이션(이하 앱)이다. 국내외 빅테크 기업을 중심으로 금융뿐만 아니라 비금융을 아우르는 종합금융플랫폼 또는 생활금융플랫폼을 표방하는 곳이 늘고 있다. 슈퍼앱은 금융 포용성은 낮지만 스마트폰 사용이 빠르게 증가하고, 경제활동에서 모바일 의존도가 높은 인도·동남아시아를 중심으로 급격한 성장세를 보이고 있다. 단일 기능의 일반 앱과 구별되는 슈퍼앱의 가치는 일상생활에서 발생하는 다양한 사용자 니즈를 원스톱 솔루션으로 충족시킴으로써 여러 앱을 사용해야 하는 번거로움을 줄이고, 높은 사용자 경험을 토대로 궁극적으로 '고객 락인'(Lock in)에 기여할 수 있다는 점이다. 사용자 친화적인 인터페이스도 슈퍼앱이 가진 강점 중 하나다. 단순하고 직관적이며, 이해하기 쉬운 사용자 친화적인 디자인과 인터페이스는 고객 여정을 원활히 하고 다양한 서비스에 쉽게 접근할 수 있도록 한다. 또한 슈퍼앱은 데이터 및 알고리즘에 기반하여 사용자에게 맞춤화된 서비스를 제공하기 때문에 고객 개개인의 니즈에 맞는 개인화된 고객 경험을 효율적으로 제공할 수 있다. 이와 더불어 슈퍼앱은 다양한 서비스를 매끄럽고 원활하게 사용할 수 있도록 다양한 결제방식을 사용할 수 있는 통합결제솔루션을 제공한다. 해외 슈퍼앱, 동남아시아 등을 선두로 전 세계로 확산해외 슈퍼앱 분야의 선두주자 중 하나는 텐센트(Tencent)가 2011년 개발한 중국의 소셜미디어 플랫폼 위챗(WeChat)이다. 월간 10억 명 이상의 활성 사용자를 보유하고 있는 위챗은 메신저 및 소셜 미디어 서비스를 중심으로 성장했다. 미니 프로그램(Mini Program)을 통해 인스턴트 메시지, 온라인 쇼핑, 가상 지갑, 결제 서비스, 음식 배달 등 다양한 라이프스타일 서비스를 통합 제공하며 수많은 중국인들의 일상생활을 위한 필수 앱으로 성장했다. 2012년 말레이시아에서 택시 호출 앱으로 출시된 그랩(Grab)은 약 2000만 명 이상의 활성 사용자를 확보해 동남아시아를 대표하는 슈퍼앱으로 꼽힌다. 전자상거래 및 결제 등과 같은 금융, 배달, 호출 등 다양한 서비스로 확장했으며, 사용자들에게 할인과 프로모션을 제공하기 위해 다양한 기업들과 제휴하고 있다. 그랩의 모바일 결제서비스 그랩페이(GrabPay)는 앱 서비스 결제는 물론 가맹점에서도 결제가 가능하기 때문에, 현금이 여전히 널리 쓰이는 동남아시아에서 디지털 결제 확산에 기여하고 있다. 인도네시아에 기반을 둔 고젝(GoJek)은 약 3800만 명의 월간 활성 사용자를 보유하고 있다. 2010년 승차 공유 서비스로 시작했다. 지금은 승차권, 음식 배달, 모바일 결제 등 20개 이상의 통합 서비스를 제공하며 베트남, 태국, 필리핀 등 동남아시아의 여러 국가로 확장했다. 사용자 충성도를 높이기 위해 서비스를 이용에 대한 리워드 프로그램인 고포인츠(GoPoints)도 운영하고 있다.빅테크·핀테크, 종합금융플랫폼을 지향하며 진화 무료 인스턴트 메시지 서비스를 통해 빠르게 성장한 카카오는 카카오톡을 포함해 단일 앱 안에서 지급결제(카카오페이), 음식 배달, 온라인 쇼핑, 선물하기 등과 다양한 라이프스타일 서비스를 제공하고 있다. 카카오는 일본, 인도네시아, 필리핀 등 해외 시장으로도 확장을 시도하고 있다. 국내 스타트업 투자 및 이종산업 기업 인수 등을 통해 서비스 영역·밸류체인을 지속적으로 넓히며 고객 오퍼링(Offering)도 확대하고 있다.한국을 대표하는 포털서비스 네이버는 검색서비스를 기반으로 커뮤니케이션, 뉴스, 결제, 쇼핑, 간편인증 등 다양한 서비스를 제공한다. 특히 네이버는 검색 서비스, 쇼핑, 네이버페이 결제, 소상공인 쇼핑몰 구축 솔루션인 스마트스토어 등의 연계를 통해 사용자와 소상공인 거래를 중개하는 대표 플랫폼으로서 이커머스 분야에서 선도적 입지를 굳히고 있다. 국내 대표적인 슈퍼앱 성공 사례로는 간편송금 서비스로 성장한 토스를 꼽을 수 있다. 토스는 은행, 보험, 증권 등 금융서비스를 포함하여 간편인증, 전자증명서 발행, 공과금 수납, 카드 신청 등 다양한 서비스를 제공하는 슈퍼앱으로 성장했다. 토스의 사용자 친화적인 인터페이스와 높은 편의성, 그리고 불편했던 금융을 쉽고 간편하게 제공한다는 혁신성은 많은 MZ세대의 공감과 지지를 불러일으켰고, 쇼핑, 승차 서비스 등 비금융 사업으로 영역을 넓히며 데카콘(Decacorn, 기업가치 100억 달러 이상의 비상장 스타트업)을 바라볼 정도로 성장했다. 금융사 슈퍼앱 전략, 서비스 차별화·고객 가치에 대한 고민 필요최근 국내 금융사들도 점점 현실화되고 있는 디지털 경제 및 모바일 중심 경제·소비활동 확산에 대응하기 위해 노력하고 있다. 기존 방식이 여러 개의 앱을 통해 개별적으로 제공하던 식이었다면 이젠 단일 디지털 채널을 통해 상품·서비스를 통합적으로 제공하는 서비스 모델을 고려하고 있다. 특히 금융지주차원에서는 계열사 시너지 촉진 관점에서 디지털의 역할이 더욱 강조되면서 기존의 계열사별 사일로(Silo) 비즈니스가 아닌 계열사간 횡적(橫的)연결을 통한 송객(送客) 및 데이터 확보라는 전략적 가치에 방점을 두고 금융 슈퍼앱을 도입할 수 있을 것이다.금융사들이 추구하는 슈퍼앱 전략이 성공하기 위해서는 사용자 친화적이면서 원활한 경험이 필수적이다. 무엇보다 핵심 서비스인 금융을 중심으로 그와 연계하여 시너지를 극대화할 수 있는 서비스가 무엇인지 고민해야 한다. 이종산업 간 파트너십을 통해 서비스 제공 범위를 지속적으로 확대하며 다양한 고객 니즈를 충족시키고, 네트워크 효과를 극대화해야 한다. 이와 더불어 사용자 경험을 지속적으로 개선하고 새로운 서비스를 추가하기 위해 사용자의 피드백을 적극 활용·반영해야 할 것이다. 마지막으로 소비자의 성향에 대한 깊이 있는 이해를 기반으로 라이프스타일 관점의 고객 니즈를 얼마나 효과적으로 충족하고, 소비자의 요구에 빠르게 대응할 수 있는지가 금융사의 슈퍼앱 생태계 구축의 핵심 요소가 될 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>"얼마 받고 기사 썼냐?"... 머쓱해진 '보험다모아' 홍보맨</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000726173?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>2015년 정부 주도로 만든 '보험다모아'낮은 인지도에 민간 업체로 오해받기도빅테크 투입에 보험사들 뒤늦은 후회지난달 26일 "'싼 줄 알았더니 제일 비싸'... 자동차보험 '호구' 벗어나는 법" 기사에 달린 네이버 댓글들.'보험다모아 광고 기사?' '보험비교 사이트 광고인가?' 지난달 26일 제가 작성한 "'싼 줄 알았더니 제일 비싸'... 자동차보험 '호구' 벗어나는 법" 기사에 달린 댓글입니다. 가입 규모만 2,451만 건에 달하는 자동차보험을 보험다모아를 통해 가입하면 가장 저렴하게 이용할 수 있다는 내용을 소개하는 기사였습니다. 그런데 왜 일부 독자는 해당 기사에 분노를 표출했을까요. 그 분노의 원인과 의미를 짚어 봤습니다. 2015년 정부 주도로 출범한 '보험다모아' 2015년 11월 25일 임종룡(가운데) 당시 금융위원장이 임시완(오른쪽) 홍보대사와 함께 온라인 보험슈퍼마켓인 '보험다모아' 시연을 하고 있다. 금융위 제공우선 '보험다모아'는 2015년 11월 금융당국이 주도해 만든 일종의 가격비교 플랫폼이에요. 금융위원회는 "국민들이 온라인을 통해 쉽게 보험 정보를 비교해 보고 가입할 수 있으며, 사업비 절감에 따른 보험료 인하도 가능하다"고 설명했어요. 당시 드라마 '미생'으로 한창 주가를 올린 임시완씨가 출범 시연회에 참석했을 정도로 정부가 힘을 팍팍 준 정책이었죠.물론 보험사들은 '보험다모아' 출범을 내켜하지 않았어요. 그때까지만 해도 의무보험인 자동차보험은 개별 보험사 홈페이지에 일일이 접속해 1년마다 갱신을 해야 했거든요. 그런데 보험다모아가 나타나 가격비교가 쉬워지면 자연스럽게 가격 경쟁이 심화하고 이는 보험사의 수익 감소로 이어질 수 있었죠. 참 좋은데…인지도가 문제네그래픽=강준구 기자우여곡절 끝에 보험다모아가 출범했지만 낮은 인지도가 최대 문제였어요. 보험다모아의 지난해 일평균 방문자 수는 6,836명이에요. 2017년(3,409명) 대비 2배 이상 늘긴 했어요. 그러나 시중은행 애플리케이션(30만 명 안팎)과 비교해선 상대가 되지 않고, 개별 보험사(3만 명 안팎)와 비교해도 20% 수준에 불과합니다. 보험다모아 운영은 법정 단체인 손해보험협회·생명보험협회가 맡고 있어요. 각 협회는 운영비를 각 보험사로부터 받는데, 보험사들이 보험다모아를 싫어하니 적극적으로 홍보하기가 힘들었어요. 상황이 이렇다 보니 출범 8년째인 최근까지도 '보험다모아'를 처음 들어 보거나, 민간 회사가 운영하는 홈페이지로 오해하는 해프닝까지 벌어진 거죠. "보험다모아 키울걸" 후회하는 보험사들보험다모아 캡처 그런데 최근엔 보험사들 입장이 달라졌어요. 네이버·카카오·토스 등 온라인 금융 플랫폼의 보험 비교·추천 서비스 출시가 가시화했거든요. 그동안 온라인에서 다이렉트(계약자-보험사)로 팔다가 중간다리가 하나 더 생기는 것(계약자-플랫폼-보험사)이죠. 당국은 보험다모아가 활성화하면 좋겠지만, 그렇지 않으니 일단 접근성이 높은 '메기'라도 투입하겠다는 방침이죠. 보험사들은 금융 플랫폼 진입에 부정적인 입장이에요. 애초에 가격비교 자체도 싫었는데, 중간다리가 생기면 수수료가 발생하고, 이 부담을 소비자에게 전가하든지 자신이 떠안든지 해야 하거든요. 보험사 관계자는 "보험다모아가 성공했더라면, 금융 플랫폼이 들어오는 일은 없었을 것"이라며 "이제라도 보험다모아를 크게 키우는 방향으로 갔으면 좋겠다"고 말했어요. 그간 보험다모아 활성화에 소극적이었던 보험사들이 역풍을 맞는 모양새죠. 다만 소비자 입장에서는 보험 비교·추천 서비스가 도입된다고 하더라도 보험다모아를 이용하는 데는 전혀 지장이 없어요. 비교·추천 서비스는 빅테크와 제휴를 맺은 보험사들 상품만 비교할 수 있지만, 보험다모아는 법에 따라 여전히 모든 보험사의 상품을 확인할 수 있거든요. 가격비교를 한다고 해서 마케팅 정보 수신에 동의를 할 필요도 없고요. 보험다모아는 앞으로도 계속 운영이 된다고 하니 안심하고 사용하기 바랍니다. ※관련 기사 및 홈페이지-"'싼 줄 알았더니 제일 비싸'... 자동차보험 '호구' 벗어나는 법"[내돈내산]https://www.hankookilbo.com/News/Read/A2023022121320005833?did=NA-보험다모아https://e-insmarket.or.kr/</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>車보험 비교·추천… 빅테크 온라인 플랫폼 '판도라 상자' 열린다</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000899696?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>빅테크의 온라인 보험 비교 추천 서비스에 자동차보험이 포함될 예정이다./사진=이미지투데이 금융위원회가 추진하고 있는 빅테크의 온라인 보험 비교·추천 서비스의 윤곽이 드러나고 있다.  29일 금융권에 따르면 네이버와 카카오, 토스의 보험상품 비교·추천 서비스에는 1차적으로 자동차보험이 담길 예정이다. 금융위원회는 온라인판매 비중이 높은 자동차보험을 우선 빅테크들에게 열어준 이후 (가입기간 1년 미만인 상품)과 실손보험, 저축성보험을 순차적으로 판매할 수 있게 할 예정이다. 금융위원회는 다양한 상품을 비교한다는 온라인 플랫폼 서비스의 본래 취지를 살리면서 상품구조도 비교적 단순해 플랫폼으로 중개하는데 문제가 없는 상품을 고른 것이다. 금융위원회가 자동차보험을 포함해 단기보험과 실손보험, 저축성보험을 선택한 것은 이들이 표준화돼 있거나 온라인 판매 비중이 높다고 판단했기 때문이다. 즉 다양한 상품을 비교한다는 온라인 플랫폼 서비스의 본래 취지를 살리면서 상품구조도 비교적 단순해 플랫폼으로 중개하는데 문제가 없는 상품을 고른 것이다. 표준화한 상품은 모든 보험사가 국가에서 정한 표준 약관을 적용하는 상품이다. 표준화한 상품에는 실손의료보험과 자동차보험이 해당된다. 온라인 판매 비중이 높은 상품 경우 온라인을 통해 비교가 수월하고 상품구조도 비교적 단순한 상품을 선정했다. 여기엔 단기보험과 저축성보험, 자동차보험 등이 해당된다. 자동차보험 경우 표준화한 상품과 온라인 판매 비중이 높은 상품 두 가지 모두 포함된다. 금융위원회는 온라인 플랫폼의 보험 비교·추천 서비스를 보험업법 법령 개정을 통해 바로 제도화를 하지 않고 우선 혁신금융서비스로 지정해 플랫폼의 보험상품 취급을 허용한다는 방침이다. 금융위원회는 온라인 플랫폼들이 보험상품을 비교·추천하고 받는 수수료 경우 각 상품별로 다르게 책정하는 것을 추진하는 중이다. 현재 구체적인 수치는 정하지 않은 상황이지만 최대 3%가 유력한 것으로 알려져 있다. 그동안 보험사들이 주장해온 2~3%와 사실상 동일한 것이다. 보험사들은 네이버가 네이버쇼핑 등을 소상공인들에게 받는 수수료율인 2~3%를 보험 플랫폼에도 동일하게 적용해야 한다는 논리를 펼쳐왔다. 보험사들은 비대면 채널에서 수수료를 받지 않고 있는 상황에서 플랫폼을 통한 판매가 추가 될 경우 새로운 형태의 수수료가 생겨나고 이에 따른 비용이 보험료 인상으로 이어질 것을 우려하고 있다. 반면 빅테크들은 역마진 등을 우려해 최대 10%의 수수료율을 요구하고 있다.빅테크업계 관계자는 "금융위원회가 올해 상반기 중으로 내놓을 목표라고 하는데 목표와 현실은 다를 수도 있다"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>토스뱅크, 평균연봉 KB국민·우리銀 추월</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002116033?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>3대 인터넷은행 연봉 1억 안팎토스뱅크의 평균연봉이 KB국민은행 등 주요 시중은행을 앞선 것으로 나타났다. 전문성이 높은 경력 개발직을 높은 연봉을 내걸어 채용한 결과라는 분석이다.14일 각 은행이 공시한 ‘2022년 지배구조 및 보수체계 연차보고서’에 따르면 지난해 토스뱅크 임직원의 평균 연봉은 1억1900만원(보수 총액 462억5700만원/388명)이었다. 2021년(6100만원)과 비교하면 두 배 가까이 상승했는데, 토스뱅크가 2021년 10월 출범했기 때문에 차이가 크게 나타난 것으로 풀이된다.토스뱅크의 평균 연봉은 앞서 공개된 KB국민은행(1억1300만원)이나 우리은행(1억400만원) 등 주요 시중은행보다 높은 수준이다.출범 초기인 만큼 전문성이 높은 고연차 경력직을 위주로 채용하고 지난해 대거 인재를 유치하기 위해 일시적 보상안 등을 지급해 업계 최고의 개발자 인력을 충원한 영향도 있다는 설명이다.인터넷 전문은행은 개발직과 경력직 등에 높은 보수를 제시하는 방식으로 인재를 유치하며 공격적인 채용을 단행하는 추세다.앞서 공개된 카카오뱅크의 지난해 임직원 평균 보수도 높은 수준을 보였다. 카카오뱅크의 임직원 평균 보수는 1억4600만원으로 집계됐는데, 스톡옵션 행사 차익(542억원)을 빼면 1인당 보수는 1억700만원 수준이라는 게 카카오뱅크의 설명이다.케이뱅크의 경우 지난해 임직원 평균 보수가 9600만원(469억원/489명)으로 1억원에 소폭 못 미쳤다. 2021년(8000만원)보다는 약 20% 상승했다.홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2023.03.09.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>김 사장 한숨 돌렸네…'저금리 갈아타기' 모든 자영업자로 확대</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000326289?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>'코로나 피해' 없는 자영업자도 사업자대출 저금리로 갈아탄다[저금리 대환 프로그램이 확대 시행된다. (자료=금융위원회)]기존에는 코로나19 피해가 확인된 자영업자와 소상공인들만 가능했던 저금리 대환대출이 코로나19 피해가 확인되지 않는 자영업자·소상공인으로 확대됩니다.이밖에도 대환 한도와 상환 기한 등도 늘어납니다.오늘(9일) 금융위원회에 따르면 오는 13일부터 개인사업자나 법인 소기업이라면 손실보전금 등 재난지원금이나 만기연장·상환유예 등을 받지 않았어도 '저금리 대환 프로그램'을 신청할 수 있습니다.지원대상 대출은 현행과 같이 지난해 5월 말 전에 취급한 사업자 대출로, 지난해 6월 이후 갱신된 대출은 포함됩니다.차주별 한도는 개인이 1억원으로 5천만원 증액됐고, 법인은 2억원으로 1억원 늘어났습니다. 이미 저금리 대환 프로그램을 이용 중인 자영업자도 증액된 한도 내에서 추가로 대환을 신청할 수 있습니다.대출 만기는 10년으로, 5년 더 늘어났습니다. 3년 거치 후 7년 분할상환으로 상환구조도 확대됐습니다.중도상환수수료가 전액 면제되는 만큼 원리금 상환도 언제든 가능합니다.일부 은행에서만 운용 중인 보증료 분납 시스템은 대환 프로그램을 취급하는 전 은행으로 확대됩니다.아울러 현행 1%(연간)인 보증료를 최초 3년간 0.7%로 0.3%포인트 인하하고, 최초 대출시점에 보증료를 전액 납부할 경우에는 납부금액의 15%를 할인해 금융비용 부담을 낮출 계획입니다.대환규모가 기존 8조5천억원에서 9조5천억원으로 1조원 늘어나면서, 저금리 대환 프로그램 신청기한도 올해 말까지에서 내년 말까지로 1년 더 연장됐습니다.프로그램 신청은 오는 13일부터 14개 은행(국민·신한·우리·하나·기업·농협·수협·부산·대구·광주·경남·전북·제주·토스)에서 앱이나 영업점 방문을 통해 가능합니다. 아직 전산을 구축하고 있는 SC제일은행은 오는 20일부터 시행됩니다.금융위는 올해 상반기 중으로 기존 저금리 대환 프로그램을 통해 보유 중인 5년 만기 대출도 10년 만기 대출로 바꿀 수 있도록 할 계획입니다.또 코로나19 피해가 확인된 자영업자에 한해서는 2천만원 한도의 가계 신용대출도 대환대상에 포함할 예정입니다. 시행 시점은 오는 3분기 중으로 예상하고 있습니다.금융위는 "정부, 은행, 공공기관을 사칭해 전화상담을 유도하거나 URL을 클릭하도록 하는 보이스피싱(스팸) 문자가 무작위로 발송되는 사례가 있어 각별한 주의가 필요하다"며 "특히 가계 신용대출은 현재 저금리 대환이 이루어지지 않고 있는 만큼 이를 사칭하거나 의심스러운 문자를 받았을 경우에는 즉시 삭제하시고 은행, 신용보증기금, 경찰청, 금융감독원 등 관계기관으로 연락해 사실여부 확인과 상담을 받는 것이 안전하다"고 주의를 당부했습니다. [대환 신청·접수 상담가능한 금융기관(자료 : 금융위원회)]당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2023.03.13.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>이재명 주연의 미스터리 스릴러 [이진곤의 그건 아니지요]</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002691576?sid=100</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>“검찰의 미친 칼질 용서할 수 없다”참으로 독특한 캐릭터의 소유자반일감정까지 방패로 이용하나이재명 더불어민주당 대표가 지난 10일 오후 경기 성남시 수정구 성남시의료원 장례식장에 마련된 경기지사 시절 초대 비서실장 전모 씨의 빈소에 들어서고 있다. ⓒ데일리안 김민호 기자[데일리안 = 데스크] 특정인의 ‘주변 사람들’이 1년 4개월 사이(21년 12월 10일~23년 3월 9일)에 다섯 명이나 ‘숨진 채 발견’되는 사태가 발생했다면 그 자체가 ‘미스터리 스릴러’이다. 나이 든 사람들의 귀에 익숙한 말로 하자면 ‘전설의 고향’쯤 되려나? 생각할수록 괴기스러운 사건들이 실제로 발생했다. 그 ‘주변 사람들’의 중심에 이재명 더불어민주당 대표가 있다. 이 대표 사건, 그의 부인 김혜경씨의 법인카드 유용 의혹 사건 등에 연루된 인사들이다. 이들 가운데 4명의 사인(死因)이 자살로 밝혀졌다.“검찰의 미친 칼질 용서할 수 없다”이 전대미문의 연쇄자살사건에도 이 대표는 그간 별로 놀라는 빛이 없었다. 남다른 마인드 컨트롤의 힘이었다면 이야말로 ‘철의 심장’이라고 할 만하다. 그 이 대표도 지난 10일 전형수 씨의 사망 소식을 듣고는 ‘비통함을 감추지 못했다’라는 언론 보도가 있었다. 성남시장 시절 행정기획조정실장, 경기지사 때는 비서실장으로 자신을 보필했던 사람이었으니 철심장이든 뭐든 놀랄 수밖에 없었을 것이다.그는 이날 당 최고위원회의를 주재하기에 앞서 준비된 ‘모두발언’을 울먹이며 읽었다고 한다. 이 대표는 고인의 생전 업적과 공직에 대한 헌신을 기렸다. 그런 다음엔 당연히 진심을 다한 사과와 유족에 대한 위로가 따랐어야 했다. 이유 여하간에 자신을 보필했던 사실 때문에 검찰수사를 받게 됐고, 그로 인해 죽음을 선택하는 극단적 상황에까지 내몰리지 않았는가.그런데 이 대표는 “검찰의 이 미친 칼질을 도저히 용서할 수 없다”며 분개했다. 그의 상황인식·수습의 방법이 정말로 독특하다. 거미줄 같이 얽히고설킨 사건들의 피의자가 억울한 피해자로, 그리고 마침내 정의의 사도로 등장한 것이다.고인이 유서에 “이 대표는 이제 정치 내려놓으십시오. 대표님과 함께 일한 사람들의 희생이 더 이상 없어야지요”라고 썼다는 보도가 있었다. “현재 진행되는 검찰수사 관련 본인 책임을 다 알고 있지 않습니까. 저는 일만 열심히 했을 뿐인데 검찰수사 대상이 돼 억울합니다”(동아일보, 3. 11)라고도 했다. 이 대표가 국회의원, 거대정당 대표라는 철갑을 두르고 버티는 바람에, 시키는 대로 한 죄 밖에 없는 사람들이 고통을 겪는다는 뜻이었을 터이다. 그 책임을 이 대표는 기민하게 검찰에 토스해버렸다. “용서하지 않겠다”면서….이날 그는 조문을 위해 고인의 빈소를 찾았다. 그런데 어쩐 일인지 예닐곱 시간이나 지체됐다. 당에서는 ’빈소가 마련되지 않아서’라며 얼버무렸다. 명백한 거짓말을 태연히 한 것이다. 민주당의 대변인이라는 사람이 그랬다. 유족 측의 말은 달랐다. 오지 말라는 데도 기어이 와서 고집하는 바람에 더 버틸 수가 없어서 받아들였다고 했다(조선일보, 3. 12).참으로 독특한 캐릭터의 소유자그가 정말로 정의감에 불타는 사람이라면 스스로 법원에 가서 영장실질심사를 받을 일이었다. 검찰이 가두고 말고 할 일도, 죄를 주고 말고 할 일도 아니라는 것을 변호사인 그가 잘 알 것 아닌가. 국민도 그 정도는 안다. 검찰이 얼마나 무도하게 칼질을 해 대는지 판사가 판단해 줄 텐데 왜 야당 국회의원들을 동원해가면서까지 판사 앞에 끌려가지 않으려고 발버둥을 쳤을까?국회 본회의 체포동의안 표결에서 민주당 의원들의 ‘대거 이탈’이라는 창피를 당했지만, 그의 ‘억울한 피해자’ 시늉에는 변함이 없다. ‘철심장’에 ‘철면(鐵面)’까지 갖춘 듯하다. 이 대표만 그런 게 아니다. ‘참으로 독특한’ 사람들이 그의 주변에 넘쳐난다. 민주당 친명계 의원들, ‘개딸’이라는 해괴한 이름을 자랑하는 팬덤도 그 범주에 든다.이 대표는 전형수 전 실장의 발인 날(11일) ‘강제 동원 정부 해법 규탄대회’에 참석했다. ‘정치를 내려놓으라’는 고인의 충언은 소용이 없었다.“윤석열 정권의 치욕적 강제동원 배상안이 다시 일본에 머리를 조아리는 굴욕적 모양을 만들어내고 있다. 전쟁범죄에 완전한 면죄부를 주는 것이 말이 되느냐. 한미일 연합훈련을 핑계로 자위대의 군홧발이 다시 한반도를 더럽히는 일이 발생할 수 있다. 국민들은 기가 막히고 대통령은 귀가 막힌 것 같다.”이게 바로 ‘철면’의 진면목이다. 문재인 정부 5년 동안 민주당은 뭘 했는가? 2019년 7월 일본의 무역보복과 관련, 문 당시 대통령은 전남 도청에 가서 이순신 장군의 말씀, ‘상유십이미신불사(尙有十二 微臣不死: 아직 배가 12척 남아 있고 미천한 소신도 살아 있습니다)’를 소환하면서 대일 선전포고라도 할 듯한 기세를 보였다. 다음날 조국 당시 청와대 민정수석이 페이스북에 ‘죽창가(竹槍歌)’를 올렸다. 동학혁명 때의 그 의기(義氣)로 죽창을 들고 대일전(對日戰)에 나서겠다는 뜻으로 읽히는 추임새였다.한일관계는 급속히 악화됐고, 사실상의 단교상태에 이르렀다. 반면에 북한 김정은 집단 및 중국과의 화친정책 강화는 가속됐다. 이 때문에 전통적인 한미 동맹 및 한·미·일 안보협력제제에는 심각한 균열이 생겼다. 기업들의 고통, 경제적 손실 등은 문 대통령의 안중에 없는 듯 보였다. 보복이라도 제대로 했느냐 하면 그것도 아니었다. 일본은 우리보다 더 강경한 자세를 보였고, 상황은 갈수록 우리에게 불리한 쪽으로 악화돼 갔다.반일감정까지 방패로 이용하나일본이 밉다고 멀리 떼놓을 수도, 우리가 이사를 갈 수도 없다. 과거사로 상대국과의 미래를 포기하는 나라가, 문 정권의 한국 말고는 있었던 것 같지 않다. 한일협정이 개인의 피해구제를 막을 수 없다고 하더라도 그로 인해 양국 간 통로가 전적으로 차단되는 데까지 이르러선 안 된다. 국가 간의 관계에는 우회로도 필요하다. 분리대응으로 국가와 개인의 이익이 동시에 확보되는 방안을 찾는 게 바람직하다. 그것이 국제관계의 한계이자 가능성이다.정치인으로서 누구보다 책임의식이 투철해야 할 이 대표가 정치의 논리 아닌 군중의 논리로 접근하는 모습을 보이고 있다. 아마도 윤 정권에 대한 대중의 반감을 고조시켜 민심이반을 유도하려는 책략인 것 같다. 궁지에 몰린 이 대표로서는 그것도 하나의 방안일 수가 있다. 그러나 그걸로 검찰을 굴복시킬 수는 없다.대통령이 이 대표 정도로 독특한 캐릭터를 가진 책략가라면 혹 길을 찾을 수 있을지도 모른다. 과거 권위주의 시대에는 정치적 거래가 있었던 게 사실이다. 그러나 지금 우리는 민주법치주의가 성숙단계에 들어섰다는 시대에 와 있다. 그리고 대통령은 정치적 계산이나 술수에 익숙하지 못한 ‘검사 출신’이다. 고지식한데다 5년 단임의 대통령이 훗날 법적 책임문제가 제기될 일을 두고 탈법적 타협을 할 것이라고 기대하기는 어렵다.이 대표나 민주당은 양심이 있다면 정부의 한일관계 정상화를 가로막고 나서지 말아야 한다. 자신들은 비겁하게 뒤로 빠지면서 강제 징용피해자와 위안부 할머니들에게 문제해결의 책임을 떠넘기지 않았는가. 그러다가 임기가 끝나자 문 전 대통령은 홀가분하게 떠나버리고, 민주당은 오히려 정부에 대한 공격수로 나서서 야바위 쇼나 펼치다니!이런다고 이 대표에 대한 혐의가 벗겨질 리 없다. 오히려 총선 참패라는 혹독한 국민의 심판을 감당해야 할지도 모른다. 비할 바 없이 독특한 의식 및 인식구조의 대표와 의원들은 국정 사보타지(태업)를 이쯤에서 멈추는 게 옳다. 정당 대표라고, 국회의원이라고 법망에서 벗어나도 된다면 일반 국민은 왜 안 되는가. 그러므로 대한민국에서는 누가 어떤 죄를 저지르더라도 경찰·검찰이 수사하고 기소해서는 안 된다는 법이라도 만드시라. 민주당이 하려면 못할 게 없을 테니까.ⓒ글/ 이진곤 언론인·전 국민일보 주필</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2023.03.13.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>토스뱅크에 KB증권 입점… 주식계좌 개설 가능</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004980969?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>토스뱅크가 '목돈 굴리기' 서비스에서 KB증권의 주식계좌를 개설할 수 있다고 13일 밝혔다.   KB증권은 지난해 8월 토스뱅크에 입점한 한국투자증권에 이어 토스뱅크에 입점한 두 번째 증권사가 됐다.   토스뱅크 계좌를 보유한 19세 이상의 고객이라면 토스뱅크 내에서 KB증권의 주식계좌를 1인 1계좌로 개설할 수 있다. 서비스는 이날 정오 출시 때부터 즉시 이용이 가능하다.   토스뱅크는 KB증권 신규 주식계좌 개설 고객에게는 오는 4월 말까지 최대 2만원 상당의 혜택을 제공한다. 최초 신규 주식계좌 개설 고객에게는 국내 주식 거래 시 이용 가능한 주식 쿠폰 1만원권을 지급한다.   이 주식 쿠폰을 사용하면 테슬라, 애플, 스타벅스, 아마존, 마이크로소프트 해외소수점 주식 5종을 1만원 상당으로 추가 제공한다. 국내 주식 수수료 우대 혜택도 5년간 제공된다.   토스뱅크 관계자는 "토스뱅크 목돈 굴리기 서비스에서 국내 대형 증권사인 KB증권의 주식계좌를 쉽고 편리하게 개설할 수 있게 됐다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>"황금연휴의 악몽" 그리스 열차충돌, 최소36명 사망·85명 부상</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001086046?sid=104</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>그리스 중부에서 지난달 28일(현지시간) 기차 2대가 충돌해 최소 36명이 사망하고 수십 명이 다치는 참사가 발생했다.춘제 카니발 시즌을 맞아 월요일인 지난달 27일도 공휴일로 지정돼 황금연휴를 즐기고 귀향하던 대학생 등 젊은층이 많이 타고 있었던 것으로 알려져 비극을 더하고 있다.AP, 로이터 통신 등에 따르면 이날 밤 자정이 조금 안 된 시각 그리스 중부 테살리아주 라리사 인근에서 여객 열차와 화물 열차가 정면충돌해 여객 열차의 일부 객차가 탈선하고 불이 붙었다.여객 열차는 수도 아테네에서 출발해 북부의 제2 도시 테살로니키를 향하고 있었으며, 승객 약 350명과 직원 약 20명이 타고 있었던 것으로 전해졌다.화물 열차는 테살로니키에서 라리사로 가고 있었다.사고 당시 여객 열차는 지하터널을 막 벗어나 고속으로 주행하던 중 마주 오던 화물열차와 충돌한 것으로 알려졌다.현지 경찰과 소방당국은 이 사고로 현재까지 36명이 숨지고 85명이 다쳤다고 밝혔다. 일부 승객은 강력한 충격 때문에 객차의 차창 밖으로 튕겨 나간 것으로 알려졌다.현재 66명이 병원에 입원 중인데, 6명은 집중 치료 중이라고 소방당국은 전했다.당국자들은 테살로니키를 향하던 열차에 타고 있던 승객 상당수는 긴 주말 기간 축제를 즐기고 돌아오던 대학생들이었다고 말했다.미나 가가 보건부 부장관은 "이는 이해하기 힘든 끔찍한 비극"이라며 "이 아이들의 부모들에 대해 애석하게 생각한다"고 밝혔다.수색 작업이 진행되면서 사망자는 계속 늘어날 전망이다.소방당국 대변인은 "두 열차의 충돌이 너무 심각해 매우 어려운 상황에서 수색 작업을 하고 있다"고 설명했다.대변인은 구급차 수십 대가 투입됐으며, 화상 환자를 치료할 수 있는 인근 병원에 비상경보를 발령했다고 덧붙였다.dpa 통신은 한 구조대원이 현장의 취재진에게 "대부분 부상자가 머리를 다치거나 팔, 다리 골절 등을 당했다"라며 "불행히도 아직 많은 사람이 잔해더미 아래 있다"고 말했다고 전했다.두 열차가 어떤 경위로 정면충돌하게 됐는지는 아직 명확하지 않다고 외신들은 전했다.경찰이 사고 경위에 대한 조사에 나섰지만, 철도회사 관련자 중 구금된 사람은 없다고 로이터통신은 전했다.코스타스 아고라스토스 테살리아 주지사는 TV 인터뷰에서 "매우 강력한 충돌이었다. 끔찍한 밤이다"라며 "현장 상황을 설명하기 어렵다"고 말했다.그는 "1, 2호 객차는 파손돼 거의 사라지다시피 했고 3호 객차는 탈선됐다"며 "잔해와 차량을 들어 올릴 크레인과 특수 중장비를 들여보내고 있다"고 설명했다.현지 SKAI에 방송된 영상에서도 탈선된 열차 칸들은 창문이 깨지는 등 심하게 훼손됐고 두꺼운 연기 기둥이 공중으로 치솟는 모습이 보인다. 인근 도로에는 부서진 열차 잔해가 흩어져 있다.사고 현장에 화재로 인한 짙은 연기가 가득 차 있어 구조대원들은 헤드램프를 착용한 채 열차에 갇힌 사람들을 구조했다.인근 다리 아래로 대피한 한 청년은 SKAI에 "열차 안에는 공포가 가득했다. 사람들이 비명을 질렀다"고 현장 상황을 전했다.승객 안젤로스 차무라스는 ERT에 "지진이 난 것 같았다"고 말했다.경미한 부상을 당하거나 다치지 않은 승객들은 130㎞가량 북쪽에 있는 목적지 테살로니키를 향해 버스로 이동했다. 경찰은 부상자와 실종자 파악을 위해 버스로 이동한 승객들의 명단을 작성했다.열차의 네 번째 차량에 타고 있었다는 한 10대 승객은 버스에서 내리고 나서 현지 기자들에게 "사고 당시 급제동이 걸리는 것이 느껴졌고 불꽃이 튀면서 열차가 급정거했다"고 설명했다.그는 "내가 탄 칸은 탈선하지 않았지만 앞 차량들이 탈선해 부서졌다"며 "첫 칸에서는 불이 났다"고 말했다. 그는 유리창을 가방으로 깨고 가까스로 탈출했다고도 했다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2023.03.10.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>“통신 3사 자회사 알뜰폰 점유율 제한”… 과기정통부, 규제 도입 만지작</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000884111?sid=105</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>IoT 회선 제외 점유율 50% 넘어 지적소규모 알뜰폰간 인수합병 활성화 등 논의도매대가 산정 탄력적 운영, 혁신 서비스 기대과학기술정보통신부가 10일 서울 중구 한국지능정보사회진흥원에서 알뜰폰 경쟁력 강화를 위한 간담회를 진행하는 모습./뉴스1        과학기술정보통신부가 알뜰폰 시장을 육성하는 방법으로 통신 3사의 자회사 알뜰폰 시장 점유율 제한을 꺼내들었다. 통신 3사의 과도한 알뜰폰 시장 개입이 건전한 생태계 조성에 부정적인 영향을 미치고 있다고 판단한 것이다.박윤규 과기정통부 2차관은 10일 서울 중구 한국지능정보사회진흥원에서 진행한 ‘알뜰폰 경쟁력 강화 간담회’에서 “통신 3사 자회사의 알뜰폰 시장 점유율을 제한하는 것에 대한 법안이 발의된 상태다”라며 “알뜰폰 시장에서 통신 3사 자회사가 높은 점유율을 차지하고 있는 게 통신 시장 전체로 봤을 때 건전한 생태계를 만드는 것인가에 대한 의문이 제기되고 있다”라고 했다.실제 업계는 자동차 회사가 쓰는 사물인터넷(IoT) 회선을 제외하면 통신 3사 자회사의 알뜰폰 시장 점유율이 50%를 훌쩍 넘을 것으로 추산하고 있다. 결국 통신 3사가 자회사를 통해 알뜰폰 시장에서도 과점 체제를 유지하고 있다는 지적이다.박 차관은 “알뜰폰 시장 경쟁 활성화와 건전한 생태계 조성을 위한 대안이 무엇인지 숙고해야 한다”라며 “알뜰폰 가입자의 90% 이상이 LTE(4세대 이동통신) 가입자로 보다 다양하고 저렴한 알뜰폰 5G 요금제가 나올 수 있도록 업계와 정부가 노력해야 한다”라고 했다.서울 시내에 위치한 알뜰폰 스퀘어 매장 모습./뉴스1        통신 3사가 알뜰폰 사업자에게 망 이용료를 도매가로 제공하는 ‘도매대가’ 산정에 대한 개편도 필요하다는 의지를 드러냈다. 박 차관은 “도매대가 산정을 조금 더 탄력적으로 운영한다면 보다 혁신적인 서비스와 다양한 요금제가 나오지 않을까 하는 의견도 있다”라며 “(다양한 방안을) 국회와 협의하겠다”라고 했다.박 차관은 통신 3사의 자회사가 아닌 독립 알뜰폰 사업자의 규모가 커져야 사회적인 책임이 강화되고, 시장 경쟁이 활발해진다고 지적했다. 그는 “LG유플러스 개인정보 유출 사건의 경우 이 회사의 계열사인 알뜰폰 사업자의 가입자 정보도 함께 유출됐다”라며 “알뜰폰 사업자의 책임성을 강화하려면 통신 3사 자회사가 아닌 독립된 알뜰폰 사업자 규모를 키워 책임을 감당할 수 있도록 만들어야 한다”라고 했다.소규모 알뜰폰 사업자 간 인수합병(M&amp;A) 활성화 등 정부가 지원할 방법도 마련하겠다는 의지도 드러냈다. 박 차관은 “알뜰폰은 외형적으로 성장했고 이용 요금도 통신 3사 대비 30% 저렴해 많은 혜택을 주고 있지만, 통신 시장 전체 경쟁 촉진 측면에서는 부족한 게 사실이다”라며 “알뜰폰 사업자 인수합병 활성화 등 다양한 정책적 방법을 논의하겠다”라고 했다.한편 이날 간담회에서는 알뜰폰 사업이 활성화된 해외 사례(정보통신정책연구원)를 분석하고 업계와 전문가의 의견을 들었다. 과기정통부는 간담회에서 나온 산학계 의견을 통신 시장 경쟁촉진 정책방안 특별전담반(TF)을 통해 논의한다는 계획이다. 간담회에는 정보통신정책연구원, 리브모바일(KB국민은행), 토스모바일(비바퍼블리카), SK세븐모바일, KT엠모바일, U+유모바일 등 알뜰폰 업계 관계자가 함께했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2023.03.09.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>대환대출 인프라에서 주택담보대출도 갈아탄다</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006673527?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>[제2차 은행권 경영·영업 관행·제도 개선 실무작업반 회의]기존 신용대출에 주택담보대출도 포함하기로…이르면 12월 시행ⓒ News1 DB(서울=뉴스1) 서상혁 기자 = 금융당국이 '대환대출 인프라'에 주택담보대출도 포함하는 방안을 추진한다. 이에 따라 이르면 연말에는 신용대출과 함께 주택담보대출도 핀테크 플랫폼을 통해 금리를 비교해보고 더 낮은 금리로 언제든 갈아탈 수 있게 될 전망이다. 은행권 가계대출 잔액의 76%가 주택담보대출인 만큼, 대출금리 경쟁이 더욱 활발해질 전망이다.9일 금융위원회는 전날 '제2차 은행권 경영·영업 관행·제도 개선 실무작업반' 회의를 열고 이같은 내용을 논의했다고 밝혔다.회의에서 금융당국은 오는 5월 개시를 목표로 하는 대환대출 인프라 추진 현황을 점검하고, 금융권내 경쟁을 촉진하기 위해 주택담보대출까지 확대하는 방안을 검토하겠다고 밝혔다.금융당국 관계자는 "대출금의 규모가 크고 국민 대다수가 이용하는 주택담보대출의 간편한 대출 이동을 위한 인프라를 구축하여 금리 경쟁이 지속될 수 있도록 하는 방안을 검토하겠다.한국은행에 따르면 지난 1월 은행 가계대출 잔액 중 주택담보대출 비중은 약 76%로 나타났다.다만 실제 시스템 구축까지는 시간이 소요될 전망이다. 주택담보대출의 대환대출은 등기 이전 절차가 필요해, 모든 절차를 온라인으로 구현하는 게 어렵기 때문이다. 금융당국 관계자는 "금융소비자가 온라인으로 주담대 상품을 비교하고 대환대출을 신청할 수 있도록 하는 인프라를 우선 구축하는 등, 소비자 편의를 최대한 개선할 수 있는 추진방안을 마련하겠다"고 말했다.금융당국은 이르면 올 12월부터 플랫폼을 통한 주담대 대환대출이 가능하도록 금융권 등과 협의한다는 계획이다.대환대출 인프라는 은행과 저축은행 등 금융권의 대출 상품을 모바일 애플리케이션을 통해 비교해 보고 더 낮은 금리를 제공하는 대출로 갈아탈 수 있도록 하는 서비스를 말한다. 금리상승기 금융소비자의 편익을 확대하기 위해 금융당국 주도로 추진 중인 사업으로, 5월부터 신용대출에 한해 시범 서비스가 시작될 예정이다.대환대출 인프라는 비대면으로 기존 대출금 상환·신규 대출 실행이 이뤄지도록 하는 금융결제원의 '대출 이동 시스템'과 금융회사의 대출 상품을 한데 모아 비교할 수 있도록 도와주는 '대출 중개 플랫폼'이 합쳐진 형태다.금융결제원 대출 이동 시스템에는 은행·카드·저축은행 등 53개 금융회사가 참여하기로 했는데, '대출 중개 플랫폼'을 운영 중인 핀테크 업체가 이들 금융회사와 개별적으로 제휴를 맺어 대환 서비스를 제공하도록 하는 게 금융당국의 구상이다.대환대출 인프라에 플랫폼 운영사에는 총 23개사가 참여한다. 금융업권에선 신한은행·카카오뱅크·신한카드·KB국민카드·현대카드·하나카드·현대캐피탈·BC카드·웰컴저축은행·키움증권 등 10개사가 대출 중개 플랫폼을 구축하기로 했다.핀테크 업체로는 깃플·나이스평가정보·네이버파이낸셜·뱅크샐러드·카카오페이·토스·팀윙크·페이코·핀다·핀크·한국신용데이터·해빗팩토리·SK플래닛 등 13개사다.다수의 업체가 플랫폼 구축에 나서는 만큼, 금융당국은 저축은행 등 2금융권이 우려하는 '수수료 폭리' 우려는 해소될 수 있다고 보고 있다. 모 플랫폼은 저축은행 신용대출 중개수수료 최고 수준을 2.0%에서 1.0%으로 조정할 예정이다.아울러 금융업권‧금융상품별 수수료율을 구체적으로 공시하도록 해, 금융소비자가 정보를 정확히 인지할 수 있도록 하겠다는 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2023.03.08.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>지난달 은행 앱 톱5서 카뱅 홀로 설치자 감소</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003790321?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>빅데이터 전문기업 TDI(티디아이, 대표 신성균)가 자사의 플랫폼 데이터드래곤을 통해 안드로이드 사용자가 가장 많이 설치한 은행 앱 사용자를 조사했다.     2월 기준 설치 수 Top5는 △토스(1,988만 대) △카카오뱅크(1,754만 대) △KB국민은행 스타뱅킹(1,359만 대) △NH스마트뱅킹(1,357만 대) △신한 쏠(SOL)(1,000만 대) 순으로 ‘KB국민은행’ 앱이 ‘NH농협은행’ 앱을 제치고 3위에 올라섰다.     1월 5개 앱의 설치 수는 △토스 1,980만 대 △카카오뱅크 1,756만 대 △KB국민은행 스타뱅킹 1,346만 대 △NH스마트뱅킹 1,352만 대 △신한 쏠(SOL) 1,000만 대다.     전월 대비 증감률은 △토스 0.4% △카카오뱅크 -0.1% △KB국민은행 스타뱅킹 1.0% △NH스마트뱅킹 0.4% △신한 쏠(SOL) 0.0%로 ‘카카오뱅크’ 앱만 설치자가 줄었고, ‘KB국민은행 스타뱅킹’이 가장 높은 증가율을 보였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2023.03.05.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>저축銀을 지방은행으로?… 종금사 줄도산·저축銀 사태 잊었나</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002787282?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>저축銀→ 지방銀→ 시중銀 검토스몰 라이센스·챌린저 뱅크 도입무분별한 수 확대 부작용 우려도건전성 관리·소비자 혜택 등 의문김소영 금융위원회 부위원장이 2일 오후 서울 종로구 정부서울청사에서 개최한 은행권 경영·영업 관행·제도 개선 TF 회의에서 은행권 경쟁촉진 및 구조개선 관련 사항에 대해 논의하고 있다. 금융위원회 제공    정부가 인가 세분화(스몰 라이센스), 소규모 특화은행(챌린저 뱅크) 도입 등으로 은행 수를 늘리겠다는 계획에 이어 저축은행을 지방은행으로, 지방은행을 시중으로 전환하는 방안을 검토 중이다. 은행권 경쟁 촉진을 위해 은행 수를 늘리겠다는 것인데, 무분별하게 늘어난 은행이 불러올 부작용을 우려하는 목소리가 커진다. 과거 외환위기나 저축은행 부실 사태 등도 근본적으로 금융사 수를 늘리는 바람에 건전성이 악화됐다는 지적이다.5일 금융권에 따르면 금융위원회는 지난 2일 열린 '은행권 경영·영업·관행 제도 개선' 실무작업반 1차 회의에서 저축은행의 지방은행 전환, 지방은행의 시중은행 전환 등에 대해 논의했다. 지난달 22일 열린 '은행권 경영·영업 관행·제도 개선 태스크포스(TF)' 첫 회의에서 신규 은행 추가 인가와 관련해 스몰 라이센스·챌린저 뱅크 도입 등이 논의된 것에서 한걸음 더 나아간 셈이다.지방은행·저축은행이 인가요건을 충족해 신청하는 경우 시중은행·지방은행으로 전환해주겠다는 계획이다. 일본의 경우 1961년 중소기업 전문기관으로 출범했던 상호은행을 고도성장기 이후 지방은행으로 전환하는 것을 허용했던 전례를 참고했다. 또한 지역경제 침체 및 지역민 충성도 하락 등에 따라 경영에 어려움을 겪는 지방은행은 시중은행 전환을 통해 수도권 진출이 활발해지고 은행권 경쟁도 촉진될 수 있을 것이라는 기대다. 하지만 무분별한 은행 수 증가가 건전성 관리에 걸림돌이 될 수 있다는 관측도 나온다. 은행연합회 정사원 중 산업은행·수출입은행과 금융공기업 등을 제외한 소매금융을 영위하는 은행은 17곳이다. 5대 은행(KB국민·신한·우리·하나·NH농협)을 포함한 기업은행·SC제일은행·Sh수협은행 등 시중은행과 BNK부산·DGB대구·BNK경남·광주·전북·제주 등 6개 지방은행, 카카오뱅크·케이뱅크·토스뱅크 등 인터넷 전문은행 3곳 등이다.정부는 5대 은행 중심의 과점 체제에 문제가 있다는 판단에 따라 은행 수를 늘리려는 것인데 우리나라 경제 규모에 비해 지금도 은행 수가 적지 않다는 지적이다. 노태우 정부 시절에 동남은행, 대동은행, 평화은행 등 시중·지방은행이 무더기로 설립됐지만 1997년 외환위기로 대부분 파산에 이른 바 있다. 저축은행과 지방은행을 지방은행이나 시중은행으로 전환하겠다는 방침도 과거 종합금융회사(종금사) 사태나 저축은행 부실 사태를 떠올리게 만든다.김영삼 정부는 출범 첫해인 1993년에 지방 단자사(투자금융회사)의 종금사 전환을 허용했고, 외환위기 이전까지 29개의 종금사가 난립하게 됐다. 당시 종금사들은 국제 금융시장에서 단기 자금을 차입해 국내 기업들에게 1년 이상의 장기대출을 해줬는데, 동남아시아 외환위기로 신규자금 조달이 막히면서 결국 줄도산 사태를 겪었다. 지금까지 남아 있는 종금사는 단 1개뿐이다. 종금사 줄도산으로 인한 유동성 위기는 시중은행으로 번졌고 외환위기라는 대참사를 몰고 왔다.2011년 저축은행 사태도 비슷했다. 1972년 사채업 양성화를 통해 탄생한 상호신용금고는 2002년 법률 개정으로 저축은행이라는 명칭을 사용할 수 있게 됐다. 2금융권에서 1금융권인 '은행' 명칭을 사용하는 곳은 저축은행이 유일하다. 이후 저축은행들이 우후죽순 늘어나게 됐고, 결국 2011년 저축은행 사태를 일으켰다. 이 때문에 당시 저축은행 명칭을 다시 상호신용금고로 되돌리는 방안까지 논의되기도 했다.무엇보다 단순히 은행 수가 늘어난다고 해서 금융소비자에게 혜택이 돌아갈 수 있을지도 의문이다. 현재도 예대금리차 수준을 살펴보면 5대 시중은행이 지방은행이나 인터넷 은행들에 비해 금융소비자에게 훨씬 유리한 상황이다. 게다가 금융시장이 4대 시중은행 중심으로 재편된 것은 정부가 글로벌 경쟁력 향상을 위해 대형화를 유도하는 정책을 펼쳐왔기 때문이다.석병훈 이화여대 교수(경제학)는 "새로운 은행이 늘어나더라도 '규모의 경제'에서 앞서 있는 5대 은행과 경쟁하기는 쉽지 않다"며 "기존 인터넷 은행의 규제를 풀고 영업 범위를 확대하는 방법이 오히려 소비자에게 유리할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>토스플레이스, 간편 결제 단말기·무료 소프트웨어 출시</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000883040?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>결제 단말기 제작 및 매장관리 솔루션 제공사 토스플레이스는 결제 단말기인 ‘토스 터미널’ 및 ‘토스 프론트’, 결제 단말기 전용 소프트웨어 ‘토스 포스’를 정식 출시한다고 7일 밝혔다./토스플레이스 제공        토스플레이스는 오프라인 결제 단말기 출시로 첫 발걸음을 뗐다. 토스플레이스 관계자는 지난 5개월 동안 회사는 수도권 200여 매장에서 결제 단말기를 시범 운영하며 결제 속도와 안정성을 검증해왔다고 했다.토스 프론트 단말기의 특징으로는 바코드, QR코드, 근거리무선통신(NFC), 마그네틱보안전송(MST) 등의 다양한 결제 수단을 모두 사용할 수 있다는 점이다.매장 관리를 위한 무료 소프트웨어 ‘토스 포스’도 정식 출시한다. 토스 포스는 버튼 하나로 새로운 메뉴를 등록할 수 있고, 매장 매출과 상품별 판매 추이를 확인 가능하다.토스플레이스 관계자는 토스 포스 소프트웨어는 토스 프론트 단말기와 연결할 때 사용성이 확대된다고 했다. 토스 포스와 토스 프론트 단말기를 함께 사용하게 되면 주문 미러링 기능이나 포인트 적립 기능 등을 이용할 수 있기 때문이다. 주문 미러링은 주문 내역을 고객이 보는 결제 단말기 화면에 그대로 보여주는 기능으로, 점원이 포스에 주문 상품을 누르면 고객이 보는 결제 단말기 화면에도 같은 내역이 뜨면서 고객도 내역을 확인할 수 있다.토스플레이스는 단말기를 시작으로 결제 단말기를 중심으로 매장관리, 재고관리, 고객 관리, 세무 솔루션 등을 연결하여 단말기를 사장님의 디지털 비서로 만들어 나갈 계획이다. 결제 단말기와 토스 포스 프로그램에 관한 상담은 토스플레이스 홈페이지에서 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>그리스서 열차 2대 충돌로 최소 26명 사망, 85명 부상</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/656/0000043519?sid=104</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>그리스 중부에서 28일(현지 시각) 열차 충돌사고가 발생해 다수의 사상자가 나온 것으로 나타났다. 이번 사고로 최소 26명이 사망하고 85명 이상이 부상당했다고 현지 경찰과 소방당국은 밝혔다. 로이터와 AP통신 등 따르면 그리스 테살리아 주 라리사 지역 인근에서 이날 여객열차와 화물열차가 충돌해 열차 여러 칸이 탈선하고 최소 3칸에 불이 붙었다. 코스타스 아고라스토스 테살리아 주 지사는 언론과 인터뷰에서 "매우 강력한 충돌이었다"며 "현장 상황을 설명하기 어렵다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2023.03.13.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>[2022 귀속 법인세신고] ①106만명 사장님이 잊으면 안되는날 '3월 31일'</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002299515?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>◆…조세일보 세금신고 가이드 홈페이지 화면.     '연 1회.' 법인사업자는 사업연도 종료일이 속하는 달의 말일부터 3개월 이내에 법인세 신고·납부 의무를 마쳐야 한다. 우리나라의 법인의 90% 이상은 12월 결산법인으로, 대부분 3월에 법인세를 내고 있다고 한다. 사업자라면 잊어서는 안 될 달이다. 이들은 귀속되는 사업연도 사업 전반 내용에 따른 당기순이익(수익-비용)을 산정하고, 세무조정업무(세법규정에 따른 익금과 손금 조정)를 절차를 거쳐 과세소득을 신고하게 된다.   국세청에 따르면 2022년 12월 결산법인은 106만5000개로, 1년 전(99만9000개)보다 6만6000개 늘었다. 이들 법인은 이달 31일(금)까지 법인세 신고·납부를 해야 한다. 지난해 12월 사업연도가 종료된 영리법인, 수익사업을 영위하는 비영리법인, 국내 원천소득이 있는 외국법인이 대상이 된다.   성실신고확인 대상이거나 연결납세방식을 적용받는 법인이라면 오는 5월 2일까지 신고·납부기한이 1개월 늘어난다. 성실신고확인 대상은 ①부동산임대업 등을 주된 사업으로 하는 소규모 법인 ②개인 성실신고 확인 대상사업자 중 법인전환 사업자(이 사업을 현물출자 방식 등으로 인수한 다른 법인)이다. 연결납세방식은 지배종속관계에 있는 둘 이상의 법인이 관할 지방국세청장의 승인을 받아 모회사와 자회사를 하나의 과세단위로 보고 신고·납부하는 것을 말한다. 국세청 관계자는 "성실신고확인 대상 법인은 법인세 신고시 세무대리인의 '성실신고확인서'를 같이 제출해야 한다"고 말했다.   법인세 신고 때 꼭 제출해야 할 서류도 잊지 말아야 한다. 기업회계기준을 준용해 작성한 개별 내국법인의 재무상태표·포괄손익계산서, 기업회계기준을 준용해 작성한 이익잉여금처분(결손금처리)계산서, 세무조정계산서다. 이 서류를 제출하지 않았을 땐 법인세 신고를 하지 않은 것으로 본다.   국세청은 이달 1일부터 홈택스를 통해 법인세 신고를 받고 있다. 매출액이 없고 세무조정을 할 사항도 없는 법인은 홈택스의 '간편전자신고'를 이용할 수 있다. 이 서비스에서 법인 기본사항, 재무제표, 과세표준 및 세액조정계산서만 입력하면 된다. 이자소득만 있는 비영리법인도 마찬가지다.    ◆…(자료 국세청)     납세자는 세무서를 방문하지 않고도 인터넷·스마트폰을 이용하거나 가까운 은행을 방문해서 세금을 납부할 수 있다.   먼저 홈택스를 이용했을 땐 '신고·납부→세금납부→국세납부→납부할세액 조회납부(또는 자진납부)' 이 경로를 거치면 된다. 납세자는 앱카드(국민·농협·롯데·삼성·신한·현대), 페이코, 삼성·카카오·네이버페이 등 간편결제 서비스를 이용하거나 신용카드로도 납부할 수 있다.   국세계자인 전자납부번호(19자리, 국세청 고유번호 0126으로 시작)를 이용해서 모든 금융기관에서 이체수수료 없이 세금을 내는 것도 가능하다. 다만, 국고대리점이 아닌 인터넷은행(토스뱅크, K뱅크)과 증권사의 계좌에선 국세계좌 납부서비스를 이용할 수 없다는 점을 유의해야 한다. 국세청은 "세무서에서는 비대면 수납과 세금납부 편의를 위해 무인 신용카드 수납창구를 운영하고 있다"고도 했다.   세금이 부담이라면 나눠서 낼 수 있다. 납부할 세액이 1000만원을 초과했을 땐 납부기한 다음 날부터 1개월(5월 2일), 중소기업은 2개월 이내(5월 31일)에 분납하면 된다. 분납할 세액은 납부할 세액이 2000만원 이하는 1000만원 초과하는 금액이며, 납부세액이 2000만원을 초과하는 경우는 그 세액의 50% 이하 금액이 된다.    ◆…(자료 국세청)     국세청은 "불성실 신고 법인에 대한 검증은 한층 더 강화한다"고 했다. 신고 전 제공한 도움자료 반영여부를 정밀하게 분석해서, 불성실 신고(신고내용 오류, 누락혐의) 법인에 대해선 신고내용 확인을 실시한다는 방침이다. 이러한 확인과정에서 탈루금액이 컸을 땐 세무조사 대상자로 선정하게 된다.   ①업무무관 가지급금에 대한 인정이자·지급이자 세무조정을 누락하거나 ②근무하지 않는 대표이사 가족에게 인건비를 허위로 지급하고 ③일반기업에 해당하나 중소기업으로 신고해서 이월결손금을 과다공제 받으며 ④업무무관 자산과 관련된 비용을 손금으로 산입하는 경우 등이 주요 신고내용 확인 추징사례도 꼽힌다.   모범납세자, 혁신 중소기업, 수출 중소기업 등에 대해선 원칙적으로 신고내용 확인대상에서 빼준다. 다만, 탈루·오류가 명백한 경우라면 예외다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>토스뱅크, 평균연봉 KB국민·우리은행 앞질러[머니뭐니]</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002115818?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>3대 인터넷은행 연봉 1억원 안팎[헤럴드경제=홍승희 기자] 토스뱅크의 평균연봉이 KB국민은행 등 주요 시중은행을 앞선 것으로 나타났다. 전문성이 높은 경력 개발직을 높은 연봉을 내걸어 채용한 결과라는 분석이다.14일 각 은행이 공시한 '2022년 지배구조 및 보수체계 연차보고서'에 따르면 지난해 토스뱅크 임직원의 평균 연봉은 1억1900만원(보수 총액 462억5700만원/388명)이었다. 지난 2021년(6100만원)과 비교하면 두 배 가까이 상승했는데, 토스뱅크가 2021년 10월 출범했기 때문에 차이가 크게 나타난 것으로 풀이된다.토스뱅크의 평균 연봉은 앞서 공개된 KB국민은행(1억1300만원)이나 우리은행(1억400만원) 등 주요 시중은행보다 높은 수준이다.출범 초기인 만큼 전문성이 높은 고연차 경력직을 위주로 채용하고 지난해 대거 인재를 유치하기 위해 일시적 보상안 등을 지급해 업계 최고의 개발자 인력을 충원한 영향도 있다는 설명이다.인터넷 전문은행은 개발직과 경력직 등에 높은 보수를 제시하는 방식으로 인재를 유치하며 공격적인 채용을 단행하는 추세다.앞서 공개된 카카오뱅크의 지난해 임직원 평균 보수 역시 높은 수준을 보였다. 카카오뱅크의 임직원 평균 보수는 1억4600만원으로 집계됐는데, 스톡옵션 행사 차익(542억원)을 빼면 1인당 보수는 1억700만원 수준이라는 게 카카오뱅크의 설명이다.케이뱅크의 경우 지난해 임직원 평균 보수가 9600만원(469억원/489명)으로 1억원에 소폭 못 미쳤다. 지난 2021년(8000만원)보다는 약 20% 상승했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2023.03.09.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>“통신요금 너무 비싸” 40만 픽으로 비상한 ‘KB리브엠’[머니뭐니]</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002114433?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=서정은 기자] KB국민은행의 알뜰폰(MVNO) 사업인 리브엠(Liiv M)이 ‘통신비 다이어터’들의 선택을 받으며 가입자를 키우고 있다. 사업 초기만해도 경쟁사들의 반발, 내부 조직 갈등의 불씨로 꼽혔지만 최근 정부의 통신비 경감 기조와 맞물려 리브엠 사업은 혁신금융의 성공사례로 재평가 받고 있는 중이다. KB국민은행은 오는 4월 부수업무 지정을 통해 서비스를 이어가고 알뜰폰 사업의 최대 보완점으로 꼽히는 고객센터를 강화할 방침이다.9일 금융권에 따르면 지난달 기준 리브엠 가입자수는 40만명을 돌파했다. 2019년 말 5000명으로 시작한 가입자는 2020년 말 9만2000명, 2021년만 22만8000명, 2022년 말 38만8000명 등으로 폭발적으로 성장했다.리브엠은 금융규제 샌드박스 일환으로 2019년 10월 국내 1호 혁신금융서비스로 출시됐다. 당시 윤종규 KB금융지주 회장 또한 금융과 통신을 융합해 이통 3사로 고착화 된 시장에서 메기 역할을 하겠다는 포부를 내놨다.하지만 KB국민은행 내에서 리브엠 사업이 처음부터 순항했던 건 아니다. 당국이 지역그룹 대표 역량평가 반영 금지, 음성적인 실적표(순위) 게시 행위 금지 등 조건을 달아 허용해줬으나, 내부 반발이 만만치 않았다. 불과 지난해까지도 은행 노조 측에서 수익성, 업무 과중 등을 이유로 리브엠 사업인가 취소 촉구를 하는 기자회견을 열 정도였다.외부 시선도 마냥 우호적이진 않았다. 알뜰폰 이미지가 ‘효도폰’ ‘공짜폰’ 등으로 고착화된 터라 이를 바꾸는 것 뿐 아니라 여러 이해관계자들의 반발도 컸다. 중소 알뜰폰 사업자들은 국민은행이 리브엠 이용자 유치를 위해 요금제를 지나치게 낮은 수준으로 책정한다고 비판의 목소리를 높이기도 했다.이런 상황에서도 KB국민은행은 여러 상품과 연계한 리브엠 서비스를 확대했고, 노사간 입장 차를 좁히는데도 성공하면서 현재는 내부 논란이 한단계 수그러든 상태다. 최근에는 오히려 윤석열 대통령이 가계통신비 부담을 직접 거론하며 가계 부담을 낮춰주는 혁신금융의 대표적인 성공사례로 꼽히는 분위기다. 현재 정부는 통신 시장 경쟁 촉진 대책의 일환으로 알뜰폰 활성화를 내세우고 있다.현재 리브엠은 내달 금융규제 샌드박스 실증사업 특례기간 만료를 앞두고 있다. 현행법상 은행은 금융업과 관련된 전산업만을 부수업무로 영위할 수 있다. 알뜰폰 사업을 지속하기 위해서는 부수업무 지정이 필요한 상황인 만큼 은행 측은 부수업무 지정에 주력하겠다는 계획이다. 알뜰폰이 부수업무로 지정되면 리브엠 뿐 아니라 다른 금융사들도 본격적으로 통신 시장에 진입할 수 있게 된다.KB국민은행 관계자는 “올해 4월 부수업무 지정으로 안정적 서비스를 지속하는 것을 최우선 목표로 한다”며 “이후 고객센터 강화 등을 통해 고객만족도를 높일 예정”이라고 말했다.리브엠의 순항으로 금융권의 통신업 침투는 지속될 전망이다. 앞서 비바리퍼블리카의 자회사인 토스모바일은 지난 1월 30일 알뜰폰 시장에 정식 진출했다. 신협중앙회, 신한은행에 이어 하나은행도 알뜰폰 요금제를 내놓으며 관련 시장에 본격적으로 뛰어들고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2023.03.09.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>90년대생 김순경 ‘1억 모으기’ 얼마 걸릴까[김윤주의 금은동]</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000041381?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>토스뱅크, 모바일 앱 내 기능 출시고객 자주 찾도록…플랫폼 역할 강화금융‧은행 산업이 빠르게 변하고 있습니다. 디지털 전환·글로벌 확장 등 내부 목표는 물론, 주요국 금리인상 등 외부 요인도 영향을 끼칩니다. 횡령, 채용 비리와 같은 다양한 사건들도 발생합니다. 다방면의 취재 중 알게 된 흥미로운 ‘금융 은행 동향’을 ‘김윤주의 금은동’ 코너를 통해 전달합니다. [편집자주]토스뱅크가 ‘1억원 모으는 시간 계산하기’ 기능을 출시했다. [제공 토스뱅크 화면 캡처][이코노미스트 김윤주 기자] “1억원을 모으려면 6년5개월이 걸려요.”# 1990년대생 사회초년생 경찰관 A씨. 최근 토스뱅크의 모바일 앱 내 기능을 통해 ‘1억 모으기’ 시간을 계산해보니 이 같은 결과가 나왔다. A씨가 현재 모은 돈은 745만원, 매달 100만원씩 모은다고 가정했다. 추후 5%의 투자 수익을 올릴 경우 6년5개월에 걸려 1억원을 모을 수 있다는 분석 결과를 받았다. 9일 금융권에 따르면 최근 토스뱅크는 모바일 앱 내 ‘1억원 모으는 시간 계산하기’ 기능을 출시했다. 고객이 현재까지 모은 자산과 매달 모을 수 있는 금액 등을 입력하면 간단하게 ‘1억원’을 모으는데 걸리는 시간이 계산된다. 막대 그래프를 통해 연도별 투자 결과 등 시나리오를 보여줘 미래 자산 전망과 계획을 직관적으로 확인할 수 있다.결과를 확인하고 나면, 토스뱅크는 실질적으로 1억원을 만들기 위한 ‘목돈 굴리기’ 제휴사 상품도 소개한다. 지난해 8월 출시된 토스뱅크의 ‘목돈 굴리기’는 경쟁력 있는 금융투자 상품을 토스뱅크가 자체 선별해 소개해 출시 초반 인기를 끌었다. 토스뱅크의 광고를 본 고객들은 판매사를 통해 목돈 굴리기 제휴 상품을 가입할 수 있다. 지난 1월에는 토스뱅크 목돈 굴리기 서비스를 통해 소개한 투자상품 가입금액이 1조원을 돌파하기도 했다. 출시 약 5개월만에 낸 성과다. 이외에도 토스 모바일 앱은 다양한 기능과 서비스를 선보이고 있다. 토스뱅크는 ‘원앱’ 전략하에 토스와 하나의 앱을 공유 중이다. 최근에는 유럽·미국·일본·베트남 등 해외에서 토스 앱을 켜면 ‘환율 계산기’ 뜨는 기능 등을 추가하기도 했다.토스뱅크가 앱을 통해 새로운 기능을 선보이는 것은 금융 플랫폼 역할을 강화하기 위함으로도 해석된다. 이같은 노력에 힘입어 실제로 토스뱅크의 월간 활성 이용자 수(MAU)는 급속 성장 중이다. 지난해 12월 MAU는 387만1943명으로 집계됐다. 출범 초기였던 2021년 12월 기준 MAU는 101만5863명과 비교해 3배 이상 증가한 것이다. 토스 앱의 이용자 만족도도 높은 것으로 나타났다. 컨슈머인사이트의 ‘2022년 금융 앱 이용자 평가 결과’ 토스가 2위를 차지했다. 이 조사에 따르면 토스의 경우 금융거래나 자산관리 효율성, 차별적이고 혁신적인 서비스 요소가 강점으로 나타났다.‘1억 모으기 계산’ 기능을 기획한 토스뱅크 관계자는 “고객 분들이 계획을 세우고 목돈을 모을 수 있도록 기능을 만들었다”며 “간단한 정보 입력을 통해 1억원을 만드는데 얼마나 시간이 걸리는지 간편하고 직관적으로 확인 가능하도록 구현했다”고 설명했다.김윤주의 금은동.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2023.03.09.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>증권업계, 잔돈으로 투자 가능한 소액 펀드 경쟁 치열</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002690879?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>채권·해외주식 투자 상품 줄지어 선봬스태그플레이션 우려…고액 투자 부담↑로보어드바이저 활용 포트폴리오 최적화ⓒ게티이미지뱅크[데일리안 = 황인욱 기자] 증권사들이 소액으로 채권과 해외주식에 투자할 수 있는 펀드 상품을 줄지어 선보이고 있다. 스태그플레이션(경기 침체 속 물가 상승) 진입 우려로 개인 유동성이 축소하자 앞다퉈 투자 진입 장벽을 낮춰주고 있는 것이다. 긴축 지속 전망에 소액 투자 상품은 다양화가 예상된다.9일 금융투자업계에 따르면 하나증권과 IBK투자증권 등 국내 주요 증권사들은 최근 소액펀드를 새로 개발해 출시했다. 이에 관련 서비스를 먼저 선보인 한국투자·카카오페이증권 등과 경쟁이 치열해질 것으로 예상된다.우선 하나증권은 지난달 말 로보어드바이저 전문기업 파운트와 손잡고 소수점 매매를 통해 가격 단위가 높은 미국 상장지수펀드(ETF)에 투자할 수 있는 ‘미니 ETF’를 선보였다.이 상품은 파운트의 인공지능(AI) 알고리즘을 이용해 증시 개장 전 미리 당일 최적의 포트폴리오를 계산, 매도·매수 주문 계획을 사전에 정해 투자한다. 기존 파운트 ‘글로벌 ETF’ 상품의 소수점 매매 버전으로 최소 투자 단위가 200만원에서 20만원으로 내려간 것이 특징이다.IBK투자증권은 지난달 말부터 소액으로 채권에 투자할 수 있는 ‘IBKS 소액국채BLASH랩’을 판매하고 있다. 해당 상품은 소액 채권 신고시장가격제도를 활용해 국민주택 채권을 할인된 신고 가격으로 매수하면서 높은 시장 가격으로 매도하는 운용 전략을 사용한다.일반적으로 채권 투자가 고액자산가 전유물이라는 인식이 있지만 이 펀드의 가입 금액은 1인당 최대 1000만원으로 낮다. 별도 수수료 없이 중도 해지가 가능한 것도 특징이다.소액펀드는 새로운 서비스는 아니다. 카카오페이증권은 지난 2020년부터 1000원 미만 잔돈이 남으면 미리 지정한 펀드에 자동 투자해 주는 ‘동전 모으기’ 서비스를 선보였고, 한국투자증권은 2021년부터 해외주식을 소수점으로 나눠 1000원 단위로 거래하는 ‘자동투자’ 서비스를 제공해 오고 있다. 토스증권과 KB증권 등도 소액펀드를 운용 중이다.증권사들의 소액펀드 서비스 확대는 시장 상황과 무관치 않다. 글로벌 긴축 지속으로 대내외적 여건이 악화했으나 투자수요는 여전해 이를 충족할 상품 개발의 필요성이 늘고 있다는 게 업계 관측이다.최근 키움증권은 작년에 출시한 ‘잔돈투자’ 서비스 재홍보에 나섰는데 이는 소액펀드 투자에 대한 수요 증가를 예상한 움직임으로 관측된다. 잔돈투자는 100원 이상 1000원 미만의 소액을 매주 정해진 요일에 자동으로 지정한 펀드에 투자하는 서비스다.증권업계 한 관계자는 “최근 물가 상승과 금리 인상으로 고액 투자에 대한 부담이 증가하고 있다”며 “소액투자는 접근성이 좋아 상대적으로 부담이 덜한 측면이 있다”고 설명했다.ⓒ게티이미지뱅크소액펀드는 적은 금액을 주기적으로 투자해야 해 포트폴리오 구성이 중요하다. 이 때문에 사람이 운용하기보다 AI 알고리즘이 다루기 적합하다는 평가가 나온다.소액펀드를 선보인 증권사들이 자체 로보어드바이저를 보유했거나 관련 업계와 업무협약(MOU)을 맺은 곳이라는 점도 이를 반영한 것으로 해석된다. 최근 증권사들이 AI 역량 강화에 힘을 실어온 만큼 관련 서비스는 지속적으로 증가할 것이란 전망이 나온다.이효섭 자본시장연구원 금융산업실장은 “마이데이터 사업 시행으로 금융 플랫폼 사업자가 고객의 소비 패턴을 분석해 잔금을 로보어드바이저 등 투자성 상품으로 운용하는 서비스가 꾸준히 나올 것”이라며 “금융 업계에서 로보어드바이저 서비스는 전망이 밝다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>인뱅 "5대 은행과 경쟁하려면 대출규제 해소 필요"</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005095453?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>금융위 오늘 은행 제도개선 TF인뱅 족쇄된 '중저신용 규제'고신용자 대출중단·역차별연체율 늘어 부실 몰리기도이복현 "개선책 나오면 검토"인터넷전문은행(인터넷은행)의 중저신용자 대상 신용대출 비중 규제를 완화해야 한다는 목소리가 금융권에서 커지고 있다. 5대 은행(신한·KB국민·하나·우리·NH농협은행) 중심의 과점 체제를 깨는 데 도움이 된다는 판단에서다. 금융당국도 합리적인 대안이 나오면 적극 검토하겠다는 입장이다.금융위원회는 2일 김소영 금융위 부위원장 주재로 '은행권 경영·영업 관행·제도 개선 태스크포스(TF)' 회의를 열고 인터넷은행의 중저신용자 대출 비중 조정을 포함한 '경쟁 촉진 및 구조 개선' 방안을 논의한다. 앞서 이복현 금융감독원 원장은 인터넷은행의 중금리 대출 공급 의무를 완화하는 방안을 검토하냐는 질문에 "합리적인 근거를 바탕으로 개선책이 나온다면 적극 검토할 소지가 있다"고 답했다.중저신용자 대상 신용대출 비중은 가계신용대출 잔액에서 신용평가사 KCB 기준 신용평점 하위 50% 차주에 대한 대출 잔액이 차지하는 비율이다. 인터넷은행 3사는 2021년 5월 당국과 협의해 연도별 목표치를 정했다. 카카오뱅크는 올해 말 30%로 올려야 하고, 케이뱅크와 토스뱅크는 각각 32%, 44%다.개선하자는 주장이 나오는 것은 선의에서 시작된 제도가 부작용을 낳고 있기 때문이다. 인터넷은행이 중저신용자 대출에 집중하느라 고신용자 대출 시장에서 5대 은행보다 금리 경쟁력이 떨어지는가 하면, 고신용자가 중저신용자보다 높은 금리로 대출을 받는 '역차별'이 발생하고 있다. 은행연합회에 따르면 지난 두 달간 고신용자들의 시중은행 대출 금리가 인터넷은행보다 낮았다. 중저신용자 대출 비중을 달성하기 위해 인터넷은행이 금리를 높게 부르는 것으로 추측된다.카카오뱅크의 경우 가격을 조정하는 게 아니라 대출을 중단해 숫자를 맞췄다. 지난해 12월 하순께 카카오뱅크는 고신용대출 상품 신규 판매를 중단했다. 한 금융권 관계자는 "인터넷은행 도입의 핵심 목적인 '은행 산업 경쟁 촉진'과는 딴 길로 가고 있다"고 평했다.중저신용자가 고신용자보다 싸게 대출을 받는 '역차별' 사례도 있다. 작년 12월 카카오뱅크는 최저금리 연 4.45% 중신용대출 상품 특판을 진행했다. 5대 은행 신용대출 금리가 연 6% 초반일 때였다. 고신용자는 대출을 받지 못하는데 중저신용자는 헐값으로 대출을 받은 셈이라 논란이 많았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>최소 26명 숨진 그리스 열차 충돌 “아직도 많은 사람들 잔해더미 아래”</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003788213?sid=104</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>1일 새벽(현지시간) 그리스 수도 아테네 북쪽 템피 인근에서 화물열차와 여객열차가 충돌, 탈선과 화재가 발생해 소방관과 구조대원들이 구조작업을 하고 있다. 템피=AP뉴시스       그리스 중부에서 밤 기차 2대가 충돌해 최소 26명이 사망하고 수십 명이 다쳤다.     28일(현지시간) AP, 로이터 통신 등에 따르면 이날 밤 자정에 근접한 시각에 그리스 중부 테살리아주 라리사 인근에서 여객 열차와 화물 열차가 충돌해 일부 차량이 탈선하거나 불이 붙었다.     현지 경찰과 소방 당국은 이 사고로 현재까지 26명이 숨지고 85명이 다쳤다고 전했다.     당국은 당초 사망자를 16명, 부상자를 85명으로 발표했다가 사망자를 추가 집계했고 인명 피해가 늘어날 가능성이 있다.     소방당국 대변인은 “두 열차의 충돌이 너무 심각해 매우 어려운 상황에서 대피 작업을 하고 있다”고 설명했다.     이 대변인은 구급차 수십 대가 투입됐으며, 화상 환자를 치료할 수 있는 인근 병원에 비상경보를 발령했다고 덧붙였다.     소방 당국은 수색·구조 작업을 계속하고 있다고 설명했다.     한 구조대원이 현장 취재진에게 “대부분 부상자들이 머리가 다치거나 팔, 다리 골절 등을 당했다. 불행히도 아직 많은 사람들이 잔해더미 아래 있다”고 전했다.     열차는 아테네에서 출발해 북부 도시 테살로니키를 향하고 있었으며, 승객 약 350명과 직원 약 20명이 타고 있었던 것으로 전해졌다.     코스타스 아고라스토스 테살리아 주지사는 국영TV와의 인터뷰에서 “매우 강력한 충돌이었다.끔찍한 밤이다.현장 상황을 설명하기 어렵다”고 말했다.     그는 “열차 앞부분이 박살 났다”며 “잔해와 차량을 들어 올릴 크레인과 특수 중장비를 들여보내고 있다”고 설명했다.     현지 방송된 영상에서도 탈선된 열차 칸들은 창문이 깨지는 등 심하게 훼손됐고 두꺼운 연기 기둥이 공중으로 치솟는 모습이 보인다.        1일 새벽(현지시간) 그리스 수도 아테네 북쪽 템피 인근에서 화물열차와 여객열차가 충돌, 탈선과 화재가 발생해 소방관과 구조대원들이 구조작업을 하고 있다. 템피=AP뉴시스       인근 도로에는 부서진 열차 잔해가 흩어져 있다.     사고 현장에 화재로 인한 짙은 연기가 가득 차 있어 구조대원들은 헤드램프를 착용한 채 열차에 갇힌 사람들을 구조했다.     인근 다리 아래로 대피한 한 청년은 SKAI에 “열차 안에는 공포가 가득했다. 사람들이 비명을 질렀다”고 전했다.     승객 안젤로스 차무라스는 ERT에 "지진이 난 것 같았다"고 말했다.     당국은 사고 원인을 조사 중이다.     열차 네 번째 차량에 타고 있었다는 한 10대 승객은 버스에서 내리고 나서 현지기자들에게 사고 당시 열차에 급제동이 걸리는 것이 느껴졌고 불꽃이 튀면서 열차가 급정거했다고 설명했다.     그는 “내가 탄 칸은 탈선하지 않았지만 앞 차량들이 탈선해 부서졌다”며 “첫 칸에서는 불이 났다”고 말했다.      그는 유리창을 가방으로 깨고 탈출했다고도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>KB국민·하나·신한·토스 알뜰폰 대전… 데이터·요금제 혜택 살펴보니</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000903217?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>/사진=이미지투데이 1300만 가입자를 보유한 알뜰폰 시장이 금융권의 새로운 격전지로 급부상했다. 저렴한 요금제를 전면 내세우며 충성 고객을 확보하기 위한 데이터·요금제 출시가 한창이다. 14일 금융권에 따르면 KB국민은행을 시작으로 신한은행, 하나은행, 토스 등 국내 은행과 간편결제 업체가 새 먹거리로 금융과 통신의 경계를 넘나드는 알뜰폰 사업을 확대하고 있다. 2010년 3월 정부가 알뜰폰 사업자를 위한 전기통신사업법 제38조를 신설한 후 2019년 KB국민은행이 알뜰폰 요금제를 선뵀고 지난해 신한은행이 KT 망을 쓰는 중소 사업자들과 제휴해 요금제를 내놨다. 최근 토스와 하나은행도 잇따라 알뜰폰 요금제를 내놓고 신규 고객 유입에 적극적이다. 금융권의 알뜰폰 요금제와 데이터 상품을 보면 차별화 전략을 엿볼 수 있다. 국민은행의 알뜰폰 브랜드 리브엠(Liiv M)은 '통신비 다이어터'를 위해 데이터 혜택을 확대한 것이 특징이다. 지난해 KT, SKT와 제휴해 통신 3사의 통신망을 모두 확보하며 고객을 늘리기 위한 전략이다.  리브엠의 대표 요금제 'LTE 든든'은 기본 데이터 11기가바이트(GB)에 하루 2GB를 제공한다. 요금제 가격은 월 3만4300원이다. 국민은행 거래 실적 등에 따른 할인 혜택을 적용하면 최대 월 2만5900원까지 요금을 낮출 수 있다. 토스모바일의 할인을 모두 받은 금액 4만7800원보다 더 저렴하다. 리브엠은 잔여 데이터를 금융 포인트로 전환해주는 데이터 환급 서비스도 운영 중이다. 매월 남은 데이터를 국민은행의 자산관리 앱 리브메이트 포인트로 자동 전환해준다. 신한은행과 하나은행이 선보인 알뜰폰 요금제는 1만원대다. 신한은행이 KT망을 쓰는 중소 사업자들과 제휴해 선보인 요금제 '신한 모두다 맘껏 7GB++'는 월 1만8700원으로 기본 데이터 7GB를 사용할 수 있다. 가입 시 데이터 30GB를 제공하는 쿠폰도 발급해준다.하나은행이 요금제 비교 플랫폼 고고팩토리와 손잡고 출시한 요금제는 월 1만8150원에 기본 데이터 7GB를 제공한다. 1년간 기본 월 1650원이 할인되며 계좌로 통신비와 카드 대금 등을 이체하면 월 최대 3000원까지 추가 할인한다. 토스는 요금제 선택과 유심 배송 신청까지 평균 3분, 퀵서비스로 유심을 받기까지 평균 17분이 걸리는 편리한 가입 과정이 강점이다. 단 KT와 LG유플러스의 통신망을 활용하며 요금제는 5만원 선이다. 토스모바일의 무제한 71GB의 월정액은 5만4800원, 월 30GB의 데이터를 사용한다고 가정하면 2000원의 데이터 캐시백을 받을 수 있다. 토스모바일은 데이터를 20~40GB 미만으로 사용한 고객에게 2000원을 토스포인트로 환급해 준다. 할인 혜택을 적용한 월 요금은 4만7800원이다. 금융권 관계자는 "금융회사는 알뜰폰으로 고객을 묶어두고 다양한 금융상품을 교차 판매할 수 있어 손해를 보는 장사는 아니다"라며 "다양한 요금제와 데이터 혜택으로 통신 3사가 사실상 독점해오던 알뜰폰 시장이 KB리브엠 등 금융권을 중심으로 재편될 가능성도 있다"고 말했다. 한편 과학기술정보통신부에 따르면 지난해 11월 기준 국내 알뜰폰 가입자 수는 1263만8700여명에 달한다. 국민은행과 신한은행, 하나은행, 토스 등 잇따른 금융회사의 진출로 가입자 수는 1300만명을 돌파할 것이란 전망이 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2023.03.09.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>직접 대출만기 늘린 토스뱅크 고객들, 월 원리금 부담 34만원↓</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004860089?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>서울 강남구 토스뱅크 본사/사진=뉴스1토스뱅크가 '매달 내는 돈 낮추기' 서비스를 이용한 고객들의 매월 원리금 부담 금액이 평균 약 34만원 낮아졌다고 9일 밝혔다.'매달 내는 돈 낮추기 서비스'는 고객이 원할 때 대출 만기를 늘려 원리금 상환 부담을 완화할 수 있는 서비스다. 원금과 이자를 매달 함께 갚아 나가는 '원리금 균등 상환' 고객 중 상환 기간이 10년 미만인 고객이라면 신청할 수 있다. 원리금 연장 가능 기간은 최초 대출 기간을 포함해 최장 10년이다. 토스뱅크가 지난해 10월 국내 최초로 내놓은 이 서비스는 현재까지 이용 계좌 수가 누적 1만6600좌 이상이다. 이 가운데 절반에 가까운 약 43%가 만기 연장을 최장 만기인 10년으로 선택했다. 신청 고객 중 66%는 중저신용자로 나타났다.고객은 서비스를 통해 상환 기간을 연장하더라도 신용점수 하락 등 불이익을 받지 않는다. 가산금리에도 변동이 없다. 다만 고객이 신청한 기간에 따라 발생하는 리스크 비용인 '유동성 프리미엄'만 소폭(최소 0.07%포인트~최대 0.3%포인트) 반영된다. 고객들은 또 가계 건전성 회복 등 본인의 경제 여건을 고려해 언제든 자신이 원하는 때에 대출을 갚을 수 있다. 토스뱅크는 대출 중도상환수수료를 받지 않고 있다.토스뱅크 관계자는 "고객 건전성이 곧 은행 건전성이라는 상생의 관점에서 매달 내는 돈 낮추기 서비스를 운영하고 있다"며 "금리 상승과 경기 침체 등 어려운 시기를 고객과 함께 헤쳐나갈 수 있도록 실질적인 금융부담을 경감할 수 있는 서비스를 계속 발굴하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>지난해 인터넷 은행 평균연봉 1억원 안팎…주요 시중은행 추월</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011444894?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>지난해 인터넷 전문은행 3곳의 평균 연봉이 1억원 안팎 수준으로 집계됐습니다. 각 은행이 공시한 ‘2022년 지배구조 및 보수체계 연차보고서’에 따르면 지난해 토스뱅크 임직원의 평균 연봉은 1억 1천900만원이었습니다. 토스뱅크의 평균 연봉은 앞서 공개된 KB국민은행 1억 1천300만 원이나 우리은행 1억 400만 원 등 주요 시중은행보다 높은 수준입니다. 토스뱅크 관계자는 “출범 초기라 전문성이 높은 고연차 경력직을 위주로 채용했다”면서 “일시적 보상안 등을 지급해 업계 최고의 개발자 인력을 충원한 영향도 있다”고 설명했습니다. 인터넷 전문은행은 개발직과 경력직 등에 높은 보수를 제시하는 방식으로 인재를 유치하며 공격적인 채용을 단행하고 있습니다. 앞서 공개된 카카오뱅크의 지난해 임직원 평균 보수 역시 높은 수준을 보였습니다. 카카오뱅크의 임직원 평균 보수는 1억 4천600만 원으로 집계됐는데, 스톡옵션 행사 차익을 빼면 1인당 보수는 1억 700만 원 수준이라는 게 카카오뱅크의 설명입니다. 케이뱅크의 경우 지난해 임직원 평균 보수가 9천600만 원으로 1억 원에 소폭 못 미쳤지만 1년 전보다 약 20% 상승했습니다.[사진 출처 : 연합뉴스]</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2023.03.06.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>미국 주식 주간거래 서비스 늘리는 증권사들</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004817590?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>삼성증권 첫 도입 이후 잇달아NH投證 업계 첫 24시간 서비스증권사들이 앞다퉈 미국 주식 주간 거래 서비스를 개시하고 있다. 최대 24시간 주식 매매 서비스까지 등장하면서 투자자들이 밤잠을 설치지 않고 편리하게 미국 주식 거래에 참여할 수 있게 됐다.미국 주식 주간 거래는 지난해 2월 삼성증권이 최초로 선보였다. 삼성증권은 미국의 대체거래소인 블루오션과 1년 독점 계약을 맺고 오전 10시부터 오후 5시30분까지 운영을 시작했다. 미래에셋증권은 지난해 9월 미국 현지법인이 블루오션과 계약하는 우회로를 통해 주간거래(오전 10시~오후 5시15분)를 시작했다.지난달 7일 삼성증권과 블루오션의 독점계약이 끝나면서 국내 다른 증권사들도 미국 주식 주간 거래 서비스를 제공하기 시작했다. 지난달 8일 NH투자증권은 업계 최초로 24시간 미국 주식 매매 서비스를 시작했다. 한국시간 기준 오전 10시부터 오후 6시까지 미국 주식 주간거래를 운영한다. 프리마켓(오후 6시~11시30분), 정규장(오후 11시30분~오전 6시), 애프터마켓(오전 6~10시)을 포함해 하루 종일 미국 주식을 사고팔 수 있다. 같은 날 키움증권(오전 10시~오후 5시30분)과 토스증권(오전 10시~오후 5시50분)도 미국 주식 주간 거래 서비스를 개시했다.지난달 13일에는 교보증권(오전 10시~오후 5시15분)과 메리츠증권(10시~오후 5시30분), 지난달 27일에는 한화투자증권(오전 10시~오후 5시20분)과 한국투자증권(오전 10시~오후 4시)까지 미국 주식 주간 거래 서비스에 합류했다.한 증권사 관계자는 “미국 주식 주간거래를 통해 변동성이 커지는 미국 증시에 대비해 보다 편리하게 리스크 관리를 할 수 있게 됐다”며 “시차로 인해 미국 주식 거래에 쉽게 참여하지 못했던 투자자에게도 미국 주식 투자에 대한 접근성을 높여줄 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>토스플레이스 단말기서 결제하면 '덤터기 사고' 막을 수 있다</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000042677?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>토스 프론트(앞)과 토스 포스 소프트웨어 화면(뒤).(사진=토스플레이스)최근 강남구 역삼동의 한 고깃집에서 93만원의 회식비 결제액을 186만원으로 계산한 사건이 일어나 직장인들의 공분을 일으킨 바 있다. 해당 업체 측은 포스기와 테이블 예약 프로그램이 자동으로 연동되지 않아 점장들이 일일이 포스에 그룹핑을 하는 과정에서 발생한 실수라고 해명했다. 토스 포스와 토스 프론트 단말기가 함께 설치된 매장에서는 이러한 '덤터기 사고'를 소비자들이 방지할 수 있을 것으로 예상된다.결제 단말기 제작 및 매장관리 솔루션 제공사 토스플레이스는 오프라인 매장의 디지털 전환 가속화를 위한 결제 단말기인 '토스 터미널' 및 '토스 프론트', 결제 단말기 전용 소프트웨어 '토스 포스'를 정식 출시한다고 7일 밝혔다.토스플레이스는 오프라인 결제 단말기로 첫 발걸음을 뗀다. 지난 5개월 동안 회사는 수도권 200여 매장에서 결제 단말기를 시범 운영하며 결제 속도와 안정성을 검증했다. 실제로 토스플레이스 단말기는 하루 평균 400건 이상의 결제가 이뤄지는 매장에서도 오류 없는 결제 경험을 제공했다. 회사는 점심, 저녁 등 특정 시간에 결제가 집중되는 F&amp;B 매장을 중심으로 테스트를 진행한 결과 안정적인 운영 결과를 확인했다고 밝혔다. 토스플레이스 단말기의 강점은 높은 편의성이다. 단말기는 사업주가 사용하는 터미널과 고객이 이용하는 프론트 한 쌍으로 이뤄져 있는데, 고객이 결제를 하는 프론트 단말기는 다양한 결제 수단을 지원한다. 토스 프론트 단말기에서는 바코드, QR코드, 근거리무선통신(NFC), 마그네틱보안전송(MST) 등의 다양한 결제 수단을 모두 사용할 수 있다. 멀티패드 겸용 7인치 디스플레이는 매장 이벤트 정보를 담는 홍보용도로도 사용이 가능하다. 토스플레이스 결제 단말기의 또 다른 강점은 기존 포스 단말기와 차별화된 디자인이다. 토스 특유의 담백한 디자인을 단말기에 적용해 MZ세대가 선호하는 카페 인테리어에도 이질감 없이 녹아든다. 회사는 시범 운영 결과 기능은 물론 디자인에 관한 관심도 뜨거웠다면서 사업주는 물론 직접 결제를 하는 고객들에게도 호평을 받았다고 말했다.매장 관리를 위한 무료 소프트웨어 '토스 포스'도 정식 출시한다. 토스 포스는 사업주뿐 아니라 포스를 처음 사용하는 아르바이트생도 특별한 교육 없이 바로 사용할 수 있을만큼 단순하고 직관적인 사용자 경험(UX)를 제공한다. 버튼 하나로 새로운 메뉴를 등록할 수 있고, 매장 매출과 상품별 판매 추이를 빠르게 확인할 수 있다. 특히 토스 포스 소프트웨어는 토스 프론트 단말기와 연결할 때 사용성이 확대된다. 토스 포스와 토스 프론트 단말기를 함께 사용하게 되면 주문 미러링 기능이나 포인트 적립 기능 등을 이용할 수 있다.주문 미러링은 주문 내역을 고객이 보는 결제 단말기 화면에 그대로 보여주는 기능으로, 점원이 포스에 주문 상품을 누르면 고객이 보는 결제 단말기 화면에도 같은 내역이 뜨면서 고객도 내역을 확인할 수 있다. 회사는 주문 미러링 기능을 통해 카페, 베이커리 등에서 자주 일어나던 주문 실수를 줄일 수 있을 것으로 기대하고 있다.토스플레이스는 단말기를 시작으로 결제단말기를 중심으로 매장관리, 재고관리, 고객 관리, 세무 솔루션 등을 초연결해 단말기를 '디지털 비서'로 만들어 나간다는 계획이다. 결제 단말기와 토스 포스 프로그램에 관한 상담은 토스플레이스 홈페이지에서 가능하다.최지은 토스플레이스 대표는 "오프라인 매장의 필수 IT 기기인 결제 단말기와 포스를 이용해 매장 장부 관리, 고객 관리 등 사장님이 신경써야 하는 각 분야를 디지털로 전환하고 매장 운영의 효율화를 증대하려고 한다"면서 "앞으로 토스플레이스 단말기와 포스 소프트웨어로 오프라인 매장 운영의 새로운 가치를 줄 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2023.03.08.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>[아테네 이야기] 외교의 성패는 상대국 호응에 달렸다</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/448/0000398556?sid=100</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>그리스로 여행을 가서 아테네를 벗어난다면, 대개 둘 중 하나다. 비행기나 배로 이동한다면 산토리니섬으로 향할 가능성이 크고, 차편을 이용한다면 십중팔구 메테오라가 목적지라고 봐도 되지 않을까 싶다. 그리고 메테오라로 가는 길에 어지간하면 들르는 곳이 델피 신전이다.델피 신전은 고대에 기가 막힌 신통력으로 정평이 났던 곳이다. 많은 고대국가가 델피 신전에서 신의 뜻을 물어 국가 중대사를 결정했다. 좋은 점괘를 내려달라는 뜻에서, 혹은 국가적 위기를 잘 극복했다는 감사의 뜻으로 온갖 보물을 바치는 곳이기도 했다. 델피의 아폴론 신전. 델피 신전의 신통력은 실제로는 신탁을 내려달라고 온세상에서 찾아오는 사람들이 하는 말들이 모인 정보력에 기반했을 가능성이 많다. 현대의 점집에 가도 그러하듯이, 당시 델피 신전도 복채에 따라 점괘가 달라지기도 했다. 아테네가 페르시아를 물리친 살라미스 해전은 그렇게 조작된 신탁을 근거로 벌어진 전투였다.허물어진 기둥과 돌덩이들만 나뒹구는 지금 과거의 영화를 찾아보기는 어렵다. 그 와중에 고대 그리스 역사에서 가장 빛나는 순간을 보여주는 두 가지 유물이 있다. 하나는 청동으로 만든 기둥이다. 뱀 세 마리가 서로 몸을 꼬아 하늘로 오르는 형상이다. 페르시아군의 침략을 물리친 뒤 그들의 방패를 녹여서 만들었다는 전설이 깃든 유물이다. 페르시아의 2차 침입 당시 살라미스 해전으로 일격을 가한 뒤, 육상에서 페르시아군을 궤멸시킨 플라타이아 전투를 기념해 만들었다.델피의 뱀기둥. 진품은 튀르키예에 있고, 델포이에서 볼 수 있는 것은 모조품이다.또 하나의 영광의 유물은 아무렇게나 굴러다니는 돌덩이 사이로 그나마 멀쩡한 건물 모양을 하고 있는 아테네인의 보물창고다. 이 보물창고는 페르시아군의 1차 침입을 물리친 마라톤 전투의 승리를 기념해 봉헌한 제물을 보관하던 곳이라고 한다.아테네인의 보물 창고. 고대 그대로의 모습이 아닌 현대에 복원한 모습이다. 솔직히 델피 전체 분위기와 별로 어울리지 않아 보이는 복원 결과다.헤로도토스의 기록으로는 10만 명의 페르시아 병사가 마라톤에 상륙했다고 한다. 실제로는 2~3만명이었을 것으로 역사학자들은 추정한다. 어쨌든 아테네의 1만 병사보다는 훨씬 많았다. 하지만 결과는 뜻밖이었다. 전투 결과 페르시아군 전사자 6,400명, 아테네군 전사자 192명이었다. 아테네의 대승이었다. 당대 세계 최강국 페르시아를 상대로 그리스 안에서도 변방이었던 아테네가 승리를 거둔 말 그대로 역사적 사건이었다. 그 마라톤 전투를 이끌었던 아테네군의 장수가 밀티아데스였다.아테네 군사박물관에서 만난 밀티아데스. 밀티아데스는 아테네의 장군 노릇을 했지만, 원래는 페르시아와 맞닿은 변방 케르소네소스의 참주였다. 케르소네소스는 자원이 많은 데다 보스포로스 해협과 다르다넬스 해협을 관리하기 때문에 돈이 많았다. 하지만 무리한 해외 원정을 떠났다가 자녀에게 엄청난 빚만 물려주고 세상을 뜨고 만다.밀티아데스가 남긴 엄청난 빚을 떠안은 아들이 키몬이었다. 당시에는 결혼할 때 여자가 지참금을 갖고 가야 했는데, 밀티아데스의 딸이자 키몬의 누이인 엘피니케는 돈이 없어서 시집을 가지 못하는 신세가 될 정도였다. 그래서 키몬과 함께 살았던 모양인데, 이 때문에 키몬은 평생 누이와 정을 통했다는 소문에 시달려야 했다. 하지만 집안이 재기한 것도 결국 누이 덕분이었다. 아테네에서 부자로 유명했던 칼리아스가 엘피니케와 결혼하면서 아버지의 빚까지 갚아줬기 때문이다. 키몬 자신은 훗날 자신의 경쟁자가 되는 페리클레스의 외삼촌인 메가클레스의 손녀와 결혼했다. 당시만 해도 아테네 정치는 유력 가문들의 대결장이었다. 키몬은 최고의 정치적 배경을 확보했다.키몬은 살라미스 전투가 있은지 2년 후인 서기전 478년에 장군으로 선출됐다. 아테네를 해상제국으로 만드는 델로스 동맹을 만드는 밑그림을 아리스테이데스가 그렸다면, 키몬은 톱과 망치를 들고 집을 지었다. 키몬은 육상에서는 트라키아의 에이온을 점령해 페르시아군을 헬레스폰토스(다르다넬스 해협) 너머로 쫓아냈다. 또 바다에서는 키프로스 섬 근처까지 내려가서 에우리메돈 강에서 페르시아 해군을 궤멸시켰다. 이 전투로 에게해는 아테네의 안마당이 된다.필로파포스 언덕에 있는 키몬의 무덤. 소크라테스의 감옥이라고 알려진 곳에서 민회가 열리던 프닉스 언덕으로 넘어가는 길목에 있다. 사실 키몬의 무덤이라고 알려진 곳은 아테네에 두 곳이 더 있다. 2인용인 이 무덤의 표지판에는 키몬의 할아버지인 또다른 키몬과 역사가 투키디데스가 함께 묻힌 곳이라고 적혀 있다. 투키디데스가 키몬의 일족이긴 하지만, 할아버지 키몬과 투키디데스의 사망 시점은 100년 가까이 차이 난다.많은 경우 성공은 몰락의 이유가 된다. 키몬 역시도 그랬다. 아테네를 해상제국으로 만드는데 성공했지만, 그 과정에서 3단노선에서 노를 젓는 빈민들(그리스에서는 '테테스'라고 불렀다)의 정치적인 목소리가 커졌다. 하지만 귀족 출신인 키몬은 참정권을 확대할 마음은 없었다. 그저 자신의 농장을 빈민들에게 개방하고 자신의 집에다 급식소를 만들어서 배고픈 누구라도 음식을 먹을 수 있도록 하는 선심을 썼을 뿐이다. 또는 새로 점령한 땅에 빈민들을 이주시켜 땅주인으로 만들어주기도 했다. 하지만, 더 많은 정치적 권리를 요구하는 목소리는 계속 이어졌다.그 시점에 결정적인 사건이 발생한다. 스파르타에 큰 지진이 발생하고, 그 틈에 반란이 일어났다. 스파르타는 스스로를 헤라클레스의 자손이라고 부르는 북방 출신 이주민들이 원주민들을 노예화해서 지배하는 나라였다. 지배층보다 수십배나 숫자가 많은 피지배층('헤일로타이'라고 부른다)이 지진을 틈타 한꺼번에 들고 일어나면서 스파르타는 국가 존립 자체가 위태로운 상황이 됐다. 이때 키몬은 스파르타를 돕기 위해 직접 4천명의 병사들을 이끌고 떠난다. 하지만 결과적으로 패착이었다.키몬에게 스파르타는 선망의 대상이었다. 오죽하면 아들의 이름도 스파르타의 또다른 이름인 '라케다이몬'을 따서 라케다이모니오스로 지었다. 민회에서 아테네인들의 저질 정치행태를 비판할 때도 "스파르타인들은 이러지 않는다"는 말로 혼내듯 말하곤 했다.물론 스파르타 파병 결정을 개인적인 감정으로만 하지는 않았다. 직접 전장에서 페르시아군과 싸웠던 키몬에게 페르시아의 침략은 이미 지나간 과거의 일이 아니라 언제든 다시 일어날 수 있는 현재의 일이었다. 그리고 페르시아가 다시 쳐들어왔을 때 물리치려면 스파르타와 힘을 합쳐야 한다는 게 키몬의 생각이었다. "그리스를 외다리로 서게 해서는 안 된다."하지만 이미 해상제국을 건설한 아테네에게 스파르타는 패권 경쟁자이기도 했다. 그리스의 패권을 두고 언젠가 한판 전쟁이 불가피한데, 때마침 스파르타가 반란으로 스스로 무너진다면 오히려 잘된 일이라는 목소리도 있었다. "우리의 경쟁자인 스파르타를 돕다니 말도 안도지. 스파르타가 망하도록 내버려둬야 해."키몬의 명성이 키몬의 말에 힘을 실어줬는지, 민회는 결국 파병을 결정했다. 키몬은 4천명의 중장보병을 이끌고 스파르타로 갔다. 사달은 그때 일어났다. 막상 4천명의 외국 군대가 오자 스파르타가 겁을 먹었다. 구원병으로 왔다지만, 갑자기 점령군으로 변하지 말라는 법이 없으니까. 스파르타는 아테네에 철군을 요구했다. 선의로 도움을 주러 갔던 키몬은 하릴없이 발길을 돌리는 수밖에 없었다.발없는 말이 발보다 빠른 법이어서, 키몬의 군대가 돌아오기도 전에 아테네 시민들은 소식을 듣게 되었다. 키몬은 스파르타에 망신을 당했고, 아테네는 모욕을 당했다. 아테네 시민들은 분노했다. 민회가 열렸다. 그리고 키몬을 도편추방시키고 말았다.(키몬이 이끌고 간 4천명의 중장보병은 귀족 또는 중산층이다. 이들이 자리를 비운 민회에서 귀족의 목소리가 작아질 수밖에 없다.) 그리고 빈민들에게 정치적 권리를 확대하고, 귀족들의 전유물인 아레이오파고스의 권한을 사실상 없애버리는 조치도 통과시켰다. 우리가 알고 있는 아테네 민주주의가 완성되는 순간이다. 하지만 해상제국 건설의 영웅 키몬에게는 몰락의 순간일 뿐이다.역사를 짧게 보면, 스파르타는 아테네의 패권 경쟁자라는 시각이 옳다. 불과 30년 후에 펠로폰네소스 전쟁이 벌어지니 말이다. 역사를 길게 보면, 스파르타는 아테네와 더불어 그리스를 떠받치는 두 다리라는 키몬의 시각이 옳았다. 아테네와 스파르타의 패권 전쟁 결과 결국 두 나라 모두 몰락해 그리스는 세계사의 주도권을 빼앗기고 마니까. 당장은 인기 없는 정책이었을지 몰라도, 스파르타와 동반자 관계를 유지해야 한다는 키몬의 말을 아테네가 귀담아 들었어야 한다.키몬은 적어도 아테네 시민들을 설득할 수는 있었기에 스파르타로 출병했다. 하지만 정작 스파르타가 벽창호였다. 하긴 가뜩이나 지진과 반란으로 난리가 났는데, 무장한 외국군을 4천명이나 들이기는 불안했을 법도 하다. 그렇게 키몬을 내쫓은 결과, 아테네에는 스파르타에 적대적인 정권이 들어섰다. 머지 않아 30년 가까운 내전의 단초가 싹트는 순간이었지만, 스파르타는 키몬만큼 길게 보는 혜안 대신 당장의 불안감에 따라 결정하고 움직였다.윤석열 대통령이 강제징용 피해자 문제 해법을 내놨다. 가해자인 전범기업들이 직접 배상하지 않고, 국내 기업이 돈을 내는 간접 배상 방식이다. 피해자단체들은 반발하고 비판 집회를 열고 있다. 이해할 수 있는 일이다. 정부로서도 정치적 부담을 각오했기에 "미래를 위한 결단"이라고 강조했다. 북한의 핵 위협은 이미 임계치를 넘어섰고, 중국의 패권주의도 위험수위로 치닫고 있다. 혈맹인 미국도 반도체와 자동차 분야에서 우리를 향해 압박해오는 상황이다. 이 모든 문제를 풀기 위해 한, 미, 일 3각 동맹의 회복이 절실하다. 미루면 당장의 욕은 안 먹을 수 있겠지만, 문제는 더욱 곪는다. "언젠가 해야 하고, 누군가 해야 한다면 지금 내가 하겠다"는 윤석열 대통령의 말이 믿음직스럽게 느껴지는 이유다.다만, 위험은 다시 일본이다. 윤 대통령의 결단이 일본의 호응을 얻지 못한다면, 정치적 부담은 애초 감수했던 것보다 몇배나 크게 돌아올 수 있다. 한국 정치에서 '친일'이라는 낙인은 결코 벗어날 수 없는 수렁이다. 일본 정부와 기업은 신속하게 한일 공동기금에 참여하는 방식으로, 스스로 죄의식을 느끼고 있음을 보여줘야 한다. 법적인 책임을 따지기에 앞서 피해자의 상처를 달래려는 최소한의 노력은 보여줘야한다.스파르타의 오판은 당장은 키몬의 몰락을 불러오기도 했지만, 길게 보면 스파르타에 적대적인 아테네 정권을 불러왔고, 더 길게 보면 기나긴 내전으로 스파르타와 아테네 모두가 몰락하는 결과를 낳았다. 일본은 키몬의 구원병을 내쫓은 스파르타의 어리석음을 되풀이해서는 안될 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2023.03.13.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>토스, 또 파격…증권 대표에 마케팅전문가 영입</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004820231?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>차기 CEO에 김승연 선임쇼트폼 플랫폼 틱톡 출신전임 대표들도 금융과 무관출범 3년차를 맞은 토스증권이 차기 대표에 글로벌 최대 쇼트폼(짧은 동영상) 소셜미디어 플랫폼 틱톡의 동남아시아 광고영업총괄인 김승연 씨(사진)를 영입한다. 자본시장 경험이 없는 마케팅 전문가를 최고경영자(CEO)로 임명하는 파격 인사로 평가된다.토스증권은 이달 30일 주주총회에 김 총괄을 대표이사로 신규 선임하는 안건을 올린다고 13일 공시했다. 임기는 2년이다. 작년 7월부터 토스증권을 이끌어온 오창훈 대표는 본업인 최고기술책임자(CTO)로 돌아갈 것으로 알려졌다.1980년생인 김 총괄은 구글 아시아지역 마케팅총괄, 틱톡 동남아시아 비즈니스솔루션총괄 등을 거치며 15년간 온라인 플랫폼 및 광고 분야 전문가로 활동해왔다. 증권을 비롯한 금융업 분야 경력은 없다. 업계 한 관계자는 “토스증권은 비바리퍼블리카(토스 운영사) 주요 계열사 가운데 유일하게 흑자 전환한 곳”이라며 “시장이 녹록지 않은 상황에서 ‘연간 흑자’를 목표로 성장을 이어가야 하는 시점에 증권업 경력이 없는 마케팅 전문가를 영입한 것은 이례적”이라고 했다.토스가 금융자회사 대표로 비금융권 출신 인사를 선임하는 것이 이번이 처음은 아니다. 토스증권 초대 대표인 박재민 전 대표는 소프트웨어 엔지니어와 컨설턴트를 거쳐 쿠팡 사업본부장으로 일하다 토스에 합류했다. 오창훈 대표도 토스 대출 연계 서비스, 토스증권 매매 서비스 등의 개발을 총괄한 개발자 출신이다.토스는 김 총괄이 엔터테인먼트 플랫폼 마케팅을 이끌어온 경험을 바탕으로 토스증권의 ‘쉽고 재밌는 주식 거래 서비스’란 강점을 극대화해줄 것으로 기대하고 있다. 토스증권 내부 사정에 정통한 한 관계자는 “전·현직 대표들이 전통 금융업 경험이 없기 때문에 오히려 백지상태에서 새로운 시도로 토스증권을 예상보다 빠르게 안착시켰다는 공감대가 있다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>[속보] 그리스서 열차 2대 충돌해 '아수라장'…최소 16명 사망 85명 부상</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001200376?sid=104</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>그리스 중부 테살리주 라리사 인근에서 28일(현지시간) 밤 열차 2대가 충돌하는 대형사고가 발생했다. 로이터연합뉴스그리스 중부에서 28일(현지시간) 밤 여객 열차와 화출 열차가 충돌해 최소 16명이 사망하고 85명이 다쳤다고 현지 경찰과 소방 당국이 밝혔다.AP, 로이터 통신 등 주요 외신들에 따르면 이날 그리스 중부 테살리주 라리사 인근에서 여객 열차와 화물 열차가 충돌해 차량 여러 칸이 탈선하고 최소 3칸에 불이 붙었다.이 사고로 현재까지 최소 16명이 숨지고 85명이 다쳤다.코스타스 아고라스토스 테살리주 주지사는 국영TV와의 인터뷰에서 "매우 강력한 충돌이이었다. 끔찍한 밤이다"며 "현장 상황을 설명하기 어렵다"고 말했다.현지 SKAI에 방송된 영상에서도 탈선된 열차 칸들은 창문이 깨지는 등 심하게 훼손됐고 두꺼운 연기 기둥이 공중으로 치솟는 모습이 보인다. 인근 도로에는 부서진 열차 잔해가 흩어져 있다.현재 다친 승객을 수송하기 위해 여러 대의 구급차가 도착했고, 헤드램프를 착용한 구조대원들은 부상자 등을 구조하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2023.03.08.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>인터넷뱅킹 고객 2억명… 하루 이용액 76조원</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003483970?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>작년 이용금액-건수 등 역대 최대비대면 대출 하루 1조로 55% 급증인터넷전문은행이 확대되고 팬데믹으로 비대면 금융거래가 활성화되면서 지난해 인터넷뱅킹 고객 수가 처음으로 2억 명을 넘어섰다. 인터넷뱅킹 일평균 이용 금액과 이용 건수도 각각 76조 원, 1900만 건을 돌파하며 역대 최대를 기록했다. 한국은행이 7일 발표한 ‘국내은행 인터넷뱅킹서비스 이용 현황’에 따르면 지난해 말 현재 국내 은행의 인터넷뱅킹(모바일 포함) 등록 고객 수(중복 합산)는 2억704만 명으로 1년 전보다 8.5% 늘었다. 모바일뱅킹 등록 고객 수(1억6922만 명)는 10.3% 늘며 증가세를 주도했다.  인터넷뱅킹 고객 수가 늘면서 지난해 일평균 이용 건수도 1971만 건으로 전년 대비 13.8% 늘었다. 일평균 이용 금액도 76조3000억 원으로 8.2% 증가했다. 모두 2006년 관련 통계 작성 이후 최대치다. 이 가운데 모바일뱅킹 일평균 이용 금액과 이용 건수는 각각 14조2000억 원, 1684만 건으로 전년 대비 각각 10.3%, 17.3% 늘었다. 이에 따라 전체 인터넷뱅킹 이용실적에서 모바일뱅킹이 차지하는 비중은 이용금액 기준 18.6%, 이용 건수 기준 85.4%로 집계됐다.  지난해 은행 지점을 통하지 않고 인터넷으로 비대면 대출 신청 서비스를 이용한 금액은 하루 평균 1조1684억 원으로 전년 대비 54.9% 급증했다. 이용 건수는 3만5000건으로 1년 전보다 13.5% 늘었다. 한은 관계자는 “케이뱅크, 카카오뱅크, 토스뱅크 등 인터넷전문은행들의 신용대출 재개, 비대면 주택담보대출 출시 등이 영향을 미쳤다”고 설명했다.  지난해 은행 입출금·자금 이체 서비스 거래의 77.7%가 인터넷뱅킹을 통해 이뤄진 것으로 집계됐다. 은행 창구 비중은 5.5%에 불과했고 현금자동입출금기(CD/ATM) 14.2%, 텔레뱅킹 2.6% 등으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>토스플레이스, 간편결제 단말기·소프트웨어 출시</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011726739?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]토스 프론트(앞)과 토스 포스 소프트웨어 화면 이미지(사진=토스플레이스 제공)2023.03.07 photo@newsis.com *재판매 및 DB 금지[서울=뉴시스]한재혁 기자 = 비바리퍼블리카(토스)의 결제 단말기 제작 자회사 토스플레이스가 결제 단말기와 전용 소프트웨어 정식 출시한다고 7일 밝혔다.이번 출시 제품은 결제 단말기 '토스 터미널'·'토스 프론트'와 전용 소프트웨어 '토스 포스'로 구성됐다. 토스플레이스는 수도권 매장 200여곳에서 결제 단말기를 시범 운영해 단말기 당 하루 평균 400건 이상의 결제를 테스트한 뒤 출시를 진행했다. 이 중 고객이 이용하는 토스 프론트 단말기는 바코드·QR·NFC·MST 등의 결제가 모두 가능하다.소프트웨어 '토스 포스'의 경우 매장 매출이나 상품별 판매 추이 확인 기능을 제공한다. 또 토스 단말기와 함께 사용하게 되면 포인트 적립 서비스를 제공받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>달리던 열차끼리 정면 충돌… 그리스서 38명 이상 사망</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004857030?sid=104</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>1일(현지시간) 그리스 라리사 인근에서 열차 충돌 사고가 발생했다. 충격으로 열차가 선로를 완전히 벗어났다. 파손된 잔해 속에서 연기가 피어오르고 있다. /사진= 뉴스1그리스 라리사 인근에서 한밤 중에 발생한 열차 충돌 사고로 38명 이상이 사망하고 85명의 부상자가 발생했다.1일 뉴스1에 따르면 이날 그리스 중부 라리사 외곽에서 아테네로부터 북부 테살로니키로 향하는 열차와 테살로니키에서 라리사로 향하는 화물차가 정면 충돌했다.로이터통신과 AFP 등은 이 사고로 32명이 숨지고 85명이 다쳤다고 보도했다. 미국 CNN은 사망자가 최소 38명에 달한다고 전했다. 사고 원인은 아직 밝혀지지 않았다.열차는 강한 충돌 여파로 'ㄱ'자로 꺾어져 선로 밖으로 튕겨져 나갔다. 일부 열차 칸에서는 화재도 발생한 것으로 전해졌다.콘스탄티노스 아고라스토스 주지사는 열차에 타고 있던 승객 350명 중 250명이 버스로 대피했다고 전했다. 부상자 85명 중 53명은 병원으로 이송됐다.1일(현지시간) 그리스 라리사 인근에서 열차가 정면충돌해 수십명의 인명피해가 발생했다. 충돌한 열차 앞쪽 칸이 완전히 뒤틀어져 탈선했다. /사진= 뉴스1현장에서 소방 인력 150명과 구급차 40대가 구조 작업을 이어가고 있지만 열차 속에 갇힌 사람들을 꺼내는 데 난항을 겪고 있다. 한 구조대원은 "평생 이런 사고를 본 적이 없다"며 "비극"이라고 말했다. 그러면서 "5시간이 지났는데 시신이 발견되고 있다"고 했다.소방 당국 대변인은 브리핑에서 "두 열차가 매우 강하게 충돌한 것으로 보인다"며 "승객들이 대피하기 매우 어려웠을 것"이라고 설명했다.현지 매체는 "그리스 사상 최악의 열차 사고"라며 사순절 연휴를 맞아 가족과 시간을 보내기 위해 집으로 향하는 학생들이 많은 시기였다고 전했다. 그리스 철도 회사 OSE의 기관사 노조 위원장은 "상상할 수 없는 사고"라며 "안전 시스템이 작동했다면 피할 수 있었을 것"이라고 밝혔다.승객 안젤로스(22)는 AFP통신에 "악몽이었다"며 "아직도 몸이 떨린다"고 말했다. 그는 "충돌이 마치 거대한 지진 같았다"고 회상했다. 현지 매체 올라리사와 인터뷰 한 젊은 여성 승객은 눈물을 흘리며 "귀청이 터질 듯한 소리가 났고 열차가 몇 분 동안 멈춰 있었다"고 전했다. 열차에 타고 있던 남성은 "주변에 다른 부상자들은 피로 얼룩져 있었다"고 말했다.그리스 정부는 긴급회의를 열고 보건부·내무부 장관 등이 각각 현장과 위기관리센터를 나눠 맡아 대응하고 있다.1일(현지시간) 그리스 라리사에서 발생한 열차 충돌 사고 현장을 한 구조 대원이 지나가고 있다. 열차 차체는 완전히 찌그러졌다. /사진= 뉴스1</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2023.03.10.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>[단독] 8일 밤 토스뱅크 30분간 모바일뱅킹 송금 지연…고객 공지도 늦어</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000326466?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>[앵커] 인터넷전문은행 토스뱅크에서 접속지연 장애가 발생한 사실이 뒤늦게 알려졌습니다. 당시 소비자 불편도 잇따랐는데, 관련 공지는 문제가 발생한 지 20시간이 지난 뒤에야 이뤄졌습니다. 단독 취재한 기자 연결합니다. 오서영 기자, 일단 사건이 발생한 경위부터 짚어보죠. [기자] 지난 8일 밤 10시 29분부터 11시 5분까지 30분 넘게 토스뱅크의 송금과 계좌개설, 여신심사와 실행에 문제가 발생했습니다. 이 때문에 '예금에 가입해야 하는데 계좌 송금이 안 됐다'는 등 불편을 호소하는 고객들 글이 온라인 커뮤니티에 속출했습니다. 토스뱅크가 밝힌 원인은 '채널 연계 DB 서버 오류'인데요.한마디로 전산 오류라는 겁니다. 토스뱅크는 "짧은 시간이나마 고객님들 불편드려 송구하며 간헐적 지연이 발생한 원인 등을 철저히 분석해 재발 방지하겠다"고 설명했습니다. [앵커] 그런데 공지가 늦었다, 이게 문제 아닙니까? [기자] 토스뱅크는 전산장애를 인지한 당일에 소비자에게 발생 사실과 복구 상황에 대한 별도의 공지는 없었습니다. 취재가 들어가자 그제야 사고 이후 20시간 만에 서비스 오류가 있었다고 공지한 겁니다. 이래서 늑장대응이라는 지적이 나오는데요.최근 이복현 금융감독원장이 인터넷은행들에 던진 책임경영의 중요성 메시지를 무색하게 만들었다는 지적입니다. 최근 은행의 독과점 해소 방안으로 인터넷전문은행의 규제를 풀어줘 경쟁력을 지원하려는 금융당국의 움직임이 있는데요.이복현 금감원장은 "디지털 금융 참여자들은 혁신을 지속하면서도 IT 보안 강화 등 시스템 안전성 유지와 금융소비자 보호를 위한 노력도 병행해야 한다"고 강조하며 책임 강화도 함께 요구한 바 있습니다. 현재 토스뱅크 가입자는 약 570만 명, 수신 잔액은 약 23조 원에 달합니다. SBS Biz 오서영입니다..당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>악몽의 밤... 그리스 열차 충돌, 최소 40명 사망</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003749117?sid=104</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>1일 새벽(현지 시각) 그리스 중부 테살리아주 라리사 인근 지역에서 발생한 열차 충돌 사고로 탈선한 객차가 충격으로 구겨지고 화재로 불탄 채 나뒹굴고 있다. 승객과 승무원 등 354명을 태우고 아테네를 출발, 북부 테살로니키로 향하던 여객 열차가 마주 오던 화물열차와 정면으로 부딪치면서 최소 36명이 숨지고 80여 명이 다친 것으로 전해졌다. /로이터 연합뉴스										그리스 중부에서 지난달 28일(현지 시각) 열차 2대가 정면충돌하는 사고가 발생해 최소 40명이 숨지는 등 100여 명에 달하는 사상자를 냈다.현지 일간지 카티메리니 등에 따르면, 이날 밤 그리스 중부 테살리아주 라리사 인근 지역에서 여객열차와 화물열차가 충돌했다. 여객열차는 승객 342명과 승무원 12명을 태우고 수도 아테네를 출발, 북부 제2 도시 테살로니키로 향하고 있었다. 화물열차에는 승무원 2명이 탑승한 것으로 알려졌다. 소방 당국은 이 사고로 최소 40명이 사망하고, 85명이 다친 것으로 파악됐다고 밝혔다. 부상자 중 72명은 입원했고, 6명은 중환자실에서 집중 치료를 받고 있다. 열차 승객 상당수는 주말을 낀 연휴를 맞아 전통 축제를 즐긴 뒤 집으로 돌아가던 대학생 등 젊은이들로 알려졌다.콘스탄티노스 아고라스토스 테살리아 주지사는 “열차 앞부분은 거의 형체를 알아볼 수 없을 정도로 파손됐고, 탈선한 객차도 있다”며 “잔해 및 열차를 들어 올릴 크레인 등 특수 중장비를 투입했다”고 말했다. 현재 객차 안에 갇힌 사람이 상당수 있는 것으로 전해져 사망자는 더욱 늘어날 전망이다.사고 현장엔 구급차 수십 대가 투입됐다. 라리사 종합병원 등 현지 병원들은 긴급 헌혈 운동을 시작했다. 현지 언론에 따르면, 두 열차가 같은 선로를 달리다 충돌한 것으로 전해졌다. 수사 당국은 라리사 역장을 과실치사 혐의로 체포했다. 그리스 당국은 오는 3일까지 국가 애도 기간을 선포하고, 모든 공공건물에 조기를 게양하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>[연합뉴스 이 시각 헤드라인] - 07:30</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013811882?sid=004</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>■ 美, 北순항미사일에 "北, 안보저해 용납 못해…동맹과 긴밀공조"미국 정부는 13일(현지시간) 북한의 잠수함발사순항미사일(SLCM) 도발과 관련해 구체적인 분석을 진행 중이라며 북한의 안보 저해 행위를 용납하지 않겠다고 밝혔다. 동시에 북한이 도발의 명분으로 삼고 있는 한미 연합연습은 일상적이고 방어적인 성격이라며 오히려 북한이 역내 긴장을 고조시키고 있다고 비판했다. 제이크 설리번 백악관 국가안보보좌관은 이날 조 바이든 미 대통령의 캘리포니아행 에어포스원 기내에서 기자들과 만나 "북한은 잠수함발사미사일을 2016년 발사한 이후 이를 개량하고 있다"며 이같이 말했다.전문보기: https://www.yna.co.kr/view/AKR20230314003851071북한, 잠수함서 미사일 발사(서울=연합뉴스) 한상균 기자 = 13일 서울역 TV에서 북한 미사일 발사 뉴스가 나오고 있다. 이날 조선중앙통신은 "12일 새벽 잠수함 '8·24영웅함'에서 전략순항미사일 2기를 발사했다"고 보도했다. 2023.3.13 xyz@yna.co.kr■ 美, 中·北 미사일 위협 경계…미사일방어 예산 20% 확대미국 정부가 올해 국방예산을 편성하면서 중국과 러시아, 북한 등의 극초음속 및 탄도미사일 위협에 대비해 미사일방어 예산을 확대했다. 미국 국방부가 13일(현지시간) 공개한 2024 회계연도 국방예산안의 무기 체계별 획득 비용에 따르면 국방부는 미사일방어 프로그램의 연구개발시험평가(RDT&amp;E) 및 조달 예산으로 148억달러(약 19조원)를 요청했다. 2023 회계연도의 123억달러보다 약 20% 증가한 수치다. 전문보기: https://www.yna.co.kr/view/AKR20230314007900071■ [르포] SVB 고객들, 예금 인출하려 20ｍ 긴 줄…"온라인·폰뱅킹 먹통"13일 오전 8시 30분(현지시간) 미국 캘리포니아주 샌타클래라에 위치한 실리콘밸리 은행(SVB) 본사. 지난 11일에 이어 다시 찾은 이곳에는 이른 시간부터 20ｍ가량의 긴 줄을 이룬 고객들이 은행 문이 열리기만을 기다리고 있었다. 20여명의 고객들은 대부분 SVB와 수년간 거래해 온 스타트업과 벤처캐피탈(VC) 관계자들이었다. 미 규제당국이 파산 절차에 들어간 SVB에 대해 폐쇄 결정을 한 지 3일 만인 이날부터 거래 정지를 풀면서 예금 인출이 가능해지자 은행을 찾은 것이다. 전문보기: https://www.yna.co.kr/view/AKR20230314005000091■ 'SVB 사태 없다'…국내은행, 여신비율 높고 유가증권 비중 작아미국의 벤처캐피탈 및 기술 스타트업 전문은행인 실리콘밸리은행(SVB)의 파산 원인으로 수신에 비해 작은 여신 규모, 막대한 유가증권 보유 등이 지적되면서 국내 은행의 자산 구조 등에도 관심이 집중된다. 국내은행들은 SVB와 같은 미국 특화은행과 달리 수신 대비 여신 비율(여수신 비율)이 높은 데다, 전체 자산에서 유가증권이 차지하는 비중도 20% 미만인 만큼 지난해 이후 지속되는 금리 인상기에도 큰 타격이 없는 것으로 분석됐다. 14일 외신 등에 따르면 SVB 파산은 고금리 충격에 따른 재무구조 악화가 고객의 대규모 예금 인출로 이어지면서 벌어졌다.전문보기: https://www.yna.co.kr/view/AKR20230313142700002■ 오락·문화 물가 14년만에 최대상승…해외여행·반려동물·OTT↑해외 단체여행이 늘고 온라인 동영상 서비스(OTT) 이용자도 많아지면서 지난달 오락·문화 물가가 14년여 만에 가장 많이 오른 것으로 나타났다. 14일 통계청 국가통계포털에 따르면 2월 지출목적별 소비자물가지수 중 오락·문화 물가지수는 105.86으로 1년 전보다 4.3% 올랐다. 이는 2008년 12월의 4.6% 이후 14년 2개월 만에 가장 높은 상승률이다. 전문보기: https://www.yna.co.kr/view/AKR20230313116000002■ 공사비 갈등에 소송까지…서울 주요아파트 단지들 입주놓고 잡음전국 정비사업 현장 곳곳에서 공사비 인상을 두고 갈등이 불거지는 가운데 이미 입주 날짜를 받아놓은 단지들까지 소송 등 각종 문제가 불거져 입주에 차질을 빚는 상황이 벌어지고 있다. 14일 업계 등에 따르면 지난달 말부터 입주를 시작한 서울 강남구 개포동 '개포자이 프레지던스'(개포주공 4단지 재건축)는 단지 내 유치원 관련 소송으로 전날부터 입주가 중단됐다. 재건축 전부터 단지 안에 있던 경기유치원이 서울행정법원에 오는 24일까지 준공인가 처분 효력정지를 신청했고 법원이 이를 받아들이면서 지난 13일부터 오는 24일까지 열쇠 불출(가구별 지급)이 불가해진 것이다.전문보기: https://www.yna.co.kr/view/AKR20230313118800003■ 김기현, 오늘 황교안과 오찬 회동…安, PK서 낙선인사국민의힘 김기현 대표는 14일 당권을 두고 경쟁했던 황교안 미래통합당(국민의힘 전신) 전 대표와 회동한다. 김 대표는 이날 서울 여의도의 한 일식당에서 황 전 대표와 만나 오찬을 함께할 예정이다. 전당대회 이후 당내 전열을 정비하는 차원에서 '원팀' 정신을 강조하는 행보로 풀이된다. 황 전 대표는 전당대회 때 김 대표를 상대로 '울산 KTX 역세권 땅 시세차익' 의혹을 제기하며 공세에 나선 바 있다. 전문보기: https://www.yna.co.kr/view/AKR20230313153600001■ 한국타이어 대전공장 큰불로 타이어 21만개 전소…잔불 정리 중12일 오후 10시 9분께 대전시 대덕구 목상동 한국타이어 공장에서 발생한 대형 화재 진화 작업을 벌여온 소방 당국이 발화 13시간 만에 큰 불길을 잡았다. 이 불로 작업자 10명과 소방대원 1명 등 11명이 연기를 마시는 등 경상을 입고 치료를 받았으나 모두 귀가했다. 화재로 물류창고에 적재돼 있던 21만 개의 타이어가 탄 것으로 최종 집계됐다. 전문보기: https://www.yna.co.kr/view/AKR20230313015653063■ 작년 인터넷 은행 평균연봉 1억원 안팎…주요 시중은행 추월지난해 인터넷 전문은행 3개사(카카오·케이·토스뱅크)의 평균 연봉이 1억원 안팎 수준으로 집계됐다. 일부 인터넷 전문은행의 평균 연봉은 KB국민은행 등 주요 시중은행을 앞선 것으로 나타났다. 14일 각 은행이 공시한 '2022년 지배구조 및 보수체계 연차보고서'에 따르면 지난해 토스뱅크 임직원의 평균 연봉은 1억1천900만원(보수 총액 462억5천700만원/388명)이었다. 지난 2021년(6천100만원)과 비교하면 두 배 가까이 상승했는데, 토스뱅크가 2021년 10월 출범했기 때문에 차이가 크게 나타난 것으로 풀이된다.전문보기: https://www.yna.co.kr/view/AKR20230313141800002■ 국민연금 '거수기' 꼬리표 떼나…주총 안건 반대율 2년새 7%p↑3월 정기 주주총회 시즌의 막이 오른 가운데 국민연금이 '거수기' 꼬리표를 떼고 주총 안건 중 반대 의사를 표시한 사례가 늘고 있는 것으로 나타났다. 2018년 스튜어드십 코드(수탁자책임 원칙) 도입을 계기로 국민연금이 적극적인 주주권 행사에 나서고 있는 것으로 풀이된다. 기업분석연구소 리더스인덱스는 국내 대기업집단에 소속된 216개 상장기업을 대상으로 2020년부터 지난해까지 국민연금의 의결권 행사 내역을 전수조사한 결과를 14일 발표했다.전문보기: https://www.yna.co.kr/view/AKR20230313142800003</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2023.03.13.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>CU, 알뜰택배 리브랜딩 2+1 행사… "5㎏ 이하 택배비 1200원"</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000902868?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>CU가 택배 서비스인 CU 끼리택배를 'CU 알뜰택배'로 리브랜딩했다. /사진=BGF리테일   CU가 자체 초저가 택배 서비스인 'CU 끼리택배'를 'CU 알뜰택배'로 리브랜딩 하고 편의점 업계 최초로 택배 2+1 행사를 진행한다고 13일 밝혔다. CU 알뜰택배는 CU의 전국 물류 네트워크를 활용해 CU에서 접수한 택배를 고객이 배송을 지정한 CU 점포에서 찾아가는 편의점 택배 서비스다. 5㎏ 이하 소형 택배만 취급하며 일반 택배보다 배송 기간이 느린 대신 저렴한 가격에 이용할 수 있다. CU 측은 "지금까지 점포 간 주고 받는 배송을 강조하기 위해 'CU 끼리택배'라는 명칭을 사용해 왔지만 고객에게 보다 높은 배송 품질과 합리적인 가격, 친숙한 이미지의 서비스를 제공하기 위해 CU 알뜰택배로 브랜드명을 변경했다"고 설명했다. CU 알뜰택배의 가격은 500g 초과~1㎏ 이하 2100원으로 국내에서 가장 저렴한 수준이다. 500g 이하는 1800원, 1㎏ 초과는 2700원으로 일반 택배 대비 절반 가격이다. CU는 이번 서비스 명칭 변경과 함께 이날부터 4월 말까지 업계 최초로 CU 알뜰택배 2+1 행사를 진행한다. CU 커머스 앱인 포켓CU에서 CU 알뜰택배 예약 후 점포 접수 완료를 2건 하면 중량 상관없이 사용 가능한 무료 쿠폰 1장이 자동으로 발급된다. 현재 포켓CU에서는 5㎏ 이하 모든 택배에 1800원 균일가 행사도 동시에 진행하고 있다. 예를 들어 정상가 2700원 운임인 5㎏ 택배 3개를 보내면 총 8100원이지만 균일가 및 2+1 행사를 적용하면 56% 할인된 3600원에 이용 가능하다. 접수 가능한 최대 중량의 택배를 1개당 1200원에 보낼 수 있는 셈이다.주말 할인 프로모션도 펼친다. 포켓CU에서 CU 알뜰택배 전용 200원 주말 할인 쿠폰을 하루 2회 발급받을 수 있다. 또한 결제 금액의 최대 2%를 CU 멤버십 포인트로 적립할 수 있다.프랜차이즈 편의점  CU는 고객들의 이용 접근성을 높이기 위해 이달 토스 앱에 CU 알뜰택배 예약 창구를 열었다. 가격은 중량 무관 5㎏ 이하 동일 서비스 최저가인 2100원이며 토스페이에 등록된 카드로 결제하면 된다. 일반 택배 예약은 4월 중 추가로 오픈 예정이다.박희진  BGF리테일 서비스플랫폼팀장은 "최근 몇 년 사이 중고거래가 활성화되면서 소형 택배에 대한 수요가 편의점 택배로 몰리며 관련 시장이 날로 급성장하고 있다"며 "CU 알뜰택배는 고객들의 니즈를 반영해 서비스 품질을 높이는 한편 차별화된 혜택을 더욱 강화해 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2023.03.06.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>서울대 유홍림 총장, 미국 시카고대학 총장 접견</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011725580?sid=102</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>기사내용 요약지난 3일 미국 시카고대학 총장과 접견서울대 유홍림(왼쪽) 총장, 폴 알리비사토스(Paul Alivisatos) 총장. 사진 서울대 *재판매 및 DB 금지[서울=뉴시스]허서우 인턴 기자 = 서울대는 유홍림 총장이 미국 시카고대학 폴 알리비사토스(Paul Alivisatos) 총장과 접견했다고 6일 밝혔다. 지난 3일 진행된 접견에는 서울대 김재영 연구부총장, 화학생물공학부 현택환 석좌교수, 박정원 부교수, 중앙도서관장 장덕진 교수, 국제협력본부 조승아 본부장이 배석했다. 알리비사토스 총장은 유 총장의 취임과 새로운 시작을 축하하며, 대학의 역할이 중요해진 현시점에 양교의 협력관계가 더욱더 공고해지기를 바란다고 했다. 이에 유 총장은 축하에 감사 인사를 전하며 양교가 공통으로 강점을 지닌 경제학, 공학 등의 분야가 가장 실현 가능성 있는 교류 협력 영역이 될 수 있다고 답했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>토스증권, 차기 대표로 ‘마케팅 전문가’ 김승연 영입</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004166560?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>[서울경제] 토스증권이 차기 대표로 글로벌 쇼트폼 플랫폼인 틱톡의 김승연 동남아시아 글로벌 비즈니스 대표를 영입한다.14일 토스증권은 전날 이달 말 주주총회에서 김 총괄을 대표이사로 신규 선임하는 안건을 올릴 예정이라고 공시했다. 안건이 의결될 경우 김 총괄의 임기는 4월부터 2년이다. 지난해 7월부터 토스증권을 이끈 오창훈 대표는 본업인 최고기술책임자(CTO)로 돌아갈 것으로 전해진다.김 총괄은 15년간 온라인 플랫폼 및 광고 분야 전문가로 활동해왔다. 김 총괄이 그간 온라인 플랫폼 분야에서 두각을 드러낸 만큼 토스증권이 김 총괄 체제 하에서 시장 지배력을 높여갈 수 있을지 관심이 모인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>토뱅 `지금 이자 받기` 출시 1년… 총 2670억 지급</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002788836?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>1인 평균 이자 8만9600원 받아토스뱅크가 '지금 이자받기' 서비스로 2670억원의 이자를 지급했다고 밝혔다. 토스뱅크 제공    토스뱅크가 '지금 이자 받기' 서비스 출시 1년만에 298만 고객에 1인당 평균 8만9600원씩 총 2670억원의 이자를 지급했다고 14일 밝혔다.'지금 이자 받기'는 지난해 3월 토스뱅크가 국내 금융사 최초로 선보인 서비스다. 수시입출금 통장인 '토스뱅크통장'을 가진 고객은 매일 한 번씩, 자신이 원할 때 즉시 이자를 받을 수 있다. 매일 남은 잔액을 기준으로 이자가 쌓이는 '일 복리' 구조가 적용됨에 따라 고객들은 돈을 많이 보관할수록 또 이자를 매일 받을수록 유리하다.지난 1년간 고객들은 총 1억5000만회에 걸쳐 서비스를 이용했다. 가장 이용 빈도가 높은 고객들의 경우 1년 365일 내내 '지금 이자 받기'를 이용하며, 매니아층을 형성하기도 했다. 연령대별로 살펴보면 20대(25.4%)가 가장 많았고 40대(23.9%) 30대(18.6%) 순이었다. 그 뒤를 50대(15.4%) 10대(11%) 60대(5.5%)가 이었다. 토스뱅크통장은 연 2.2%(세전) 기본금리에, 5000만원 초과 금액에 대해서는 연 3.8%(세전) 금리를 제공하고 있다. 토스뱅크 관계자는 "단 하루라도 은행에 돈을 맡기면 그 대가를 고객들이 누릴 수 있어야 한다는 가치에 따라 앞으로도 토스뱅크는 고객들의 '금융 주권'을 지켜나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>저축銀 마저 "저신용자 안 받아요"…'법정금리 20%'가 독 됐다</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004861666?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>[편집자주] 생활이 팍팍해진 서민들이 금융회사를 찾지만 '문턱'이 높다. 소득이 적다는 이유로, 신용이 낮다는 이유로 돈을 빌리기 어렵다. 금리가 높아 돈을 빌려주기도 어렵다. 급전이 필요한 서민들은 수백%의 이자를 내고 불법사채를 찾는다.[[MT리포트]돈 구할 곳 없는 서민들(下)]━'법정금리 20%의 역설'…서민들은 왜 2금융권서 밀려났나━/사진=정서희 인턴디자인기자서민들의 이자 부담을 덜기 위해 마련된 '법정 최고금리 20%' 제도가 외려 서민들을 금융권에서 몰아내고 있다. 2금융권은 지난해 기준금리 인상 등으로 대출금리가 오르자 법정 최고금리 때문에 저신용자에게 대출을 내주지 못하고 있다. 전문가는 법정 최고금리를 20%로 못 박을 게 아니라 변동형으로 바꿔야 한다고 조언한다.◇ 저신용자 대거 탈락…저축銀 대출 규모 3년 만에 첫 감소13일 한국은행 경제통계시스템에 따르면 지난해 12월 말 현재 저축은행의 대출 잔액은 전월보다 1조1955억원 줄어든 115조283억원으로 나타났다. 지난해 11월에도 대출 잔액은 전달 대비 0.17% 감소했다. 월간 기준으로 대출 잔액이 감소한 건 2019년 3월 이후  3년 만에 처음이다. 2019년 3월 59조5480억원이었던 대출 잔액은 꾸준히 늘다가 지난해 8월부터 116조원대에 머물고 있다. 저신용자가 대출 심사에서 탈락하면서 대출 잔액이 정체한 것으로 분석된다. 실제 지난 1월 신규 대출을 취급한 저축은행 중 신용평점 600점 이하 저신용자에게 대출을 내주지 않은 곳은 42.04%에 달했다. 전년도 같은 기간 집계한 비중 대비 8.71%p(포인트) 높은 수치다.저축은행은 지난해 하반기부터 저신용자의 진입을 막기 위해 의도적으로 대출 문턱을 높였다. 저신용자 대출 심사를 까다롭게 진행하고 한도를 줄였다. 한동안 토스 등 대출 중개플랫폼을 통한 접수도 받지 않았다. ◇ 법정 최고금리 20%가 서민 돈줄 막았다…"고정형 아닌 연동형으로 바뀌어야"/사진=뉴스1이런 상황이 연출된 배경에는 법정 최고금리 제도가 있다. 법정 최고금리는 2021년 7월 연 24%에서 연 20%로 낮아졌다. 당시 서민의 이자 부담을 줄이자는 명목으로 최고금리를 낮췄는데 금리 상승기가 되자 되려 서민의 돈줄을 막았다. 실제 지난해 11월 저축은행의 1년 만기 정기예금 평균 금리는 5.82%까지 치솟으며 같은해 1월 대비 2배 넘게 급등했다. 반면 일반신용대출 평균 금리는 같은 기간 14.68%에서 16.65%로 상승하는 데 그쳤다. 법정 최고금리가 20%로 제한돼 대출금리가 예금금리만큼 뛰지 못한 셈이다. 예대마진 축소로 수익성이 악화한 저축은행은 부실 위험을 피하기 위해 결국 저신용자의 유입을 막는 길을 택했다.대형 저축은행 관계자는 "지금처럼 예대마진이 줄어든 상황에서 저신용자의 연체 위험까지 떠안기는 어렵다"며 "당분간 우량한 고객을 대상으로 대출을 운용하고 저신용자 고객에겐 최대한 보수적으로 대출을 내줄 계획"이라고 밝혔다.전문가는 저신용자를 불법사채시장으로 내몰지 않으려면 법정 최고금리 제도를 손봐야 한다고 입을 모은다. 신세돈 숙명여자대학교 경제학부 교수는 "기준금리가 낮을 때 법정 최고금리가 정해졌는데, 지금은 금리가 3%를 넘어간 상황"이라며 "기준금리가 더 올라갈 것으로 보이기 때문에 최고금리를 20%로 고정하는 것보단 시장금리에 연동하는 방법을 고려해야 한다"고 말했다.서지용 상명대학교 경영학과 교수는 "저신용자의 제도금융권 탈락은 법정 최고금리를 인위적으로 낮출 때부터 예견된 일"이라며 "미국 일부 주처럼 시장금리와 법정 최고금리를 연동해야 한다"고 말했다. 이어 "법정 최고금리가 올라가면 금리 인상기에 대출을 받기 어려웠던 취약층의 숨통이 트일 것"이라고 했다.━"긴급생계비 100만원 당일 대출"…벼랑끝 서민들 돕는다━금융위원회서민들이 불법 사금융에 빠지는 걸 막기 위해 연체 이력이 있어도 당일에 최대 100만원까지 대출을 해주는 긴급생계비 대출 상품이 이달 나온다. 또 만 34세 이하 청년만 활용할 수 있었던 신속채무조정 특례 프로그램은 모든 연령으로 확대된다. 13일 금융권에 따르면 금융당국은 서민금융진흥원(서금원)을 통해 이달 말 긴급생계비 대출을 출시한다. 긴급생계비 대출은 연 소득 3500만원 이하이면서 신용점수 하위 20%인 저신용자를 대상으로 최대 100만원까지 대출해주는 상품이다. 대부업체에서도 거절당하는 취약차주가 불법 사금융으로 빠지거나 채무 불이행자로 전락하는 걸 막기 위해 금융당국이 마련한 상품이다.연체 이력이 있어도 이용 가능하며, 신청 당일 대출금을 받을 수 있다는 게 주요 특징이다. 최초 50만원 대출을 받은 뒤 6개월 이상 성실히 상환하면 추가로 50만원을 더 빌릴 수 있다. 다만, 의료·주거·교육비 등 특정 목적의 자금이 필요한 경우라면 한 번에 100만원까지도 대출이 가능하다. 금리는 최초 대출시 연 15.9%가 적용되지만, 연체 없이 성실 상환하면 최저 9.4%까지 낮아진다. 최초 대출 이후 6개월 주기로 연 3%포인트(p)씩 줄어드는 방식이다.불법사금융금융당국은 취약차주 지원을 확대하기 위해 기존 서민금융상품도 보강한다. 우선 이달부터 만 34세 이하 저신용 청년을 대상으로 시행하던 신속채무조정 특례 프로그램을 전 연령층으로 확대한다. 신용회복위원회가 운영 중인 신속채무조정은 채무 연체 기간이 30일 이하거나 아직 연체가 발생하지 않았지만 과한 채무 부담을 지고 있는 차주에게 최장 10년 한도로 상환 기간을 연장하거나 최대 3년간 상환을 유예해 주는 제도다. 특례 프로그램은 이에 더해 실직, 재난 피해 등으로 형편이 어려워진 이들을 위해 약정 이자를 기존보다 30~50% 낮춰준다.정책 서민금융을 이용하기 어려운 최저신용자를 위한 특례보증은 올해 2800억원 규모로 공급된다. 최저신용자 특례보증은 신용점수 하위 10%면서 연 소득 4500만원 이하를 대상으로 한다. 최저신용자의 불법사금융 피해를 막기 위해 만든 상품인 만큼 기존 정책서민금융인 햇살론 심사에서 탈락했거나, 연체기록이 있는 차주도 이용할 수 있다. 상환 여력이 있다고 판단되면 최초 대출시 500만원 이내에서 차등 지원되며 6개월 이상 정상적으로 상환하면 최대 1000만원까지 추가 대출을 받을 수 있다. 다만, 일각에서는 급전이 필요한 서민에게 대출 형식으로 지원하는 방식이 부작용을 낳을 수도 있다고 지적한다. 이수진 한국금융연구원 선임연구위원은 "식비, 의료비, 월세 등 생계문제를 대출로 도움을 주는 건 한시적 방편에 불과하다"며 "나중에 돈을 못 갚으면 서민들에게 더 큰 짐이 될 수 있으니, 이런 문제는 근본적으로 복지의 영역에서 해결해야 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>투자 몰리는 AI 솔루션 스타트업들</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000727139?sid=105</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>인공지능(AI)을 이용한 솔루션 신생기업(스타트업)들에 투자가 몰리고 있다.7일 관련업계에 따르면 인덴트 코퍼레이션, 비즈니스캔버스, 어센트코리아, 팀러너스 등 AI 솔루션 스타트업들이 잇따라 투자를 받았다. 영상 후기 중심의 마케팅 솔루션 '브이리뷰'를 제공하는 인덴트코퍼레이션은 105억 원 규모의 시리즈A 투자를 유치했다. 이번 투자에는 SV인베스트먼트, 퓨처플레이, LG유플러스, 한국투자파트너스, 애경산업 등이 참여했다. 이로써 이 업체는 누적으로 162억 원을 투자 받았다.2018년 윤태석 대표가 창업한 이 업체는 사람들이 제품 구입 후 올리는 영상 후기에 AI 기술을 접목해  AI가 가짜 영상 후기를 가려내고 챗봇을 이용해 이용자들의 후기 작성을 돕는다. 덕분에 국내와 미국, 중국, 일본 등에 걸쳐 3,800개사를 고객사로 확보했다. 이번 투자를 계기로 이 업체는 AI를 접목한 자동화 마케팅 플랫폼 'AMP'를 상반기 중 선보일 예정이다.인덴트코퍼레이션은 AI로 가짜 후기를 가려내고 이용자의 후기를 유도하는 기술을 개발해 투자를 받았다. 인덴트 제공구독형 소프트웨어 서비스(SaaS) 업체인 비즈니스캔버스도 50억 원 이상 투자를 받았다. 지난 1월부터 진행된 투자에 신한벤처투자, 인포뱅크, IBK캐피탈, 원자산운용 등이 참여했다. 이로써 이 업체는 누적으로 120억 원 이상 투자 받았다. 2020년 설립된 이 업체는 문서관리를 할 수 있는 기업용 협업도구 '타입드' 서비스를 184개국에서 제공한다. 이번 투자를 계기로 이 업체는 타입드에 자동 추천 등 AI 기능을 접목해 올해 안에 선보일 계획이다.어센트코리아도 최근 마무리된 시리즈A 투자를 통해 300억 원을 유치했다. 이 업체는 지난해 말 35억 원을 받은데 이어 최근 15억 원을 추가 투자 받으며 시리즈A 투자를 300억 원으로 마무리했다. 시리즈A 투자에 신한벤처투자, 디올인베스트먼트, 티인베스트먼트, 메가존 등이 참여했다.이 업체는 AI로 검색 결과를 분석해 이용자의 의도를 예측하는 '리스닝 마인드' 솔루션을 개발했다. 이 서비스는 이노션, 펜타클 등 광고대행사와 KB국민은행, 삼성생명, 아모레퍼시픽, YG엔터테인먼트 등 기업들이 주로 사용한다. 박세용 어센트코리아 대표는 "경기나 나빠지면서 기업들이 효율적 마케팅을 고민하며 리스닝마인드를 많이 이용한다"며 "연말까지 국내에서 150개, 6월에 진출 예정인 일본에서 50개 기업 등을 고객으로 확보하겠다"고 강조했다.콘텐츠를 만드는 AI를 개발 중인 팀러너스도 베이스인베스트먼트, 패스트벤처스 등으로부터 20억 원 규모의 종자돈을 투자 받았다. '토스'로 유명한 비바리퍼블리카 초기 멤버인 정승진 대표가 창업한 이 업체는 AI가 글, 사진, 동영상 등 각종 콘텐츠를 생산하는 플랫폼을 개발하고 있다. 정 대표는 "AI가 만드는 콘텐츠가 사람이 제작하는 콘텐츠보다 더 흥미로울 것"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2023.03.03.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>'금리 18%' 저축銀 대출 쭉 빠졌다…3년 만에 첫 감소</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004857621?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>저축은행 대출 잔액이 3년 만에 처음으로 뒷걸음질쳤다. 연체율 관리를 위해 일시적으로 대출을 막은 데다 금리가 천정부지로 치솟아 대출 수요가 줄었기 때문이다. 대출금리가 하향 안정화하고 있지만 수익성 악화에 직면한 저축은행이 올해 외형 성장을 자제할 것으로 보여 대출 잔액 감소세는 당분간 이어질 것으로 예상된다.2일 한국은행 경제통계시스템에 따르면 지난해 12월말 현재 저축은행의 대출 잔액은 115조283억원으로 나타났다. 전월말(116조2238억원)보다 1.03% 감소했다.월간 기준 저축은행 대출 감소는 2019년 3월 이후 약 3년 만에 처음이다. 저축은행의 대출 잔액은 2019년 3월 59조5480억원에 불과했으나 이후 지속적으로 늘어 2배 가까이 불었다. 특히 2020년 하반기 대출 수요가 시중은행에서 저축은행으로 이동하면서 가파른 성장세가 나타났다. 당시 주식시장 활황에 '빚투', '영끌' 등이 급증하자 금융당국이 시중은행 대출 문턱을 높였기 때문이다.잔액 감소는 저축은행이 부실 위험을 막기 위해 저신용자에 대한 대출을 의도적으로 줄인 영향으로 분석된다. 금리 상승으로 연체율이 높아지자 저축은행들은 지난해 저신용자 대출 심사를 까다롭게 진행하고 한도를 줄였다. 일부 저축은행은 토스 등 대출 중개 플랫폼을 통한 대출 접수를 일시적으로 막기도 했다. 저축은행의 전체 대출 중 플랫폼을 통해 접수되는 비중은 60~70%에 이르는 것으로 알려졌다. 대형 저축은행 A사 관계자는 "지난해 말 대부분의 저축은행이 건전성 관리를 위해 대출 취급을 중단했다"며 "저축은행의 의존도가 높은 플랫폼 창구까지 막다 보니 전체 대출 잔액이 감소한 것으로 보인다"고 설명했다.이자 부담에 대출 심리가 위축된 것도 잔액 감소에 일부 영향을 미친 것으로 추정된다. 저축은행의 가계자금대출 평균 금리는 2022년 1월 13.62%에서 12월 14.74%로 올랐다. 대출 여력이 큰 5대 저축은행(SBI·OK·웰컴·한국투자·페퍼)의 작년 12월 가계신용대출 평균 금리는 14.99~19.06%에 달했다.저축은행 업계는 올해도 대출 잔액이 빠질 것으로 본다. 저축은행의 수익은 대출 이자에서 나오므로 잔액 증가는 곧 외형 성장을 의미한다. 그러나 올해는 자산 성장을 기대하기 힘들다는 게 업계의 중론이다. 지난해 예금금리가 대출금리보다 더 큰 폭으로 올라 저축은행의 수익성이 나빠졌고 경기 둔화로 차주들의 상환 능력이 떨어졌기 때문이다. 저축은행들은 대출 영업에 적극적으로 나서거나 대출금리 인하 경쟁으로 신규 차주를 끌어모으기보단 리스크 관리에 집중할 것으로 보인다.대형 저축은행 B사 관계자는 "저축은행을 찾는 고객 중엔 위험도가 높은 저신용자가 많기 때문에 예대마진 축소로 순이익이 줄어든 상황에서 대출을 마구 내주면 리스크를 감당할 수 없다"며 "예대마진이 개선되지 않는 이상 앞으로도 저신용자에겐 최대한 보수적으로 대출을 내줄 수밖에 없을 것 같다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>외교부 "그리스 열차사고 한국인 피해 여부 확인중"…외신 "최소 36명 사망, 85명 부상"</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/654/0000033718?sid=104</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>▲ 28일(현지시간) 그리스 중부 테살리주 라리사 인근에서 충돌한 열차 사이에서 연기가 피어오르고 있다. AP/연합뉴스그리스 중부에서 28일(현지시간) 밤 기차 2대가 충돌해 최소 36명이 다치는 대형 사고가 발생한 가운데 정부는 한국인 피해가 있는지 확인하고 있다고 외교부 당국자가 1일 밝혔다.AP, 로이터 통신, 연합뉴스 등에 따르면 그리스 당국은 외국인 사상자가 발생했는지를 현재까지 확인하지 않은 것으로 전해졌다.외신은 이날 밤 자정에 근접한 시각에 그리스 중부 테살리아주 라리사 인근에서 여객 열차와 화물 열차가 충돌해 일부 차량이 탈선하거나 불이 붙었다고 전했다.춘제 카니발 시즌을 맞아 월요일인 지난달 27일도 공휴일로 지정돼 황금연휴를 즐기고 귀향하던 대학생 등 젊은층이 많이 타고 있었던 것으로 알려져 비극을 더하고 있다. ▲ 1일 그리스 테살리아주 라리사 인근에서 벌어진 열차 사고 현장에서 소방관들이 구조작업을 벌이고 있다.AP/로이터현지 경찰과 소방당국은 이 사고로 현재까지 36명이 숨지고 85명이 다쳤다고 밝혔다. 일부 승객은 강력한 충격 때문에 객차의 차창 밖으로 튕겨 나간 것으로 알려졌다.현재 66명이 병원에 입원 중인데, 6명은 집중 치료 중이라고 소방당국은 전했다.소방당국 대변인은 "두 열차의 충돌이 너무 심각해 매우 어려운 상황에서 수색 작업을 하고 있다"고 설명했다.dpa 통신은 한 구조대원이 현장의 취재진에게 "대부분 부상자가 머리를 다치거나 팔, 다리 골절 등을 당했다"라며 "불행히도 아직 많은 사람이 잔해더미 아래 있다"고 말했다고 전했다.dpa 통신은 한 구조대원이 현장의 취재진에게 "대부분 부상자들이 머리가 다치거나 팔, 다리 골절 등을 당했다. 불행히도 아직 많은 사람들이 잔해더미 아래 있다"고 말했다고 보도했다. ▲ 28일(현지시간) 그리스 중부 라리사 외곽에서 발생한 열차 충돌 사고 현장.로이터/연합뉴스여객 열차는 아테네에서 출발해 북부 도시 테살로니키를 향하고 있었으며, 승객 약 350명과 직원 약 20명이 타고 있었던 것으로 전해졌다. 화물 열차는 테살로니키에서 라리사로 가고 있었다.코스타스 아고라스토스 테살리아 주지사는 국영TV와의 인터뷰에서 "매우 강력한 충돌이었다. 끔찍한 밤이다"며 "현장 상황을 설명하기 어렵다"고 말했다.그는 "열차 앞부분이 박살 났다"며 "잔해와 차량을 들어 올릴 크레인과 특수 중장비를 들여보내고 있다"고 설명했다.현지 SKAI에 방송된 영상에서도 탈선된 열차 칸들은 창문이 깨지는 등 심하게 훼손됐고 두꺼운 연기 기둥이 공중으로 치솟는 모습이 보인다. 인근 도로에는 부서진 열차 잔해가 흩어져 있다.사고 현장에 화재로 인한 짙은 연기가 가득 차 있어 구조대원들은 헤드램프를 착용한 채 열차에 갇힌 사람들을 구조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2023.03.05.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>이자 잘 깎아 주는 은행…시중은 농협·지방은 부산</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001200917?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>NH농협은행, 69.3% 전국 최고하나은행, 26.9% 가장 박해부산은행, 2500건 가운데 1454건“수용률·다양한 정보 함께 살펴봐야”은행권의 지난해 하반기 금리인하요구권 수용률은 같은 해 상반기보다 오른 것으로 5일 확인됐다. 시중은행 중에서는 NH농협은행이, 지방은행 중에서는 BNK부산은행이 인하 요구 수용 비율이 가장 높은 곳으로 조사됐다. 연합뉴스은행권의 지난해 하반기 금리인하요구권 수용률이 상반기보다 오른 것으로 확인됐다. 시중은행 중에서는 NH농협은행이, 지방은행 중에서는 BNK부산은행이 수용률이 가장 높았다.5일 은행연합회 금리인하요구권 운영실적 현황에 따르면 2022년 하반기 시중은행은 총 102만 9112건의 금리인하 신청을 받았다. 이 중 이자가 감액된 사례는 31만 5771건, 수용률은 30.6%였다. 이는 지난해 상반기(24.8%)와 비교해 6%포인트(P)가량 상승한 수치다. 금리인하요구권은 금융 소비자가 취직이나 승진, 소득 증가 등이 있을 경우 은행에 금리를 낮춰 달라고 적극적으로 요구할 수 있는 권리다.5대 시중은행 중 고객의 금리인하 요구를 가장 적극적으로 수용한 곳은 NH농협은행이다. 농협은행은 하반기 69.3%의 금리인하수용률을 기록해 상반기(56.8%)에 이어 1위 자리를 유지했다. 가계대출의 경우 1만 5808건의 금리인하 신청 중 1만 1100건을 받아들였는데, 이는 수용률이 70%를 넘어선다.반면, 가장 박한 수용률을 기록한 곳은 하나은행이었다. 하나은행은 총 4만 1930건의 금리인하 신청 중 1만 1260건에 대해 이자를 감면했다. 수용률은 26.9%로 국내은행 평균 수용률에도 못 미치는 수치다. 같은 해 상반기(32.3%)에 비해 실적이 오히려 낮아졌다.그외 우리은행(37.9%), 국민은행(36.9%), 신한은행(33.0%) 등의 수용률을 기록했다.5대 은행의 평균 인하금리는 농협은행과 하나은행이 0.40%P, 신한은행과 국민은행이 0.20%P, 우리은행이 0.12%P를 보였다. 가계대출만 놓고 봐도 농협은행이 평균 0.40%P로 가장 많은 금리를 인하했다.이자 감면액의 경우 신한은행이 62억 4700만 원으로, 5대 시중은행 중 가장 많았다.같은 기간 지방은행 중에서는 BNK부산은행이 58.2%로 금리인하 요구를 가장 적극적으로 수용했다. 부산은행은 금리인하요구 신청 2500건 가운데 1454건을 받아들였다. 이는 지역은행은 물론 전국 은행권에서도 평균을 훌쩍 뛰어넘는 수치다. 부산은행 측은 “금리인하 요구권 시스템 고도화를 통한 비대면 신청 강화, 지속적 고객 안내와 직원 교육 등으로 고객이 혜택을 누릴 수 있도록 노력하고 있다”며 “앞으로도 금융 소비자 권익보호를 위해 최선을 다하겠다”고 밝혔다.JB금융지주 자회사인 전북은행과 광주은행이 각각 48%, 44.3%로 부산은행 뒤를 이었고, DGB대구은행 35.3%, BNK경남은행 19.3% 순이다.지방은행 중 가장 낮은 수용률을 기록한 곳은 제주은행으로 689건 가운데 70건에 그쳐 10.2%를 기록했다.인터넷전문은행 가운데서는 케이뱅크의 금리인하요구권 수용률(35.7%)이 가장 높게 나타났다. 카카오뱅크는 23.4%, 토스뱅크의 경우 19.5%의 수용률을 기록했다.하지만 고금리로 고통을 겪고 있는 서민들 입장에선 여전히 문턱이 높다는 지적이 나온다. 신규로 대출을 준비 중이라면 어느 은행이 더 잘 깎아주는지 사전에 알아둘 필요가 있다는 조언이다.은행연합회 관계자는 “금리인하 요구제도는 은행의 신용등급 체계, 신용평가 모형 등에 따라 인하금리·인하금액·수용률 등에서 차이가 발생한다”며 “비대면 신청이 활성화된 경우 수용률이 상대적으로 낮아지는 등 금리운용과 관련 없는 요인도 영향을 주기 때문에 수용률뿐 아니라 다양한 정보를 함께 이용하는 게 합리적”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>서비스는 줄이고 연봉은 올리고… 카드사 임직원들 '그들만의 돈잔치'</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003792211?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>현금서비스 고금리 장사 논란 속7개사 평균 연봉 1억… 삼성 1위현대 임원성과급 68억·롯데 30억카뱅 등 인터넷銀도 연봉 1억 안팎   지난해 고금리에 따른 어려움을 이유로 고객서비스를 줄이고 신용대출 평균 금리를 법정최고금리(20%) 수준으로 올린 주요 카드사들이 임직원 연봉은 줄줄이 인상한 것으로 나타났다. 카드사 임직원 평균 연봉은 대부분 1억원을 웃돌았는데 서민들이 고금리에 허덕이는 상황에서 ‘돈 잔치’를 벌였다는 지적이 나온다.  14일 여신금융협회의 지배구조공시에 따르면 지난해 주요 7개 카드사(삼성·신한·KB국민·하나·현대·우리·롯데)의 임직원 평균 연봉은 모두 인상됐다. 삼성카드가 1억3900만원으로 평균 연봉이 가장 높았는데 전년 대비 1.5% 상승했다. 삼성카드는 올해 직원들에게 연봉의 50% 성과급을 지급해 성과급 잔치 논란이 일었다. 이어 신한카드(1억2800만원), KB국민카드(1억2700만원), 하나카드(1억1300만원), 현대카드(1억700만원) 순으로 지난해 임직원 평균 연봉이 높았다. 우리카드와 롯데카드는 지난해 각각 9800만원, 8400만원의 임직원 평균 연봉을 기록했는데 전년 대비 24.1%, 15.7% 상승해 주요 카드사 중 가장 높은 상승률을 보였다.  지난해 임원들에게 지급한 성과급 총액은 현대카드가 68억5000만원으로 가장 많았다. 롯데카드(30억5000만원), 신한카드(20억원), KB국민카드(17억3000만원) 순으로 임원들에게 많은 성과급을 챙겨줬다.  카드사들이 지난해 실적 악화를 이유로 신용카드 무이자 할부 등 고객서비스를 대폭 줄인 만큼 임금 인상, 성과급 확대에 대한 국민의 시선은 곱지 않다. 저신용자들이 급전 마련을 위해 주로 이용하는 현금서비스(단기카드대출)와 카드론(장기카드대출) 금리도 법정최고금리 수준까지 올라 고금리 장사를 했다는 비판도 피해 갈 수 없다.    지난해 말 기준 주요 카드사의 현금서비스 평균 금리는 16.88∼19.43%에 달했다.  지난해 고금리로 호실적을 거둔 인터넷전문은행 3개사(카카오·케이·토스뱅크)의 평균 연봉도 1억원 안팎 수준이었다. 각 은행의 관련 공시에 따르면 지난해 토스뱅크 임직원의 평균 연봉은 1억1900만원이었다. 2021년 평균 연봉은 6100만원이었는데, 이는 토스뱅크가 2021년 10월에 출범해 큰 차이를 보인 것으로 풀이된다.  토스뱅크는 시중은행 중 가장 높은 평균 연봉을 기록한 KB국민은행(1억1300만원)이나 우리은행(1억400만원)보다도 높은 수준으로 나타났다.  카카오뱅크는 1억4600만원을 기록했다. 은행 측은 일부 임직원의 스톡옵션 행사 차익(542억원)을 제외하면 연봉이 1억700만원 수준이라고 설명했다. 케이뱅크는 9600만원을 기록해 전년 대비 약 20% 상승했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>[단독] 대환대출플랫폼, 수수료율 최소·최댓값까지 공시한다 [머니뭐니]</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002112825?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=홍승희 기자] 오는 5월부터 시행 예정인 대환대출 플랫폼에서 플랫폼사가 입점사에 대한 수수료율의 최솟값과 최댓값을 모두 공시하는 안이 유력한 것으로 확인됐다. 대환대출 플랫폼에 뛰어든 다수 기업의 ‘완전 경쟁’을 유도하고, 그간 플랫폼사가 과도한 수수료율을 적용한다며 항의했던 입점 금융사의 불만을 잠재우기 위해서다. 대통령까지 나서 금융권의 ‘완전경쟁’을 압박하고 있는 만큼 이번엔 대환대출 플랫폼을 꼭 성공시키겠다는 당국의 강한 의지가 반영된 것으로 풀이된다.입점사 수수료율 최솟값·최댓값·금액가중평균치까지 공시7일 금융권에 따르면 금융당국은 이르면 5월부터 시행될 대환대출 플랫폼에서 플랫폼사가 입점사에 적용하는 수수료율의 최솟값과 최댓값을 모두 공시하는 것으로 가닥을 잡았다. 애초 핀테크와 금융사 사이에서는 대환대출 플랫폼이 수수료율의 평균값 정도만 공시하지 않겠냐는 예상이 지배적이었다.하지만 당국에선 이를 넘어 최솟값·최댓값 그리고 대출금액을 가중시켰을 때의 평균 수수료값까지 공시하는 방향으로 대상을 넓혔다.이처럼 공시 대상 수수료율의 범위를 넓힌 것은 대출 중개 플랫폼이 1금융권과 2금융권에 차별적인 수수료율을 부과한다는 제2금융권의 불만이 이어졌기 때문이다. 금리가 상대적으로 낮은 은행 대출상품에는 적은 수수료율을 부과하지만 금리가 높은 저축은행 및 캐피털 대출상품에는 높은 수수료율을 부과한다는 것이다.금융당국 관계자는 “오프라인상으로 대환대출할 때 플랫폼과 금융사가 개별적으로 수수료를 협상하지 않냐”며 “‘개별적 협상’이라는 원칙은 크게 바뀌지 않고 공시를 보다 구체적으로 하게 하려고 한다”고 말했다.대환대출 플랫폼은 하나의 플랫폼에서 은행, 저축은행, 캐피털 등 여러 금융사의 대출상품을 비교하고 낮은 금리로 갈아탈 수 있게 하는 비대면·원스톱 플랫폼이다. 이 플랫폼이 활성화되면 기존 대출 금융사는 차주 유출을 막기 위해, 신규대출 금융회사는 차주를 유치하기 위해 대출금리를 인하하게 된다. 금융소비자는 은행을 직접 방문하지 않고도 이자 부담을 경감할 수 있다.앞서 금융위원회는 지난 2021년부터 대환대출 플랫폼을 출범시킬 계획이었으나 은행들이 중개 수수료 문제로 플랫폼업체에 종속될 수 있다며 반기를 들어 무산됐다. 하지만 이내 금리 인상이 가팔라지면서 경쟁적으로 대출금리를 낮출 수 있는 대환대출 플랫폼이 재논의됐다. 정치권에서도 은행권의 과점을 깨기 위한 금리경쟁을 촉구하고 있다. 이에 금융당국은 오는 5월까지 반드시 대환대출 플랫폼을 출범시키겠다는 의지를 가지고 있는 것으로 전해졌다.구체적 공시로 저축은행 달래기…완전경쟁도 유도금융당국의 이번 공시 방안으로 2금융권의 불만을 상당수 잠재울 수 있을 것으로 보인다. 그간 대환대출 플랫폼 출범의 장애물로 작용했던 수수료율 공시 문제가 사라진 셈이다.금융당국 관계자는 “은행은 협상력이 높기 때문에 수수료가 적지만 저축은행은 그렇지 못해 수수료율이 높다는 불만을 제기해왔다”며 “수수료율의 최솟값과 최댓값 그리고 가중평균치까지 제공하면 플랫폼사가 실제 어느 정도의 수수료율을 부과하고 있는지 확인이 가능하다”고 설명했다.구체적인 공시가 플랫폼사 간 완전경쟁도 유도할 수 있을 것으로 보인다. 지금은 토스, 카카오페이, 핀다 등 상위 3사가 대출 중개의 90% 이상을 차지하고 있지만 신한은행을 비롯해 각종 카드사까지 플랫폼에 뛰어들면 경쟁 압력이 생겨 콧대 높은 플랫폼사들이 예전만큼 수수료를 받기는 쉽지 않을 것이라는 설명이다.대환대출 플랫폼의 구체적인 윤곽이 나타나며 핀테크사들은 발 빠르게 플랫폼 출범에 사활을 걸고 있다. 한 핀테크 관계자는 “대출 중개시장에서 토스·카카오페이의 점유율이 워낙 높아 고민이 큰 상황”이라며 “수수료율 인하와 적극적인 홍보를 계획하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2023.03.13.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>토스뱅크 “‘목돈 굴리기’로 KB증권 ‘주식계좌 개설’ 가능”</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000041561?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>한국투자증권에 이어 두 번째 제휴신규 개설 고객에 최대 2만원 혜택[제공 토스뱅크][이코노미스트 김윤주 기자] 토스뱅크는 ‘목돈 굴리기’ 서비스에서 ‘KB증권 주식계좌 개설’이 가능해 졌다고 13일 밝혔다. 주식계좌는 증권사에서 주식거래를 할 때 필요한 계좌로, 토스뱅크가 지난 해 8월 한국투자증권의 주식계좌 개설 서비스를 개시한 이후 KB증권은 토스뱅크에 입점한 두번 째 증권사가 됐다.  토스뱅크 계좌를 보유한 19세 이상의 고객이라면 토스뱅크 내에서 KB증권의 주식계좌를 개설할 수 있고, 1인 1계좌까지 개설할 수 있다. 해당 서비스는 13일 오후 12시 출시 예정이며 이후 부터 즉시 이용이 가능하다. 토스뱅크는 기존 증권사 앱에서 개설 시 필요한 여러 단계의 복잡한 절차를 간소화하고 편의성을 높였다. 주식계좌 개설은 토스뱅크 내에서 ‘목돈 굴리기’ 메뉴를 선택하고 계좌개설에 필요한 본인실명확인 절차 등을 거치면 개설이 가능하다. KB증권 신규 주식계좌 개설 고객에게는 오는 4월 말까지 최대 2만원 상당의 혜택을 제공한다. 최초 신규 주식계좌 개설 고객에게는 국내 주식 거래 시 이용 가능한 주식 쿠폰 1만원 권을 지급한다. 또, 이 주식 쿠폰을 사용하면 테슬라·애플·스타벅스·아마존·마이크로소프트 해외소수점 주식 5종을 1만원 상당으로 추가 제공한다. 국내 주식 수수료 우대 혜택도 5년간 제공된다.  토스뱅크 관계자는 “토스뱅크 ‘목돈 굴리기’ 서비스에서 국내 대형 증권사인 KB증권의 주식계좌를 쉽고 편리하게 개설할 수 있게 됐다”며 “앞으로도 다양한 증권사와의 제휴를 통해 주식계좌 개설 뿐만 아니라 더욱 다양한 투자상품을 소개할 수 있도록 계속 노력할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>인뱅, 중저신용 대출 위태위태…건전성 악화 우려 대출 중단도</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002112924?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>작년 인터넷은행 연체율 급증케이뱅크 대출 속도조절 나서케이뱅크가 지난 1월 중저신용 대출 취급을 중단한 것으로 드러났다. 최근 인터넷전문은행을 중심으로 연체율 등 건전성 악화 우려가 나오는 상황이어서 이목이 집중되고 있다. ‘중저신용자 대출 급증→연체율 악화’ 등으로 이어지면서 중저신용 대출 확대의 부작용이 수면위로 드러난 것 아니냐는 우려의 목소리도 나오고 있다.7일 은행연합회에 따르면 케이뱅크는 지난 1월 신용점수(KCB 기준) 750점 이하의 중저신용자 고객에 신용대출을 실행하지 않은 것으로 나타났다. 케이뱅크는 지난해 10월 이후 신용점수 650점 이하 고객에 대한 신용대출을 중단했는데, 올 들어 돌연 중단 범위가 750점 이하로 늘어난 것이다.이에 따라 지난 1월 케이뱅크에서 신용대출을 받은 고객의 평균 신용점수는 전 구간에 대해 대출을 실행했던 지난해 9월(888점)에 비해 30점가량 오른 917점으로 집계됐다. 같은 기간 카카오뱅크와 토스뱅크가 대출을 취급한 고객의 평균 신용점수는 800점대를 유지하며, 중저신용자 구간에 대한 대출을 지속한 것으로 나타났다.다만 케이뱅크는 지속된 중저신용자 대출 확대에 따른 일시적인 조정 현상이라고 설명했다. 케이뱅크 관계자는 “지난해 중저신용자 대출 비중을 8% 이상 올린 후, 올해도 중저신용 대출을 지속적으로 늘려나가야 하는 입장”이라며 “포트폴리오 조정 차원에서 일시적인 관리를 한 것이며, 2월부터는 다시 중저신용자 대출을 재개한 상태”라고 말했다.그러나 일각에서는 무리한 중저신용 대출 확대에 따른 부작용이 현실화한 것 아니냐는 지적이 나온다. 한 금융권 관계자는 “시중은행의 연체율도 악화되는 와중에 중저신용자 비중이 높은 인터넷은행에 부작용이 발생하는 건 필연적”이라며 “업권에서 중저신용 대출 규제를 완화해달라는 요구가 계속되는 상황, 연체율 수준이 높은 케이뱅크가 일부 중저신용 대출을 중단했다는 건 단순한 해프닝으로 여기기 힘든 문제”라고 말했다.금융당국은 2021년 5월 인터넷은행들에 중금리 대출 보급 활성화를 요구하며, 중저신용자 대출 목표치 달성 여부를 향후 신사업 인허가에 반영하겠다고 밝혔다. 이에 인터넷은행들은 중저신용자 대출 비중을 꾸준히 늘려왔다. 지난해 말 기준 케이뱅크의 중저신용자 대상 신용대출 비중은 25.1%로 전년(17%)에 비해 8.1%포인트 상승했다. 같은 기간 카카오뱅크와 토스뱅크 또한 각각 16.6%, 39%에서 25.1%, 40.4%로 중저신용 대출 비중을 늘렸다.문제는 건전성이다. 중저신용 대출 확대와 함께 인터넷은행들의 연체율은 지속적으로 악화됐다. 특히 1년 넘게 지속된 대출금리 상승에 따라 중저신용자의 상환 여력이 약화되며 연체율 상승을 부추겼다.지난해 말 케이뱅크의 연체율은 0.85%로 전년(0.41%)에 비해 두 배 이상 상승한 것으로 나타났다. 같은 기간 카카오뱅크의 연체율은 0.22%에서 0.49%로 1년 새 0.27%포인트 올랐다. 토스뱅크의 지난해 3분기 말 기준 연체율 또한 0.3%로 1분기(0.04%)에 비해 0.26%포인트 상승했다. 모두 지난해 말 기준 4대 시중은행의 평균 연체율(0.2%)을 상회하는 수치다.가중되는 건전성 우려에도 올해 인터넷은행들은 중저신용자 신용대출 취급 비중을 늘릴 계획이다. 카카오뱅크와 케이뱅크는 올해 중저신용자 대상 신용대출 비중 목표치로 지난해보다 각각 5%포인트, 7%포인트 높은 30%, 32%를 제시했다. 토스뱅크도 지난해에 비해 2%포인트 높은 44%의 목표치를 내놨다.인터넷은행들은 자체 신용평가모형(CSS) 고도화를 통해 건전성 및 부실 관리에 문제가 없다는 입장이다. 다만, 중저신용자 대출 확대에 따른 부작용은 부정하지 않았다. 인터넷은행 관계자는 “인터넷은행의 성장을 위해서는 고신용자에 대한 대출도 뒷받침이 돼야 하는데 중저신용 대출을 위해 고신용 대출을 중단하거나, 금리를 높이는 등 경쟁력 측면의 부작용이 발생하고 있다”며 “제4 인터넷은행 얘기도 나오는 상황에서, 인터넷은행의 영향력을 키우기 위해서는 관련 규제에 대한 재검토가 필요하다”고 말했다. 김광우 기자</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2023.03.01~2023.03.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.03.01~2023.03.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023.03.10.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>빅테크·핀테크가 찾는 마이데이터 업계 ‘강자’…쿠콘</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005099640?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>[사진제공=쿠콘]카카오페이, 토스, 핀다, 네이버파이낸셜 등 한국의 대표적 빅테크·핀테크들이 찾는 데이터 기업이 있다. 쿠콘(COOCON)이다.쿠콘은 2006년 불모지에 가까웠던 국내 데이터 시장에 뛰어들어 데이터를 수집하고 연결해 조직화하는 것을 서비스의 본질이자 핵심으로 삼아 노력한 결과 현재 국내 최대 비즈니스 데이터 플랫폼 기업으로 성장했다.데이터 API 분야 핵심 기술과 탄탄한 고객 인프라를 기반으로 2021년 코스닥에 상장한 쿠콘은 한국 금융데이터 사업의 개척자로 중추적인 역할을 하고 있다는 평가를 받고 있다.쿠콘은 한 발 더 나아가 베트남을 비롯한 해외시장을 노크하고 있다.-기업들의 데이터 통로이자 플랫폼쿠콘은 기업용(B2B) 금융·핀테크 소프트웨어 업체인 웹케시 내부 연구소가 2006년 분사해 설립된 관계사다.금융, 공공기관 등의 데이터를 수집해 고객사가 필요한 데이터를 API형태로 연결해 주는 B2B 데이터 플랫폼 업체다.쿠콘은 설립 이후 10년 동안 국내 500개 기관과 해외 40개 국가, 2000개 금융기관의 데이터를 활용할 수 있는 인프라를 만들었다.데이터와 자체 네트워크 구축에 집중하며 기본기를 탄탄하게 다졌다. 그 결과 현재 카드사, 증권사, 보험사 등 200여개의 금융기관과 네이버파이낸셜, 카카오페이 등의 핀테크 기업, 국민건강보험공단, 삼성전자 등 1400여개의 공공기관, 대기업, 일반 고객까지 1800개에 이르는 고객을 보유하고 있다.김종현 대표는 “기업들이 쿠콘 데이터를 통해 차별화된 서비스를 시장에 내놓으면 쿠콘, 고객사 그리고 소비자까지 편리해지게 된다”며 “이 과정을 만드는 게 쿠콘의 역할이라고 생각한다”고 말했다.김 대표는 또 “쿠콘을 B2B 회사로 규정하거나 초기 스타트업을 지원, 투자하는 일도 이와 맥을 같이 한다”며 “우리 데이터를 통해 혁신적인 서비스가 만들어지면 윈-윈할 수 있는 구조가 만들어지기 때문”이라고 설명했다.쿠콘의 임직원 수 200명 가운데 절반 이상이 개발 인력이다. 매해 신입사원을 채용하고 있으며, 이 중 개발자 직군은 50% 정도다. 웹케시그룹이 지난 6월 부산 동구에 개소한 부산IT센터에도 마이데이터 전담 조직을 두고 있다.-소프트웨어 산업 발전 유공 ‘대통령 표창’쿠콘은 지난 2022년 12월 5일 서울 엘타워에서 열린 ‘제23회 소프트웨어산업인의 날’ 기념식에서 소프트웨어 산업 발전 유공 대통령 표창을 수상했다.김 대표는 글로벌 시장의 NO.1 비즈니스 데이터 플랫폼을 목표로 하고 있다. 쿠콘은 현재 일본, 중국, 캄보디아 등에 해외법인을 두고 데이터를 연결, 수집하고 있다.이를 글로벌 데이터 허브로 활용하는 방안도 진행중이다. 전 세계 비즈니스 정보가 하나로 연결되는 이른바 ‘쿠콘 인사이드(COOCON inside)’를 노리고 있다.쿠콘은 특히 동남아 시장에 집중할 계획이다. 김 대표는 “우리나라의 다수 기업이 진출한 곳이 바로 베트남 시장이다. 한동안 동남아 시장에 집중할 생각이다”라고 밝혔다.쿠콘은 데이터 시장을 개척하며 사업실적도 최고 기록을 매년 경신하고 있다.공시 자료에 따르면 2022년 3분기 매출액과 영업이익이 163억원과 50억원으로 전년 동기 대비 8.1%와 22.4% 성장했다. 지난해에 이어 올해 사업실적도 데이터 부문을 중심으로 성장이 지속될 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023.03.06.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>'인뱅의 굴욕' 추락하는 몸값… 카뱅 2만원대·케뱅 상장 철회</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000900814?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>[머니S리포트-인뱅의 민낯③] 시중은행과 무엇이 다르지?[편집자주]혁신과 포용을 외치며 호기롭게 닻을 올렸던 인터넷전문은행이 고신용자에 이어 중·저신용자까지 시중은행보다 높은 금리를 적용하고 있다. 이자장사에만 열을 올리면서 은행권에서 메기 역할을 기대했던 금융당국 인가 취지가 퇴색됐다는 지적이다. 고금리 기조가 장기화하면서 자영업자·소상공인의 어려움도 커지고 있지만 인터넷은행마저 이들을 외면하는 모습이다. 시장은 인터넷은행이 차별화된 경쟁력을 잃었다고 판단, 몸값 가치를 하향 조정하고 있다. 혁신·포용이란 가면 아래 감춰진 인터넷은행의 민낯을 살펴봤다. ◆기사 게재 순서① 인터넷은행들의 변심… 중·저신용자한테도 '이자장사'② 인터넷은행들, 말뿐인 '포용금융'… 저신용 개인사업자는 '외면'③ '인뱅의 굴욕' 추락하는 몸값… 카뱅 2만원대·케뱅 상장 철회  인터넷은행은 2017년 등장 초기 금융권 디지털 변화를 선도하며 성장해왔다. 하지만 이후 시중은행의 빠른 디지털 전환으로 더 이상 차별성이 없다는 평가가 나오며 자리를 위협받고 있다. 성장 전망마저 좋지 않아 몸값은 갈수록 떨어지는 모습이다. 카카오뱅크 주가는 잇단 악재에 지지부진하고 코스피 시장 입성을 준비하던 케이뱅크는 상장을 철회했다.한국거래소에 따르면 카카오뱅크의 주가는 올들어 줄곧 2만원대 중반에 머물고 있다. 공모가(3만9000원) 대비 35% 이상 떨어진 수준이다. 카카오뱅크는 상장 첫날 주가가 공모가 대비 178.9%나 뛰며 당시 KB금융지주, 신한지주보다도 높은 45조원대의 시가총액을 기록하기도 했다. 하지만 이내 글로벌 경기침체의 직격탄을 맞았다. 여기에 블록딜, 카카오톡 송금 금지 등 악재까지 잇따르면서 주가는 곤두박질쳤고 현재 시가총액은 12조원대에 그치고 있다.카카오뱅크를 바라보는 증권업계의 전망은 엇갈린다. 대출 증가율과 플랫폼사업 등 카카오뱅크 성장성을 두고 견해 차이를 보이면서다. 이홍재 현대차증권 연구원은 "부동산 규제 완화 등 정책적 뒷받침과 기저 영향으로 부동산 대출은 다소 증가하겠지만 이는 이미 주가에 반영됐다"면서 "성장률 전망치가 추가로 높아질 여지는 다소 제한적이며 당장 기업의 기초체력(펀더멘털) 개선 기대감이 높지 않다"고 평가했다. 심지어 증권가에서 잘 나오지 않는 '매도' 의견을 제출한 증권사도 등장했다. 김도하 한화투자증권 연구원은 "자사주 매입 시 수급이 주가 상승 요인으로 작용할 수 있겠지만 현재의 시장가치는 원래 가치 이상 고평가된 것으로 판단한다"며 투자의견 매도를 유지했다.반면 은경완 신한투자증권 연구원은 "우려보단 기대에 더 힘을 실어야 한다"면서 "시장금리와 전반적인 경기 상황을 고려할 때 대출성장률이 늘 것이고 마진과 건전성이 모두 상향 안정화될 것"이라고 내다봤다. 김지영 교보증권 연구원은 "올해 주택담보대출과 기업금융 성장이 예상되며 플랫폼 부문에서 포트폴리오 다각화가 지속되고 있어 향후 성장성과 수익 개선이 기대된다"고 말했다.━카뱅 주가 하락에 케이뱅크 몸값도 추락… IPO '찬물'━사진=케이뱅크 제공  올해 기업공개(IPO)가 예상됐던 KT의 손자회사인 케이뱅크는 상장 계획을 철회했다. 카카오뱅크의 주가 부진 영향이 적잖다는 분석이다. 카카오뱅크 주가는 또 다른 인터넷 은행 케이뱅크의 공모가를 산정할 때 참고자료가 된다. 때문에 케이뱅크의 비교기업이었던 카카오뱅크 주가가 공모가 밑으로 크게 떨어지는 등 지지부진한 흐름을 보이면서 케이뱅크의 상장에도 영향을 미친 것이다.카카오뱅크가 실적에서 다른 시중은행과 큰 차별점을 드러내지 못하면서 인터넷전문은행에 대한 의구심이 커졌고 투자 심리까지 나빠지면서 케이뱅크는 결국 IPO를 성사하지 못했다. 은행과 수익구조가 별반 다르지 않다는 점에서 성장성에 대한 시장의 기대가 꺾인 것으로 풀이된다. 기업가치도 하락세다. 상장 준비 초기 8조원까지 언급됐던 케이뱅크의 기업가치는 4조원 수준으로 쪼그라들었다. 케이뱅크는 2021년 8월7일 서울거래 비상장에서 1만2000원에 첫 거래 됐다. 이후 같은 해 9월14일 3만2000원까지 올랐다. 이후 지난해 1월20일 기준으로 2만1500원에 거래됐고 2월 초 상장철회 발표 후 하락세를 지속하면서 2월27일 기준 케이뱅크 주가는 1만950원까지 떨어졌다.다만 케이뱅크는 시장 상황만 좋으면 언제든 IPO에 나설 예정이다. 케이뱅크 관계자는 "대내·외 시장 상황을 고려해 IPO를 지속적으로 준비해 적기에 재추진할 예정"이라고 설명했다.실적이 호조를 보이는 것도 상장을 포기할 수 없는 이유다. 케이뱅크는 2021년 순이익이 224억원을 기록, 한 해 전 적자(-1054억원)에서 흑자전환했다. 2022년에도 3분기까지 누적 순이익이 714억원을 나타내고 있다.케이뱅크는 숨 고르기를 통해 선택과 집중에 나설 예정이다. 모바일뱅킹 이용자 비중이 빠르게 확대되면서 인터넷뱅킹 서비스 중단을 결정했다. 이용자의 사용 빈도가 높지 않은 사업을 정리, 모바일 뱅킹 집중화에 나선다는 전략이다.인터넷뱅킹은 은행의 웹사이트를 기반으로 거래된다는 측면에서 앱을 활용하는 모바일뱅킹과는 다르다. 그동안 케이뱅크는 모바일뱅킹 경쟁에서 다소 뒤처져 있었다. 모바일인덱스에 따르면 1월 기준 앱 활성기기수는 케이뱅크는 129만을 기록했다. 이는 같은 인터넷은행은 토스(213만) 카카오뱅크(205만) 등과 비교해 떨어지는 수준으로 심지어 시중은행인 KB국민은행(161만) NH스마트뱅킹(152만)에도 밀린다.케이뱅크는 앞으로 토스가 뱅크·증권을 망라한 '슈퍼앱 전략', 카카오뱅크가 청소년 전용상품 출시 등을 통해 '플랫폼 비즈니스 확장'과 같은 전략으로 대응한다는 방침이다. 금융권 한 관계자는 "케이뱅크가 카카오뱅크보다 흑자 전환이 늦긴 했지만 안정적으로 이익을 내고 있고 과도한 성장을 하고 있지 않기 때문에 BIS(자기자본비율)는 방어할 수 있을 것"이라고 내다봤다. 그는 다만 "인터넷은행이 시중은행과 수익 구조에서 큰 차별점 없이 플랫폼 수익 등 비이자수익이 아니라 예대마진에서 대부분의 수익을 창출하고 있다"며 "케이뱅크가 IPO에서 제대로 된 몸값을 받기 위해선 시중은행과의 차별성을 보이는 새로운 성장 모델을 선보여야 할 것이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023.03.03.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>인뱅은 채용 활기, 핀테크는 인원감축 ‘온도차’</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002111582?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>카카오뱅크 두자릿수 개발자 채용카카오페이는 인건비 줄이는등 대조경기 침체로 정보기술(IT) 업계가 얼어붙자 핀테크와 인터넷은행 채용시장에도 희비가 엇갈리고 있다. 지난해 고금리 ‘이자장사’로 역대급 실적을 달성한 인터넷은행들은 채용에 한창이지만, 핀테크 업체들은 인원을 감축하거나 인건비를 줄이고 나섰다.3일 금융권에 따르면 카카오뱅크의 지난해 인건비는 1937억원으로 카카오페이(1750억원)를 넘어섰다. 지난 2021년에는 카카오페이의 인건비가 1700억원으로 카카오뱅크(1430억원)보다 270억원 더 높았다. 하지만 1년만에 카카오뱅크가 카카오페이를 따라잡은 것도 모자라 187억원 더 높은 인건비를 기록한 것이다.분기별로 보면 시장금리가 7~8% 수준으로 높아졌던 지난해 4분기 카카오뱅크의 인건비가 급증했다. 3개월간 사용된 인건비는 733억원으로 전년 동기(523억원) 대비 40% 올랐다. 3분기(416억원) 대비해선 76%나 증가했다. 카카오뱅크는 지난 8일 열린 컨퍼런스콜에서 인건비 급증을 우려하는 질문에 대해 “올해 채용규모는 2022년에 비해 대폭 감소할 것”이라며 “구체적으로는 3분의 1에서 40% 정도가 아닐까 생각하고 있다”고 밝히기도 했다.실제 최근 인터넷은행은 채용시장이 활기를 띄고 있다. 현재도 카카오뱅크는 두자릿수 개발자 채용을 진행 중이다.지난해 주택담보대출(주담대) 등 새로운 금융상품을 출시하며 연간 최대 실적을 달성한 카카오뱅크는 올해에도 대출상품 라인업을 더 강화할 계획이다. 이에 추가 개발자를 채용하는 것이다.케이뱅크 역시 지난해 10월부터 진행한 전 직무 채용연계형 인턴제도를 운영 중이다. 다음달 완료되는 인턴십 과정은 월 300만원의 급여로 당시 업계 최고로 입소문을 타기도 했다. 여기에 처음으로 신규 직원을 뽑기 위해 캠퍼스에 직접 찾아가는 ‘캠퍼스 리크루팅’도 진행한 것으로 전해진다. 케이뱅크 관계자는 “인터넷은행이 캠퍼스에서 직접 채용을 진행하자 대학생들도 좋은 반응을 보였다”고 말했다.반면 핀테크 업체들은 인건비부터 줄이는 등 대조적인 모습이다. 대표적으로 카카오페이의 인건비는 지난해 2분기 466억원에서 3분기 450억원, 4분기 428억원으로 꾸준히 줄었다. 지난해 4분기 인건비는 전년 동기(596억원) 대비해선 28% 감소했다.인원 감축 사례도 나타나고 있다. 토스의 경우 사내 개발팀을 개편하면서 인원을 대폭 감축한 것으로 전해졌다. 내부에선 사실상 대규모 권고사직이 일어났다며 내부 잡음이 일고 있는 상황이다. 토스 측은 토스가 사실상 권고사직을 했다며 외부에 제보한 특정 직원에 대해 “아직 회사 구성원이기 때문에 조심스럽다”고 설명했다.홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023.03.15.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>아르헨, 2월 인플레율 102.5%...32년 만에 최고</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004981678?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스]   중남미 농축산물 수출 대국 아르헨티나가 심각한 가뭄 속에 지난달 물가상승률이 100%를 돌파한 것으로 14일(현지시간) 나타났다. 지난달 9일 산타페 북부 토스타도의 한 옥수수 농장이 60년 만의 최악의 가뭄으로 시들어 가고 있다. 로이터연합 중남미 아르헨티나의 2월 인플레이션(물가상승)이 100%를 돌파했다. 1991년 이후 32년 만에 최고 수준을 찍었다.   중도 좌파 정부의 경제대응이 효과를 내지 못하면서 시민들이 하이퍼인플레이션에 시달리고 있다.   파이낸셜타임스(FT) 등 외신에 따르면 아르헨티나 통계청인 인덱(INDEC)은 14일(이하 현지시간) 2월 물가가 전월비 6.6%, 전년동월비로는 102.5% 폭등했다고 발표했다.     짐바브웨·시리아 등과 함께 세 자리 수 인플레이션  1990년대 초반 하이퍼인플레이션 위기 이후 가장 가파른 물가 상승세다. 아르헨티나는 이로써 세계 최고 물가상승률을 기록한 나라 가운데 하나가 됐다.   오는 10월 22일 대통령, 의회, 주지사 선거 등 중앙·지방정부, 의회 권력을 모두 교체할 수 있는 선거를 앞두고 알베르토 페르난데스 대통령의 중도좌파 정부가 경제성과를 내려 하는 시기에 하이퍼인플레이션이라는 대형 악재가 터졌다.   여론조사에 따르면 아르헨티나 시민들은 이번 선거 최대 이슈로 인플레이션을 꼽고 있다. 그 뒤를 부패와 빈곤이 따르고 있다. 3대 이슈 모두 먹고 사는 문제와 연관이 있다.   아르헨티나의 하이퍼인플레이션은 중앙은행의 통화 증발, 우크라이나 전쟁 등이 겹친 탓이다.   아르헨티나 통화 유통량은 페르난데스 대통령 집권 첫 3년간 4배 폭증했다.   아르헨티나는 지난해 세 자리 수 물가상승률을 기록한 나라들과 어깨를 나란히 하게 됐다. 아프리카 빈국 짐바브웨, 내전과 항만 폭발 여파로 심각한 경제난을 겪는 레바논, 나라가 붕괴하고 있는 석유부국 베네수엘라, 내전으로 황폐화된 시리아와 함께 세 자리 수 인플레이션을 겪는 국가라는 오명도 함께 안게 됐다.   전망도 비관적이다.   이코노미스트들은 올해 내내 하이퍼인플레이션이 좀체 완화되지 않을 것으로 보고 있다. 또 정부의 인플레이션 대응 역시 효과를 내지 못할 것이라는 비관이 다수다.     공정가격제  아르헨티나는 하이퍼인플레이션을 잡기 위해 극단적인 대응에 나서기도 했다. '프레치오스 후스토스(Precios Justos)'라고 하는 이른바 '공정가격' 제도를 시행했다.   정부가 지난해 12월까지 1700여 재화 가격을 일시적으로 동결해 치솟는 물가를 일단 막았다. 그러나 아르헨티나 경제의 심각한 수급 불균형에 근본 원인이 있는 인플레이션을 잡는데는 역부족이었다.   2021년에도 비슷한 제도가 시행됐지만 물가를 잡는데 충분하지 않았고, 경제심리만 위축됐다.   아르헨티나는 심각한 가뭄으로 흉작이 지속되고, 주요 수출품인 농산물 수출 역시 차질을 빚으면서 하이퍼인플레이션으로 치달았다.   민간기관 분석에 따르면 2월 현재 순외환보유액이 고작 42억달러(약 5조4500억원)에 불과하다.   구제금융을 지원하고 있는 국제통화기금(IMF)은 440억달러 구제금융 프로그램을 지속하려면 아르헨티나가 인플레이션을 잡을 효과적인 대책을 내놔야 할 것이라고 압박하고 있다.   아르헨티나는 이달 IMF로부터 53억달러 구제금융을 지원받기로 돼 있지만 치솟는 인플레이션으로 인해 IMF 집행부가 제동을 걸 수도 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023.03.10.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>“한국 최고의 국제적 은행”…‘성장 업계주목’ SC제일은행</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005099623?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>[사진출처 = SC제일은행 홈페이지]최근 SC제일은행의 끊임없는 성장이 업계의 주목을 받고 있다. SC제일은행은 한국기업지배구조원(KCGS)이 선정하는 우수기업 대상에 3년 연속 선정, 2021년에는 단독 대상을 받았다. ESG경영에도 적극 나섰다. SC그룹은 기후변화 위기에 적극 대응하고 기업고객의 탄소중립이행을 위해 2030년까지 녹색·전환 금융에 3000억 달러를 지원할 계획이라고 밝혔다. 핀테크에 주목해 미래 성장동력도 적극 발굴하고 있다. 토스뱅크에 주주로 참여하고, 시중은행 최초로 카카오페이 인증을 추가하는 등 금융혁신에도 나섰다.SC제일은행은 지난해부터 자회사인 SC증권이 입점한 ‘복합점포’ 10곳을 출범했다. ▲도곡스위트 ▲반포WM센터 ▲방배동 ▲분당중앙 ▲압구정동 ▲영업부 ▲엘시티 ▲영통 ▲잠원동 ▲훼밀리타운 등이다. SC제일은행은 복합점포의 특성과 취지를 살려 맞춤 WM서비스와 자산구성·운용·투자자문까지 통합 관리하는 서비스 등 은행·증권 시너지 확대에 집중할 계획이다.소통을 무기로 든 국내 최장수 은행맨2015년, 글로벌 금융그룹 스탠다드차타드는 한국법인에 ‘제일’이라는 이름을 붙였다. 지금까지도 전 세계 법인 중 다른 이름을 쓰는 곳은 한국이 유일하다. SC제일은행은 2015년 박 행장이 취임한 이후 성장을 거듭했다. 그의 취임 1년 만에 외국인 은행장 재임 시 적자였던 연결 당기순이익을 흑자로 전환시켰고, 노조와의 불화도 해결됐다. 박 행장은 스탠다드차타드의 글로벌 규범과 경영방식을 국내 1위였던 제일은행의 역량과 절묘하게 결합해 시너지 효과를 이끌어냈다. 취임 당시 56조 4,317억원이었던 자산은 6년동안 86조 7,143억원으로 급증했고, 2021년 3분기 기준 누적 순이익은 2,643억원으로, 2020년 대비 44.5% 증가했다.현대카드와의 전략적 제휴, 재도약지난 2022년 4월 SC제일은행과 현대카드는 전략적 파트너십 협약을 체결, 10월 ‘SC제일은행-현대카드’를 공개했다. 업종의 경계를 뛰어넘는 비즈니스 융합과 다각적 협업을 통한 고객 확대와 편의 향상 등 시너지 효과를 극대화하는 효과를 위한 것이다.‘SC제일은행-현대카드’는 현대카드의 혜택에 SC제일은행만의 금융 혜택을 결합한 것으로 총 15종이다. 가장 눈에 띄는 대표 상품은 프리미엄 고객들을 위한 ‘SC제일은행-the Red Edition5’ 카드로 현대카드의 프리미엄 혜택 뿐만 아니라 상품 공개 기념으로 SC제일은행의 PB(프라이빗뱅킹) 서비스를 1년간 제공하는 것이 특징이다.2030년까지 3천억 투자…ESG경영 역량 확충SC제일은행은 2017년부터 ‘디지털 혁신’과 ‘자산관리 비즈니스 집중’이라는 장기 목표 아래 ESG(환경·사회·지배구조)경영 역량을 확충하고 있다. SC제일은행의 모기업인 스탠다드차타드(SC)그룹은 지난 2021년 10월 ‘오는 2030년까지 녹색·전환 금융에 3000억 달러를 지원할 계획’이라고 발표했다. 아울러 지속가능 투자 프레임워크를 통해 투자 기업의 환경, 사회, 지배구조 성과와 리스크를 체계적으로 평가해 ESG 성과가 우수한 기업이 발행한 주식과 채권을 선정하는 한편 ESG 상품을 추천하는 ESG 섹션을 따로 구성해 ESG 상품을 한 눈에 볼 수 있는 기회를 제공하고 있다.또한, SC제일은행의 모기업 SC그룹은 1997년 환경 및 사회적 리스크 전담 관리팀을 신설한 후 사회공헌활동을 펼쳐왔다. SC제일은행은 미래를 이끌 다음 세대인 청년층의 사회적 불평등 해소와 경제적 자립과 포용을 목표로 배움·성장·자립을 지원하는 교육·취업·창업역량 강화 사회공헌 프로그램들을 운영하고 있다. 또한 매년 2일의 유급 자원봉사 휴가제도를 통해 87%의 임직원이 봉사활동에 참여하고 있으며, 임직원 스스로 전국 SC제일은행 거점의 소외계층을 발굴해 봉사와 나눔을 실천하는 쉐어앤케어(Share&amp;Care) 사회공헌활동을 펼치고 있다.2022년 신년 타운홀에서 박 행장은 “4차 산업혁명, 디지털화, 핀테크 혁명, ESG(환경·책임·투명경영) 등 금융산업에 불어닥치는 급격한 변화의 바람에 적극 대응해달라”고 임직원에게 당부했으며, 실제 SC제일은행은 그의 바람대로 변화에 대응하고 있다. 2025년까지 국내 상위 3위 WM 은행이 되겠다는 목표도 세웠다. 앞으로의 SC제일은행의 변화가 기대된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>"취미로 모였다가 돈까지 번다"…진화하는 커뮤니티 플랫폼</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004816060?sid=105</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>커뮤니티 확장하는 스타트업'좋아요'가 자산이 되는 디지털 세상기업들, 이용자 유지 위해 커뮤니티 활용커뮤니티→콘텐츠→커머스로 확장오늘의집, SNS 공유로 상품 팔리면 보상MKYU, 지식 나누고 돈 버는 모델 도입다양한 커뮤니티 구축 서비스도 출시이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.#1. 버킷플레이스가 운영하는 ‘오늘의집’은 인테리어 정보 공유 커뮤니티로 시작해 전자상거래 플랫폼으로 확장했다. 최근엔 사용자가 마음에 드는 인테리어 콘텐츠를 SNS에 공유한 뒤 이 링크를 통해 24시간 내 오늘의집에서 상품이 팔리면 판매액의 1~5%를 리워드로 주는 서비스를 시작했다. 커뮤니티 활동을 하는 이용자에게 금전적 보상을 제공하는 서비스를 선보인 것이다.#2. 교육 플랫폼 MKYU가 개설한 커뮤니티 플랫폼 ‘굿짹칼리지’는 올 들어 회원들끼리 서로 지식을 나누고 돈을 벌 수 있는 사업 모델을 도입했다. 초등학교 입학 준비 같은 인생 조언부터 새벽 5시 책 읽기 챌린지, 니체 책 읽기 북클럽 등이 개설돼 1만~3만원 정도의 수강료를 받고 있다. 일정 강의를 이수한 ‘커뮤니티 리더’들이 강좌를 열 수 있다. 한 지역캠퍼스 리더는 강좌를 열어 한 달에 150만원 정도를 벌었다.커뮤니티 참여형 플랫폼이 진화하고 있다. 일반적으로 커뮤니티는 재미·정보·취향을 공유하는 사람들이 모이고 관련 콘텐츠가 만들어진 뒤 전자상거래 플랫폼으로 확장한다. 무신사, 오늘의집, 당근마켓, MKYU 등 성공 플랫폼 모두 그랬다.최근엔 한발 더 나아가 커뮤니티에서 적극적으로 활동하는 사용자에게 수익을 나눠주거나 금전 보상을 제공하는 스타트업이 늘고 있다. 충성도 높은 이용자를 유지·확보하기 위해서다.유튜브, 로블록스 등에서 돈을 버는 크리에이터를 보며 디지털 세상에선 ‘좋아요’가 자산이 될 수 있다는 인식이 확산한 영향이다. 특히 메타버스 서비스는 참여자에게 정당한 보상을 함으로써 충성도 높은 커뮤니티를 형성하는 게 중요해졌다.그래픽=이정희 기자 ○“커뮤니티 참여자 돈 벌게 한다”지역 기반 커뮤니티로 성공한 당근마켓은 이용자들이 중고 상품 판매를 통해 수익을 낼 수 있도록 한 게 플랫폼 성장을 견인했다. 2003년 신발 사진 커뮤니티에서 시작한 패션 플랫폼 무신사는 지난해 이용자들이 패션 사진을 올릴 수 있는 커뮤니티 스냅을 출시하고 매달 ‘좋아요’를 가장 많이 받은 3명에게 3만~10만원가량의 쇼핑 지원금을 주고 있다. 스냅 이용자의 플랫폼 체류 시간은 비이용자 대비 1.5배 높다. 토스뱅크는 지난해 3월 ‘매일 이자 받기’ 서비스를 선보인 이후 9개월간 270만 명의 이용자가 2000억원의 이자를 받았다.확실한 ‘충성 고객’을 확보한 팬 커뮤니티 플랫폼도 참여자에게 금전적 보상을 하기 시작했다. 하이브와 두나무의 합작사 레벨스가 개설한 블록체인 플랫폼 모먼티카는 아티스트 포토카드 형태의 ‘테이크’를 무료로 제공하며 이용자를 확보하고 있다. 동시에 이용자끼리 일종의 대체불가능토큰(NFT)인 테이크를 사고팔 수 있는 서비스를 올 1분기 선보일 예정이다.이용자들이 호스트가 돼 유료로 소모임을 열어 수익을 창출할 수 있는 커뮤니티 플랫폼도 있다. 트레바리, 넷플연가 등이 대표적이다. 김미경 MKYU 대표는 “커뮤니티에 모여 취미를 개발하든가 공부를 했다면 이걸 가지고 무언가 할 수 있는 ‘출구’가 필요하다”며 “커뮤니티 플랫폼의 ‘끝판왕’은 이용자들이 커뮤니티에서 배운 것으로 돈을 벌게 하는 것”이라고 말했다. ○커뮤니티 만들기에 힘쓰는 기업들기업들은 이용자 리텐션(유지율)을 높이고 충성고객을 확보하기 위해 기존 서비스에 커뮤니티 기능을 추가하고 있다. 콘텐츠 플랫폼 퍼블리는 직장인 커뮤니티 ‘커리어리’를 통해 성장의 발판을 마련했다. 2020년 직장인 SNS로 시작한 커리어리는 지난해 10월 개발자 커뮤니티로 전환하면서 이용자가 급증했다. 퍼블리는 커리어리에서 활동하는 직장인을 저자로 섭외하고, 퍼블리에 아티클(글)을 발행해 이익을 얻을 기회를 제공한다. 또 커리어리는 사이드 프로젝트 코너를 마련해 이용자들이 원하는 프로젝트에 참여하거나 동료를 구할 수 있도록 했다.채용 플랫폼 원티드랩은 최근 이용자들이 자유롭게 질문하고 답할 수 있는 커뮤니티를 홈페이지에 신설했다. 플랫폼을 통해 취업에 성공했거나 추천인이 채용되면 50만원의 보상금도 지급한다. 명함 앱 서비스 리멤버도 2020년 ‘리멤버 커뮤니티’를 시작하며 이용자의 충성도를 높이고 체류 시간을 늘리는 데 성공했다.정보기술(IT) 제품 관련 SNS인 디스콰이엇은 개발자들이 자신의 제품을 올리고 사용자의 피드백을 받을 수 있는 ‘프로덕트 헌트’의 한국판 커뮤니티로 꼽힌다. 지난해 11월 프리시드A 투자를 유치한 디스콰이엇은 2월 누적 사용자 33만 명, 페이지뷰 420만 회를 넘어섰다. 이 회사는 최근 기업에 커뮤니티 구축 컨설팅을 제공하는 ‘커뮤니티 빌딩 커뮤니티(CCM)’를 시작했다. 박현솔 디스콰이엇 대표는 “커뮤니티 만들기에 관심이 있는 기업의 연락이 많다”며 “신규 시장에 진출하는 ‘고투마켓(사업화)’ 전략으로 커뮤니티를 개설하는 게 하나의 트렌드로 자리잡았다”고 설명했다. ○커뮤니티 구축 서비스도 활발커뮤니티 플랫폼이 커지면서 쉽게 커뮤니티를 구축할 수 있게 해주는 서비스도 주목받고 있다. 기업용 커뮤니티 구축을 돕는 네덜란드 플랫폼 인사이디드는 최근 시리즈A 라운드에서 600만유로(약 84억원)의 투자금을 유치했다. 시장조사업체 퓨처마켓인사이트에 따르면 세계 커뮤니티 참여형 플랫폼 시장 규모는 지난해 5억3000만달러(약 7000억원)에서 2032년 23억5780만달러(약 3조1170억원)로 연평균 16.1% 성장할 전망이다.대표적인 커뮤니티 구축 솔루션은 미국 하이어로직이 운영하는 기업용 커뮤니티 관리 플랫폼 바닐라 등이 있다. 패트리온은 멤버십 후원을 통해 비디오 크리에이터, 팟캐스트 창작자의 경제적 자유를 돕는 커뮤니티 플랫폼이다. 오픈소스 코딩 방식으로 커뮤니티 구축을 돕는 디스코스, 노코딩 방식으로 온라인 강의 및 학습 커뮤니티를 쉽게 만들어주는 씽크픽 등도 있다.세계 최대 온라인 커뮤니티 레딧과 페이스북 그룹, 게임 채팅 서비스 디스코드 등에서도 무료로 커뮤니티를 구축할 수 있다. 글로벌 협업툴인 노션, 슬랙 등은 페이스북 그룹처럼 커뮤니티 구축을 지원하며 이용자를 늘리고 있다.국내에서도 커뮤니티 개설을 위한 서비스가 속속 나오고 있다. 비마이프렌즈는 팬덤이 있는 연예인이나 마케팅이 필요한 브랜드가 직접 커뮤니티 플랫폼을 조성하고 운영할 수 있도록 솔루션을 제공한다. 프로게이머 페이커가 속해 있는 e스포츠팀 T1과 가수 김성규 등이 비마이프렌즈를 통해 자체 커뮤니티를 조성해 팬들과 소통하고 있다. 캔(커뮤니티 얼라이언스 네트워크)은 클라우드 기반의 서비스형 소프트웨어(SaaS) 형태로 탈중앙화조직(DAO) 같은 ‘웹3.0 커뮤니티’ 솔루션을 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>[fn마켓워치] 국내 벤처기업들, '글로벌 AI 콘텐츠 플랫폼'에 투자</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004978087?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 국내 벤처투자기업들이 글로벌 AI 콘텐츠 플랫폼을 개발 중인 스타트업에 투자했다.   7일 투자은행(IB) 업계에 따르면 베이스인베스트먼트, 패스트벤처스, 굿워터캐피탈은 팀러너스에 20억원을 투자했다.   팀러너스는 토스 초기 멤버이자 ‘송금지원금’ 등의 그로스 제품을 개발해 토스의 1000만 MAU(월간 활성 사용자수)를 만든 정승진 대표가 토스 및 카이스트 동료들과 설립했다. 정 대표는 토스에 서버 엔지니어로 입사해 데이터 분석, PO(프로덕트 오너), 해외법인 리더를 거치며 수백만 단위 유저 및 수백억 단위 매출 성장을 만들었다.   팀러너스는 AI가 생산자인 콘텐츠 플랫폼을 개발하고 있다. 기술의 발전에 따라 AI 인플루언서가 만드는 글, 사진, 동영상 등의 콘텐츠가 사람이 만드는 것보다 더 흥미로워질 것이라는 것이 팀의 핵심 가설로, 지난 2개월간 ‘피카부’ 등 4개의 AI 서비스를 론칭했다.   양형준 베이스인베스트먼트 수석팀장은 “팀러너스는 '가설-실험-배움-성장’으로 대변되는 스타트업 성장 방정식의 표본과도 같은 회사”라며 “AI 영역에서도 이 성장 공식을 가장 빠르게 반복해내며 문제를 해결해나갈 수 있는 팀러너스가 글로벌에서 큰 가치를 만들어낼 것”으로 기대했다.   정승진 팀러너스 대표는 “제품 개발이 어렵고 선례도 없는 영역이지만 1억명이 쓰는 새로운 서비스를 만들 수 있다고 생각한다. 프로덕트 마켓 핏을 찾는 일, 주 단위로 발전하는 기술을 이해하고 프로덕션에 안정적으로 적용하는 일을 동시에 하고 있다”며 “팀러너스는 리서처, ML 엔지니어, 앱/웹 제품팀이 하나의 스쿼드로 일하고 있고, 그 결과 2주에 1개씩 제품을 론칭할 수 있었다. 세계 최고의 AI 제품팀을 만들 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>[속보] 그리스서 기차 2대 충돌…16명 사망, 85명 부상</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005095302?sid=104</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>그리스에서 기차 2대가 충돌해 16명이 사망하고 85명이 다치는 사고가 발생했다. [사진 = 연합뉴스]그리스 중부에서 28일(현지시간) 밤 열차 2대가 충돌해 최소 16명이 사망하고 85명이 다쳤다고 현지 경찰과 소방 당국이 밝혔다.로이터 통신에 따르면 이날 그리스 중부 테살리주 라리사 인근에서 여객 열차와 화물차가 충돌해 차량 여러 칸이 탈선하고 최소 3칸에 불이 붙었다.이 사고로 현재까지 최소 16명이 사망하고 85명이 다쳤다.코스타스 아고라스토스 테살리주 주지사는 국영TV와의 인터뷰에서 “매우 강력한 충돌이이었다. 끔찍한 밤이다”며 “현장 상황을 설명하기 어렵다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>[게시판] 행안부, 당근마켓·토스와 워크스마트포럼</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013812753?sid=102</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 세종시 정부세종청사 중앙동 신청사에 입주한 행정안전부 모습. 2023.3.2 [행정안전부 제공. 재판매 및 DB 금지] photo@yna.co.kr▲ 이용자 수요에 민첩하게 부응하고 조직을 유연하게 운영하는 '애자일(Agile) 혁신'이 주목받는 가운데 정부와 기업이 애자일 혁신의 경험을 공유하고 성공전략을 논의하는 자리가 마련된다. 행정안전부는 14일 정부세종청사에서 '애자일 혁신, 조직의 성공 전략'을 주제로 제23회 워크스마트포럼을 개최한다. 이번 포럼에는 중앙부처, 지자체, 공공기관의 정부혁신 담당자 70여 명이 참석하며, 행안부와 당근마켓, 토스, 우리은행의 발표가 진행된다. 워크스마트포럼은 공공부문과 기업, 단체, 학계가 만나 일하는 방식 개선을 위한 아이디어를 공유하고 개선방안을 논의하는 자리다. (서울=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>토스증권, 1980년생 김승연 신임 대표 선임… ‘틱톡’ 출신 마케팅 전문가</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000884934?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>김승연 토스증권 차기 대표 내정자./토스증권 제공        토스가 토스증권 차기 대표에 중국 영상공유 플랫폼 ‘틱톡’의 김승연 동남아시아 비즈니스솔루션 GM(제너럴 매니저·총괄)을 내정했다.13일 토스증권은 홈페이지에 공시한 주주총회소집 결의에서 김 내정자를 이달 30일 예정된 주주총회에서 대표 이사로 신규 선임하는 안건을 올리겠다고 밝혔다.1980년생인 김 내정자는 미국 국적자로, 카이스트 바이오 및 뇌공학과를 석사 졸업하고 미탭스 플러스 최고경영자(CEO), 틱톡 코리아 GM을 거쳐 현재 틱톡의 동남아시아 GM으로 재직 중이다. 신규 대표의 임기는 2년이다.김 내정자가 신규 선임된다면 지난해 7월 대표로 선임된 오창훈 현 토스증권 대표는 CTO(최고기술책임자) 자리로 돌아갈 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>[단독]머지포인트 '연간권' 유효기간 만료…결국 휴지조각행</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003082745?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>18만원 연간권 구입시 현금성 포인트 23만원캐시백 지급 약속 파기…소액 이유로 보상 제외소비자 환불조치·유효기간 연장도 거부'머지포인트 사태'를 유발한 머지플러스가 포인트와 별도로 판매하던 연간권을 유효기간 만료를 이유로 소멸시킨 것으로 확인됐다. 애초 지급하기로 한 캐시백을 지급하지 않은 상태에서 환불 조치도 거부하고, 소비자들이 요구한 유효기간 연장도 받아들이지 않은 것이다.7일 업계에 따르면 머지플러스가 지난 2021년 7월 집중 판매한 연간권 상당수가 유효기간 만료를 맞아 소멸됐다. 1인당 피해 금액이 '머지머니'에 비해 소액이라는 이유로 피해 보상에서도 제외됐다.연간권은 머지플러스가 사업을 중단한 2021년 8월 직전에 대량 판매한 상품이다. 18만원 상당의 연간권을 구입하면 현금성 포인트를 총 23만원으로 돌려준다. 큰 인기를 끌었다.원금에 상응하는 금액을 토스포인트·페이코포인트·하나머니로 매월 1만5000원을 100% 돌려주고, 여기에 받는 즉시 현금으로 인출 가능한 구독지원금 5만원을 더 얹어 주는 방식이다. 연간권 소지자에게는 제휴점 결제 시 상시 20% 할인 혜택을 제공하기로 했다.머지플러스 측은 이 연간권 사업이 포인트 할인 판매로 누적된 사업 적자를 해소할 수 있는 아이템이라고 주장해 왔다. 20% 할인에 따르는 비용 부담은 제휴점에 떠넘기고 구독권 판매를 통해 확보한 매출을 적자 보전에 활용하는 것으로 사업 형태를 전환하려 했기 때문이다.많게는 10년치 이상 구독권을 결제한 이용자도 있다. 이 경우 머지플러스는 고객 한 명에게서만 선수금으로 180만원을 확보하게 된다. 머지플러스가 이들에게 지급할 캐시백 총 230만원은 후속 연간권 고객을 지속 유치해서 자금을 돌려막는 방식의 폰지를 기획한 것으로 분석된다.머지플러스는 머지 사태 당시에도 포인트 예치금인 '머지머니'와 달리 연간권 환불은 사실상 거부해 왔다. 캐시백 지급이 정상적으로 이뤄지고 있다며 연간권 이용자들에게 환불 철회를 유도한 뒤 모든 환불 접수를 중단했다.캐시백 지급은 머지플러스가 제휴처에 대금 지급을 중단함으로써 판매 직후 2개월 만에 끊겼다. '분산된 지급일을 통합하겠다'는 핑계를 대고 연말에 통합 정산하기로 했지만 이 약속 또한 지켜지지 않았다. 일부 환불 사례가 존재하는 머지머니와 달리 연간권 환불을 받은 이용자는 지금까지 한 명도 없는 것으로 알려졌다.머지플러스는 올해 1월부터 오프라인 제휴처 영업을 재개하며 이용자들의 포인트 소진을 유도하고 있다. 연간권 이용자에게도 캐시백 대신 '머지코인'을 한 차례 지급한 바 있지만 현금결제 병행을 유도하며 피해자에게 물건값을 바가지 씌운다는 비판이 이어졌다.한 머지플러스 연간권 피해자는 “아무런 혜택도 없고 환불도 못 받고, 머지플러스가 버티기만 해도 이기는 시간 싸움에 피해자들이 지쳐가고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>지난해 인터넷뱅킹 이용액 76조…역대최대</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011727434?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>기사내용 요약인터넷 뱅킹 등록 고객 2억명 돌파 *재판매 및 DB 금지[서울=뉴시스] 류난영 기자 = 케이뱅크와 카카오뱅크 등 인터넷전문은행의 영향으로 금융권 비대면 거래가 활성화 되면서 지난해 PC, 스마트폰 등을 활용한 인터넷뱅킹 일평균 이용금액이 76조원 돌파해 역대 최대를 기록했다. 모바일뱅킹을 포함한 인터넷뱅킹 등록 고객수도 처음으로 2억명을 넘어섰다.한국은행이 7일 발표한 ‘2022년중 국내은행 인터넷뱅킹 서비스 이용현황’에 따르면 지난해 19개 국내은행과 우체국 예금 고객 기준 인터넷뱅킹 일평균 이용금액과 이용건수는 각각 76조6000억원, 1971만건으로 전년대비 각각 8.2%, 13.8% 늘어났다. 이는 지난 2006년 관련 통계 작성 이후 역대 최대 수준이다.이 가운데 모바일뱅킹 일평균 이용금액과 이용건수는 전년 대비 각각 10.3%, 17.3% 증가한 14조2000억원, 1684만건으로 집계됐.이에 따라 전체 인터넷뱅킹 이용실적 중 모바일뱅킹이 차지하는 비중은 이용금액 기준 18.6%, 이용건수 기준 85.4%로 나타났다. 인터넷뱅킹 이용실적에서 모바일뱅킹 이용건수 비중이 85%를 넘어선 것은 이번이 처음이다.인터넷뱅킹을 통한 비대면 대출신청서비스 일평균 이용금액은 1조1684억원으로 전년대비 54.9% 급증했고, 이용건수도 3만5000건으로 13.5% 늘어나는 등 확대됐다.한은은 "케이뱅크, 카카오뱅크, 토스뱅크 등 인터넷전문은행들의 신용대출 재개, 비대면 주택담보대출 출시 등에 주로 기인했다"고 말했다.[서울=뉴시스] 7일 한국은행에 따르면 지난해 인터넷뱅킹 일평균 이용금액과 이용건수는 각각 76조6000억원, 1971만건으로 전년대비 각각 8.2%, 13.8% 늘어났다. 모바일뱅킹이 차지하는 비중은 이용금액 기준 18.6%, 이용건수 기준 85.4%로 나타났다. (그래픽=안지혜 기자)  hokma@newsis.com전체 인터넷뱅킹 등록 고객수는 2억704만명으로 전년말대비 8.5% 증가했다. 인터넷뱅킹 등록 고객수가 2억명을 넘어선 것은 이번이 처음이다. 모바일뱅킹 등록 고객수는 10.3% 늘어난 1억6922만명으로 최고치를 기록했다.지난해 금융서비스 전달채널 가운데 인터넷뱅킹을 통해 입출금·자금이체서비스를 이용한 비중은 77.7%로 1년 전 보다 3.0%포인트 늘었다. 이는 역대 최고 수준이다.반면 은행 창구를 통해 입출금·자금이체서비스를 이용한 비중은 5.5%로 전년(5.8%) 보다 줄었다. CD(현금지급기)·ATM은 14.2%로 전년(16.0%) 보다 줄었고, 텔레뱅킹도 2.6%로 전년(3.5%) 보다 감소했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>[저녁잇슈] 2023년 3월 14일 화요일</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013813772?sid=103</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>● 尹대통령 1박2일 방일    윤석열 대통령이 오는 16~17일 일본을 방문해 기시다 후미오 일본 총리와 정상회담을 합니다.     ● '주69시간' 근로 보완되나     윤석열 대통령이 근로시간 제도 개편 방안에 대한 보완 검토를 지시한 것은 청년층을 중심으로 장시간 근로로 돌아가는 것 아니냐는 부정적인 여론이 확산하는 것을 차단하기 위한 것으로 풀이됩니다. ● "한일 정상, 도쿄서 두차례 만찬"    윤석열 대통령과 기시다 후미오 일본 총리가 오는 16일 도쿄에서 정상회담을 한 뒤 번화가인 긴자의 노포 두 곳에서 연이어 만찬을 할 예정이라고 요미우리신문이 보도했습니다. ● 삼성반도체 공장에서 휴대전화 절도 빈번    고덕산단 내 삼성반도체 공장 내외부에서 휴대전화 절도 사건이 빈번하게 발생하고 있어 근로자들이 불편을 겪고 있습니다. ● 서울 아이 둘 이상이면 공영주차장 반값    서울에 거주하는 두 자녀 이상 가구는 27일부터 공영주차장을 반값에 사용할 수 있게 됩니다. ● 내일 낮 최고 20도     수요일인 15일은 낮 최고기온 20도를 오르내리는 포근함 속에 경기 북·동부와 강원 영서 중·북부에는 오전부터 비가 내리겠습니다. ● 인터넷 은행 평균연봉 1억원    지난해 인터넷 전문은행 3개사(카카오·케이·토스뱅크)의 평균 연봉이 1억원 안팎 수준으로 집계됐습니다. ● 학교 급식종사자 31명 폐암     14개 시·도 교육청의 학교 급식 종사자 2만여명을 검진한 결과 31명이 폐암을 확진 받은 것으로 확인됐습니다. ● 중국산 골프화, 국산이라 속인 데상트     데상트코리아가 중국산 골프화를 국산으로 표기해 팔았다가 공정거래위원회 제재를 받았습니다. ● 'SVB발 위기설' 美은행 "뱅크런 없다"    미국 실리콘밸리은행(SVB) 파산 이후 최악의 시나리오로 꼽힌 다른 중소은행들의 연쇄 뱅크런(자금 대량 인출 사태) 가능성이 당국의 신속한 대책 등에 힘입어 일단 가라앉는 분위기입니다. ● '더 글로리' 세계 1위    송혜교 주연의 학교폭력 복수극 '더 글로리'가 파트 2 공개 사흘만에 넷플릭스 TV 프로그램 부문 전 세계 1위에 올랐습니다. (서울=연합뉴스) 박성은 기자 최민영 크리에이터     junepen@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>그리스서 열차 2대 정면충돌…32명 사망·85명 부상(종합2보)</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011717637?sid=104</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>기사내용 요약여객열차와 화물열차 정면 충돌여러 량 탈선…최소 3량서 화재사고 현장 '아비규환'…"비극적"아테네發 여객열차에 350여명 탑승중장비·군 동원해 화재진압·구조 중[템페=AP/뉴시스] 1일 새벽(현지시간) 그리스 수도 아테네 북쪽 템페 인근에서 화물열차와 여객열차가 충돌, 탈선과 화재가 발생해 소방관과 구조대원들이 구조작업을 하고 있다. 2023.03.01.[서울=뉴시스]신정원 기자 = 28일(현지시간) 그리스 북부에서 열차 2대가 충돌해 최소 32명이 숨지고 85명이 다쳤다고 현지 경찰과 소방당국이 밝혔다.AP통신, BBC 등 외신들에 따르면 이날 자정 직전 그리스 수도 아테네 북쪽으로 380㎞ 떨어진 중부 템페 인근에서 여객열차가 마주오던 화물열차와 정면 충돌해 열차 여러 량이 탈선하고 최소 3량에서 화재가 발생했다.사망자는 계속 늘어 32명이 됐다. 부상자도 85명 이상이라고 현지 소방당국은 밝혔다.인근 라리사시 병원 관계자는 부상자 중 최소 25명이 중상이라고 말했다.열차는 테살리아와 마케도니아를 가르는 협곡인 템페 계곡 직전 고속으로 정면 충돌했다. 코스타스 아고라스토스 테살리아주지사는 "1호차와 2호차는 더 이상 존재하지 않으며, 3호차는 탈선했다"고 말했다.아테네에서 테살로니키로 향하는 여객 열차엔 350여 명이 탑승하고 있었다고 철도회사는 밝혔다. 경미한 부상을 입거나 다행히 다치지 않은 승객들은 버스를 타고 사고 현장에서 북쪽으로 130㎞ 떨어진 테살로니키로 이동했다.[템페=AP/뉴시스] 1일 새벽(현지시간) 그리스 수도 아테네 북쪽 템피 인근에서 화물열차와 여객열차가 충돌, 탈선과 화재가 발생해 소방관과 구조대원들이 구조작업을 하고 있다. 2023.03.01.사고 현장은 아수라장이다. 현지 뉴스사이트에 게재된 영상에선 탈선한 열차가 화염에 휩싸이고 짙은 연기 기둥이 피어오르는 것이 보인다. 소방당국은 소방차 수십 대가 출동해 화재를 진압하고 있다고 밝혔다. 또 구급차 40대가 출동했고 소방관 150여 명이 현장에 있다고 말했다.헤드램프를 착용한 구조대원들은 짙은 연기 속에서 사람들을 구조하기 위해 고군분투하고 있다. 구조 작업을 위해 군도 파견했다.소방당국은 "열차 2대가 심각하게 충돌했다"며 "매우 어려운 상황에서 대피 작업이 진행 중"이라고 설명했다.아고라스토스 주지사는 국영TV 인터뷰에서 "매우 강력한 충돌이었다"며 "끔찍한 저녁이다. 현장을 묘사하는 것조차 어렵다"고 말했다. 이어 "열차 앞부분이 박살났다"며 "특수 인양 장비를 동원해 잔해를 치우고 철도 차량을 들어 올리고 있다. 탈선 지점 곳곳에 잔해가 널려 있다"고 덧붙였다.10대 생존자는 기자들에게 "충돌 직전 강한 제동이 느껴졌고 불꽃이 튄 뒤 갑자기 열차가 멈춰섰다"고 진술했다. 그는 "우리가 탄 4호차는 레일을 벗어나지 않았지만 앞에 있던 칸은 탈선해 박살났다"면서 "1호차에 불이 불었고 우린 가방으로 유리창을 깨고 탈출했다"고 긴박했던 당시 상황을 설명했다.대피한 한 청년은 "열차 안에서 사람들이 공포에 질려 비명을 질렀다"고 분위기를 전했다.한 구조대원은 AFP 통신 인터뷰에서 "평생 이런 건 본 적이 없다"며 "비극적"이라고 말했다. 지친 듯 보이는 이 구조대원은 "우리는 마지막 사람을 찾을 때까지 밤샘 구조 작업을 계속할 것"이라고 밝혔다.충돌 원인은 아직 밝혀지지 않았다. 철도 관계자 2명이 경찰 조사를 받았지만 체포되진 않았다고 AP통신은 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023.03.02.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>쿼타랩, “비상장자산의 디지털화로 비상장금융인프라 선도”</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005095860?sid=105</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>스타트업과 투자자에게 필요한 증권관리, 포트폴리오 관리 및 문서 작업와 커뮤니케이션 플랫폼 ‘쿼타북’ 개발고객 편의성과 보안성 높여“비상장자산의 자산화를 위해 노력” 쿼타랩 최동현 대표“비상장 자산의 디지털화, 나아가 비상장금융인프라를 구축하는 게 목표다.”강남 소재 쿼타랩 사무실에서 만난 최동현 대표는 이렇게 포부를 밝혔다. 최 대표는 “전자증권으로 관리되는 상장 자산처럼 비상장자산의 디지털화 역시 중요하다. 모든 자산은 발행 및 관리, 소유, 유동화 과정을 겪는데, 이 과정에서 번거로운 일이 많이 발생하며 특히 자산 매매 과정에서 확인해야 할 것이 많다. 자산의 디지털화가 필요한 이유다.”라고 강조했다.대부분의 스타트업은 비통일주권(계좌이체가 불가능한 주식이라 예탁이 불가능하고 매수자, 매도자가 직접 거래해야 하는 주식)을 발행한다. 그렇기 때문에 스타트업은 자산을 관리하기도 힘들고 자산 변동에 따른 반복적인 문서 작업에도 애를 먹는다. 투자자도 마찬가지다. 투자 포트폴리오의 자산 내역을 일일이 확인하기도 힘들고 자산 변동에 따른 수익률도 보기 어렵다. 쿼타랩은 이와 같은 문제를 해결하기 위해 비상장주식 관리 플랫폼 ‘쿼타북’을 개발했다.최근 스타트업의 투자 시장이 위축되고 있지만 최 대표는 시장을 밝게 전망하고 있다. 최 대표는 “스타트업 시장은 커질 것이다. 투자금액, 결성 편드, VC, AC, CVC, 개인투자조합 등이 많이 생기고 있다. 투자자들은 어떤 형태로든 자산 관리를 해야 한다. 늘어나는 자산을 관리팀이 맡기에는 힘들어지고 있어 디지털화가 필요하다. 특히 투자자수도 늘고 스톡옵션 발행도 늘면서 주주명부가 복잡해지고 있다는 점에서 스타트업의 니즈도 크다”라고 시장 전망을 밝게 봤다. 쿼타북 서비스 이미지증권관리와 포트폴리오 관리를 쉽게...투자유치와 투자집행에 판단 자료로 활용‘쿼타북‘으로 주식의 종류, 주식 유형, 수량, 주당 단가, 취득일을 주주별로 관리할 수 있다. 스톡옵션뿐만 아니라 RSU(양도제한조건부주식), SAFE, Convertible Note, 신주인수권부 사채 등 향후 주식으로 전환되는 모든 증권을 포함한다.특히 스타트업에서는 우수한 인력을 유치하기 위해 스톡옵션를 부여하는 일이 많다. 스톡옵션 부여, 스톡옵션 보유자의 퇴사, 스톡옵션 행사 등 스톡옵션에 따른 주주명부의 변동이 생기는데 그때마다 주주명부가 자동으로 정리된다.투자자는 피투자기관의 주주명부를 실시간으로 확인할 수 있다. 피투자기관이 신규 주식을 업데이트하면 이에 따른 수익률도 자동으로 계산된다. 엑셀로 포트폴리오를 관리하다보면 정확한 수익률을 계산할 수 없는데, 쿼타북은 증권변동을 실시간으로 반영하기 때문에 멀티플, IRR, ROI 등을 정확하게 계산할 수가 있다.엑셀로 관리하다보면 증권변동의 히스토리가 남지 않는다. 스타트업은 유상증자, 구주거래, 액면분할, 무상증자, 각종 옵션 행사 등으로, 투자자는 부분 회수, 추가 투자 등으로 증권변동이 생기는데, 그에 따른 증권 변동의 히스토리를 모두 확인할 수 있다.스타트업은 신규 투자 조건에 따라 각 주주별로 지분율 변동을 한 눈에 파악할 수 있기 때문에 투자유치 결정에 쿼타북 플랫폼을 활용할 수 있다. 투자자는 증권변동 상황을 정확히 파악함으로써 투자 계획을 면밀하게 세우고 투자를 집행할 수 있다.문서생성, 통지, 전자동의를 한번에주식회사는 상법과 투자계약 상 의무에 의해서 주주의 동의를 받아야 하는 경우가 많다. 정기주주총회 개최, 본점 타관 이전, 임원의 선임, 임원의 해임, 유상증자 등을 위해 임시주주총회를 개최해야 하는데, 이 과정에서 주주전원의 서면결의서, 서면결의에 대한 주주 전원의 동의서, 기간단축동의서 등이 필요하다.쿼타북으로 각종 동의서,확인서 등을 간단하게 처리할 수가 있다. 필요한 문서를 자동 생성해서 주주 이메일로 한번에 문서를 발송하고 전자동의까지 한번에 처리할 수가 있다. 의결 내역이나 의사록도 자동으로 생성 가능하다. 스톡옵션 부여 시 주주사전동의, 주총과 이사회 결의, 스톡옵션 계약과 전자 날인(이름, 옵션 수량, 행사가 등 정보를 입력하면 자동으로 계약서가 생성) 등 스톡옵션에 필요한 문서 작업도 쿼타북에서 한번에 가능하다.문서를 만들고 모든 주주에게 주주별로 따로 통지해서 문서 날인을 받으려면 많은 시간이 소요되는데 쿼타북으로 이러한 과정을 대폭 줄일 수가 있다.투자자는 피투자기관에 영업보고도 쉽게 요청 가능하다. 쿼타북의 템플릿 문서를 선택하고 자료 기준일을 선택하기만 하면 된다.스타트업과 투자자가 함께 사용하는 플랫폼쿼타북은 스타트업과 투자자가 함께 사용할 때 시너지가 나는 서비스다. 실제 스타트업과 투자자가 같이 가입된 비율이 높다는 게 쿼타랩 측의 설명이다. 주주명부 열람, 문서 확인 시 따로 연락할 필요 없이 쿼타북에서 확인할 수 있기 때문이다. 최 대표는 “투자사와 스타트업이 서로 쿼타북 사용을 추천하는 경우가 많다. 투자자나 스타트업 모두 서로 사용할 때 그만큼 편하기 때문이다.”라고 말했다.최 대표는 “쿼타북은 투자자와 스타트업이 같이 사용하는 것을 전제로 해서 설계했다. 스탠드얼론으로도 이용이 가능하지만 투자자와 스타트업이 같이 사용할 때 편의성이 극대화된다. 투자자와 스타트업이 모두 사용하기 위해 스타트업과 투자자가 원하는 기능을 최대한 넣었다. 펀드 관리, 출자 배분, 조합 총회, 투자 회수, LP 보고는 쿼타북밖에 없다. 최근에 런칭한 RSU 역시 쿼타북이 먼저 도입한 것이다. 방대한 접점이 있다보니 투자자, 스타트업 모두 사용하게 됐다. 비상장자산의 표준화를 위해 먼저 도입한 것이다.”라고 말했다.스타트업-투자자 플랫폼을 강화하기 위한 또 하나의 플랫폼이 ‘쿼타스페이스’다. 쿼타스페이스는 투자자와 스타트업 간의 커뮤니케이션 전문 플랫폼이다. 최 대표는 “투자자와 스타트업 간에 커뮤니케이션 툴이 파편화 되어 있었다. 주주마다 따로 채널을 써왔다. 스타트업과 투자자 간의 커뮤니케이션을 도울 전문적인 서비스가 필요하다고 생각해 개발했다.”라고 쿼타스페이스 개발 배경에 대해 설명했다.고객 편의성과 보안성 높여쿼타북에서 관리되고 있는 비상장 증권의 가치는 총 40조 원이다. 토스, 당근마켓, 오늘의집, 직방 등 국내 유니콘 스타트업을 포함하여 총 3,000여 개의 기업이 쿼타북에서 주주명부와 스톡옵션 등을 관리하고 있다. 해외 기업 11개국을 포함하면 총 4,200여 기업이 사용하고 있다.이렇게 많은 기업이 사용하고 있는 것에 대해 최 대표는 고객 편의와 보안성이라고 강조했다.  최 대표는 “고객의 편의가 가장 중요하다. 그래서 기능도 간단명료하게 했다. 증권관리가 어려운 내용이 많은데 그러한 내용에 대해서는 따로 교육을 진행하고 있다.”라고 말했다. 쿼타랩은 ‘스톡옵션 마스터 과정‘, 주총 웨비나 등 다양한 교육과 행사를 진행하고 있다. 쿼타랩은 IR 관련, 투자 계약서 관련, 세무 관련 내용, 주주 관리 입장에서 VC과의 관계 등 앞으로 다양한 교육을 진행할 계획이다.고객 편의와 더불어 쿼타랩이 중요하게 생각하는 것은 보안이다. 증권 정보는 기업의 비밀 정보기 때문에 보안이 중요하다는 게 최 대표의 생각이다. 최 대표는 “회사 정보를 믿고 올리는 것이기 때문에 보안을 철저히 해야 한다. 쿼타랩은 정보의 암호화(비식별), 권한의 세부화, 로그의 관리, 내부의 전산망의 권한 분리 등을 통해 보안을 강화하고 있다.”라고 말했다.“비상장자산을 자산으로 인정받기 위해 노력”쿼타랩은 고객을 넓히고 서비스를 안정화 한 후에 비상장자산의 유동화를 돕는 플랫폼으로 발전할 계획이다. 최 대표는 “비상장자산이 점점 더 자산으로서의 가치로 인정받고 있다. 스타트업의 주식을 가지는 있는 것이 의미있는 일이 되어야 한다. 상장주식의 경우는 주식담보대출이 있다. 마찬가지로 비상장주식도 대출서비스나 매매를 통한 회수가 이루어져 자산으로서 인정 받도록 하고 싶다”라고 쿼타랩의 비전을 밝혔다.최동현 대표는 금융과 이커머스에서 개발자로 경력을 쌓고 후 VC에서 투자 심사역으로 지내다 증권 관리의 필요성을 느끼고 2019년 8월에 쿼타랩을 창업했다. 인터뷰 중 쿼타북을 설명하고 있는 최동현 대표</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023.03.02.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>인뱅 중저신용대출↑, 건전성↓…정부 '의무공급' 개선 검토</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004857044?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>[금융당국, 5대 은행 '과점' 해소 효과도 기대]인터넷전문은행의 중·저신용자 신용대출 공급 규모가 지난해 크게 늘었다. 인터넷은행 설립 취지에 부합하지만 금리 상승기와 맞물려 건전성에 경고등이 켜졌다. 금융당국은 공급 의무 비중 등에 대한 조정을 검토하기로 했다. 5대 은행 중심의 '과점'을 깨는 데 도움이 될 수 있다는 판단도 깔려 있다.━일제히 중·저신용자 대출 늘린 인터넷은행들━1일 금융권에 따르면 지난해 카카오뱅크, 케이뱅크의 중·저신용자 신용대출 공급 규모는 각각 2조5975억원, 2조265억원으로 나타났다. 전년 대비 공급 규모는 △카카오뱅크 51.3% △케이뱅크 169.9% 증가했다. 토스뱅크는 지난 2021년 10월 출범 이후 중·저신용자 신용대출을 약 3조9000억원 취급했다.전체 가계대출 가운데 중·저신용자 대상 신용대출의 비중도 일제히 상승했다. 은행연합회에 따르면 카카오뱅크, 케이뱅크, 토스뱅크의 지난해 말 중·저신용자 신용대출 비중은 전년 동기 대비 8.4%포인트(p), 8.5%p, 16.47%p씩 상승했다. 각 은행의 지난해 말 중·저신용자 신용대출 비중은 25.4%, 25.1%, 40.37%다.지난 2021년 인터넷은행들이 중·저신용자 신용대출에 소홀했다고 금융당국이 지적한 데 따른 결과다. 당시 인터넷은행 3사는 중·저신용자 신용대출 공급 목표치를 모두 달성하지 못했다. 카카오뱅크에 대해선 고신용자 대상 신용대출에 더 집중하고 있다는 지적까지 제기됐다. ━부실 위험도 동반 상승━중·저신용자에 대한 자금 지원 역할을 충실히 수행한 셈이지만 부실 위험은 예상보다 커졌다. 금리가 가파르게 올라서다. 기준금리는 지난 2021년 7월 연 0.5%에서 3.5%로 1년6개월 만에 3.0%p 올랐다. 중·저신용자들은 대출 실행 시 책정되는 금리가 애초에 높아 금리 상승에 더욱 취약하다.실제 은행권 전반적으로 연체율이 오른 가운데 인터넷은행의 상승폭이 두드러졌다. 카카오뱅크, 케이뱅크, 토스뱅크의 지난해 말 연체율은 0.49%, 0.67%, 0.30%로, 전년 동기 대비 각각 0.23%p, 0.19%p, 0.26%p 상승했다. KB국민·신한·하나·우리·NH농협은행 등 5대 은행은 지난해 말 연체율은 0.16~0.27% 수준으로 상승 폭은 최대 0.07%p다.잔액 기준으로 보면 인터넷은행의 연체 대출 규모는 약 1년 만에 3배 가량 늘었다. 금융감독원이 국회 정무위원회에 제출한 자료에 따르면 지난해 말 기준 인터넷은행 3사의 1개월 이상 연체 대출 잔액은 2915억 9100만원으로 나타났다. 3사 합산 연체 대출 잔액은 지난해 △1분기 말 약 1062억원 △2분기 말 1392억원 △3분기 말 1860억원 등이다.이복현 금융감독원장이 지난 27일 경기도 성남시 판교 카카오뱅크 본사에서 열린 은행산업 경쟁 촉진과 금융소비자 편익 제고 현장방문에 참석해 발언하고 있다/사진=금융감독원 제공━업계, '의무 공급' 관리 개선 필요성 제기…정부, 공감━인터넷은행 업계는 중·저신용자 대출 의무 공급치 관리 체계를 개선해야 한다고 본다. 한 관계자는 "2021년 말 저금리 국면에서 설정한 공급 목표를 현재 맞추고 있는 상황"이라며 "비중을 관리하다 보니 고신용자 대상 대출을 중단하는 경우까지 있다"고 했다. 공급 비중이 아니라 공급 규모로 목표를 재설정하는 게 맞는다는 것이다. 대안 신용평가모형 고도화·활용 성과 등을 참고해 목표치를 할당해야 한다는 주장도 나온다. 일각에선 의무 공급 완화가 '5대 은행 과점' 해소에 도움이 된다는 의견도 내놓는다. 인터넷은행 한 관계자는 "인뱅 출범 초기 신용대출 부문에서 은행권 전체적으로 금리 경쟁이 있었다"며 "인터넷은행들이 고신용자에게도 신용대출·혁신서비스를 제공할 수 있게 되면 경쟁이 촉발될 것"이라고 했다.금융당국도 이에 공감하는 모양새다. 이복현 금감원장은 지난 27일 기자들과 만나 '인터넷은행의 중·저신용자 신용대출 공급 의무 완화를 검토하느냐'는 물음에 "합리적인 근거를 바탕으로 그 부분에 대한 개선책이 나온다면 지금은 적극적으로 검토할 소지가 있다"고 말했다. 그러면서 "산업 경쟁 환경 강화와 더불어 고려해야 할 필요가 있다는 인식이 있다"고 했다.금융위원회는 오는 2일  김소영 부위원장 주재로 '은행권 경영·영업 관행·제도 개선 태스크포스(TF)' 실무자 회의를 진행한다.  '경쟁 촉진·구조 개선'을 주제로 여러 내용을 논의하는데 인터넷은행의 중·저신용자 신용대출 비중을 조정하는 안도 포함됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>그리스서 열차 2대 정면충돌... 최소 29명 사망·85명 부상</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/047/0002383715?sid=104</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>350명 탑승한 여객열차와 화물열차 충돌... "끔찍한 밤"▲  그리스에서 발생한 열차 충돌 사고를 보도하는 현지 SKAI 방송 갈무리 ⓒ SKAI 그리스에서 열차 2대가 정면충돌해 최소 29명이 사망하고 85명이 다쳤다. AP, BBC 등 주요 외신에 따르면 28일(현지시각) 그리스 중부 테살리아주 라리사 인근에서 여객 열차와 화물 기차가 충돌해 차량 여러 칸이 탈선하고 불이 났다.현지 소방 당국에 따르면 현재까지 29명이 숨지고 85명이 다쳤다. 그러나 부상자를 치료 중인 병원 관계자는 20여명의 부상자가 위중한 상태라서 사망자가 더 늘어날 수 있다고 전했다.여객 열차는 수도 아테네에서 출발해 승객 350여 명을 태우고 출발해 북부 도시 테살로니키를 향하고 있었다. 바실리스 바르타코야니스 소방청 대변인은 "부상이 경미하거나 다치지 않은 승객을 구조해 안전한 곳으로 대피시키는 작업을 진행하고 있으나, 열차의 충돌 상태가 매우 심각해서 어려운 상황에 처해 있다"라고 밝혔다. ▲  그리스 라리사시 인근에서 열차 2대가 충돌한 가운데 2023년 3월 1일 새벽 사고 현장에서 구급대원 등이 구조 작업 등을 벌이고 있다.ⓒ 로이터=연합뉴스 사고가 늦은 밤에 발생한 데다가 화재로 인해 짙은 연기가 가득 차 있어 구조대원들은 헤드램프를 착용하고 승객들을 구조하고 있다.  콘스탄티노스 아고라스토스 테살리아 주지사는 현지 SKAI 방송에 "매우 강력한 충돌이었고, 끔찍한 밤"이라며 "현장 상황을 말로 설명하기 어렵다"라고 밝혔다. 그는 "크레인과 특수 장비를 투입해 잔해들을 치우고 탈선한 열차를 들어 올리고 있다"라고 덧붙였다. 사고 열차는 유럽 전역에서 열차를 운행하고 있는 이탈리아 FS 그룹 소유로 확인됐다. 열차에서 빠져나와 대피한 한 청년은 SKAI에 "열차 안에는 공포가 가득했다"라며 "사람들이 비명을 질렀다"라고 당시 상황을 전했다. 또 다른 승객은 공영방송 ETR에 "지진이 난 것 같았다"라며 "승객들이 갇혀 있는 칸에서 큰불이 났다"라고 말했다.그리스 정부는 긴급회의를 열고 사고 대응에 착수했으며, 군부대를 동원해 현장을 수습하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023.03.15.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>[스타트업 리포트] "국경 넘어 자유롭게 쓸 수 있는 모바일 쿠폰 꿈꾸죠"</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000728528?sid=105</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>김성필 윈큐브마케팅 대표의 도전기카카오 선물하기로 모바일선물 시장 개척300조 원 규모 미국 겨냥한 K 쿠폰 사업 개시디지털 시대에 크게 달라진 것 중 하나가 상품권이다. 스마트폰으로 간편하게 보내는 모바일 쿠폰이 종이 상품권을 급격하게 대체하고 있다. 통계청에 따르면 2019년 2조9,363억 원이었던 국내 모바일 쿠폰 시장은 신종 코로나바이러스 감염증(코로나19) 확산으로 대면 접촉이 줄고 온라인 활동이 늘면서 2020년 3조6,909억 원, 2021년 5조3,284억 원, 지난해 6조1,878억 원으로 급속하게 성장했다.사람들은 편한 것을 접하면 이전으로 돌아가지 못한다. 그래서 업계에서는 모바일 쿠폰 시장이 계속 성장할 수밖에 없다고 본다. 2011년 모바일 쿠폰을 발행하는 신생기업(스타트업) 윈큐브마케팅을 설립한 김성필(52) 대표는 모바일 쿠폰의 개척자로 꼽힌다. 그는 2011년 '카카오톡 선물하기'를 최초로 제안해 모바일 쿠폰 확산에 기여했다. 현재 카카오를 비롯해 네이버, 신한은행, 우아한형제들, 쿠팡, 홈앤쇼핑 등 수많은 기업들이 윈큐브마케팅의 고객사다.이제 김 대표는 한국을 넘어 해외로 모바일 쿠폰 확산에 나섰다. 서울 세종대로 한국일보사에서 그를 만나 'K쿠폰 도전기'를 들어봤다.모바일 쿠폰의 개척자인 김성필 윈큐브마케팅 대표가 서울 세종대로 한국일보사에서 기업들이 모바일 쿠폰을 발행할 수 있는 '센드비' 서비스를 설명하고 있다. 김영원 인턴기자대학을 세 번 다니다"우여곡절이 많았어요." 이력을 묻자 김 대표는 한숨부터 쉬었다. 그는 대학을 세 번 다녔다. "1990년 홍익대 전자공학과에 붙었으나 등록을 하지 않았고 이듬해 한림대 의대에 들어갔어요. 그러나 잘 맞지 않아 그만둔 뒤 1992년 대전대 물리학과에 입학했죠. 하지만 한 학기 다니고 군대를 다녀온 뒤 중퇴했어요."막연하게 창의적인 일을 하고 싶다는 생각에 방황하다가 제대 후 무역회사에 취직했다. "당시 유럽과 거래한 무역회사들은 유럽연합(EU) 국가이면서 비용이 상대적으로 적게 드는 폴란드 바르샤바에 많이 진출했어요. 1996년부터 1999년까지 바르샤바 주재원으로 일했죠. 당시 국내 원단을 유럽에 판매하는 일을 했는데 중국 저가 제품 때문에 고전했어요. 재고가 창고에 쌓이는 것을 보면서 재고 없는 디지털 사업을 구상했죠."창업한 회사에서 쫓겨나귀국 후 유럽 게임을 들여와 국내에 판매했으나 불법 복제가 성행하던 시절이어서 재미를 보지 못했다. 게임 사업을 접고 2002년 시작한 첫 번째 창업은 디지털 마케팅 회사였다. "휴대폰 문자메시지를 무료로 보내는 대신 광고를 보도록 한  사업이었죠. 잘 몰라서 필요 없는 고가 장비를 사들이는 바람에 돈만 쓰고 실패했어요."첫 번째 창업에 실패하고 다시 취직했다. "방송사에서 문자 투표할 때 집계하는 기술과 휴대폰으로 찍은 동영상을 방송용으로 변환해 주는 기술을 가진 회사였죠. 이런 인연으로 2006년 다양한 휴대폰 기종에 맞춰 동영상을 변환해 주는 두 번째 창업을 했어요."그러나 잘나간 사업이 오히려 화를 불렀다. "돈을 벌자  동업자와 갈등이 생겼어요. 회사와 소송까지 했는데 세력 다툼에서 밀려 쫓겨났죠."창업한 회사에서 밀려난 그는 소프트웨어 개발업체 DKI테크놀로지에 신사업 총괄 본부장으로 입사했다. 거기서 모바일 선물하기 아이템을 갖고 2011년 분사한 것이 지금의 회사가 됐다.모바일 상품권 시대 연 카카오 선물하기 제안모바일 쿠폰은 절박함의 산물이었다. "무엇이든 사업을 해서 살아야겠다는 절박함에 2010년 말 카카오를 찾아가 모바일 쿠폰을 이용한 선물하기 사업을 제안했죠. 카카오톡은 사람들의 관계를 기반으로 한 서비스여서 모바일로 선물하기 좋은 구조죠."문제는 당시 상품권의 유통 구조였다. "한창 세를 불리던 소셜 커머스(사회관계망 서비스(SNS)를 이용해 상품을 판매하는 온라인 쇼핑몰)들은 이용자 확보를 위해 밑지고 상품권을 팔았어요. 예를 들어 특정 업체의 1만 원짜리 상품권을 액면가에 사서 이용자들에게 9,000원에 팔았죠. 이용자는 몰렸지만 팔수록 손해죠. 밑지는 돈은 투자받아 충당했어요."김 대표는 이를 바꿨다. "경쟁도 좋지만 손해보지 않기 위해 1만 원짜리 상품권을 액면가 그대로 1만 원에 파는 정가 유통을 제안했어요. 여러 업체를 찾아갔는데 카카오만 여기에 동의했죠."대신 배송 서비스를 붙여 이용자들에게 편리함을 줬다. "모바일로 선물을 받은 사람이 주소를 입력하면 해당 주소로 선물을 배송하는 것을 제안해 카카오에서 제일 먼저 선보였죠."카카오 선물하기는 개인 간 모바일 선물 시장을 열었다. "그 전에는 기업이 상품권을 사서 이용자에게 뿌리는 경우가 많았는데 카카오 선물하기 이후 개인 간 선물 시장이 열렸어요."카카오 선물하기의 성공은 김 대표에게 독자 상품을 만드는 밑거름이 됐다. "카카오 선물하기를 1년 정도 운영한 뒤 자신감을 얻어 2011년 말 '기프팅'이라는 자체 모바일 상품권, 즉 모바일 쿠폰을 만들었죠."덕분에 모바일 선물하기는 기존 디지털 상품권 시장의 판도를 뒤집었다. "당시 우리와 SK플래닛, KT, CJ 등 4개사가 디지털 쿠폰을 두고 치열하게 경쟁을 벌였는데 우리가 점유율 45%로 가장 높았어요."김성필 윈큐브마케팅 대표는 모바일 쿠폰을 국경을 넘나드는 서비스로 확대하는 것이 목표다. 이를 위해 그는 지난해 말부터 미국에서 'AAe기프트'와 '마리나기프트'라는 모바일 쿠폰 사업을 시작했다. 김영원 인턴기자모바일 쿠폰 플랫폼으로 사업 확대김 대표는 기프팅을 만든 뒤에도 카카오 선물하기 서비스를 계속 제공했으나 2013년 카카오가 선물하기 사업을 직접 운영하면서 이익이 10분의 1로 줄었다. "뜻밖의 위기였죠."'한 바구니에 계란을 모두 담지 말라.' 김 대표는 주식 투자의 금언을 해법으로 봤다. "카카오 의존도를 낮추고 네이버, 토스, 리멤버, 신한은행 등 여러 업체들과 계약해 모바일 쿠폰 서비스를 확대했어요."급기야 그는 기업간거래(B2B) 사업을 확대해 2019년 '센드비' 서비스를 만들었다. 센드비는 기업들이 원하는 모양과 금액의 모바일 쿠폰을 자유롭게 만들어 발송할 수 있는 서비스다. "기존에 모바일 쿠폰을 만들려면 해당 쿠폰으로 바꿀 수 있는 상품업체들과 계약하고 쿠폰 발송까지 한 달 걸렸어요. 그런데 센드비는 쿠폰으로 구매할 수 있는 상품 3,000종을 모아 놓아 간단하게 고른 뒤 쿠폰 발송까지 반나절이면 끝나요. 센드비 덕분에 2019년 1월 3,000만 원이었던 거래액이 그해 12월 30억 원으로 100배 뛰었어요. 센드비를 이용하는 고객사도 누적으로 4만3,000개에 이르죠."‘낙전’으로 돈 버는 모바일 쿠폰 사업의 한계센드비의 성공 이후 김 대표는 해외로 눈을 돌리고 있다. 국내 모바일 쿠폰 사업의 한계 때문이다.김 대표에 따르면 국내에서는  대부분의 모바일 쿠폰 발행업체들이 윈큐브마케팅 같은 쿠폰 유통업체의 이윤을 보장해 주지 않는다. "스타벅스 같은 유명 기업들은 1만 원짜리 상품권을 우리에게  액면가 그대로 팔아요. 그런데 우리는 경쟁이 치열하니 이용자를 확보하려고 액면가에서 평균 10% 할인해 손해를 보고 이용자들에게 팔죠. 따라서 이용자들이 모바일 쿠폰을 100% 사용하면 적자가 나요. 돈은 다른 방법으로 벌어요."돈은 소위 '낙전' 수입으로 번다. 예전 공중전화에서 집어넣은 동전보다 통화량이 적으면 남은 잔돈이 떨어졌는데, 이용자가 집어가지 않을 경우 사업자인 KT가 챙겨 이를 낙전 수입이라고 불렀다.마찬가지로 모바일 쿠폰도 이용자가 잊어먹고 기한 내 사용하지 않은 미사용 쿠폰이 발생한다.  낙전에 해당하는 미사용 쿠폰이 쿠폰 유통업체들의 수입이 된다. "원래 유효기간이 지나도 쿠폰을 받은 사람이 필요한 정보를 제출하고 환불을 요구하면 돌려줘요. 그런데 사람들이 귀찮아서 환불 요청을 잘 하지 않죠. 예전에는 전체 쿠폰 수령자의 10%가 사용을 하지 않았는데 지금은 비율이 점점 줄고 있어요."김 대표는 "모바일 쿠폰은 낙전 수입 외에 이익을 낼 방법이 없다"고 잘라 말했다. "모바일 쿠폰을 발행하는 기업들이 액면가보다 3~5% 깎아주면 우리도 이익을 볼 수 있는데 이 경우 쿠폰 발행 기업이 손해를 보죠. 그러면 발행 기업들은 낙전 수입으로 손실을 메워야 해요. 쿠폰 발행하고 낙전을 챙겨서 손실을 메우라고 하면 누가 쿠폰을 발행하겠어요. 또 기업들이 모바일 쿠폰 발행하고 낙전 수입 챙긴다는 비난을 받을 거예요."300조 시장 겨냥한 미국 디지털 쿠폰 서비스 개시반면 미국은 다르다. 낙전을 쿠폰 발행업체가 가져가고 대신 쿠폰을 판매하는 윈큐브마케팅 같은 유통업체들에 별도 비용을 준다. "미국은 이메일로 디지털 쿠폰을 보내면 휴대폰에서 이메일을 열어 쿠폰을 사용해요. 이때 쿠폰 발행업체들이 쿠폰 유통업체들에 일종의 수수료를 내죠.  이것이 쿠폰 유통업체의 이익이 됩니다."김 대표는 지난해 말 미국에 법인을 만들고 'AAe기프트'와 '마리나기프트'라는 모바일 쿠폰 서비스를 만들었다. "AAe기프트는 미국판 센드비예요. 미국 기업들이 들어와 간편하게 디지털 쿠폰을 발행하죠. 이 안에서 고를 수 있는 상품이 약 300종입니다. 지금 시범 서비스 중인데 월마트, 아마존, 타겟, 이베이 등 약 600개 기업들의 상품을 제공 중이죠."마리나기프트는 해외에서 한국으로 선물을 보낼 수 있는 모바일 선물하기 서비스다. "미국에 사는 사람들은 한국에 결제 수단이 따로 없으면 한국 사람들에게 모바일 쿠폰을 선물하기 힘들어요. 마리나기프트는 페이팔 등을 이용해 한국에 선물을 보낼 수 있도록 해결한 서비스죠."반대로 한국에서 미국에 있는 사람에게 선물하는 기능도 2분기 중 내놓을 예정이다. "AAe기프트에 입점한 업체들의 상품을 구매할 수 있는 모바일 쿠폰도 내놓을 예정입니다. 미국에 진출한 한국 기업들이 직원들의 복지 수단으로 제공할 수 있죠."다양한 서비스로 지난해 달성한 거래액은 약 2,500억 원. 이 가운데 낙전 수입과 수수료 등으로 올린 매출이 약 160억 원, 영업이익은 12억 원이다. "올해는 거래액 약 3,000억 원, 지난해와 비슷한 영업이익이 목표죠."앞으로 그는 국경을 넘나들며 자유롭게 사용할 수 있는 모바일 쿠폰 서비스를 선보이는 것이 꿈이다. "전체 상품권 시장이 300조 원에 이르는 미국도 급격하게 디지털 쿠폰으로 넘어가고 있어요. 기회의 땅이 열리는 셈이죠. 해외의 큰 시장을 겨냥해 모바일 선물하기와 관련된 모든 것을 모아 놓은 끝판왕 같은 업체로 키우고 싶어요."</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023.03.10.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>과기정통부, 알뜰폰 도매대가 방식 뜯어 고친다…"국회와 개선책 협의"</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011735353?sid=105</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>기사내용 요약"대가 산정 방식 탄력 운영으로 혁신 서비스 발굴"이통3사 자회사 알뜰폰 점유율 제한 검토[서울=뉴시스] 과학기술정보통신부는 박윤규 2차관 주재로 알뜰폰 경쟁력 강화를 위한 간담회를 개최했다. (사진=심지혜 기자) 2023.3.10[서울=뉴시스] 심지혜 기자 = 정부가 알뜰폰 도매제공 대가 산정 방식 개선에 나선다. 현재로선 한 가지 방법만 규정돼 있어 요금제 출시의 탄력성을 떨어뜨린다고 본 것이다. 박윤규 과학기술정보통신부 차관은 10일 열린 알뜰폰 경쟁력 강화를 위한 간담회 모두 발언에서 “알뜰폰 사업은 도매제공 의무 사업자와 도매제공 대가와 관련한 장치가 잘 마련돼 있어야 하는데 이 부분이 미흡하다”고 지적했다. 박 차관은 “특히 도매제공 대가를 산정하는 방식이 리테일 마이너스 방식 한 가지로만 할 수 있도록 법에 규정돼 있다”며 “이런 부분을 보다 탄력적으로 운영할 수 있도록 하는 제도 개선이 된다면 알뜰폰 사업에서도 혁신적인 서비스가 나올 수 있을 것”이라고 전망했다. ‘리테일 마이너스‘는 소매 단가에서 마케팅, 유통비 등의 비용을 제외하는 방식이다. 일부 업계는 이보다 망 원가를 기준으로 하는 '코스트 플러스' 방식을 선호한다. 이 경우 망 투자가 끝난 LTE 원가가 내려갈 수 있어 요금 설계의 다양성을 확보할 수 있다는 것이다.박 차관은 “사업자들이 이런 민원을 많이 제안해 왔다”며 “다양한 요금제가 나올 수 있도록 도매대가 산정 방식을 국회와 협의해서 개선해 나갈 필요가 있다”고 강조했다. 또 “알뜰폰 사업자들이 데이터를 대량으로 구매함으로써 구매 가격을 낮출 수 있도록 하는 장치도 부족하다”며 “이런 부분도 보완해야 한다”고 덧붙였다. 5G 요금제가 부족하다는 점도 개선점으로 지목했다. 박 차관은 “알뜰폰 가입자 90% 이상이 LTE 가입자”라며 “5G 요금제가 LTE 대비 비싸다는 평가가 있는 만큼 저렴한 알뜰폰에 5G 요금제가 나올 수 있도록 정부와 업계가 함께 노력해야 한다”고 주장했다. 문제점으로는 이통3사의 자회사가 알뜰폰 시장을 장악하고 있다는 점을 지목했다. 박 차관은 “이통3사 자회사가 알뜰폰 시장에서 많은 점유율을 차지하고 있는 게 과연 통신 시장 전체의 관점에서 건전한 생태계인지 의문”이라고 지적했다. 그러면서 “이통3사 알뜰폰 자회사의 점유율을 제한해야 한다는 내용의 법안도 발의됐다”며 “전체적인 통신 시장 활성화와 건전한 생태계를 위한 대안에 대해 논의하고 숙고했으면 한다”고 말했다. 박 차관은 “알뜰폰 사업은 통신 시장 경쟁 촉진과 이를 통한 이용자 후생 증진, 특히 이용 요금 감면에 큰 역할을 하기 위해 도입했다”며 “외형적으로 많은 성장을 이루면서 이용 요금이 (이통사 대비)30% 정도 저렴해 많은 혜택을 주고 있다”고 했다. 이어 ”다만 통신시장 경쟁 촉진 측면에는 부족한 만큼 제도적인 장치와 개선점을 모색해 나가겠다“며 ”알뜰폰 시장이 원래 정책 목적을 달성할 수 있도록 노력하겠다“고 전했다.한편, 이날 간담회에는 KB국민은행, 비바리퍼블리카(토스 알뜰폰), 스테이지파이브, 인스코비, 아이즈비전 등 5개 알뜰폰 사업자와 SK텔링크, KT엠모바일, 미디어로그 등 3개 이통사 자회사 관계자가 참여했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023.03.02.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>그리스서 열차 정면충돌…40명 사망·85명 부상</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005224841?sid=104</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>그리스 중부에서 지난달 28일(현지시간) 열차 2대가 충돌해 최소 40명이 숨지고 85명이 다치는 참사가 발생했다.영국의 가디언 등 외신에 따르면 이날 자정을 앞둔 시각 그리스 중부 테살리아주 라리사 인근에서 여객열차가 마주 오던 화물 열차와 정면충돌해 열차의 일부 객차가 탈선하고 최소 3량에서 화재가 발생했다.[이미지출처=연합뉴스]가디언은 여객 열차가 수도 아테네에서 출발해 테살로키니를 향하고 있었으며 승객 342명과 승무원 10명이 탑승한 상태였다고 전했다.코스타스 아고라스토스 테살리아 주시사는 "이번 사고로 1호차와 2호차가 더 이상 존재하지 않으며 3호차는 탈선했다"고 설명했다.현지 경찰과 소방당국은 이 사고로 현재까지 40명이 숨졌으며 부상자 85명 중 66명이 인근 병원으로 옮겨졌다고 밝혔다. 6명은 중태에 빠져 중환자실에서 치료를 받고 있는 것으로 전해졌다.사고 당시 일부 승객은 강력한 충격 때문에 열차 밖으로 튕겨 나갔으며 일부 시신은 사고 현장에서 30~40m 떨어진 지점에서 발견됐다.외교부는 충돌사고로 현재까지 확인되거나 접수된 한국인 피해는 없다고 전했다.현장에서 아직 수색 작업이 진행 중인 만큼 추가 피해는 더 늘어날 것으로 보인다. 그리스 공영방송 ERT는 아직 50~60명의 생사가 확인되지 않았다고 밝혔다.그리스 경찰은 열차 충돌 원인에 대해 조사에 착수하고 라리사 역장을 과실치사 혐의로 체포했다. 경찰은 라리사 역장이 기관사에게 선로 변경을 잘못 지시해 두 열차가 같은 선로를 달리다 충돌한 것으로 보고 있다.그리스의 노후화된 철도 시스템도 사고 원인으로 지목됐다. 사고 당시 철도 신호기가 작동하지 않았으며 신호 자동 시스템이 설치되지 않은 지역이 많다고 주요 외신은 지적했다.코스타스 카라만리스 교통장관은 이번 사고에 대한 책임을 지고 사입했다. 몰도바를 방문 중이던 사켈로풀루 대통령은 예정된 일정을 취소하고 귀국길에 올랐다.그리스 정부는 3일까지 국가 애도 기간을 선포하고 모든 공공건물에 조기를 게양하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023.03.02.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>[60초 뉴스]카드 안내장 사라진다?...연간 폐지만 A4 4억 장 분량</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/658/0000034470?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>카드를 발급하면 함께 제공되는 종이 안내장. 카드 혜택이나 실적·한도 등 약관을 비롯한 안내문이 적혀있는데, 앞으로 카드를 제외한 안내장은 전자 문서로 대체될 전망이다.카드 가입 안내 팜플렛이 앞으로 전자 문서로 대체될 가능성이 높아졌다. 홍정민PD지난달 28일 국회 본회의에서 여신전문금융업법 개정안이 통과됐다. 현재는 신용카드나 직불카드를 발급하면, 은행이나 카드사에서 계약 약관과 사용한도 카드 이용 혜택 등을 담은 설명서를 서면으로 의무 제공하고 있다. 이용자 동의를 거친 경우에 한해 전자문서로 발급한다.그러나 토스·카카오뱅크 등 실물 점포가 없는 핀테크 기업은 카드 가입부터 각종 안내문까지 전자문서로 발급해왔는데, 이를 두고 카드 업계에선 형평성에 어긋난다는 의견이 많았다.뿐만 아니라 카드를 발급 할 때마다 종이로 된 안내장을 배부하다 보니 발생하는 폐지의 양도 많다. 카드사 업계에 따르면 서면 안내문 발급으로 생기는 폐지의 양만 연간 A4용지 4억 장 정도라고 한다.개정안을 살펴보면 ‘서면 안내장’ 의무 제공은 사라지고, 앞으로는 ▶서면(종이) ▶팩스 ▶전자문서  3가지 방법 중 카드사가 하나의 방식을 선택해 제공하면 된다. 대부분의 카드사들이 서면 안내문보다 제작이 간편한 전자 문서를 택할 것으로 보인다. 법안을 대표 발의한 김희곤 의원은 “이번 법 개정으로 규제혁신은 물론 환경보호까지 할 수 있게 됐다”고 말했다. 한편 본회의를 통과한 개정안은 관련 정부 부처로 이송된 후 국무회의를 거쳐 공포 3개월 뒤 시행된다. 따라서 당분간은 종이 안내문을 계속 지급 받게 된다. 개정안 시행 후에도 이용자가 따로 요청을 하면 종이나 팩스로 안내장을 지급 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023.03.09.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>소상공인 금리 5.5% 대환대출... 최고 2억원까지 확대</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/310/0000104777?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>이미 대출받은 이용자도 추가 대출 가능30일 서울 종로구 소상공인시장진흥공단 서울중부센터에서 자영업자가 소상공인 손실보전금 관련 상담을 받고 있다. ⓒ뉴시스·여성신문자영업자와 소상공인을 대상으로 5.5% 금리로 대출 전환해 주는 '저금리 대환 프로그램'이 오는 13일부터 확대 시행된다.금융위원회는 9일 손실보전금 등 재난지원금 또는 만기연장·상환유예 등을 받지 않았더라도 개인사업자 또는 법인 소기업이라면 저금리 대환 프로그램을 신청할 수 있도록 지원대상을 확대하기로했다. 지원대상 대출은 현행과 같이 지난해 5월말 이전에 취급한 사업자대출(지난해 6월 이후 갱신대출 포함)이다.이 프로그램은 신청 기준 금리 7% 이상 은행·비은행 고금리 사업자대출을 5.5% 이하 저금리 대출로 대환해 주는 것이다.대환 한도는 개인은 기존 보다 5000만원 늘어난 1억원, 법인은 1억원 늘어난 2억원으로 확대됐다. 기존에 저금리 대환 프로그램을 이용 중인 자영업자는 증액된 한도 내에서 추가로 대환을 신청할 수 있다.대환 대출의 만기는 총 5년에서 총 10년으로 늘어났고, 상환구조는 3년 거치 후 7년간 분할상환으로 변경됐다. 중도상환수수료가 전액 면제되는 만큼 조기 상환의사가 있는 차주는 상시 원리금 상환도 가능하다.보증료를 연간 단위로 분할 납부 할 수 있도록, 일부 은행에서만 운용 하고 있는 보증료 분납 시스템을 대환 프로그램을 취급 중인 전 은행으로 확대하기로 했다. 보증료율을 현재 매년 1%에서 최초 3년간 0.7%로 0.3%포인트 내리고, 최초 대시점에 보증료를 전액 납부하는 경우에는 납부총액의 15%를 할인해 금융비용 부담을 줄인다.개편된 저금리 대환 프로그램은 오는 13일부터 14개 은행을 통해 비대면 또는 대면 방식으로 신청할 수 있다. 국민·신한·우리·하나·기업·농협·수협·부산·대구·광주·경남·전북·제주·토스 등이다. SC은행은 오는 20일부터 시행한다.이미 저금리 대환 프로그램을 이용 중인 차주들도 변경된 한도(개인 1억원, 법인 2억원) 범위 내에서 추가로 대환 프로그램을 이용할 수 있다.금융위는 "올 상반기 중 기존 저금리 대환 프로그램을 통해 보유하고 있는 5년 만기 대출(2년 거치 후 3년 분할상환)도 변경된 프로그램에 따라 10년 만기(3년 거치 후 7년 분할상환) 대출로 변경할 수 있도록 할 예정"이라며 "코로나19 피해가 확인된 자영업자도 2000만원 한도의 가계신용대출을 대환대상에 포함하는 방안도 추진 중"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023.03.02.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>그리스 열차충돌, 사망40명·부상85명...50명 생사확인 안돼</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/310/0000104521?sid=104</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>템피=AP/뉴시스] 1일 새벽(현지시각) 그리스 수도 아테네 북쪽 템피 인근에서 화물열차와 여객열차가 충돌, 탈선과 화재가 발생해 소방관과 구조대원들이 구조작업을 하고 있다. 현지 언론은 이 사고로 최소 40명이 숨진 것으로 보인다고 보도했다.그리스 중부에서  열차 2대가 충돌해 최소 40명이 사망하고 85명이 부상했다고 현지 경찰과 소방당국이 밝혔다.AP통신, BBC 등 외신에 따르면 지난달 28일(현지시각) 자정 직전 그리스 수도 아테네 북쪽으로 380㎞ 떨어진 중부 템페 인근에서 여객열차가 마주오던 화물열차와 정면 충돌했다. 열차 여러 량이 탈선하고 최소 3량에서 화재가 발생했다.현재까지 숨지고 85명이 부상했다. 현장에서 구조 및 수색 작업이 진행 중인 상태여서 인명 피해는 더 늘어날 것으로 보인다. 그리스 공영방송 ERT는 50~60명의 생사가 확인되지 않았다고 보도했다.열차는 테살리아와 마케도니아를 가르는 협곡인 템페 계곡 직전에 고속으로 정면 충돌했다. 코스타스 아고라스토스 테살리아 주지사는 "1호차와 2호차는 더 이상 존재하지 않으며, 3호차는 탈선했다"고 말했다.아테네를 출발해 테살로니키로 향하는 여객 열차엔 350여 명이 탑승하고 있었다고 철도회사는 밝혔다. 가벼운 부상을 입거나 다행히 다치지 않은 승객들은 버스를 타고 사고 현장에서 북쪽으로 130㎞ 떨어진 테살로니키로 이동했다. 화물열차는 테살로니키에서 라리사로 가고 있었다.  현지 경찰은 라리사 역장을 과실 치사 혐의로 체포했다. 경찰은 라리사 역장이 여객열차 기관사에게 선로 변경을 잘못 지시해 두 열차가 같은 선로를 운행하면서 충돌한 것으로 보고 있다.코스타스 카라만리스 교통장관은 이번 열차 사고에 대한 책임을 지고 사임했다.카라만리스 교통장관은 "이런 비극적인 사고가 발생한 상황에서 아무런 일도 일어나지 않은 것처럼 업무를 수행하기는 불가능하다. 그런 이유에서 교통장관직에서 사임을 발표한다"고 말했다.그리스 정부는 오는 3일까지 사흘간 국가애도기간을 선포했다.한국인 피해자는 없는 것으로 알려졌다.그리스 당국은 열차에 타고 있던 승객 상당수가 주말 기간 축제를 즐기고 돌아오던 대학생들이었다고 말했다.소방당국은 소방차 수십 대가 출동해 화재를 진압하고 있다고 밝혔다. 또 구급차 40대가 출동했고 소방관 150여 명이 현장에 있다고 말했다.유럽의 지도자들은 그리스 열차 사고에 대해 애도를 표했다.올라프 숄츠 독일 총리는 트위터를 통해 "우리는 그리스 친구들과 함께 애도한다. 우리의 마음은 희생자들과 그들을 사랑하는 사람들 곁에 있다"고 전했다.조르자 멜로니 이탈리아 총리도 "이탈리아 정부는 희생자 가족들에게 애도를 표하며 모든 부상자들의 빠른 회복을 기원한다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023.03.08.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>대출 연체 3개월만에 1조 이상 늘었다</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002788047?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>저신용자 위주 인뱅 직격탄시중 은행 연체율도 오름세기준금리 인상에 따른 대출 금리 상승으로 지난해 9월부터 12월까지 늘어난 연체 대출 잔액이 1조원 이상인 것으로 나타났다.8일 김성주 더불어민주당 국회의원이 금융감독원으로부터 제출받은 자료에 따르면 작년 12월말 기준 연체대출 잔액(1개월 이상 원리금 연체 기준)은 5조4433억원으로 집계됐다. 전체 대출잔액(2160조2000억원)의 0.25%다.연체대출 잔액으로 비교하면 3개월 전인 작년 9월말(4조5550억원)보다 1조원 가량 늘어났고, 연체율은 0.04%포인트 상승했다. 작년 6월말에는 연체대출 잔액이 4조2118억원이었지만, 연말 들어 증가세가 뚜렷해진 것이다.중·저신용자 대출을 크게 늘린 인터넷 전문은행도 연체잔액이 큰 폭으로 증가했다. 작년 12월말 2916억원으로 같은 해 3월말(1062억원)에 비해 3배 가량 늘어났다. 금리 인상기 중·저신용자들 부담이 커졌다는 점을 확인할 수 있는 대목이다.카카오뱅크의 연체율은 지난해 말 0.49%로 1분기 말 대비 0.23%포인트 상승했다. 연체 기간 3개월 이상 고정이하 부실여신 비율은 0.36%로 0.11%포인트 뛰었다. 케이뱅크의 연체율은 지난해 3분기 말 0.67%로 1분기 말 대비 0.19%포인트 상승했다. 고정이하여신비율은 0.76%로 0.12%포인트 올랐다. 토스뱅크의 연체율은 년 3분기 말 0.30%로 1분기 말 대비 0.26%포인트 상승했다. 고정이하여신비율은 0.23%로 0.19%포인트 커졌다.5대 주요 은행(KB국민·신한·하나·우리·농협)평균 연체율도 오름세다. 지난해 말 기준 5대 은행 평균 연체율은 0.21%로 전년(0.17%) 대비 0.04%포인트 상승했다. 금융권에선 미국발 추가 긴축 영향으로 대출 금리 상승세가 이어지면서 연체율도 오름세를 보일 것이란 전망이 나온다. 7일 기준 5대 은행 주택담보대출 변동금리는 연 4.53~6.39%, 신용대출(6개월) 금리는 5.36~6.64% 수준이다.기업대출 금리도 5~6%대로 높은 수준이다. 은행연합회에 따르면 5대 주요 은행의 지난 1월(직전 3개월 기준) 중소기업 신용대출 평균 금리는 6.64%, 개인사업자 신용대출 평균금리는 6.06%로 전월 공시 대비 각각 0.13%포인트, 0.14%포인트 올랐다.은행권 관계자는 "은행 연체율 관리가 점점 힘들어지고 있다"면서 "특히 기업의 경우 연체가 나타나면 신용도가 떨어지면서 금리가 더 올라가 부담이 커질 수 있다. 경기 둔화가 지속될수록 연체율이 더 높아질 것"이라고 말했다.대출 금리 상승으로 지난해 4분기 늘어난 연체 대출 잔액이 1조원에 달하는 것으로 나타났다. 연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023.03.13.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>토뱅, KB증권 주식계좌 개설 서비스</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002788668?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>토스뱅크는 'KB증권 주식계좌 개설' 서비스를 시작한다고 13일 밝혔다.KB증권은 토스뱅크가 지난해 8월 한국투자증권의 주식계좌 개설 서비스를 개시한 이후 토스뱅크에 입점한 두번째 증권사가 됐다.토스뱅크 계좌를 보유한 19세 이상의 고객이라면 토스뱅크에서 KB증권의 주식계좌를 1인 1계좌까지 개설할 수 있다. 토스뱅크는 기존 증권사 앱에서 계좌 개설 시 필요한 여러 단계의 복잡한 절차를 간소화하고 편의성을 높였다고 설명했다. 주식계좌 개설은 토스뱅크 내에서 '목돈 굴리기' 메뉴를 선택하고 계좌개설에 필요한 본인실명확인 절차 등을 거치면 가능하다. KB증권 신규 주식계좌 개설 고객에게는 오는 4월 말까지 최대 2만원 상당의 혜택도 제공한다. 최초 신규 주식계좌 개설 고객에게는 국내 주식 거래 시 이용 가능한 주식 쿠폰 1만원 권을 지급한다. 이 주식 쿠폰을 사용하면 테슬라, 애플, 스타벅스, 아마존, 마이크로소프트 해외 소수점 주식 5종을 1만원 상당으로 추가 제공한다. 국내 주식 수수료 우대 혜택도 5년간 제공된다. 토스뱅크 관계자는 "앞으로도 여러 증권사와의 제휴를 통해 주식계좌 개설 뿐만 아니라 다양한 투자상품을 소개할 수 있도록 노력할 것"이라고 말했다. 토스뱅크가 KB증권 주식계좌 개설 서비스를 시작한다고 밝혔다. 토스뱅크 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023.03.02.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>신청 쉬워지니 나쁜 은행? 금리인하요구권 공시 '통계의 함정'</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002688372?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>조회 늘어나면 수용률 '추락'고객 편의 개선했다가 '역풍'"경쟁 유도" 정책 취지 '역설'서울 시내의 한 은행 대출창구에 금리인하요구권 안내 배너가 설치돼 있다. ⓒ연합뉴스[데일리안 = 부광우 기자] 금융사들을 대상으로 시행되고 있는 금리인하요구권 공시를 둘러싸고 논란이 커지고 있다. 금융사가 고객들로부터 받은 금리인하 요구들 중 실제 이자 감면으로 이어진 비중인 이른바 수용률이 줄 세우기 방식으로 공개되고 있는데, 가능 여부 조회가 많아질수록 해당 지표가 악화되는 통계의 함정이 날이 갈수록 깊어지고 있어서다.결국 소비자가 금리인하요구권을 잘 활용할 수 있도록 신청 접근성을 개선한 금융사가 도리어 나쁜 곳처럼 여겨질 수 있다는 얘기로, 고객을 위한 경쟁을 유도하겠다는 금융당국의 정책 취지에도 맞지 않는 현실이란 지적이 나온다.2일 금융권에 따르면 은행과 보험사, 카드사, 저축은행 등은 각 업권별 협회를 통해 지난해 상반기부터 연 2회씩 금리인하요구권 수용률 공시를 하고 있다. 금리인하요구권은 재산 증가나 개인신용평점 상승 등으로 신용 상태가 개선됐을 때 차주가 자신이 대출 등을 이용한 금융사에 금리를 내려달라고 요구할 수 있는 권리다.금융당국은 금융사로 하여금 고객의 금리인하요구를 보다 적극적으로 받아들이도록 유도하기 위해 해당 공시를 마련했다. 어떤 금융사가 소비자의 이자 감면을 위해 보다 적극적로 금리인하요구를 받아들이고 있는지 대조할 수 있게 함으로써 경쟁을 촉진하겠다는 설명이다.논란이 되고 있는 부분은 관련 공시를 통해 공개되고 있는 핵심 지표인 금리인하요구권 수용률의 산출 방법이다. 대출 차주들이 금리인하요구를 신청한 건 가운데 각 금융사가 이를 수용한 건의 비율을 수용률이란 이름으로 수치화해 보여준다.문제는 이런 구조로 인해 소비자가 금융사에 금리인하요구를 신청하는 사례가 많아질수록 수용률 결과 값은 떨어진다는 점이다. 금융사가 모바일 플랫폼 등을 통해 금리인하요구 신청을 간편하게 만들면 고객 입장에서는 예전과 달리 수시로 가능 여부 조회를 할 수 있게 되고, 이렇게 신청 건수만 급격히 늘어나면 수용률이 하락할 수 있다는 얘기다.실제로 가장 최근 이뤄진 공시에서 5대 은행 중 금리인하요구 수용률이 가장 낮은 것으로 점 찍힌 하나은행이 이런 계산 방식으로 인해 손해를 본 케이스다. 지난해 상반기 4014건이었던 금리인하요구 수용 건수가 같은 해 하반기 1만1260건으로 180.5%나 늘었지만, 같은 기간 신청 건수가 1만2146건에서 4만1930건으로 245.2% 급증하면서 최종 수용률이 33.1%에서 26.9%로 6.2%포인트(p) 낮아진 것이다.이는 현실적으로 하나은행에서 금리인하요구권을 활용한 대출 차주가 훨씬 많아졌음에도, 수용률 값만 놓고 보면 도리어 고객에게 불리한 금융사처럼 보이게 되는 착시 효과가 벌어진 셈이다. 하나은행이 자동심사 시스템을 도입하면서 금리인하요구를 보다 이용하기 좋게 만든 게 오히려 악수가 돼 버린 아이러니다.인터넷전문은행들도 이 같은 산정 방법을 두고 억울함을 호소하고 있는 대표적인 업권이다. 애초에 오프라인 지점 없이 모바일 영업을 중심으로 고객을 받은 만큼 휴대폰 어플리케이션으로 아무 때나 손쉽게 금리인하요구를 알아보는 대출 차주들이 많고, 이로 인해 신청 건수가 불어나면서 수용률이 낮아 보이기 때문이다.카카오·케이·토스뱅크 등 인터넷은행 3사의 지난해 하반기 금리인하요구권 수용률은 평균 26.2%에 그쳤다. 하지만 이런 결과가 나온 실질적인 원인은 이 기간 각 은행별로 적게는 10만건에서 많게는 30만건 넘게 발생한 신청 규모 때문으로 봐야 한다. 아직 대형 시중은행들에 비해 대출 규모가 훨씬 작은데도 편리한 앱 덕에 금리인하요구권 신청이 더 많이 이뤄지고 있다는 해석이다.금융권 관계자는 "현행 고시대로라면 금리인하요구를 어렵게 만들어 둔 금융사가 거꾸로 수용률에서 좋은 성적표를 받을 수 있다"며 "단순한 줄 세우기식 비교로 인한 오해를 막고, 고객 편익이라는 제도 취지에 맞도록 공시를 손질해야 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>토스플레이스, 결제단말기 '토스 프론트·터미널' 출시</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013798565?sid=105</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>매장 관리용 무료 소프트웨어 '토스 포스'도 함께 선보여토스플레이스 결제 사진[토스플레이스 제공. 재판매 및 DB 금지](서울=연합뉴스) 임성호 기자 = 비바리퍼블리카(토스)의 결제 단말기 제작·매장관리 솔루션 자회사 토스플레이스는 오프라인 매장 결제 단말기 '토스 터미널'과 '토스 프론트'를 출시한다고 7일 밝혔다.    토스플레이스는 지난 5개월간 수도권의 매장 200여 곳에서 단말기를 시범 운영하며 결제 속도와 안정성을 검증했다고 설명했다.     점심, 저녁 등 특정 시간에 결제가 집중되는 식음료(F&amp;B) 매장을 중심으로 테스트한 결과 하루 평균 400건 이상 결제가 이뤄지는 매장에서도 단말기 오류가 없었다고 토스플레이스는 강조했다.    이들 단말기와 함께 매장 관리를 위한 무료 소프트웨어인 '토스 포스'도 함께 출시됐다. 토스 포스와 토스 프론트 단말기를 함께 사용하면 '주문 미러링'이나 '포인트 적립' 기능 등을 이용할 수 있어 사용성이 높다고 토스플레이스는 설명했다.    최지은 토스플레이스 대표는 "매장 필수 정보기술(IT) 기기인 결제 단말기와 포스를 이용해 매장 장부·고객 관리 등 점주가 신경 써야 하는 각 분야를 디지털로 전환한다"면서 "토스플레이스 단말기와 포스 소프트웨어로 오프라인 매장 운영에 새로운 가치를 줄 것"이라고 말했다.    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>그리스 열차 충돌로 최소 100여명 사상…“끔찍한 밤”</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002559130?sid=104</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>그리스 열차 충돌 사고 현장. 로이터연합뉴스  그리스 중부에서 열차 2대가 충돌해 최소 16명이 사망하고 85명이 다쳤다.AP통신 등에 따르면 28일(현지시간) 밤 그리스 중부 테살리아주 라리사 인근에서 여객 열차와 화물차가 충돌, 차량 여러 칸이 탈선하고 최소 3칸에서 화재가 발생했다. 현지 경찰과 소방 당국에 따르면 현재까지 이 사고로 최소 16명이 숨지고 85명이 다쳤다. 라리사 병원 관계자는 85명의 부상자 중 최소 25명이 중상을 입었다고 전했다. 그리스 열차 충돌 사고 현장. 로이터연합뉴스  소방당국의 바실리스 바르타코이얀니스 대변인은 “현재 열차 탑승객들의 대피가 진행 중”이라며 “두 열차의 충돌 정도가 심각해 어려운 상황 속에서 진행되고 있다”고 전했다. 코스타스 아고라스토스 테살리주 주지사는 국영TV와의 인터뷰에서 “매우 강력한 충돌이었다. 정말 끔찍한 밤으로, 상황을 묘사하기조차 어렵다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023.03.03.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>첨단기술 인력난 심각…생산성 후퇴 시작됐다 [70th 창사기획-리버스 코리아 0.8의 경고]</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002111589?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>반도체·배터리·자동차·조선핵심산업 인력부족에 ‘흔들’2050년 성장률 ‘0%’ 전망 암울#. 국내 조선사 및 협력 업체 20여곳은 최근 정부와 손잡고 외국인 유학생을 대상으로 취업설명회를 열었다. 인력 부족을 겪는 조선업체와 일자리를 구하는 외국인 유학생을 연결한다는 취지였다. 조선사의 생산기지가 밀접한 울산에선 고령자나 여성을 공공형 일자리와 연계해 조선업에 투입하는 방안도 추진 중이다.#. 굴지의 자동차 회사에서 소프트웨어(SW)를 개발하는 한 임원은 최근 ‘인재 영입’에 골머리를 앓고 있다. 이른바 유망한 정보·기술(IT) 기업인 ‘네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)’가 공격적으로 SW 인력을 채용하면서 개발자를 구하기 어려워졌기 때문이다. 자동차 산업이 제조업을 넘어 전자·IT 산업으로 진화하면서 ‘SW 인재가 곧 회사의 경쟁력’이라는 공통된 생각에 경쟁은 갈수록 더 치열해지고 있다. ▶관련기사 3면저출산에 따른 생산연령 인구 감소로 제조 현장부터 첨단산업 연구·개발(R＆D) 분야까지 전방위적으로 청년 인력이 부족해지고 있다. 국내 합계 출산율이 사상 최저인 0.78명을 기록한 가운데 젊은 노동력의 부족 현상은 앞으로 더 심화할 것으로 전망된다. 급속한 고령화로 오는 2050년에는 우리 경제가 0％ 성장률을 기록할 수 있다는 암울한 전망까지 제기된다.3일 업계에 따르면 조선, 자동차, 반도체, 배터리 등 한국 경제를 지탱하는 주요 산업 곳곳이 인력난을 호소하고 있다. 고용노동부에 따르면 국내 제조업 부족인원은 2019년 하반기 5만8521명에서 지난해 하반기 13만1984명까지 확대됐다.특히 호황기를 맞은 조선업은 확보한 수주는 많지만, 막상 배를 만들 사람이 없어 답답한 상황이다. 한국조선해양플랜트협회가 발간한 ‘2022년 조선해양산업 인력현황보고서’에 따르면 국내 조선업 인력은 지난해 10월 말 기준 9만5030명으로 2014년 20만3441명 대비 약 53％ 감소했다. 조선업 물량이 급감한 2016년 이후 인력을 감축한 여파다.조선업의 생산직 필요인력은 지난해 3분기에만 8239명 모자랐는데, 올해 3분기에는 부족 인원이 1만2872명으로 확대될 것으로 전망된다. 높은 업무강도와 낮은 임금, 열악한 업무 환경 등으로 구직자들이 조선업을 기피하고 있어서다.조선업계 관계자는 “업황이 좋지 않을 때 기능인력이 건설, 플랜트 등 다른 분야로 많이 이직했다”며 “2026년까지 주요 조선소 독(dock)이 다 찬 상황을 고려하면 현재 인력난은 심각한 수준”이라고 말했다.자동차 업계도 상황은 비슷하다. 특히 전기차 시대로 전환을 앞두고 미래차 관련 인력이 턱없이 부족하다. 국내 완성차 관계자는 “산업의 패러다임이 내연기관에서 전기차로 바뀌며 관련 기술 개발이 시급하지만, 당장 필요한 능력을 갖춘 인재가 부족하다”고 호소했다.자동차산업 인적자원개발위원회가 ‘미래차 산업 전환이 고용에 미치는 영향’을 분석한 보고서에 따르면 2028년까지 미래차 산업 기술 인력은 8만9069만명이 필요하다. 그러나 지금과 같은 추세라면 4만명의 인력이 부족할 것으로 예측된다.미래차 수요와 성장 속도를 고려하면 향후 인력 부족 현상은 더욱 가속화할 것으로 보인다. 인력 양극화도 문제다. 미래차 산업이 발달하면서 기존 내연기관 산업 인력에 대한 수요가 줄고 있기 때문이다. 업계는 미래차 보급이 확산하면서 2030년까지 국내에서 기존 내연기관 부품 기업의 약 30％가 사라질 것으로 내다보고 있다. 직무 전환 훈련, 기존 인력 재교육 등을 통한 인력 재배치가 시급하다는 지적이 나오는 이유다.첨단산업 분야 인력난도 갈수록 심화하고 있다. 2031년까지 약 10년간 부족할 것으로 예상되는 국내 반도체 인력은 5만명 규모다. 전기차 보급이 빨라지며 고속 성장하고 있는 배터리업계는 인력 부족에 늘 상시채용의 문을 열어뒀다. 두 산업군은 국내 대학과 연계해 ‘학부부터 박사까지 전액 학비·장학금 지원, 채용 보장’ 등 파격적인 조건을 내걸고 있다. 그러나 수십명 수준에 그치는 졸업생 수를 고려하면 중장기 전문 인력 확보에 대한 대응 방안으로 한계가 있다는 평가가 나온다.바이오 소재, 에너지 등 신사업에 진출하고 있는 석화업체도 고민이 많다.  화학바이오산업 인력자원개발위원회 관계자는 “기존 석화 사업의 경우 신규 필요 인력을 적정한 선에서 충원하고 있어 인력난이 심하지 않지만, 신산업 분야에선 해당 전문지식을 가진 인력이 많지 않다”고 전했다.국책연구원인 한국개발연구원(KDI)의 장기경제성장률 전망과 시사점 보고서에 따르면 올해 한국의 장기경제성장률은 2％를 소폭 상회하는 수준에서 2050년 0.5％로 하락할 것으로 관측된다. 특히 보고서는 경제성장률 하락의 원인으로 노동 공급 감소를 지목했다.2000년대에는 자본 공급이 경제성장률 하락을 좌우했다면, 2010년대 들어서는 생산성 둔화가 중요 문제가 됐다는 분석이다. 통계청이 발표한 장래인구추계(2020~2070년)에 따르면 생산연령인구 비중은 2020년 72.1％에서 2050년 51.1％로 급격하게 하락할 것으로 전망된다.젊은 노동인구의 감소가 경제의 활력을 떨어뜨린다는 점도 문제다. 톡톡 튀는 아이디어를 바탕으로 기성세대와는 다른 의견을 내는 청년이 주요 산업군에서 영향력을 발휘해야 글로벌 경쟁에서 살아남을 수 있다는 지적도 나온다.김지연 KDI 연구위원은 “우리 경제의 구조 개혁을 적극적으로 추진해 생산성을 개선하는 동시에 인구구조 변화의 부정적인 영향을 완화할 필요가 있다”며 “대외 개방, 규제 합리화 등 경제의 역동성을 강화하기 위한 제도 개혁이 절실한 시점”이라고 말했다.김지윤·김은희·한영대 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>토스 초기멤버가 창업한 '팀러너스' 20억 시드투자 유치</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004858901?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>글로벌 인공지능(AI) 콘텐츠 플랫폼을 개발 중인 '팀러너스'가 20억원 규모의 시드 투자를 유치했다고 7일 밝혔다. 투자는 베이스인베스트먼트가 주도했으며 패스트벤처스, 굿워터캐피탈이 참여했다.팀러너스는 토스 초기 멤버이자 '송금지원금' 등의 그로스 제품을 개발해 토스의 1000만명 MAU(월간 활성 사용자수)를 만든 정승진 대표가 토스 및 카이스트 동료들과 설립한 스타트업이다. 정 대표는 토스에 서버 엔지니어로 입사해 데이터 분석, PO(프로덕트 오너), 해외법인 리더를 지냈다. 팀러너스는 AI가 생산자인 콘텐츠 플랫폼을 개발하고 있다. 기술 발전에 따라 AI 인플루언서가 만드는 글이나 사진, 동영상 등의 콘텐츠가 사람이 만드는 것보다 경쟁력이 있을 것을 보고 올해 초 '피카부' 등 4개의 AI 서비스를 런칭했다. 현재 팀러너스에는 AI 가속화 스타트업 최고기술책임자(CTO) 출신, CJ ENM PD 출신 등  제품·기술·콘텐츠 전문가들이 함께 일하고 있다.이번 투자를 리드한 베이스인베스트먼트의 양형준 수석팀장은 "팀러너스는 '가설-실험-배움-성장'으로 대변되는 스타트업 성장 방정식의 표본과도 같은 회사"라며 "AI 영역에서도 이 성장 공식을 가장 빠르게 반복해내며 문제를 해결해나갈 수 있는 팀러너스가 글로벌에서 큰 가치를 만들어낼 것이라 기대한다"고 말했다.정승진 팀러너스 대표는 "팀러너스는 리서처, ML(머신러닝) 엔지니어, 앱·웹 제품팀이 하나의 스쿼드로 일하며 2주에 1개씩 제품을 런칭할 수 있었다"며 "앞으로도 뛰어난 분들을 모시고 협업의 방식을 최적화해 세계 최고의 AI 제품팀을 만들 것"이라고 밝혔다.[머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>그리스, 여객열차·화물열차 충돌해 최소 26명 사망</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001855470?sid=104</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>그리스에서 여객 열차와 화물 열차가 충돌해 최소 26명이 사망하고 85명이 다쳤습니다.로이터통신 등에 따르면 현지시간 지난달 28일 자정 무렵 그리스 중부 테살리아 주 라리사 인근에서 여객 열차와 화물 열차가 충돌해 일부 차량이 탈선하거나 불이 붙었습니다.현지 경찰과 소방 당국은 이 사고로 현재까지 26명이 숨지고 85명이 다쳤다고 밝혔습니다.여객 열차는 아테네에서 출발해 북부 도시 테살로니키를 향하고 있었으며, 승객 약 350명과 승무원 약 20명이 타고 있었던 것으로 전해졌습니다.화물 열차는 테살로니키에서 라리사로 가고 있었습니다.소방당국 대변인은 "두 열차의 충돌이 너무 심각해 매우 어려운 상황에서 대피 작업을 하고 있다"고 설명했습니다.또 구급차 수십 대가 투입됐으며, 화상 환자를 치료할 수 있는 인근 병원에 비상경보를 발령했다고 덧붙였습니다.소방 당국은 수색·구조 작업을 계속하고 있다고 설명했습니다.dpa 통신은 한 구조대원이 현장 취재진에게 "대부분 부상자들이 머리가 다치거나 팔, 다리 골절 등을 당했다며 "불행히도 아직 많은 사람들이 잔해더미 아래 있다"고 말했다고 전했습니다.코스타스 아고라스토스 테살리아 주지사는 국영TV와의 인터뷰에서 "매우 강력한 충돌이었다. 끔찍한 밤이다"며 "현장 상황을 설명하기 어렵다"고 말했습니다.또 "열차 앞부분이 박살 났다"며 "잔해와 차량을 들어 올릴 크레인과 특수 중장비를 들여보내고 있다"고 설명했습니다.현지 SKAI에 방송된 영상에서도 탈선된 열차 칸들은 창문이 깨지는 등 심하게 훼손됐고 두꺼운 연기 기둥이 공중으로 치솟는 모습이 보였습니다.인근 도로에는 부서진 열차 잔해가 흩어져 있었습니다.사고 현장에 화재로 인한 짙은 연기가 가득 차 있어 구조대원들은 헤드램프를 착용한 채 열차에 갇힌 사람들을 구조했습니다.인근 다리 아래로 대피한 한 청년은 SKAI에 "열차 안에는 공포가 가득했다. 사람들이 비명을 질렀다"고 현장 상황을 전했습니다.승객 안젤로스 차무라스는 ERT에 "지진이 난 것 같았다"고 말했습니다.당국은 사고 원인을 조사 중입니다.경미한 부상을 입거나 다치지 않은 승객들은 130㎞가량 북쪽에 있는 목적지 테살로니키를 향해 버스로 이동했습니다.경찰은 부상자와 실종자 파악을 위해 버스로 이동한 승객들의 명단을 작성했습니다.열차 네 번째 차량에 타고 있었다는 한 10대 승객은 버스에서 내리고 나서 현지 기자들에게 사고 당시 급제동이 걸리는 것이 느껴졌고 불꽃이 튀면서 열차가 급정거했다고 설명했습니다.그는 자신이 탄 칸은 탈선하지 않았지만 앞 차량들이 탈선해 부서졌다"며 "첫 칸에서는 불이 났다"고 말했습니다.그는 가방으로 유리창을 깨고 탈출했다고 말했습니다.※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023.03.12.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>알뜰폰 M&amp;A 쉬워진다…제4이통급 '메기' 등장 기대</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003083650?sid=105</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>과기정통부, 제도 개선 추진구조 개혁·이용자 부담 경감데이터 대량구매제도 구체화자체 결합상품 활성화 유도박윤규 과학기술정보통신부 제2차관이 10일 오후 서울 중구 한국지능정보사회진흥원 서울사무소에서 열린 알뜰폰의 경쟁력 강화를 위한 간담회 에서 인사말을 하고 있다.앞으로 알뜰폰 업체들의 인수합병(M&amp;A)이 지금보다 쉬워질 전망이다. 알뜰폰 업체에 제공하는 도매제도 역시 개선돼 독자 상품 설계가 가능해진다. 알뜰폰을 저가·재판매 위주 이미지에서 탈피시켜 '제4 이동통신급' 사업자를 출범시킨다는 게 정부 입장이다.과학기술정보통신부는 알뜰폰 사업자, 전문가와 시장 개선방향 논의를 위한 전담반을 구성해 제도 개선을 추진키로 했다.통신 분야 독과점 해소가 윤석열 정부 핵심과제로 부상한 가운데 알뜰폰을 중요한 수단으로 삼겠다는 구상이다. 이전까지 알뜰폰 정책이 도매대가 인하 등 요금 인하에 맞춰져 있었다면 이제는 요금 인하뿐만 아니라 시장구조 전반을 개선하기 위한 다양한 정책을 추진한다.과기정통부는 알뜰폰 정책을 시장구조 개혁과 이용자 부담 경감 투트랙 차원에서 접근한다.시장구조 개혁 차원에서는 M&amp;A 활성화 방안을 마련하고, 독일 등 사례를 참고해 데이터 대량사전구매 할인제도를 마련할 계획이다.자체 상품까지 설계 가능한 수준으로 알뜰폰 몸집을 키워 이통사와 경쟁가능한 사업자가 나타나도록 유도하기 위한 조치다. 알뜰폰 시장에 이미 진출해있는 국민은행, 카카오, 토스 등 대기업은 물론 기존 사업자들 스스로가 M&amp;A를 통해 몸집을 불려 거대 이통사와 경쟁하는 데 걸림돌이 없는지 절차 등에 대한 점검이 이뤄질 전망이다.데이터 대량 구매 제도는 수년 전부터 도입방침이 나왔지만 구체화되지 않았다. 실제로 도입이 가능하도록 이동통신사를 설득하고 구매 사례를 만들어야 한다. 기존 거대 이통사가 짜놓은 요금테이블이 아닌 자체 결합상품 등이 활성화되면 이통시장에 상당한 위협이 될 것으로 기대된다. 과기정통부는 시장구조 건전화를 위해 이동통신 3사 자회사의 점유율 제한 논의도 본격화한다.이용자 부담 경감 차원에서 과기정통부는 5세대(5G) 이동통신 요금제 확산을 적극 유도할 방침이다. 또 현재 전기통신사업법상 알뜰폰이 종량제(리테일 마이너스) 방식으로 음성·데이터를 이통사로부터 공급받도록 한 수익배분 방식을 다양화할 방안을 연구한다. 알뜰폰 요금상품을 다양화하고, 수익성을 개선하기 위한 조치다.알뜰폰 사업자들은 도매대가 인하를 기본으로, 상대적으로 불리한 유통 시장에서 경쟁력을 강화할 수 있도록 온라인 등 비대면 가입을 용이하게 하고 이통사와 번호이동을 활성화하는 정책을 마련해달라고 요청하고 있다.박윤규 과기정통부 2차관은 지난 주말 알뜰폰 사업자와 간담회를 갖고 “이제 알뜰폰 시장도 단순 재판매 방식과 저가 중심 이미지에서 벗어나야 할 시점”이라면서 “다양한 혁신서비스와 경쟁력 있는 사업자가 등장할 수 있도록 그간 관행을 끊어낼 필요가 있다”고 강조했다.박윤규 과학기술정보통신부 제2차관이 10일 오후 서울 중구 한국지능정보사회진흥원 서울사무소에서 열린 알뜰폰의 경쟁력 강화를 위한 간담회 에서 인사말을 하고 있다.박윤규 과학기술정보통신부 제2차관이 10일 오후 서울 중구 한국지능정보사회진흥원 서울사무소에서 열린 알뜰폰의 경쟁력 강화를 위한 간담회 에서 기념촬영 하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023.03.09.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>모델로 마동석 세우고 한국에 1000억 쓰겠다는 '이 회사'</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004165202?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>첫 번째 모델 마동석 선정···'든든한 해결사'5일 배송·간편 로그인·결제 서비스 등 편의성국내 고객 센터 개설···한국 현지화 시동 걸어타오바오 컬렉션·초이스 등 국내 타깃으로 공개카카오·네이버 협업 강화···대한통운 공동 마케팅배우 마동석이 모델로 등장한 알리익스프레스 TV광고. /사진제공=알리익스프레스 유튜브[서울경제] “알리익스프레스 프사(프로필 사진)로 마동석 사진을 걸었더니 마음이 든든하다”해외 직구 플랫폼 알리익스프레스의 상품평 페이지에는 배우 마동석 사진을 프로필에 걸어둔 한국인을 곳곳에서 찾을 수 있다. 주얼리부터 가전제품, 의류 등 상품 카테고리를 불문하고 다양한 마동석씨의 사진들이 등장한다. 게시판에는 “환불 신청하기 전에 프사를 마동석으로 바꿨다”는 글도 심심치 않게 올라온다. 이유가 뭘까.다름 아닌 마동석의 든든한 이미지 때문이다. 통상적으로 해외 직구를 하다 보면 소통이 원활하지 않거나 배송이 늦어지고, 주문이 누락되는 등 불편한 문제가 빈번히 발생한다. 하지만 구매자 사이에서 ‘프사’를 무섭게 생긴 사진으로 하면 판매자가 물건을 잘 보내거나 의견이 반영 잘 된다는 소문이 퍼지며 마동석씨가 일명 ‘프사 국룰’로 등장했다.배우 마동석씨가 출연하는 알리익스프레스 TV광고 일부. /사진제공=알리익스프레스 유투브알리익스프레스는 이를 이용해 국내 시장의 첫 번째 전속 모델로 배우 마동석을 선택했다. 지난 9일 서울 강남구 삼성동 코엑스에서 열린 알리익스프레스 기자 간담회에서 첫 번째 TV광고가 공개됐다. 그가 지닌 ‘친근하고 믿음직한 해결사’ 이미지가 해외 직구를 더욱 쉽게 만들고자 하는 가치와 부합한다고 회사 측은 설명했다. 광고에서는 마동석이 “프사만 바꾼다고 해결되니? 직구, 형이 싹 바꿔줄게!”라며 주먹을 불끈 쥔다.중국 알리바바그룹 산하 해외 직구 플랫폼 알리익스프레스가 올해 국내 시장을 공략하기 위해 본격 시동을 걸었다. 지난 2018년 한국에 첫 진출한 알리익스프레스는 2~3명이 모여 사업을 시작했다. 5년 간 초석을 다진 결과 국내 시장에서 해외 직구 플랫폼으로는 1위에 올랐다.그동안 알리익스프레스는 ‘직구 편의성’을 목표로 5일 배송 서비스, 간편 로그인·결제 서비스 등을 추진했다. 지난해 11월에는 수도권에 고객센터를 오픈했다. 한송이 알리익스프레스 이사는 “직구를 하다 생기는 최악의 순간을 최소화 하기 위해 CS센터를 국내에 설립했다”며 “국내 인력을 채용해 영어나 기타 다른 언어가 아닌, 어설픈 한국어도 아닌 100% 순수 한국어로 대응이 가능하다”고 말했다.덕분에 알리익스프레스는 매년 월간활성이용자(MAU) 증가세가 50%로 가파르다. 특히 네이버, 카카오(035720) 앱을 통해 가입이 가능하고, 마스터·비자·JCB카드 뿐 아니라 카카오·네이버·토스 페이로도 결제할 수 있도록 편의성을 높인 덕분에 알리익스프레스 앱은 수 개월 간 다운로드 순위 1위를 유지하고 있다.올해 알리익스프레스는 한국 시장만을 위한 서비스 2가지를 추가로 선보인다. 먼저 ‘타오바오 컬렉션’ 서비스로 다양한 스타일의 의류를 저렴한 가격에 판매할 예정이다. 이 서비스는 매일 10만개의 상품이 업데이트된다. 한 이사는 “지난해 시범 운영을 시작한 후 타오바오 컬렉션은 국내 소비자들에게 많은 관심을 받았다”며 “젊은 층이 관심을 가지는 Y2K, 오버사이즈, 바캉스룩, 오피스룩 등 다양한 의류 한 벌을 단 돈 5만원에도 구매할 수 있다"고 말했다.9일 서울 삼성동 코엑스에서 열린 기자 간담회에서 모델들이 타오바오 컬렉션을 입고 패션쇼를 진행하고 있다. /사진제공=알리익스프레스또 알리익스프레스가 직접 엄선한 큐레이션 서비스 ‘초이스’를 새롭게 오픈한다. 이 서비스는 3~5일 안에 배송되는 빠른 배송 서비스를 포함하며, 일부 지역에서는 당일이나 익일 배송도 가능하다. 매달 1일부터 3일 사이에 열릴 ‘초이스 데이’ 이벤트에는 무료 배송과 무료 반품 서비스를 제공할 예정이다.알리익스프레스는 올해 한국 시장에 1000억원의 ‘통 큰’ 투자도 집행한다. 국내에서 급속도로 커지고 있는 e커머스 시장을 타깃으로 다양한 마케팅을 선보이며 사업을 본격화 하겠다는 포부다. 레이 장 알리익스프레스 한국 사업 책임 총괄은 “한국의 e커머스 시장은 전 세계 5위이며, 침투율은 1위”라며 “대규모 투자를 통해 가성비 높은 제품과 사용자 별 맞춤형 쇼핑 경험을 제공하겠다”고 밝혔다.이번에 새롭게 투자하는 자금 1000억원은 인프라 뿐 아니라 마케팅 등에 활용될 예정이다. 레이 총괄은 “우리가 ‘유저 경험’을 가장 중요하게 생각하는 만큼 한국 현지화에 공을 들이고 있다”며 “한국에 최적화된 마케팅을 비롯해 국내 인력도 채용할 예정”이라고 말했다.한 이사 역시 “이달부터 규모 있는 홍보를 진행하고 있다”며 “TV, 휴대폰, 지하철, 아파트 엘리베이터, 영화관 등에서 광고를 할 뿐 아니라 프로모션에도 많은 투자를 할 계획”이라고 설명했다.레이 장 알리익스프레스 한국 사업 책임 총괄이 9일 서울 강남구 삼성동 코엑스에서 열린 기자 간담회에서 사업 계획을 설명하고 있다. /사진제공=알리익스프레스알리익스프레스는 국내 기업들과 협업도 강화할 예정이다. 지난해 9월부터 알리익스프레스의 배송을 맡고 있는 CJ대한통운(000120)은 이날 최근 발표한 통합 배송 브랜드 ‘오네’를 알리익스프레스와 접목한 ‘알리익스프레스 오네’로 통합 마케팅을 추진한다고 밝혔다.신영수 CJ대한통운 택배·이커머스부문 대표는 “매달 100만 박스 이상의 물건을 배송 중이며, 다양한 프로모션이 진행되면 더 많아질 것”이라며 “풀필먼트 센터도 함께 구축해 초격차 역량을 더욱 발전시키겠다”고 말했다. 통관 이후 당일 배송으로 이어지는 성공률이 현재 93% 수준이지만, 이를 95%까지 끌어 올리겠다고 덧붙였다.이날 행사에는 협력사들의 축사가 이어졌다. 김정우 네이버 쇼핑플랫폼 책임리더 겸 이사는 “네이버 쇼핑이 직구 시장에 관심을 가지며 알리익스프레스가 가장 좋은 파트너라고 판단해 2018년부터 손을 잡았다”며 “해외 진입 장벽이 낮아지고 직구 유저들이 늘어날 것으로 예상됨에 따라 좋은 협업을 해 나갈 것”이라고 말했다.오승준 카카오페이(377300) 페이먼트그룹 그룹장은 “카카오페이는 지난 해 7월 간편결제 시스템 등 양사 간 우수한 협업사례를 만들고 있다"며 “알리익스프레스가 상품 판매에만 그칠 게 아니라 한국 고객들 니즈에 맞는 상품군 기획, 홍보, 서비스 개선 등을 통해 이커머스 플랫폼으로 자리매김하길 바란다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023.03.15.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>인터넷카드사 진입 가시화?…업계, 시장포화에 ‘한숨’</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002692665?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>핀테크 진출로 경쟁 심화필요성·차별성 '의문부호'신용카드 이미지ⓒ픽사베이[데일리안 = 이세미 기자] 금융당국이 핀테크 기업의 금융권 진입 문턱을 낮출 것을 약속하면서 인터넷전문카드사가 등장할 수 있을지 주목된다.금융권 일각에선 경쟁 촉진을 이끌 새로운 ‘메기’의 등장이라는 의견을 내비치고 있지만 업계 내 출혈경쟁이 예상된다는 우려와 함께 시장질서가 무너질 수 있다는 지적이 지배적이다.15일 금융권에 따르면 최근 핀테크 업계는 금융당국에 금융업 전반의 진입장벽 완화 필요성과 함께 인터넷전문 카드사 허용 등을 요청했다.앞서 금융당국은 은행의 영업행태 개선을 위해 은행과 비은행간 경쟁 촉진 방안을 추진중에 있다. 그 일환으로 금융과 IT간 진입장벽을 완화하는 방안을 검토하고 있는데, 핀테크 업계가 인터넷전문은행처럼 온라인으로만 영업하는 인터넷전문카드사와 국제 신용카드 매입업무 전용 라이선스를 신설할 것을 요구한 것이다.금융권은 핀테크 업계의 이같은 요구는 곧 인터넷전문은행들도 카드업에 진출할 수 있는 발판이 될 것이라는 분석이다. 카카오뱅크와 토스뱅크와 같은 인터넷전문은행이 당국으로부터 이미 인·허가 과정에서 관련 요건을 심사받았고, 지난 2021년엔 금융위가 신용카드업 겸영 허가 조건을 일부 완화한 만큼 이들이 카드 시장에 진출하는 데 큰 무리는 없을 것이란 관측이다.카뱅의 경우 지난해 상반기 실적 발표 컨퍼런스콜에서 카드업 라이선스 취득 통한 직접 진출도 긍정적으로 검토하고 있다고 밝힌 바 있다. 카뱅은 지난 2018년에도 신용카드업 라이선스 취득을 시도하기도 했었다. 다만 2018년 당시 시장 수익성 악화와 자본 여력 불충분 등을 사유로 진출을 보류했다.토뱅은 출범 당시부터 신용카드업에 진출하겠다는 의지를 꾸준히 내비쳐왔다.핀테크 업계의 바람대로 인터넷전문카드사가 등장하게 되면 소비자 입장에서 긍정적인 효과를 기대해 볼 법하다. 카드상품이나 서비스 선택, 혜택 등의 폭이 넓어질 수 있기 때문이다.그러나 정작 카드사들은 금융당국과 핀테크 업계의 이같은 논의에 난색을 표하고 있다. 이미 활성화된 대형 플랫폼을 보유중인 핀테크 기업들이 시장에 들어서면 카드사들은 당연히 경쟁력 면에서 뒤처질 수 밖에 없다는 위기의식마저 맴돈다.아울러 빅테크의 진입으로 업계 내 출혈 경쟁이 심화될 수 있다는 우려도 큰 상황이다. 카드시장 자체가 포화상태인 데다, 조달비용 증가, 가맹점 수수료 인하 등에 따른 수익 감소가 발생한 상황에서 경쟁자가 늘어나는 것이 달갑지 않다는 이유다.특히 카드업계가 그간 핀테크‧빅테크와의 결제시장 경쟁에서 ‘기울어진 운동장’을 주장하며 규제 완화를 주장해 왔던 점도 이번 논란에 불을 지피고 있다. 카드사 들이 핀테크 업계와 비교해 각종 규제 제한을 받아오며 더딘 성장세를 보여왔기 때문에 시작점부터가 공정하지 않다는 의견이다.아울러 이같은 논의 은행권의 과점 체제 해소가 아닌 업계 경쟁 확대로 이어질 수 있다는 점을 고려할 때 필요성에 대한 의문도 제기된다.금융권 관계자는 “기존의 카드사와 인터넷전문카드사의 차별성에 대한 궁극적인 의문이 든다”며 “카드사들이 많아짐으로써 업계 경쟁력이 확대될 수는 있지만 그에 따른 연체율 증가 등 리스크도 고려해야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>토스플레이스, 오프라인 결제 단말기 첫발 뗐다… 디지털 전환 주도</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000901290?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>사진=토스플레이스  결제 단말기 제작 및 매장관리 솔루션 제공사 토스플레이스는 결제 단말기인 '토스 터미널'과 '토스 프론트', 결제 단말기 전용 소프트웨어 '토스 포스'를 정식 출시한다고 7일 밝혔다.토스플레이스는 오프라인 결제 단말기로 첫 발걸음을 뗐다. 지난 5개월 동안 회사는 수도권 200여 매장에서 결제 단말기를 시범 운영하며 결제 속도와 안정성을 검증했다.실제로 토스플레이스 단말기는 하루 평균 400건 이상의 결제가 이뤄지는 매장에서도 오류 없는 결제 경험을 제공했다는 게 회사 측 설명이다.토스플레이스 측은 점심, 저녁 등 특정 시간에 결제가 집중되는 F&amp;B 매장을 중심으로 테스트를 진행한 결과 안정적인 운영 결과를 확인했다.토스플레이스 단말기는 점주가 사용하는 터미널과 고객이 이용하는 프론트 한 쌍으로 이뤄져 있는데 고객이 결제를 하는 프론트 단말기는 다양한 결제 수단을 지원한다 토스 프론트 단말기에서는 바코드, QR코드, 근거리무선통신(NFC), 마그네틱보안전송(MST) 등의 다양한 결제 수단을 모두 사용할 수 있다. 또한 멀티패드 겸용 7인치 디스플레이는 매장 이벤트 정보를 담는 홍보용도로도 사용이 가능하다. 매장 관리를 위한 무료 소프트웨어 '토스 포스'도 정식 출시한다. 토스 포스는 점주뿐 아니라 포스를 처음 사용하는 아르바이트생도 교육 없이 바로 사용할 수 있을만큼 단순하고 직관적인 사용자 경험(UX)를 제공한다. 버튼 하나로 새로운 메뉴를 등록할 수 있고, 매장 매출과 상품별 판매 추이를 확인할 수 있다. 토스플레이스는 단말기를 시작으로 결제단말기를 중심으로 매장관리, 재고관리, 고객 관리, 세무 솔루션 등을 연결해 디지털 비서로 만들어 나갈 계획이다.최지은 토스플레이스 대표는 "오프라인 매장의 필수 IT 기기인 결제 단말기와 포스를 이용해 매장 장부 관리, 고객 관리 등 사장님이 신경써야 하는 각 분야를 디지털로 전환하고 매장 운영을 효율화를 증대하려고 한다"면서 "앞으로 토스플레이스 단말기와 포스 소프트웨어로 오프라인 매장 운영의 새로운 가치를 줄 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023.03.02.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>KIST, 미국 시카고대와 '맞손'.."양자기술 연구 협력"</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005435305?sid=105</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>2일 업무협약..공동연구, 항호 인력교류 추진[이데일리 강민구 기자] 한국과학기술연구원(KIST)은 2일 서울 본원에서 미국 시카고대와 연구협력을 위한 협력협정을 체결했다.시카고대는 지난 2017년 페르미 국립 가속기 연구소, 아르곤 국립 연구소 등과 함께 ‘시카고 양자 거래소’를 만든 대학이다. 이후 양자 기술 연구협력 체제를 강화하고, 시카고 인근에 124마일에 이르는 양자 네트워크를 구축하는 등 차세대 양자기술 개발을 이끌고 있다.양 기관은 이번 협력협정을 기반으로 양자 분야에서 공동연구와 인력교류를 추진하기로 했다. 윤석진 KIST 원장은 “양자기술 분야에서는 무엇보다도 글로벌 생태계 조성이 중요하다”며 “이번 협약이 우리나라가 양자기술 분야에서 세계적인 성과를 내기 위한 발판이 되기글 기대한다”고 했다.한편, KIST는 지난해 9월 시카고대, 미국 국립표준기술연구소와 함께 한·미 양자오류정정 공동연구센터를 출범하고, 올해 1월에는 세계적인 양자컴퓨팅 하드웨어 선두기업인 자나두와 업무협약을 체결했다.폴 알리비사토스 시카고대 총장(왼쪽)과 윤석진 KIST 원장(오른쪽)이 협약서에 사인을 한 후 기념촬영을 하고 있다.(사진=한국과학기술연구원)</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023.03.09.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>토스뱅크 ‘매달 내는 돈 낮추기’, 월 34만원 원리금 부담 줄였다</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002143879?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 토스뱅크(대표이사 홍민택)가 자사의 ‘매달 내는 돈 낮추기’ 서비스를 이용한 고객이 평균 약 34만 원의 월 원리금 부담을 낮췄다고 밝혔다.해당 서비스는 원금과 이자를 매달 함께 갚아 나가는 ‘원리금 균등 상환’ 고객 중, 상환 기간이 10년 미만인 고객이라면 누구나 신청 가능하다. 서비스를 통한 원리금 연장 가능 기간은 최초 대출 기간을 포함해 최장 10년이며, 고객들은 기간 연장만으로 매월 원리금 부담을 낮출 수 있다.지난해 10월 국내 최초로 선보인 ‘매달 내는 돈 낮추기(이하 매돈낮)’ 서비스는 현재까지 이용 누적 계좌수 1만6000좌를 넘어섰다. 이 중 절반에 가까운 약 43%는 만기 연장을 최장 만기인 10년으로 선택했으며, 신청 고객 중 66%는 중저신용자인 것으로 나타났다.고객들은 매돈낮 서비스를 통해 상환 기간을 연장하더라도 신용점수 하락 등 불이익을 받지 않는다. 가산금리에도 변동이 없다. 단, 고객이 신청한 기간에 따라 발생하는 리스크 비용인, ‘유동성 프리미엄’만 소폭(최소 0.07%p~최대 0.3%p) 반영될 예정이다. 또한 고객들은 토스뱅크의 중도상환수수료 무료 정책에 따라, 가계 건전성 회복 등 자신의 경제 여건을 고려해 언제든 자신이 원하는 때에 대출을 갚을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023.03.06.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>닥사, 상장 가이드라인 보완 작업…'위믹스 깜짝 재상장' 영향 미쳤나</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006665583?sid=105</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>코인원發 '위믹스 재상장' 후…"닥사, 재상장 가능 시점 논의"다시 시작되는 '상장 러시'에 닥사 "가이드라인 보완 필요해"국내 원화 기반 가상자산 거래소 업비트·빗썸·코인원·코빗·고팍스가 만든 디지털자산 거래소 협의체. 출범식. (닥사 측 자료 제공)(서울=뉴스1) 김지현 기자 = 국내 원화 기반 가상자산 거래소 5곳이 만든 디지털자산 거래소 협의체(닥사·DAXA)가 지난해 하반기 발표했던 코인 거래지원(상장) 가이드라인에 대한 보완 작업에 나섰다. 닥사는 빠르게 바뀌는 가상자산 상황에 대비한 조처라는 입장이지만, 일각에서는 상장폐지 두 달여 만에 '위메이드(112040) 표 가상자산 위믹스의 깜짝 재상장'이라는 변수를 맞이한 닥사가 상폐 직후 재상장에 대한 기간 등 이전보다 구체적인 상장 가이드라인 마련에 나선 것으로 보고 있다.닥사 문제에 정통한 관계자는 6일 "우선적으로 투자자 보호에 중점을 두고 상장 가이드라인을 손보고 있다"며 "최근 '코인원 위믹스 재상장 사건'도 발생한 뒤 (닥사도) 곤욕을 치르다 보니 내부 통제에 대한 필요성과 재상장 시점에 대한 논의도 이뤄지고 있다"고 말했다.앞서 닥사는 민당정 간담회의 협의에 따라 지난해 9월 30일 자문위원회 논의를 거쳐 상장 심사 가이드라인을 도입한다고 밝힌 바 있다. 이후 닥사 소속 거래소들은 10월 10일부터 닥사의 가이드라인 틀 내에서 '자율적'으로 상장을 진행해왔다.지난해 '루나 사태' 'FTX 사태' 이후 가상자산에 대한 투자심리가 크게 꺾임에 따라 이전보다 거래소들이 상장 움직임을 적극적으로 가져가지 않으면서 상장 가이드라인의 필요성이 제기되거나 '상장 논란'이 불거지진 않았다.그러나 올해 들어 다시 거래소들이 '상장 러시'를 벌이는 모양새라 닥사의 입장에서는 상장 가이드라인에 대한 업데이트의 필요성을 느끼고 있다. 실제 국내 최대 거래소 업비트의 경우, 지난해 닥사 표 가이드라인 적용 이후 지난해 말까지 앱토스 코인 한 개만 상장했다. 그러나 올해 들어서는 이달 초까지 11개의 가상자산을 상장했다. 빗썸도 가이드라인 적용 이후 지난해 말까지 6개의 가상자산을 상장했지만 이달 초까지 벌써 10개의 가상자산을 상장했다.닥사 관계자도 이같이 빠르게 변화하는 시장 상황에 따른 가이드라인 업데이트 필요성에 대해 공감했다. 그는 "가이드라인 자체가 최소한으로 거래소들이 준수해야 할 부분들을 모아놓은 것"이라며 "당연히 시장 상황이 빠르게 변화하고 새로운 가상자산들이 계속해서 등장하는 상황 속에서 가이드라인 보완은 지속적으로 이뤄지는 게 맞다"라고 말했다.그는 이어 '코인원의 깜짝 위믹스 재상장'이 가이드라인 업데이트에 영향을 미쳤나라는 질문에 "그렇게 보실 수도 있겠지만 가이드라인은 계속 보완해야 하는 부분이라서 기존부터 논의가 있어왔다고 보는 게 적절하다"라고 답변을 대신했다.다만 그는 "(가이드라인 속) 재상장에 대한 개념을 정해야 한다는 지적은 있을 수 있다"며 "이런 부분은 당연히 논의할 수 있는 부분이고 지적이 된다면 논의를 하는 게 맞는 부분"이라고 강조했다.그는 끝으로 '상장 가이드라인의 내용 변경 공유 가능성'에 대해 "공개할 수 있는 부분이라면 공개를 하겠지만 아직까지 공개 일자에 대해서도 명확히 결정한 바가 없다"며 "저희가 특히 (상장) 가이드라인을 공개하면, 그 부분만 딱딱 충족한 뒤 나머지는 정보 제공을 하지 않거나 비공개 처리하는 프로젝트들이 등장할 수 있다. 이러한 부작용을 생각해서 그간 외부에 노출은 하지 않았다"라고 밝혔다.한편 가상자산·블록체인 업계에 따르면 이번 '위믹스 깜짝 재상장'으로부터 닥사 소속 거래소들 사이에서도 '재상장 가이드라인'에 대한 필요성을 제기했다.업계 관계자는 "아무래도 이번 위믹스 재상장으로 인해 거래소들끼리도 불편한 부분들이 있다"며 "이런 부분들을 해소하거나 방지하기 위해서라도 재상장 내용을 담은 가이드라인의 필요성을 내부에서 제기하고 있다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023.03.07.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>"은행 왜가? 모바일로 다 되는데"…인터넷뱅킹 고객 2억명 돌파</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004859260?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>자료=한국행인터넷뱅킹 등록 고객수가 2억명을 돌파했다. 인터넷뱅킹 일평균 이용금액과 이용건수는 각각 76조원, 1900만건을 넘어섰다.한국은행이 7일 발표한 '2022년중 국내은행 인터넷뱅킹 서비스 이용현황'에 따르면 지난해 말 기준 국내은행의 인터넷뱅킹(모바일 포함) 등록 고객수는 2억704만명으로 집계됐다. 1년 전보다 8.5% 증가했다.이중 모바일뱅킹 등록 고객수가 1억6922만명(전년 대비 10.3% 증가)으로 전체 인터넷뱅킹 고객수 증가를 이끌었다. 케이뱅크, 카카오뱅크, 토스뱅크 등 인터넷전문은행이 등장하면서 모바일뱅킹 고객수는 2020년 10.7%, 2021년 13.5%, 2022년 10.3% 등 두자릿수 증가율을 기록하고 있다.고객수가 늘면서 인터넷뱅킹 이용률도 증가했다. 지난해 19개 국내은행과 우체국 예금고객 기준 인터넷뱅킹 일평균 이용금액과 이용건수는 각각 76조6000억원, 1971만건으로 집계됐다. 각각 전년 대비 8.2%, 13.8% 증가했다. 2006년 관련 통계 작성 이후 역대 최대 수준이다.이중 모바일뱅킹 일평균 이용금액과 이용건수는 각각 14조2000억원, 1684만건을 기록하며 전년 대비 각각 10.3%, 17.3% 늘었다. 전체 인터넷뱅킹 이용실적 중 모바일뱅킹이 차지하는 비중은 이용금액 기준 18.6%, 이용건수 기준 85.4%를 차지했다. 연간 기준 인터넷뱅킹 이용실적에서 모바일뱅킹 이용건수 비중이 85%를 넘어선 건 처음이다.특히 인터넷뱅킹을 통한 비대면 대출신청서비스 일평균 이용금액은 1조1684억원으로 전년 보다 54.9% 급증했다. 같은 기간 이용건수는 13.5% 증가한  3만5000건으로 집계됐다.한은은 "케이뱅크, 카카오뱅크, 토스뱅크 등 인터넷전문은행들의 신용대출 재개와 비대면 주택담보대출 출시 등에 주로 기인했다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023.03.11.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>할인해도 월 4만7800원, '토스 알뜰폰' 알뜰한가요?</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/665/0000000598?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>알뜰하지 않은 알뜰폰❷토스 알뜰폰 5G 요금제 비교 이통사보다 비싼 알뜰폰 요금데이터 적게 쓰거나 많이 써야…알뜰폰 시장에 새 사업자가 등장했다. 인터넷전문은행으로 흥행몰이에 성공한 토스다. 지난 1월 토스모바일을 통해 알뜰폰 시장에 진출한 토스는 2월 가입 대상을 전체 고객으로 확대하면서 보폭을 넓히고 있다. 문제는 토스의 알뜰폰 요금제가 그리 알뜰하지 않다는 점이다. 더스쿠프가 알뜰폰 요금제를 비교해봤다. 토스모바일의 요금제가 이동통신사와 비교해 저렴하지 않다는 비판이 나온다.[사진=뉴시스] 알뜰폰 시장에 새 사업자가 진출했다. 주인공은 2400만명의 사용자를 거느린 토스다. 토스는 토스모바일을 앞세워 지난 1월 30일 알뜰폰 시장에 뛰어들었다. 2월 22일부턴 토스모바일을 이용할 수 있는 고객을 '토스' 이용자 전체로 확대했다. 퀵서비스로 유심을 배송받아 서울과 수도권으로 한정했던 가입 대상을 전국으로 넓혔다. 토스는 요금제 선택과 유심 배송 신청까지 평균 3분, 퀵서비스로 유심을 받기까지 평균 17분이 걸리는 편리한 가입 과정을 강점으로 꼽았다. 그러자 배달음식을 받는 것보다 휴대전화를 개통하는 데 더 짧은 시간이 걸렸다는 호평이 이어지고 있다. 간편함과 빠른 서비스라는 토스의 특기가 이번에도 시장에 먹히는 듯 보였다. 하지만 일부 소비자의 반응은 사뭇 달랐는데, 대부분 요금제가 비싸다는 불만이었다. 그렇다면 토스의 알뜰폰 요금제는 정말 비쌀까. 이를 위해 토스와의 경쟁이 예상되는 KB국민은행의 리브엠, 이동통신3사의 요금제를 비교했다. 우선 토스모바일의 요금제부터 살펴보자. 요금제는 '무제한 100GB' '무제한 71GB' '무제한 15GB' '무제한 7GB' 4종류다.[※참고: 객관적인 비교를 위해 진행 중인 토스의 2만원 할인 이벤트는 가격에서 제외했다. 휴대전화 할부금도 포함하지 않았다.] 토스와 비교할 요금제는 데이터 제공량으로 구분했다. 과학기술정보통신부의 자료에 따르면 지난해 12월 기준, 우리나라 5G 이용 고객의 월평균 데이터 사용량은 2만7589MB였다. GB로 환산하면 한달에 26. 4GB를 사용했다. 30GB 요금제가 가장 적절한 셈이다. 하지만 토스모바일은 해당 요금제를 내놓지 않았다. 토스모바일 요금제 가운데 무제한 71GB(5만4800원)를 비교 대상으로 삼은 이유다.[※참고: 토스모바일은 시장 조사를 통해 소비자가 가장 선호하는 요금제를 조사했고, 그 결과를 토대로 4종류의 요금제를 출시했다고 밝혔다. 하지만 이는 이통3사의 전략과도 맞닿아 있다. 이 문제는 후술했다.] 이제 하나씩 살펴보자. 현재 KT와 LG유플러스의 통신망을 활용하는 토스모바일의 무제한 71GB의 월정액은 5만4800원이다. 매월 30GB의 데이터를 사용한다고 가정하면 2000원의 데이터 캐시백을 받을 수 있다. 토스모바일은 데이터를 20~40GB 미만으로 사용한 고객에게 2000원을 토스포인트로 환급해 준다. 여기에 토스페이로 통신비를 결제하면 5000원(토스포인트)의 할인 혜택도 있다. 할인 혜택을 모두 적용한 월 요금은 4만7800원으로 내려간다. 이통3사 통신망을 모두 사용하는 리브엠의 5G 요금제는 데이터 10~12GB 이하와 110 GB 이상으로 양분돼 있다. 이중 데이터 제공량이 110~150GB인 요금제를 비교군으로 삼았다.다만, 리브엠의 5G 요금제 중 30GB의 데이터를 제공하는 '5G 든든 30 GB' 요금제의 월정액이 4만4500원으로 가장 저렴하지만 이용 기간이 1년으로 제한돼 있어 비교 대상에서 제외했다. '5G 든든 30GB'는 LG유플러스망을 쓰는 프로모션 요금제로 1년 후 '5G 든든 150GB 요금제로 전환된다.데이터양 110GB 이상 요금제 중 가장 저렴한 요금제는 '5G든든 무제한 150GB(4만8900원·LG유플러스망)' '5G무제한 110GB+(4만7500원·KT망)' '5G무제한 110GB +(4만9500원·SK텔레콤망)' 등 세가지다. 요금제 모두 월정액이 토스모바일 요금제보다 5300~7300원 저렴하다. 여기에 KB국민은행 실적에 따라 제공되는 월 3300원(최대 금액)의 할인을 제하면 요금은 4만4200~4만6200원으로 낮아진다. 토스모바일의 할인을 모두 받은 금액 4만7800원보다 더 저렴하다. 이동통신3사와 비교하면 어떨까. 5G 이용자의 월평균 데이터 사용량은 27GB를 기준으로 하면 중간 요금제와 비교가 가능하다. SK텔레콤 베이직플러스 24GB(5만9000원), KT 5G 슬림플러스 30GB(6만1000원), LG유플러스 5G 심플+ 31GB(6만1000원) 등이다. 토스모바일과 리브엠의 요금제와 비교하면 5000~1만원가량 비싸다. 하지만 통신비의 25%를 할인해 주는 '선택약정할인'을 적용하면 얘기가 달라진다.선택약정을 적용한 이통3사의 월정액은 4만4250~4만5750원으로, 할인을 적용한 토스모바일·리브엠의 월정액 4만4200~4만7800원과 비교하면 더 저렴해진다.[※참고: 선택약정할인은 휴대전화 단말기 할인 지원금 대신 받을 수 있는 요금할인 혜택이다. 단말기 할인 지원금을 받지 않거나 24개월 약정이 만료된 단말기로 재약정 가입할 때 요금할인을 받을 수 있다.]물론 데이터를 110GB 이상 제공하는 요금제(월정액 6만9000~7만5000원→선택약정 적용 시 5만1750~5만6250원)와 비교하면 토스모바일과 리브엠의 요금제가 더 저렴하다. 데이터를 100GB 이상 쓰지 않은 사용자라면 토스모바일과 리브엠을 찾을 메리트가 떨어진다는 거다. 통신업계 관계자는 "알뜰폰을 찾는 고객은 단말기 할부가 끝났거나 자급제로 스마트폰을 구입한 고객"이라며 "요금제만 놓고 봤을 땐 알뜰폰이나 이통3사가 큰 차이가 없다"고 말했다. 그는 "이통3사의 멤버십 혜택이나 다양한 카드 할인 혜택을 감안하면 그 차이는 더 줄어들 수 있다"고 덧붙였다.  토스모바일 요금제는 데이터 사용량에 따라 2000~1만원의 데이터 캐시백을 제공한다.[사진=뉴시스] 그렇다고 알뜰폰 요금제가 모두 경쟁력이 없는 건 아니다. 데이터 사용량이 10GB 이하라면 알뜰폰 요금제가 훨씬 저렴하다. 10GB를 기준으로 알뜰폰 업체의 요금제는 3만원대 이하다. 이통3사의 10GB 요금제가 4만원대(선택약정 적용 시)라는 걸 감안하면 1만원가량 저렴한 셈이다. 알뜰폰은 데이터 이용량이 10GB를 밑돌거나 100GB을 웃도는 이용자에게 유리하다는 거다. 알뜰폰 업계는 어쩔 수 없는 현상이라고 항변한다. 알뜰폰 업계 관계자의 말을 들어보자. "알뜰폰 업체는 5G 요금제 수익의 60 %를 망을 빌려주는 이통 3사에 제공한다. 영세한 알뜰폰 업체가 5G 요금을 낮추는 데 한계가 있을 수밖에 없다. 이통사가 30GB 요금제의 도매대가를 크게 낮추지 않는 이상, 중소 알뜰폰 업체가 관련 요금제를 출시하는 건 어렵다. 이통사에 수익의 60% 이상을 주고나면 남는 게 없다. 30GB 요금제를 이통3사 자회사만 출시하는 덴 이유가 있다. 관련 정책이 필요하다." 고객을 뺏기지 않으려는 이통3사의 전략과 알뜰폰 업계를 위한 정부의 정책이 부재한 사이, 알뜰폰이 알뜰함을 잃어버렸다는 거다.  강서구 더스쿠프 기자 ksg@thescoop.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>"그리스 사상 최악의 열차사고"…최소 38명 사망, 한국인 피해 NO</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004857033?sid=102</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>[(상보)외교부 "현재까지 확인된 피해 없어, 확인 작업 이어갈 것"]1일(현지시간) 그리스 라리사 인근에서 열차 충돌 사고가 발생해 최소 26명이 숨졌다. 충격으로 열차가 선로를 완전히 벗어났다. 파손된 잔해 속에서 연기가 피어오르고 있다./사진= 뉴스1그리스에서 발생한 열차 충돌 사고와 관련해 현재까지 한국인 피해는 없다고 외교부가 밝혔다.1일 뉴시스에 따르면 외교부는 그리스에서 발생한 열차 충돌사고와 관련, "현재까지 확인되거나 접수된 한국인 피해는 없다"고 밝혔다. 외교당국은 사고 발생 이후 현지 공관을 통해 한국인 피해자가 있는지 확인 작업을 이어갈 예정이다.이날 그리스 중부 라리사 외곽에선 아테네로부터 북부 테살로니키로 향하는 열차와 테살로니키에서 라리사로 향하는 화물차가 정면 충돌했다.로이터통신과 AFP 등은 이 사고로 32명이 숨지고 85명이 다쳤다고 보도했다. 미국 CNN은 사망자가 최소 38명에 달한다고 전했다. 사고 원인은 아직 밝혀지지 않았다.열차는 강한 충돌 여파로 'ㄱ'자로 꺾어져 선로 밖으로 튕겨져 나갔다. 일부 열차 칸에서는 화재도 발생했다.콘스탄티노스 아고라스토스 주지사는 열차에 타고 있던 승객 350명 중 250명이 버스로 대피했다고 전했다. 부상자 85명 중 53명은 병원으로 이송됐다.현장에서 소방 인력 150명과 구급차 40대가 구조 작업을 이어가고 있지만 열차 속에 갇힌 사람들을 꺼내는 데 난항을 겪고 있다. 한 구조대원은 "평생 이런 사고를 본 적이 없다"며 "비극"이라고 말했다. 그러면서 "5시간이 지났는데 시신이 발견되고 있다"고 했다. 1일(현지시간) 그리스 라리사에서 발생한 열차 충돌 사고로 다친 승객이 구급대원에게 응급 처치를 받고 있다.  /사진= 뉴스1소방 당국 대변인은 브리핑에서 "두 열차가 매우 강하게 충돌한 것으로 보인다"며 "승객들이 대피하기 매우 어려웠을 것"이라고 설명했다.현지 매체는 "그리스 사상 최악의 열차 사고"라며 사순절 연휴를 맞아 가족과 시간을 보내기 위해 집으로 향하는 학생들이 많은 시기였다고 전했다. 그리스 철도 회사 OSE의 기관사 노조 위원장은 "상상할 수 없는 사고"라며 "안전 시스템이 작동했다면 피할 수 있었을 것"이라고 밝혔다.승객 안젤로스(22)는 AFP통신에 "악몽이었다"며 "아직도 몸이 떨린다"고 말했다. 그는 "충돌이 마치 거대한 지진 같았다"고 회상했다. 현지 매체 올라리사와 인터뷰 한 젊은 여성 승객은 눈물을 흘리며 "귀청이 터질 듯한 소리가 났고 열차가 몇 분 동안 멈춰 있었다"고 전했다. 열차에 타고 있던 남성은 "주변에 다른 부상자들은 피로 얼룩져 있었다"고 말했다.그리스 정부는 긴급회의를 열고 보건부·내무부 장관 등이 각각 현장과 위기관리센터를 나눠 맡아 대응하고 있다.1일(현지시간) 그리스 라리사에서 발생한 열차 충돌 사고 현장을 한 구조 대원이 지나가고 있다. 열차 차체는 완전히 찌그러졌다./사진= 뉴스1</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023.03.13.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>KB증권, ‘토스뱅크 제휴 계좌개설 서비스’ 오픈 이벤트 실시</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005100708?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>‘토스뱅크’서 KB증권 위탁계좌 최초개설 개인 대상 국내주식 수수료 혜택, 국내주식 쿠폰 1만원권 지급KB증권은 ‘토스뱅크’를 통한 비대면 위탁 계좌개설 서비스 오픈을 기념해 최대 2만원 상당의 혜택 증정 이벤트를 실시한다고 13일 밝혔다.토스뱅크 이용자들은 앱의 ‘상품찾기’&gt; ‘제휴사 서비스’&gt; ‘목돈 굴리기’ 메뉴에서 KB증권의 위탁 계좌를 간편하게 개설할 수 있게 됐다. 이날부터 다음달 30일까지 토스뱅크에서 KB증권 위탁 계좌를 최초 개설한 신규 개인 고객 대상으로 최대 2만원 상당의 혜택을 제공한다.먼저, 계좌개설 즉시 고객의 쿠폰함으로 국내주식쿠폰 1만원권이 자동 지급된다. 지급받은 국내주식쿠폰은 KB증권 온라인 매체(HTS, MTS, 홈페이지)에서 국내주식 1만원 이상 매수시 사용할 수 있다. 쿠폰 유효기간은 쿠폰 발급일로부터 30일이다.두번째 혜택은, 첫번째 혜택을 통해 받은 주식쿠폰을 유효기간 내에 사용하면 1만원 상당의 해외 소수점 주식을 지급 받을 수 있다. 해외소수점 주식은 각 2000원 상당 총 5종목(애플, 마이크로소프트 등)으로 구성돼 있고 주식쿠폰 사용일 익월에 지급된다.KB증권 김영일 M-able land Tribe장은 “토스뱅크를 통해 KB증권과 거래를 시작한 고객에게 감사의 마음을 전하고자 이벤트를 준비했다”며 “이번 이벤트로 고객들은 국내외 주식거래에 대한 폭넓은 경험을 하게 될 것”이라고 말했다.금융투자상품은 투자 결과에 따라 원금손실이 발생할 수 있고, 해외주식의 경우 환율 변동에 따른 손실이 발생할 수 있으며, 이는 투자자에게 귀속된다.이벤트 관련 상세한 사항은 토스뱅크 앱을 참조하거나 KB증권 MTS ‘M-able(마블)’과 ‘M-able mini(마블미니)’, 홈페이지 및 고객센터 문의를 통해 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023.03.14.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>토스·카카오뱅크 ‘억대 연봉’ 합류…주요 시중은행보다 많아</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002299709?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>토스뱅크 1억1900만원…“보안 중요한 인터넷은행 특성 상 전문가 필요”카카오뱅크 “스톡옵션 제외시 1억700만원”케이뱅크 9600만원으로 1억원 육박 ◆…사진=토스뱅크 제공지난해 토스뱅크, 카카오뱅크 등 인터넷전문은행의 평균 연봉이 1억원을 넘은 것으로 나타났다. 주요 시중은행인 KB국민은행, 우리은행보다 많은 금액이다. 케이뱅크도 9600만원으로 1억원에 육박했다.   14일 각 인터넷은행이 공시한 '2022년 지배구조 및 보수체계 연차보고서'에 의하면 작년 토스뱅크 임직원의 평균 연봉은 1억1900만원이다. 이는 2021년 6100만원 대비 95% 늘어난 수치다. 다만 토스뱅크가 2021년 10월 출범한 영향도 있는 것으로 분석된다.   토스뱅크의 평균 연봉은 주요 시중은행인 KB국민은행 1억1300만원, 우리은행 1억400만원과 비교해 높은 수준이다.   토스뱅크 관계자는 "보안이 중요한 인터넷은행 특성 상 IT전문가들이 집중되어 있고 시중은행의 차·부장급 인력들이 많은데다가 시중은행 대비 종사자 인원이 적은 관계로 연봉 수준이 높아보일 수 있다"고 말했다.   이어 "출범 초기 고연차 경력직을 위주로 채용했고 지난해 인재를 유치하기 위해 일시적 보상안 등을 지급해 개발자 인력을 충원한 영향도 있다"고 덧붙였다.   카카오뱅크의 작년 임직원 평균 연봉도 1억4600만원으로 집계되면서 KB국민은행과 우리은행 연봉 수준을 넘어선 것으로 나타났다. 다만 카카오뱅크 측은 스톡옵션 제외시 작년 평균 연봉은 1억700만원 수준이라고 설명했다. 카카오뱅크 2021년 평균연봉은 9560만원이었다.   케이뱅크의 지난해 임직원 평균 연봉은 9600만원으로 1억원에 육박했다. 2021년 8000만원 대비 20% 증가한 수치다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>"열차 박살났다"…그리스서 열차 2대 충돌로 최소 26명 사망</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003262871?sid=104</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>그리스에서 지난달 28일(현지시간) 밤 열차 2대가 충돌하며 최소 26명이 숨졌다.      AP·로이터통신에 따르면 이날 늦은 밤 그리스 중부 테살리아주 라리사 인근에서 승객 약 350명이 타고 있던 열차와 화물 기차가 충돌하며 차량 여러 칸이 탈선하고 최소 3칸에 불이 났다.      1일(현지시간) 새벽 그리스 테살리아주 라리사 인근 열차 추돌 사고 현장에서 연기가 피어오르고 있다. 28일 늦은 밤 발생한 이 사고로 현재까지 26명이 숨진 것으로 현지 경찰 및 소방당국은 파악하고 있다. AP=연합뉴스           현지 경찰과 소방 당국은 이 사고로 현재까지 26명이 사망하고 85명이 다친 것으로 파악하고 있다.      외신은 현지 정부 관계자를 인용해 구조에 군대가 투입됐으며 인근 병원 2곳이 비상근무에 들어갔다고 밝혔다.      여객 열차는 아테네에서 출발해 북부 도시 테살로니키를 향하고 있었다고 한다.       1일(현지시간) 한 남성이 그리스 테살리아주 라리사 인근에서 전날 발생한 열차 추돌 사고 현장을 지나고 있다. 로이터=연합뉴스       콘스탄티노스 아고라스토스 테살리아 주지사는 국영 TV와의 인터뷰에서 “매우 강력한 충돌이었다”며 “열차 앞부분이 박살 났다. 잔해와 차량을 들어 올릴 크레인과 특수 중장비를 들여보냈다”고 설명했다.      현지 SKAI에 방송된 영상을 보면 탈선된 열차 칸들은 창문이 깨지는 등 심하게 훼손됐고 두꺼운 연기 기둥이 공중으로 치솟는 모습이다. 인근 도로에는 부서진 열차 잔해가 흩어져 있다.      사고 현장에 화재로 인한 짙은 연기가 가득 차 있어 구조대원들은 헤드램프를 착용한 채 열차에 갇힌 사람들을 구조한 것으로 전해졌다.      부상이 없거나 경미한 상처를 입은 사람들은 버스를 타고 사고 지점에서 약 130㎞ 떨어진 목적지 테살로니키를 향해 버스를 타고 이동했다고 AP 통신은 전했다.      정부는 이날 발생한 기차 충돌 사고로 한국인 피해가 있는지 확인하고 있다고 외교부 당국자가 이날 전했다.        그리스 당국은 외국인 사상자가 발생했는지를 현재까지 확인하지 않은 것으로 전해졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023.03.13.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>CU, 자체 택배 서비스 '알뜰택배'로 새단장…택배 최초 2+1 행사 실시</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003083755?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>CU 알뜰택배CU는 자체 초저가 택배 서비스 'CU끼리택배'를 'CU알뜰택배'로 새롭게 선보인다고 13일 밝혔다. CU는 리브랜딩을 맞아 편의점 업계 최초로 택배 2+1 행사를 진행한다.CU알뜰택배는 CU의 전국 물류 네트워크를 활용해 CU에서 접수한 택배를 고객이 배송을 지정한 CU 점포에서 찾아가는 편의점 택배 서비스다. 5kg 이하 소형 택배만 취급하며 일반 택배 보다 배송 기간이 조금 느린 대신 가격을 낮춘 것이 특징이다.그간 CU는 점포를 통해 주고 받는 배송을 강조하기 위해 CU끼리택배라는 명칭을 사용해 왔다. 고객에게 높은 배송 품질과 합리적인 가격, 친숙한 이미지의 서비스를 제공하기 위해 CU알뜰택배로 브랜드명을 변경했다.CU알뜰택배의 500g초과~1㎏ 이하 가격은 2100원으로 국내에서 가장 저렴하다. 나머지 구간 역시 500g 이하는 1800원, 1㎏ 초과는 2700원으로 일반 택배 대비 절반 가격이다.CU는 서비스 명칭 변경과 함께 오는 4월 말까지 업계 최초로 CU알뜰택배 2+1 행사를 진행한다. 기존에 일반 상품에만 적용하던 +1 증정 행사를 생활 물가 안정을 위해 서비스 영역으로 까지 확대했다. CU 자체 애플리케이션(앱) 포켓CU에서 CU알뜰택배 예약 후 점포 접수를 2건 완료하면 중량 상관없이 사용 가능한 무료 쿠폰 1장이 자동 발급된다.또한 이용 접근성을 높이기 위해 이달 토스 앱에 CU알뜰택배 예약 창구를 열었다. 가격은 중량 무관 5kg 이하 동일 서비스 최저가인 2100원이며 토스페이에 등록된 카드로 결제하면 된다. 일반 택배 예약은 오는 4월 중 추가로 오픈 예정이다.박희진 BGF리테일 서비스플랫폼팀장은 “CU알뜰택배는 고객 니즈를 반영해 서비스 품질을 높이는 한편 차별화된 혜택을 더욱 강화해 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023.03.09.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>하나은행도 ‘알뜰폰 요금제’ 출시</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002560467?sid=105</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>12개월간 월 최대 5000원 할인하나은행(은행장 이승열)이 알뜰폰 요금제 비교 플랫폼인 ‘㈜고고팩토리’와 디지털 기반의 금융·통신 서비스 제공을 위한 알뜰폰 요금제를 출시했다고 9일 밝혔다. 금융권의 알뜰폰 시장 진출이 잇따르면서 통신시장의 요금경쟁도 활기를 띨 전망이다. 이번에 출시된 하나은행·고고모바일 제휴 요금제를 사용하면 통신사 할인, 휴대전화 요금 자동납부 할인, 하나카드 결제출금 할인, 하나은행 첫 거래 추가 할인 등을 통해 첫 개통일로부터 12개월 동안 매월 최대 5000원의 요금 할인 혜택을 받을 수 있다.특정 이동통신사가 아닌 요금제 비교 플랫폼과 손잡고 출시된 제휴 상품이어서 소비자가 본인의 스마트폰 이용 패턴에 따라 맞춤형 요금제를 선택할 수 있다. 하나은행 관계자는 “앞으로도 중소 알뜰폰 사업자와 하나은행을 거래하는 손님 모두가 만족할 수 있는 서비스를 제공하겠다”고 말했다.금융권의 알뜰폰 시장 진출도 본격화하고 있다. 토스 운영사 비바리퍼블리카의 자회사인 토스모바일은 지난 1월 30일 알뜰폰 시장에 정식 진출했다. 토스모바일은 특히 이동통신 3사망을 모두 아우르는 상품을 제공하고 있다. 토스모바일은 이번 서비스를 통해 통신 서비스의 경험을 혁신하는 경쟁을 주도하겠다는 방침이다. KB국민은행은 2019년 12월 규제 샌드박스(탈규제 시범 적용 사업)를 통해 ‘리브엠’ 서비스를 선보였다. 이 회사의 가입자 규모는 지난해 10월 기준 약 35만 명으로 2020년에 비해 4배 가까이 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023.03.13.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>입사 ‘웰컴 키트’ 열어 볼까…너는 슬리퍼? 나는 AI 스피커!</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002631078?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>빅테크 기업 ‘웰컴 키트’ 업그레이드 경쟁신학기 선물 ‘키즈폰’은 캐릭터 대격돌‘온라인 선물하기’ 시장 계속 팽창 중카카오가 2023년도 신입개발자를 위해 준비한 ‘웰컴 키트’ 구성품들. 사진 카카오 제공누군가의 새로운 시작을 응원하는 일만큼 기분 좋은 일은 없다. 만물이 소생하는 3월은 누군가의 시작을 응원하기 좋은 때다. 최근 디지털 시대를 넘어 인공지능 시대로 가면서 시작을 응원하는 의미의 입사와 입학 선물도 진화하고 있다. 네이버, 엔씨소프트 등 빅테크 기업들은 신규 입사자에게 건네는 선물에 ‘디지털 굿즈(기념품)’와 인공지능 스피커 등을 포함했고 신학기 선물로 인기인 키즈폰 시장에는 가장 인기 있는 지식재산권(IP) 캐릭터들이 총출동했다.■ 디지털 아트부터 인공지능 스피커까지엔씨소프트가 신규 입사자를 위한 ‘웰컴 키트’를 리뉴얼했다고 9일 밝혔다. 엔씨소프트 제공국내 빅테크 기업들은 앞다투어 신규 입사자에게 주는 ‘입사 선물’(웰컴 키트)의 수준을 업그레이드(상향)하고 있다. 최근 몇 년동안 ‘개발자 모시기’라는 말이 나올 정도로 인재 채용 경쟁이 심했던 빅테크 업계에서 각 기업이 입사 선물에서부터 경쟁력을 드러내려 하는 모양새다. 국내 빅테크 업계에서는 2011년 네이버와 엔씨소프트가 ‘웰컴 키트’를 도입하면서 기업이 준비하는 입사 선물 문화가 본격적으로 퍼져나갔는데 최근 그 수준이 진화를 거듭하고 있다. 엔씨소프트는 지난 9일 신규 입사자를 위한 웰컴 키트를 리뉴얼했다고 발표했다. 신규 입사자의 첫 출근일에 지급되는 환영 선물에 기업 미션인 ‘푸시, 플레이’(PUSH, PLAY)의 가치를 담아 무선 충전기, 노트 등이 들어 있는 ‘푸시 박스’와 엔씨소프트의 지식재산권을 활용한 증강현실 필터 등 디지털 굿즈가 들어 있는 ‘플레이 박스’ 등 두 가지 패키지를 선보였다. 노트, 펜, 마우스패드, 핸드폰 그립홀더 등에 그쳤던 기존 웰컴 키트에서 엔씨소프트의 정체성을 보다 더 확실하게 드러내는 쪽으로 진화했다는 설명이다. 카카오도 올해 신입 개발자 공개채용 최종합격자에게 입사 선물을 제대로 하기 위해 웰컴 키트의 수준을 높였다. 카카오가 지식재산권을 소유한 캐릭터 상품을 충분히 경험할 수 있도록 합격자 이름이 적힌 특별사원증을 걸고 있는 캐릭터 인형과 함께 노트북 파우치, 다이어리, 캘린더, 후드집업(모자 달린 상의), 핀배지, 스티커팩, 우산 등으로 구성했다.네이버는 자사의 인공지능 스피커인 ‘클로바 스피커’와 업무노트 세트, 기업 문화를 담은 수첩 등으로 신규 입사자용 웰컴 키트를 구성했다. 2011년 업계에서 가장 먼저 웰컴 키트를 도입한 네이버는 “신규 입사자에게 ‘웰컴 키트’가 회사의 첫인상이기 때문에 회사의 문화와 철학을 잘 전달할 수 있는 물품으로 구성하고 있다”고 설명했다. 금융 플랫폼 ‘토스’를 운영하는 비바리퍼블리카는 수요 분석을 통해 실용적인 아이템 위주로 웰컴 키트를 제작해 신규 입사자를 환영하고 있다. 직원들을 상대로 입사 초기에 꼭 필요한 물품에 대한 설문조사를 실시해 이것을 바탕으로 웰컴 키트를 제작했다는 설명이다. 사무실에서 신을 수 있는 슬리퍼와 반팔 티셔츠, 후드집업, 텀블러, 노트와 펜, 스티커 등으로 구성되어 있다.금융 플랫폼 ‘토스’를 운영하는 비바리퍼블리카는 ‘수요 분석’을 통해 실용적인 아이템 위주로 ‘웰컴 키트’를 제작했다. 비바리퍼블리카 제공진화한 입사 선물을 받은 신규 입사자들의 반응도 좋다. 한 엔씨소프트 입사자는 “큐알(QR) 코드로 지급된 3차원(3D) 아트워크를 보니 게임 회사에 입사했다는 걸 실감할 수 있었다”며 “사무용품에도 엔씨소프트의 정체성이 세련되게 담겨 있어 받았을 때 기분 좋은 웰컴 키트였다”고 말했다. 지난해 말 카카오에 입사한 신입 개발자는 “사원증을 걸고 있는 춘식이 인형이랑 후드집업에 대만족한다”며 “카카오에 입사했다는 실감이 났고 애사심도 올라갔다”고 말했다.■ 신학기 ‘키즈폰’ 시장은 ‘IP 대격돌’입학 선물 시장도 진화를 거듭하고 있다. 컴퓨터가 보급된 2000년대 이후로는 받고 싶은 입학 선물 순위 상단에서 디지털 기기가 빠지지 않고 등장해왔다. 다만 2000~2010년대에 인기 있는 디지털 기기 선물이 핸드폰, 엠피스리(MP3), 어학용 워크맨, 시디(CD)플레이어, 피엠피(PMP·휴대형 멀티미디어 플레이어) 등이었다면 2023년에는 스마트폰, 태블릿피시, 에어팟 등 무선 이어폰 등으로 진화했다.초등학생 신학기 선물용인 ‘키즈폰’ 시장을 둘러싼 이동통신 3사의 경쟁도 치열하다. 신학기를 앞둔 지난 2월1일부터 최근까지 스마트폰 분야의 네이버 쇼핑 검색순위를 보면 ‘키즈폰’이 1위를 차지했고 10위권 내에 키즈폰 관련 키워드가 3개나 들어 있는 것을 확인할 수 있다. 이동통신 3사는 지난 1월 일제히 유명 지식재산권 캐릭터를 접목한 키즈폰 패키지를 출시했다.SKT ‘젬(ZEM) 꾸러기 포켓몬 에디션’‘유플러스 키즈폰 위드(with) 춘식이’‘케이티 신비 키즈폰3’2018년부터 카카오의 지식재산권 캐릭터를 적용한 키즈폰을 출시하고 있는 엘지유플러스(LG U+)는 지난 1월 아동 전용 스마트폰 ‘유플러스 키즈폰 위드(with) 춘식이’를 출시했다. 패키지에는 전용 케이스와 어깨끈, 색칠놀이, 열쇠고리 등의 캐릭터 상품이 포함됐다. 스마트폰에 기본 탑재된 애플리케이션(앱) ‘키위플레이+’를 통해 보호자와 오늘의 기분이나 위치, 칭찬스티커 등을 주고받을 수 있도록 했다.에스케이텔레콤(SKT)은 ‘포켓몬스터’를 선택했다. 지난 1월 출시한 키즈용 스마트폰 ‘젬(ZEM) 꾸러기 포켓몬 에디션’은 여전히 게임과 애니메이션으로 인기를 누리고 있는 포켓몬 디자인의 스마트폰 케이스, 필통 등을 포함했다. 에스케이텔레콤은 별도의 고객 설문과 인터뷰를 진행해 가장 인기가 많았던 포켓몬을 선택했다고 밝혔다. 키즈폰에는 영어 도서 207권이 담긴 교육용 앱과 코딩 앱을 넣었다.키즈폰 시장에 가장 나중에 뛰어든 케이티(KT)는 ‘신비아파트’ 캐릭터를 적용했다. 1월 출시한 ‘케이티 신비 키즈폰3’은 삼성 갤럭시 엑스커버5(XCover5) 단말기와 신비스쿨 케이스, 신비 목걸이, 신비 네임택, 신비 필통꾸미기 세트 등을 포함했다. 또 온라인 공간에서 친구들과 함께 학습하고, 퀴즈를 풀 수 있는 ‘신비스쿨’ 앱을 새로 추가했다. ■ 쑥쑥 크는 ‘선물하기’ 시장온라인으로 축하 인사와 함께 가볍게 선물을 주고받을 수 있는 ‘선물하기 플랫폼’ 시장도 계속 성장하고 있다. 특히 개인뿐 아니라 기업이 직원이나 거래처에 보내는 ‘선물하기’ 서비스도 기능을 개선하며 시장을 넓히고 있다. 카카오톡의 ‘선물하기’를 포함하는 ‘톡비즈 매출’은 2020년 1조1490억원에서 2022년 1조9017억원으로 증가했다. 카카오톡의 기업용 서비스인 ‘카카오톡 선물하기 포 비즈(for Biz)’도 지난해 거래액이 전년 대비 230% 증가했고, 고객사는 2021년 말 대비 167% 늘어났다. 지난해 기업용 ‘카카오톡 선물하기’를 통해 임직원의 기념일을 축하하기 위해 선물을 보낸 기업은 1천곳이 넘는 것으로 집계됐다. 최근에는 호텔업계에서 선물 플랫폼을 위한 ‘호텔 예약 상품권’을 출시해 카카오톡을 통해 ‘호캉스’를 선물할 수 있게 됐고, 기업 복지제도를 대행하는 국내 1위 복지몰 전문 업체 현대이지웰도 선물하기 서비스를 출시했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023.03.02.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>미버스랩스, 해치랩스와 메인넷 연동…'편리한 이용환경 구축'</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002143482?sid=105</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>[디지털데일리 박세아 기자] 미투젠 자회사 미버스랩스는  블록체인 솔루션 IT기업 '해치랩스'와 업무 협약을 맺고 메인넷 연동 절차를 완료했다고 2일 밝혔다.   해치랩스는 블록체인 게임 기업들을 대상으로 비수탁형 싱글사인온 블록체인 지갑 '페이스 월렛', 법인용 가상자산 수탁 솔루션 '헤네시스', 스마트 컨트랙트 보안 감사 서비스 '칼로스 보안감사'를 운영하고 있다. 이중 가장 최근에 런칭한 페이스 월렛은 폴리곤·솔라나·BNB·니어프로토콜·앱토스·아발란체 등 글로벌 메인넷 공식 지갑 파트너로 선정된 블록체인 지갑이다.   페이스 월렛은 메타마스크와 같은 기존 지갑이 일반 사용자들 관점에서 사용하기 어려운 부분들을 개선해 별도 지갑 설치없이 소셜 계정으로 이용이 가능하다. 6자리 비밀번호로 이용할 수 있으며 휴대전화 인증만으로도 계정 복구가 가능한 서비스다.   이번 업무협약으로 미버스는 해치랩스 서비스에 메인넷을 연동해 해치랩스 '페이스 월렛'이 MEV와 미버스 기반 가상자산을 지원하고, 보안 감사 서비스 칼로스에 미버스 기반 디앱(DApp) 보안 감사를 위탁할 수 있게 됐다. 또한, 법인용 가상자산 관리 솔루션인 헤네시스가 MEV와 미버스 기반 가상자산을 보관할 수 있도록 할 계획이다.   미버스랩스 홍종호 대표는 "이번 해치랩스와 협업을 통해 미버스 이용자들이 조금 더 편한 환경속에서 다양한 서비스를 이용해 갈 수 있도록 최선을 다할 것"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023.03.01.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>하나·NH농협, 지난해 하반기 금리 인하폭 5대 은행 중 최대</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000899725?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>서울 시내 한 은행 영업점 대출창구 모습./사진=뉴스1 은행권이 고객들의 금리인하요구권을 수용해 실제로 금리를 얼마나 내렸는지를 공시하기 시작한 가운데 지난해 하반기 5대 시중은행 가운데 금리 인하 폭이 가장 큰 곳은 하나은행과 NH농협은행으로 나타났다.1일 은행권에 따르면 지난해 하반기 기준 가계·기업대출의 금리인하요구권 수용에  따른 평균 금리 인하 폭을 보면 하나은행과 NH농협은행이 0.40%포인트로 5대 은행 중 가장 큰 것으로 나타났다.이어 신한은행과 KB국민은행이 0.20%포인트, 우리은행이 0.12%포인트 등의 순으로 나타났다.금리인하요구권은 대출자의 재산 또는 소득이 늘거나 신용평점이 상승하는 등 신용 상태가 개선됐을 때 대출자가 금융회사에 금리 인하를 요구할 수 있는 권리를 말한다.인터넷전문은행 중 금리인하요구권에 따른 인하 폭이 가장 큰 곳은 토스뱅크(0.70%포인트)였다. 이어 케이뱅크 0.44%포인트, 카카오뱅크 0.30%포인트 순으로 집계됐다.지방은행에선 제주은행이 0.90%포인트의 금리를 내려 인하 폭이 가장 컸고 DGB대구은행과 전북은행, BNK경남은행 모두 0.70%포인트 를 기록했다.이날 추가된 공시 항목에는 금리 인하 폭과 함께 비대면 신청률도 포함됐다. 금리인하요구권 신청 시 직접 은행 창구를 방문하는 대면 방식과 온라인 플랫폼을 활용한 비대면 방식으로 할 때 차이를 알 수 있도록 한 것이다.그동안 금리인하요구권 공시는 신청 건수, 수용 건수, 이자 감면액, 수용률 등 단순 신청 건수 위주의 수용률 공시에 그쳤다.5대 시중은행 가운데 금리인하요구권 비대면 신청률이 가장 높은 곳은 하나은행으로 99.1%에 달했고 신한은행과 우리은행이 99.0%, NH농협은행 92.3% 등으로 은행 4곳은 90%대 선을 훌쩍 넘었지만 KB국민은행은 87.0%로 비대면 신청률이 가장 낮았다.금리인하요구권 수용에 따른 이자감면액이 가장 많은 곳은 5대 은행 가운데 신한은행으로 62억4700만원으로 집계됐다.이어 ▲우리은행(37억4800만원) ▲하나은행(28억2900만원) ▲NH농협은행(11억5400만원) ▲KB국민은행(7억3100만원) 순으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023.03.10.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>'짜장면 배달'만큼 빨리 온다는 토스 알뜰폰의 허상</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/665/0000000591?sid=105</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>알뜰하지 않은 알뜰폰❶서비스 확대한 토스모바일경쟁자 등장에 알뜰폰 시장 술렁저렴하지 않은 요금제 론칭 대신 빠른 유심 배송 내세워 알뜰폰답지 않은 알뜰폰 왜 내놨나# 잠잠하던 알뜰폰 시장이 술렁이고 있다. 정부의 통신비 인하 압박에 지난 1월 알뜰폰 사업을 본격 시작한 토스가 이슈의 중심에 섰다. 시장에선 토스가 알뜰폰 시장에 새 바람을 일으킬 것이란 기대감이 감돌았다. # 하지만 벌써부터 회의론이 나돈다. 숱한 대기업이 그랬듯, 토스 역시 별다른 활력을 불어넣지 못할 것이란 비관적 전망이 제기된다. 이유는 토스의 전략이 좀 이상해서다. # 토스는 알뜰폰답지 않은 요금제를 론칭하면서 평균 17분(서울과 수도권 기준) 만에 유심(USIM)을 받을 수 있다는 걸 강점으로 내세웠다. 한편에선 이를 '짜장면 배달보다 빠른 배송'이라고 치켜세웠지만, 소비자의 반응은 냉랭하기만 하다.  '유심이 빨리 배송되면 무엇이 달라지느냐'는 거다. 토스는 과연 알뜰폰 업계의 기대를 충족할 수 있을까. 더스쿠프가 토스 알뜰폰의 민낯을 취재했다. 그 첫번째 편이다.   토스가 운영하는 토스모바일이 지난 1월 30일 알뜰폰 시장에 본격적으로 진출했다.[사진=뉴시스] "메기의 출연이냐, 또다른 포식자의 등장이냐." 알뜰폰 업계의 이목이 새로운 사업자의 움직임에 쏠리고 있다. 주인공은 토스모바일이다. 지난해 7월 알뜰폰 사업자인 머천드코리아를 인수한 토스는 본격적인 세력 확장에 나섰다. 토스모바일은 지난 1월 30일 4종의 알뜰폰 요금제를 출시했고, 2월 22일부터 가입 대상을 전국으로 확대한다고 밝혔다. 이를 위해 배달 플랫폼 바로고와 배달대행 계약을 체결했다. 휴대전화 개통에 필요한 유심(USIM)을 고객에게 빠르게 배달하기 위해서다. 토스모바일이 유심을 받기까지 17분이 걸린다고 홍보하는 것도 이 부분이다. 토스모바일은 출시 전부터 소비자의 관심을 한몸에 받았다. 미사용 데이터 캐시백, 24시간 고객센터 운영, 토스페이 결제 시 캐시백 제공, 간편하고 빠른 개통 등이 강점으로 꼽히면서 사전 예약에만 17만명이 몰렸다. 여기에 최근 불거진 이동통신3사의 과점 체제 논란도 토스모바일을 향한 시장의 관심을 키우는 요인으로 작용했다. 이통3사 과점 논란에 불씨를 붙인 건 정부였다. 윤석열 대통령은 지난 2월 15일 열린 제13차 비상경제민생회의에서 "통신·금융 분야는 공공재적 성격이 강하고 과점 형태를 유지하는 정부 특허 사업"이라며 "서민 가계에 큰 영향을 미치는 만큼 물가 안정을 위한 고통 분담에 자발적으로 참여할 필요가 있다"고 말했다. 2월 23일 국무회의에선 "금융·통신분야 독과점 폐해를 줄이기 위해 실질 경쟁 시스템을 강화해야 한다"며 "관계 부처는 시장의 효율성과 국민 후생을 높일 수 있도록 제도 개선 방안을 찾아 추진해달라"고 주문했다. 이후에도 "국민을 고통에 빠뜨리는 기득권 카르텔을 확실하게 뿌리 뽑아야 한다"며 압박 수위를 높였다. 자연스럽게 시장의 관심은 토스모바일이 불러올 파급력으로 쏠렸다. 토스는 가입자가 2400만명에 달하고, 월간활성사용자(M AU)는 금융플랫폼 1위 사업자(1400만명)였기 때문이다(모바일인덱스·지난해 6월 기준). 토스모바일이 알뜰폰 시장의 판도를 바꿀 것이란 시장의 기대는 이뤄질 수 있을까. ■ 불편한 숫자와 잊힌 취지 = 우선 알뜰폰 시장을 살펴보자. 2010년 도입한 알뜰폰의 취지는 이통3사가 과점하고 있는 시장을 개선하고, 통신비 부담을 낮추는 것이었다. 가입자 수는 지난해 8월 1200만명을 넘어섰고, 올해 1월 1306만2190명을 기록하며 가입자 1300만명을 돌파했다.고물가의 영향으로 통신비 부담이 높아진 데다 실용성을 추구하는 MZ세대가 알뜰폰을 선택하면서 가입자가 가파르게 증가했다. 알뜰폰은 이렇게 외형적 성장엔 성공했지만 취지를 달성했는지는 의문이다.토스가 알뜰폰 시장에 진출했지만 요금제가 비싸다는 비판을 받고 있다.[사진=연합뉴스]  박완주 의원(더불어민주당)이 과학기술정보통신부에서 받은 자료에 따르면, 2019년 35.0%였던 이통3사 자회사의 알뜰폰 시장점유율은 지난해 51.0%로 높아졌다. 반면, 62.0%였던 중소 알뜰폰 업체의 시장점유율은 41.0%로 떨어졌다. 알뜰폰 시장에서도 '이통3사'의 영향력이 커졌다는 거다. 그렇다고 이통3사의 힘을 줄이려는 노력을 쏟지 않은 것도 아니다. 국내 굴지의 유통업체 홈플러스와 이마트가 2013년 3월과 10월 알뜰폰 시장에 진출했지만 각각 4년, 7년 만에 발을 뺐다. 호기롭게 알뜰폰 시장에 도전했지만 이통3사의 물량 공세를 버텨내지 못했다. 2019년엔 KB국민은행이 알뜰폰 서비스 '리브엠'을 출시하며 새로운 활력을 불어넣을 것이란 기대를 한몸에 받았다. 모바일뱅킹 사용자가 늘어나면서 금융과 통신서비스의 결합이 시너지를 얻을 수 있다는 이유였다. 처음엔 알뜰폰 업계도 KB국민은행의 진출을 반겼다. 거대 금융자본을 우군으로 얻으면 이통3사와의 협상력이 높아질 거란 계산이었다. 하지만 기대가 실망으로 바뀌는 덴 오랜 시간이 걸리지 않았다. 리브엠은 알뜰폰 시장과의 상생보단 이통3사가 걸었던 길을 선택했다. 지나치게 낮은 요금제와 물량 공세로 중소 알뜰폰 업체의 고객 이탈을 부추겼다. 일례로, 2019년 21만4084명이었던 대기업·빅테크 알뜰폰 업체 가입자 수는 지난해 56만1687명으로 증가했다. 같은 기간 중소 알뜰폰 사업자의 가입자 수는 426만4319명에서 294만4189명으로 30.9% 감소했다. 리브엠이 알뜰폰 시장의 또다른 포식자였다는 얘기다.지난해 중소 알뜰폰 업체들이 리브엠을 향해 "과도하게 원가 이하의 요금제를 판매해 다수 사업자를 어렵게 만들고 있다"고 비판한 이유도 여기에 있다. 문제는 토스모바일도 리브엠의 전철을 밟을 가능성이 높다는 점이다. 경쟁력 강화와 상생보다는 고객 서비스나 고객 유치용으로 알뜰폰을 사용할 공산이 커서다. 중소 알뜰폰 업체의 한 관계자는 "막강한 자본력을 바탕으로 한 파격적인 요금제와 사은품으로 고객을 유치할 게 뻔하다"며 "이통3사 자회사와의 경쟁도 버거운 중소 알뜰폰 업체에 이를 막을 방법은 없다"고 토로했다. 이런 우려는 토스의 비즈니스 모델과도 맞닿아 있다. 토스는 저렴한 요금 대신 빠른 유심 배송을 강점으로 내세웠다. [일러스트=토스 제공]■ 금융과 알뜰폰의 동상이몽 = 토스는 슈퍼앱 전략을 중심에 놓고 사업을 펼치고 있다. 하나의 앱에서 뱅킹·증권·보험 등 모든 서비스를 경험하게 한다는 건데, 여기에 알뜰폰까지 있으면 시너지 효과는 더 커질 게 뻔하다. 실제로 요즘 소비자는 스마트폰으로 뱅킹·결제 등 대부분의 금융생활을 한다. 알뜰폰 고객을 토스로 끌어들이면 다양한 서비스를 더 원활하게 제공할 수 있다. 일종의 락인(Lock-in) 효과를 기대할 수 있다는 얘기다. 알뜰폰을 사용하는 주요 고객층이 2030세대라는 걸 감안하면 잠재적인 고객을 확보하는 데도 유리하다. 금융업계 관계자는 "소비자는 은행 업무는 물론 대부분의 금융 활동을 스마트폰을 통해 진행한다"면서 "토스모바일에 가입한 고객이 토스뱅크를 통해 이체나 결제, 상품 가입 등의 금융활동을 하면 앱 이용량이 늘어날 게 뻔하다"고 말했다. 그는 "이는 잠재적인 고객을 확보하고 유형을 파악하는 데이터가 될 것"이라며 "알뜰폰 가입자 증가→토스 고객 유치→토스 앱 이용량 증가→주요 상품·서비스 가입 증가로 이어지는 효과를 기대할 것"이라고 예상했다.  문제는 이런 전략이 알뜰폰 업계에 긍정적인 영향을 미치기 힘들다는 점이다. 목적이 알뜰폰 시장의 성장이 아닌 다른 곳에 있다면 알뜰폰 시장의 변화를 꾀하긴 힘들다. 토스모바일이 이통사 요금제보다 조금 낮은 가격에 파는 '단순 재판매 업체'에 머물 가능성이 높다는 것이다. 실제로 토스모바일은 론칭 초기 알뜰폰의 취지에 걸맞은 저렴한 요금제를 내놓지 않았다. 토스의 무제한 100GB 요금제는 비슷한 양의 데이터를 제공하는 이통3사 요금제보다도 비싸다. 대신 토스가 내세운 건 새로운 경험이다. 간편한 가입 과정과 빠른 유심 배송으로 번거로움을 해소했다는 데 초점을 맞췄다. 서울과 수도권의 경우 유심을 배송받는 데 평균 17분이 걸렸다는 걸 강조하는 것도 이런 이유다.하지만 이를 두고 비판의 목소리가 거세지고 있다. 가격 경쟁력을 내세워야 할 알뜰폰이 배송 시간에만 신경을 썼다는 것이다. 요금제가 비싼데 빠른 배송이 무슨 의미가 있느냐는 거다.[※참고: 토스모바일의 요금제 문제는 커버 파트2에서 자세하게 다뤘다. 가령, 토스모바일 100GB 요금제의 데이터를 모두 사용하면 월 5만4800원의 요금이 발생한다. 이는 선택약정 할인을 받은 이통사의 요금 4만4250원(데이터 110GB 기준)보다 비싸다.] 익명을 원한 알뜰폰 업계 관계자는 "토스는 기존 알뜰폰 업체와 경쟁을 벌이기보다 이용자의 편의성을 높이려 (알뜰폰) 시장에 뛰어든 것으로 보인다"면서 "사업의 중심이 알뜰폰이 아닌 토스 금융서비스의 확대에 맞춰져 있는 것 같다"고 꼬집었다. 토스모바일은 숱한 논란을 이겨내고 알뜰폰 시장에 활력을 불어넣을 수 있을까. 강서구 더스쿠프 기자 ksg@thescoop.co.kr</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
